--- a/Casos Cartera/MenuFavorios.xlsx
+++ b/Casos Cartera/MenuFavorios.xlsx
@@ -5,36 +5,33 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ManuelV\Documents\GitHub\Global-Testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ManuelV\Documents\GitHub\Global-Testing\Casos Cartera\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" tabRatio="787" firstSheet="5" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" tabRatio="787" activeTab="9"/>
   </bookViews>
   <sheets>
-    <sheet name="Trabajar con remesas" sheetId="15" r:id="rId1"/>
-    <sheet name="ID Operación (TCR)" sheetId="38" r:id="rId2"/>
-    <sheet name="Asignación ejecutivos" sheetId="16" r:id="rId3"/>
-    <sheet name="Centralización Cheques" sheetId="18" r:id="rId4"/>
-    <sheet name="Centralización Créditos Nuevos" sheetId="17" r:id="rId5"/>
-    <sheet name="Centralización Mensual" sheetId="19" r:id="rId6"/>
-    <sheet name="Centralización Recaudaciones" sheetId="20" r:id="rId7"/>
-    <sheet name="Selección de créditos (afianza)" sheetId="21" r:id="rId8"/>
-    <sheet name="Generación XML (afianza)" sheetId="22" r:id="rId9"/>
-    <sheet name="Liquidación seguro cesantía" sheetId="23" r:id="rId10"/>
-    <sheet name="Liquidacición seguro desgravame" sheetId="24" r:id="rId11"/>
-    <sheet name="Generar Archivo SBIF D92" sheetId="25" r:id="rId12"/>
-    <sheet name="Generar Archivo SBIF D93" sheetId="26" r:id="rId13"/>
+    <sheet name="Créditos" sheetId="15" r:id="rId1"/>
+    <sheet name="Nueva Recaudación" sheetId="38" r:id="rId2"/>
+    <sheet name="Recaudaciones" sheetId="16" r:id="rId3"/>
+    <sheet name="  Asignaciones" sheetId="18" r:id="rId4"/>
+    <sheet name="Gestiones Diarias" sheetId="17" r:id="rId5"/>
+    <sheet name="Cheques" sheetId="19" r:id="rId6"/>
+    <sheet name="Generar Prepago" sheetId="20" r:id="rId7"/>
+    <sheet name="Pagarés" sheetId="21" r:id="rId8"/>
+    <sheet name="Activos Vehículos" sheetId="22" r:id="rId9"/>
+    <sheet name="Administración Medios de Pago " sheetId="23" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Trabajar con remesas'!$A$2:$O$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Créditos!$A$2:$O$50</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="312">
   <si>
     <t>Nombre CP</t>
   </si>
@@ -365,9 +362,6 @@
     <t>Tarjeta</t>
   </si>
   <si>
-    <t>Descripcion</t>
-  </si>
-  <si>
     <t>Concepto</t>
   </si>
   <si>
@@ -379,19 +373,6 @@
 Otros</t>
   </si>
   <si>
-    <t>Segmentos</t>
-  </si>
-  <si>
-    <t>Sub Estados CAV</t>
-  </si>
-  <si>
-    <t>Sub Estados
-Tipos</t>
-  </si>
-  <si>
-    <t>Bien Descripcion</t>
-  </si>
-  <si>
     <t>TC_Cartera_Empresa_ConsolidadoError</t>
   </si>
   <si>
@@ -449,151 +430,6 @@
     <t>TC_Cartera_Recaudacion_Modificar</t>
   </si>
   <si>
-    <t>TC_Cartera_Segmentos_AgregarDescripcion</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Segmentos_AgregarEnlaceModificar</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Segmentos_AgregarExportarExcel</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Segmentos_Agregar</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Segmentos_EliminarConsulta</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Segmentos_EliminarDescripcion</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Segmentos_EliminarSinExportarExcel</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Segmentos_EliminarExportarExcel</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Segmentos_Eliminar</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Segmentos_ModificarConsulta</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Segmentos_ModificarEnlace</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Segmentos_ModificarDescripcion</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Segmentos_ModificarExportarExcel</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Segmentos_Modificar</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Segmentos_ConsolidadoError</t>
-  </si>
-  <si>
-    <t>TC_Cartera_SEstadosCAV_AgregarConsulta</t>
-  </si>
-  <si>
-    <t>TC_Cartera_SEstadosCAV_AgregarDescripcion</t>
-  </si>
-  <si>
-    <t>TC_Cartera_SEstadosCAV_AgregarEnlaceModificar</t>
-  </si>
-  <si>
-    <t>TC_Cartera_SEstadosCAV_AgregarExportarExcel</t>
-  </si>
-  <si>
-    <t>TC_Cartera_SEstadosCAV_Agregar</t>
-  </si>
-  <si>
-    <t>TC_Cartera_SEstadosCAV_EliminarConsulta</t>
-  </si>
-  <si>
-    <t>TC_Cartera_SEstadosCAV_EliminarDescripcion</t>
-  </si>
-  <si>
-    <t>TC_Cartera_SEstadosCAV_EliminarSinExportarExcel</t>
-  </si>
-  <si>
-    <t>TC_Cartera_SEstadosCAV_EliminarExportarExcel</t>
-  </si>
-  <si>
-    <t>TC_Cartera_SEstadosCAV_Eliminar</t>
-  </si>
-  <si>
-    <t>TC_Cartera_SEstadosCAV_ModificarConsulta</t>
-  </si>
-  <si>
-    <t>TC_Cartera_SEstadosCAV_ModificarEnlace</t>
-  </si>
-  <si>
-    <t>TC_Cartera_SEstadosCAV_ModificarDescripcion</t>
-  </si>
-  <si>
-    <t>TC_Cartera_SEstadosCAV_ModificarExportarExcel</t>
-  </si>
-  <si>
-    <t>TC_Cartera_SEstadosCAV_Modificar</t>
-  </si>
-  <si>
-    <t>TC_Cartera_SEstadosCAV_ConsolidadoError</t>
-  </si>
-  <si>
-    <t>TC_Cartera_TipoBien_AgregarConsulta</t>
-  </si>
-  <si>
-    <t>TC_Cartera_TipoBien_AgregarDescripcion</t>
-  </si>
-  <si>
-    <t>TC_Cartera_TipoBien_AgregarEnlaceModificar</t>
-  </si>
-  <si>
-    <t>TC_Cartera_TipoBien_AgregarExportarExcel</t>
-  </si>
-  <si>
-    <t>TC_Cartera_TipoBien_Agregar</t>
-  </si>
-  <si>
-    <t>TC_Cartera_TipoBien_EliminarConsulta</t>
-  </si>
-  <si>
-    <t>TC_Cartera_TipoBien_EliminarDescripcion</t>
-  </si>
-  <si>
-    <t>TC_Cartera_TipoBien_EliminarSinExportarExcel</t>
-  </si>
-  <si>
-    <t>TC_Cartera_TipoBien_EliminarExportarExcel</t>
-  </si>
-  <si>
-    <t>TC_Cartera_TipoBien_Eliminar</t>
-  </si>
-  <si>
-    <t>TC_Cartera_TipoBien_ModificarConsulta</t>
-  </si>
-  <si>
-    <t>TC_Cartera_TipoBien_ModificarEnlace</t>
-  </si>
-  <si>
-    <t>TC_Cartera_TipoBien_ModificarDescripcion</t>
-  </si>
-  <si>
-    <t>TC_Cartera_TipoBien_ModificarExportarExcel</t>
-  </si>
-  <si>
-    <t>TC_Cartera_TipoBien_Modificar</t>
-  </si>
-  <si>
-    <t>TC_Cartera_TipoBien_ConsolidadoError</t>
-  </si>
-  <si>
-    <t>Bien
-Descripcion</t>
-  </si>
-  <si>
     <t>Sistema debe de emitir mensaje de alerta correspondiente a cada situación</t>
   </si>
   <si>
@@ -628,30 +464,6 @@
   </si>
   <si>
     <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Maestro - sub modulo Recaudacion, hacer clic en boton Agregar, ingresar datos de un registro existente y hacer clic en boton guardar, posterior a ello, intentar realizar registro sin llenar campos obligatorios. Finalizando con la modificación y eliminación de registro en uso.</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Segmentos_AgregarConsulta</t>
-  </si>
-  <si>
-    <t>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Segmentos, ingresando datos de un registro existente, luego de ello, intentar crear registro sin llenar campo obligatorios. Finanlizando, con la modificación y eliminación de registro que está siendo usado en otro modulo.</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Maestro - sub modulo Segmentos, hacer clic en boton Agregar, ingresar datos de un registro existente y hacer clic en boton guardar, posterior a ello, intentar realizar registro sin llenar campos obligatorios. Finalizando con la modificación y eliminación de registro en uso.</t>
-  </si>
-  <si>
-    <t>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Sub Estatos CAV, ingresando datos de un registro existente, luego de ello, intentar crear registro sin llenar campo obligatorios. Finanlizando, con la modificación y eliminación de registro que está siendo usado en otro modulo.</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Maestro - sub modulo Sub Estatos CAV, hacer clic en boton Agregar, ingresar datos de un registro existente y hacer clic en boton guardar, posterior a ello, intentar realizar registro sin llenar campos obligatorios. Finalizando con la modificación y eliminación de registro en uso.</t>
-  </si>
-  <si>
-    <t>TIpo Bien</t>
-  </si>
-  <si>
-    <t>Validar funcionalidad Agregar del modulo Maestro, sub-modulo TIpo Bien, ingresando datos de un registro existente, luego de ello, intentar crear registro sin llenar campo obligatorios. Finanlizando, con la modificación y eliminación de registro que está siendo usado en otro modulo.</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Maestro - sub modulo TIpo Bien, hacer clic en boton Agregar, ingresar datos de un registro existente y hacer clic en boton guardar, posterior a ello, intentar realizar registro sin llenar campos obligatorios. Finalizando con la modificación y eliminación de registro en uso.</t>
   </si>
   <si>
     <t>Remesas</t>
@@ -1426,6 +1238,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1447,18 +1262,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1467,6 +1270,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1482,9 +1297,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1792,7 +1604,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="8" topLeftCell="J1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="H37" sqref="H37"/>
     </sheetView>
@@ -1812,56 +1624,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="43" t="s">
-        <v>204</v>
-      </c>
-      <c r="B1" s="45" t="s">
+      <c r="A1" s="44" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="46" t="s">
-        <v>207</v>
-      </c>
-      <c r="F1" s="46"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="41" t="s">
+      <c r="C1" s="47"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="47" t="s">
+        <v>146</v>
+      </c>
+      <c r="F1" s="47"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="I1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="41" t="s">
+      <c r="J1" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="42" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="14" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
+      <c r="A2" s="45"/>
       <c r="B2" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>205</v>
+        <v>144</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>206</v>
+        <v>145</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>208</v>
+        <v>147</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>209</v>
+        <v>148</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>210</v>
-      </c>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
+        <v>149</v>
+      </c>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -1880,7 +1692,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>235</v>
+        <v>174</v>
       </c>
       <c r="I3" s="12" t="str">
         <f>CONCATENATE("Validar funcionalidad ",IF(B3=1,$B$2,"")," ",IF(C3=1,$C$2,"")," ",IF(D3=1,$D$2,"")," del modulo Procesos, sub-modulo Trabajar con Remesa",IF(E3=1,", considerando la opcion enlace ID pestaña General",IF(F3=1,", considerando la opcion enlace ID pestaña Recaudacion y exportar registro a archivo excel","")))</f>
@@ -1909,7 +1721,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="8"/>
       <c r="H4" s="7" t="s">
-        <v>236</v>
+        <v>175</v>
       </c>
       <c r="I4" s="12" t="str">
         <f t="shared" ref="I4:I12" si="0">CONCATENATE("Validar funcionalidad ",IF(B4=1,$B$2,"")," ",IF(C4=1,$C$2,"")," ",IF(D4=1,$D$2,"")," del modulo Procesos, sub-modulo Trabajar con Remesa",IF(E4=1,", considerando la opcion enlace ID pestaña General",IF(F4=1,", considerando la opcion enlace ID pestaña Recaudacion y exportar registro a archivo excel","")))</f>
@@ -1940,7 +1752,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>237</v>
+        <v>176</v>
       </c>
       <c r="I5" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1951,7 +1763,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en boton   generar archivo PDF , considerando la opcion enlace ID pestaña recaudacion para consultar registro y exportar archivo excel</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>245</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1969,7 +1781,7 @@
       <c r="F6" s="5"/>
       <c r="G6" s="8"/>
       <c r="H6" s="7" t="s">
-        <v>238</v>
+        <v>177</v>
       </c>
       <c r="I6" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1980,7 +1792,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en boton   generar archivo PDF , considerando la opcion enlace ID pestaña general para consultar registro</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>246</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2002,7 +1814,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>239</v>
+        <v>178</v>
       </c>
       <c r="I7" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2034,7 +1846,7 @@
       <c r="F8" s="5"/>
       <c r="G8" s="8"/>
       <c r="H8" s="7" t="s">
-        <v>240</v>
+        <v>179</v>
       </c>
       <c r="I8" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2046,7 +1858,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en boton  agregar para el registro de nuevo registro   depositar remesa, considerando la opcion enlace ID pestaña general para consultar registro</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>247</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2068,7 +1880,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>241</v>
+        <v>180</v>
       </c>
       <c r="I9" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2080,7 +1892,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en boton   generar archivo PDF  depositar remesa, considerando la opcion enlace ID pestaña recaudacion para consultar registro y exportar archivo excel</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>245</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
@@ -2098,7 +1910,7 @@
       <c r="F10" s="25"/>
       <c r="G10" s="24"/>
       <c r="H10" s="7" t="s">
-        <v>242</v>
+        <v>181</v>
       </c>
       <c r="I10" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2110,7 +1922,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en boton   generar archivo PDF  depositar remesa</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>248</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -2134,7 +1946,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>243</v>
+        <v>182</v>
       </c>
       <c r="I11" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2168,7 +1980,7 @@
       <c r="F12" s="5"/>
       <c r="G12" s="8"/>
       <c r="H12" s="7" t="s">
-        <v>244</v>
+        <v>183</v>
       </c>
       <c r="I12" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2443,16 +2255,16 @@
       <c r="F37" s="5"/>
       <c r="G37" s="8"/>
       <c r="H37" s="7" t="s">
-        <v>249</v>
+        <v>188</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>250</v>
+        <v>189</v>
       </c>
       <c r="J37" s="32" t="s">
-        <v>251</v>
+        <v>190</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>184</v>
+        <v>131</v>
       </c>
     </row>
     <row r="38" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2600,7 +2412,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="11" topLeftCell="L1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="A3" sqref="A3:A17"/>
     </sheetView>
@@ -2623,41 +2435,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="59" t="s">
-        <v>112</v>
-      </c>
-      <c r="B1" s="45" t="s">
+      <c r="A1" s="60" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="41" t="s">
+      <c r="C1" s="47"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="49" t="s">
-        <v>110</v>
-      </c>
-      <c r="G1" s="47"/>
-      <c r="H1" s="55" t="s">
+      <c r="F1" s="55" t="s">
+        <v>109</v>
+      </c>
+      <c r="G1" s="48"/>
+      <c r="H1" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="56"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="41" t="s">
+      <c r="I1" s="57"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="41" t="s">
+      <c r="L1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="N1" s="41" t="s">
+      <c r="M1" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="42" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
+      <c r="A2" s="45"/>
       <c r="B2" s="19" t="s">
         <v>5</v>
       </c>
@@ -2667,7 +2479,7 @@
       <c r="D2" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="42"/>
+      <c r="E2" s="43"/>
       <c r="F2" s="19" t="s">
         <v>7</v>
       </c>
@@ -2675,18 +2487,18 @@
         <v>6</v>
       </c>
       <c r="H2" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="I2" s="22" t="s">
         <v>110</v>
-      </c>
-      <c r="I2" s="22" t="s">
-        <v>111</v>
       </c>
       <c r="J2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -2712,7 +2524,7 @@
         <v>12</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="L3" s="12" t="str">
         <f>CONCATENATE("Validar funcionalidad ",IF(B3=1,$B$2,IF(C3=1,$C$2,IF(D3=1,$D$2)))," del modulo Maestro, sub-modulo Recaudacion",IF(E3=1,", considerando la opcion exportar a excel",""),IF(F3=1,", hacer clic en enlace concepto para modificar registro",IF(G3=1,", hacer clic en enlace concepto para eliminar registro","")),IF(H3=1,", finalizando con la consulta mediante el filtro ",""),IF(H3=1,$H$2,""),IF(H3=1," con el dato ",""),IF(H3=1,J3,""))</f>
@@ -2750,7 +2562,7 @@
         <v>10</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="L4" s="12" t="str">
         <f t="shared" ref="L4:L17" si="0">CONCATENATE("Validar funcionalidad ",IF(B4=1,$B$2,IF(C4=1,$C$2,IF(D4=1,$D$2)))," del modulo Maestro, sub-modulo Recaudacion",IF(E4=1,", considerando la opcion exportar a excel",""),IF(F4=1,", hacer clic en enlace concepto para modificar registro",IF(G4=1,", hacer clic en enlace concepto para eliminar registro","")),IF(H4=1,", finalizando con la consulta mediante el filtro ",""),IF(H4=1,$H$2,""),IF(H4=1," con el dato ",""),IF(H4=1,J4,""))</f>
@@ -2782,7 +2594,7 @@
       <c r="I5" s="9"/>
       <c r="J5" s="10"/>
       <c r="K5" s="7" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="L5" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2816,7 +2628,7 @@
       <c r="I6" s="9"/>
       <c r="J6" s="10"/>
       <c r="K6" s="7" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="L6" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2846,7 +2658,7 @@
       <c r="I7" s="9"/>
       <c r="J7" s="10"/>
       <c r="K7" s="7" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="L7" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2883,7 +2695,7 @@
         <v>30</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="L8" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2920,7 +2732,7 @@
         <v>5</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="L9" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2950,7 +2762,7 @@
       <c r="I10" s="9"/>
       <c r="J10" s="10"/>
       <c r="K10" s="7" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L10" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2983,7 +2795,7 @@
       <c r="I11" s="9"/>
       <c r="J11" s="10"/>
       <c r="K11" s="7" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="L11" s="12" t="str">
         <f t="shared" si="0"/>
@@ -3011,7 +2823,7 @@
       <c r="I12" s="9"/>
       <c r="J12" s="10"/>
       <c r="K12" s="7" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="L12" s="12" t="str">
         <f t="shared" si="0"/>
@@ -3047,7 +2859,7 @@
         <v>2</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="L13" s="12" t="str">
         <f t="shared" si="0"/>
@@ -3083,7 +2895,7 @@
         <v>3</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="L14" s="12" t="str">
         <f t="shared" si="0"/>
@@ -3112,7 +2924,7 @@
       <c r="I15" s="9"/>
       <c r="J15" s="20"/>
       <c r="K15" s="7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="L15" s="12" t="str">
         <f t="shared" si="0"/>
@@ -3144,7 +2956,7 @@
       <c r="I16" s="9"/>
       <c r="J16" s="10"/>
       <c r="K16" s="7" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="L16" s="12" t="str">
         <f t="shared" si="0"/>
@@ -3171,7 +2983,7 @@
       <c r="I17" s="9"/>
       <c r="J17" s="10"/>
       <c r="K17" s="7" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="L17" s="12" t="str">
         <f t="shared" si="0"/>
@@ -3256,16 +3068,16 @@
       <c r="I22" s="9"/>
       <c r="J22" s="10"/>
       <c r="K22" s="7" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="L22" s="12" t="s">
-        <v>194</v>
+        <v>141</v>
       </c>
       <c r="M22" s="32" t="s">
-        <v>195</v>
+        <v>142</v>
       </c>
       <c r="N22" s="7" t="s">
-        <v>184</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3634,3022 +3446,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M50"/>
-  <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="10" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K21" sqref="K21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="7.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="5" customWidth="1"/>
-    <col min="3" max="3" width="4.85546875" style="13" customWidth="1"/>
-    <col min="4" max="4" width="5.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" style="16" customWidth="1"/>
-    <col min="6" max="6" width="4.42578125" customWidth="1"/>
-    <col min="7" max="7" width="6.5703125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="4.85546875" style="11" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="51.7109375" style="6" customWidth="1"/>
-    <col min="11" max="11" width="255.42578125" style="12" customWidth="1"/>
-    <col min="12" max="12" width="255.42578125" style="7" customWidth="1"/>
-    <col min="13" max="13" width="79" style="7" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="59" t="s">
-        <v>113</v>
-      </c>
-      <c r="B1" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="49" t="s">
-        <v>109</v>
-      </c>
-      <c r="G1" s="47"/>
-      <c r="H1" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="57"/>
-      <c r="J1" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="41" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
-      <c r="B2" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="42"/>
-      <c r="F2" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-    </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="16">
-        <v>1</v>
-      </c>
-      <c r="F3" s="5">
-        <v>1</v>
-      </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="9">
-        <v>1</v>
-      </c>
-      <c r="I3" s="21">
-        <v>12</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="K3" s="12" t="str">
-        <f t="shared" ref="K3:K17" si="0">CONCATENATE("Validar funcionalidad ",IF(B3=1,$B$2,IF(C3=1,$C$2,IF(D3=1,$D$2)))," del modulo Maestro, sub-modulo Segmentos",IF(E3=1,", considerando la opcion exportar a excel",""),IF(F3=1,", hacer clic en enlace Descripción para modificar registro",IF(G3=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H3=1,", finalizando con la consulta mediante el filtro ",""),IF(H3=1,$H$2,""),IF(H3=1," con el dato ",""),IF(H3=1,I3,""))</f>
-        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Segmentos, considerando la opcion exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Descripción con el dato 12</v>
-      </c>
-      <c r="L3" s="12" t="str">
-        <f t="shared" ref="L3:L17" si="1">CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos",IF(B3=1,", hacer clic en boton agregar",IF(C3=1,", hacer clic en boton eliminar",IF(D3=1,", hacer clic en boton modificar"))),IF(E3=1,", hacer clic en boton exportar a excel",""),IF(F3=1,", hacer clic en enlace Descripción para modificar registro",IF(G3=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H3=1,", finalizando con la consulta mediante el filtro ",""),IF(H3=1,$H$2,""),IF(H3=1," con el dato ",""),IF(H3=1,I3,""))</f>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Descripción con el dato 12</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="16">
-        <v>1</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="8">
-        <v>1</v>
-      </c>
-      <c r="H4" s="9">
-        <v>1</v>
-      </c>
-      <c r="I4" s="10">
-        <v>10</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="K4" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Segmentos, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Descripción con el dato 10</v>
-      </c>
-      <c r="L4" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Descripción con el dato 10</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <v>1</v>
-      </c>
-      <c r="B5" s="5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="5">
-        <v>1</v>
-      </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="K5" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Segmentos, hacer clic en enlace Descripción para modificar registro</v>
-      </c>
-      <c r="L5" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton agregar, hacer clic en enlace Descripción para modificar registro</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>1</v>
-      </c>
-      <c r="B6" s="5">
-        <v>1</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="16">
-        <v>1</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="8">
-        <v>1</v>
-      </c>
-      <c r="H6" s="9"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="K6" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Segmentos, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
-      </c>
-      <c r="L6" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <v>1</v>
-      </c>
-      <c r="B7" s="5">
-        <v>1</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="K7" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Segmentos</v>
-      </c>
-      <c r="L7" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton agregar</v>
-      </c>
-      <c r="M7" s="27" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <v>1</v>
-      </c>
-      <c r="C8" s="5">
-        <v>1</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="16">
-        <v>1</v>
-      </c>
-      <c r="F8" s="5">
-        <v>1</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9">
-        <v>1</v>
-      </c>
-      <c r="I8" s="21">
-        <v>30</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="K8" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Segmentos, considerando la opcion exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Descripción con el dato 30</v>
-      </c>
-      <c r="L8" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Descripción con el dato 30</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
-        <v>1</v>
-      </c>
-      <c r="C9" s="5">
-        <v>1</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="16">
-        <v>1</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="8">
-        <v>1</v>
-      </c>
-      <c r="H9" s="9">
-        <v>1</v>
-      </c>
-      <c r="I9" s="10">
-        <v>5</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="K9" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Segmentos, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Descripción con el dato 5</v>
-      </c>
-      <c r="L9" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Descripción con el dato 5</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <v>1</v>
-      </c>
-      <c r="C10" s="5">
-        <v>1</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="F10" s="5">
-        <v>1</v>
-      </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="K10" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Segmentos, hacer clic en enlace Descripción para modificar registro</v>
-      </c>
-      <c r="L10" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton eliminar, hacer clic en enlace Descripción para modificar registro</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
-        <v>1</v>
-      </c>
-      <c r="C11" s="5">
-        <v>1</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="16">
-        <v>1</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="8">
-        <v>1</v>
-      </c>
-      <c r="H11" s="9"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="K11" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Segmentos, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
-      </c>
-      <c r="L11" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
-        <v>1</v>
-      </c>
-      <c r="C12" s="5">
-        <v>1</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="K12" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Segmentos</v>
-      </c>
-      <c r="L12" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton eliminar</v>
-      </c>
-      <c r="M12" s="27" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
-        <v>1</v>
-      </c>
-      <c r="D13" s="5">
-        <v>1</v>
-      </c>
-      <c r="E13" s="16">
-        <v>1</v>
-      </c>
-      <c r="F13" s="5">
-        <v>1</v>
-      </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="9">
-        <v>1</v>
-      </c>
-      <c r="I13" s="21">
-        <v>2</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="K13" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Segmentos, considerando la opcion exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Descripción con el dato 2</v>
-      </c>
-      <c r="L13" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Descripción con el dato 2</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
-        <v>1</v>
-      </c>
-      <c r="D14" s="5">
-        <v>1</v>
-      </c>
-      <c r="E14" s="16">
-        <v>1</v>
-      </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="8">
-        <v>1</v>
-      </c>
-      <c r="H14" s="9">
-        <v>1</v>
-      </c>
-      <c r="I14" s="10">
-        <v>3</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="K14" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Segmentos, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Descripción con el dato 3</v>
-      </c>
-      <c r="L14" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Descripción con el dato 3</v>
-      </c>
-      <c r="M14" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
-        <v>1</v>
-      </c>
-      <c r="D15" s="5">
-        <v>1</v>
-      </c>
-      <c r="F15" s="5">
-        <v>1</v>
-      </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="K15" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Segmentos, hacer clic en enlace Descripción para modificar registro</v>
-      </c>
-      <c r="L15" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton modificar, hacer clic en enlace Descripción para modificar registro</v>
-      </c>
-      <c r="M15" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
-        <v>1</v>
-      </c>
-      <c r="D16" s="5">
-        <v>1</v>
-      </c>
-      <c r="E16" s="16">
-        <v>1</v>
-      </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="8">
-        <v>1</v>
-      </c>
-      <c r="H16" s="9"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="K16" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Segmentos, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
-      </c>
-      <c r="L16" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
-      </c>
-      <c r="M16" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
-        <v>1</v>
-      </c>
-      <c r="D17" s="5">
-        <v>1</v>
-      </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="K17" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Segmentos</v>
-      </c>
-      <c r="L17" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton modificar</v>
-      </c>
-      <c r="M17" s="27" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-    </row>
-    <row r="19" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-    </row>
-    <row r="20" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-    </row>
-    <row r="21" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-    </row>
-    <row r="22" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-    </row>
-    <row r="23" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-    </row>
-    <row r="24" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="K24" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="L24" s="32" t="s">
-        <v>198</v>
-      </c>
-      <c r="M24" s="7" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-    </row>
-    <row r="26" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="8"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="7"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="8"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="7"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="8"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="7"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="8"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="7"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="8"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="7"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="8"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="7"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="8"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="7"/>
-    </row>
-    <row r="34" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="8"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
-    </row>
-    <row r="35" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="7"/>
-    </row>
-    <row r="36" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="7"/>
-      <c r="M36" s="7"/>
-    </row>
-    <row r="37" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="8"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="7"/>
-      <c r="M37" s="7"/>
-    </row>
-    <row r="38" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="8"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="7"/>
-      <c r="M38" s="7"/>
-    </row>
-    <row r="39" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="8"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="7"/>
-      <c r="M39" s="7"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="8"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="8"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="7"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="8"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="8"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="7"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="8"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="8"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="7"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="8"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="8"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="7"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="8"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="8"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="7"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="8"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="8"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="7"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="8"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="8"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="7"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="8"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="8"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="7"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="8"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="8"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="7"/>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="8"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="8"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="7"/>
-    </row>
-    <row r="50" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="8"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="7"/>
-      <c r="K50" s="12"/>
-      <c r="L50" s="7"/>
-      <c r="M50" s="7"/>
-    </row>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:J2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N50"/>
-  <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="11" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A3" sqref="A3:A17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="7.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="5" customWidth="1"/>
-    <col min="3" max="3" width="4.85546875" style="13" customWidth="1"/>
-    <col min="4" max="4" width="5.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" style="16" customWidth="1"/>
-    <col min="6" max="6" width="4.42578125" customWidth="1"/>
-    <col min="7" max="7" width="5.5703125" style="3" customWidth="1"/>
-    <col min="8" max="9" width="4.85546875" style="11" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="51.7109375" style="6" customWidth="1"/>
-    <col min="12" max="12" width="255.42578125" style="12" customWidth="1"/>
-    <col min="13" max="13" width="255.42578125" style="7" customWidth="1"/>
-    <col min="14" max="14" width="79" style="7" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="B1" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="49" t="s">
-        <v>109</v>
-      </c>
-      <c r="G1" s="47"/>
-      <c r="H1" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="56"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="N1" s="41" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
-      <c r="B2" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="42"/>
-      <c r="F2" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="I2" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-    </row>
-    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="16">
-        <v>1</v>
-      </c>
-      <c r="F3" s="5">
-        <v>1</v>
-      </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="9">
-        <v>1</v>
-      </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="21">
-        <v>12</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="L3" s="12" t="str">
-        <f t="shared" ref="L3:L17" si="0">CONCATENATE("Validar funcionalidad ",IF(B3=1,$B$2,IF(C3=1,$C$2,IF(D3=1,$D$2)))," del modulo Maestro, sub-modulo Sub Estatos CAV",IF(E3=1,", considerando la opcion exportar a excel",""),IF(F3=1,", hacer clic en enlace Descripción para modificar registro",IF(G3=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H3=1,", finalizando con la consulta mediante el filtro ",""),IF(H3=1,$H$2,""),IF(H3=1," con el dato ",""),IF(H3=1,J3,""))</f>
-        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Sub Estatos CAV, considerando la opcion exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Descripcion con el dato 12</v>
-      </c>
-      <c r="M3" s="12" t="str">
-        <f t="shared" ref="M3:M17" si="1">CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Sub Estatos CAV",IF(B3=1,", hacer clic en boton agregar",IF(C3=1,", hacer clic en boton eliminar",IF(D3=1,", hacer clic en boton modificar"))),IF(E3=1,", hacer clic en boton exportar a excel",""),IF(F3=1,", hacer clic en enlace Descripción para modificar registro",IF(G3=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H3=1,", finalizando con la consulta mediante el filtro ",""),IF(H3=1,$H$2,""),IF(H3=1," con el dato ",""),IF(H3=1,J3,""))</f>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Sub Estatos CAV, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Descripcion con el dato 12</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="16">
-        <v>1</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="8">
-        <v>1</v>
-      </c>
-      <c r="H4" s="9">
-        <v>1</v>
-      </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="10">
-        <v>10</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="L4" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Sub Estatos CAV, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Descripcion con el dato 10</v>
-      </c>
-      <c r="M4" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Sub Estatos CAV, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Descripcion con el dato 10</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <v>1</v>
-      </c>
-      <c r="B5" s="5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="5">
-        <v>1</v>
-      </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="L5" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Sub Estatos CAV, hacer clic en enlace Descripción para modificar registro</v>
-      </c>
-      <c r="M5" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Sub Estatos CAV, hacer clic en boton agregar, hacer clic en enlace Descripción para modificar registro</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>1</v>
-      </c>
-      <c r="B6" s="5">
-        <v>1</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="16">
-        <v>1</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="8">
-        <v>1</v>
-      </c>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L6" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Sub Estatos CAV, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
-      </c>
-      <c r="M6" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Sub Estatos CAV, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <v>1</v>
-      </c>
-      <c r="B7" s="5">
-        <v>1</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="L7" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Sub Estatos CAV</v>
-      </c>
-      <c r="M7" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Sub Estatos CAV, hacer clic en boton agregar</v>
-      </c>
-      <c r="N7" s="27" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <v>1</v>
-      </c>
-      <c r="C8" s="5">
-        <v>1</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="16">
-        <v>1</v>
-      </c>
-      <c r="F8" s="5">
-        <v>1</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9">
-        <v>1</v>
-      </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="21">
-        <v>30</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L8" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Sub Estatos CAV, considerando la opcion exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Descripcion con el dato 30</v>
-      </c>
-      <c r="M8" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Sub Estatos CAV, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Descripcion con el dato 30</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
-        <v>1</v>
-      </c>
-      <c r="C9" s="5">
-        <v>1</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="16">
-        <v>1</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="8">
-        <v>1</v>
-      </c>
-      <c r="H9" s="9">
-        <v>1</v>
-      </c>
-      <c r="I9" s="9"/>
-      <c r="J9" s="10">
-        <v>5</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="L9" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Sub Estatos CAV, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Descripcion con el dato 5</v>
-      </c>
-      <c r="M9" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Sub Estatos CAV, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Descripcion con el dato 5</v>
-      </c>
-      <c r="N9" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <v>1</v>
-      </c>
-      <c r="C10" s="5">
-        <v>1</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="F10" s="5">
-        <v>1</v>
-      </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="L10" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Sub Estatos CAV, hacer clic en enlace Descripción para modificar registro</v>
-      </c>
-      <c r="M10" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Sub Estatos CAV, hacer clic en boton eliminar, hacer clic en enlace Descripción para modificar registro</v>
-      </c>
-      <c r="N10" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
-        <v>1</v>
-      </c>
-      <c r="C11" s="5">
-        <v>1</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="16">
-        <v>1</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="8">
-        <v>1</v>
-      </c>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L11" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Sub Estatos CAV, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
-      </c>
-      <c r="M11" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Sub Estatos CAV, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
-      </c>
-      <c r="N11" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
-        <v>1</v>
-      </c>
-      <c r="C12" s="5">
-        <v>1</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="L12" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Sub Estatos CAV</v>
-      </c>
-      <c r="M12" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Sub Estatos CAV, hacer clic en boton eliminar</v>
-      </c>
-      <c r="N12" s="27" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
-        <v>1</v>
-      </c>
-      <c r="D13" s="5">
-        <v>1</v>
-      </c>
-      <c r="E13" s="16">
-        <v>1</v>
-      </c>
-      <c r="F13" s="5">
-        <v>1</v>
-      </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="9">
-        <v>1</v>
-      </c>
-      <c r="I13" s="9"/>
-      <c r="J13" s="21">
-        <v>2</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="L13" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Sub Estatos CAV, considerando la opcion exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Descripcion con el dato 2</v>
-      </c>
-      <c r="M13" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Sub Estatos CAV, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Descripcion con el dato 2</v>
-      </c>
-      <c r="N13" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
-        <v>1</v>
-      </c>
-      <c r="D14" s="5">
-        <v>1</v>
-      </c>
-      <c r="E14" s="16">
-        <v>1</v>
-      </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="8">
-        <v>1</v>
-      </c>
-      <c r="H14" s="9">
-        <v>1</v>
-      </c>
-      <c r="I14" s="9"/>
-      <c r="J14" s="10">
-        <v>3</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="L14" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Sub Estatos CAV, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Descripcion con el dato 3</v>
-      </c>
-      <c r="M14" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Sub Estatos CAV, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Descripcion con el dato 3</v>
-      </c>
-      <c r="N14" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
-        <v>1</v>
-      </c>
-      <c r="D15" s="5">
-        <v>1</v>
-      </c>
-      <c r="F15" s="5">
-        <v>1</v>
-      </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="L15" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Sub Estatos CAV, hacer clic en enlace Descripción para modificar registro</v>
-      </c>
-      <c r="M15" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Sub Estatos CAV, hacer clic en boton modificar, hacer clic en enlace Descripción para modificar registro</v>
-      </c>
-      <c r="N15" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
-        <v>1</v>
-      </c>
-      <c r="D16" s="5">
-        <v>1</v>
-      </c>
-      <c r="E16" s="16">
-        <v>1</v>
-      </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="8">
-        <v>1</v>
-      </c>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="L16" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Sub Estatos CAV, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
-      </c>
-      <c r="M16" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Sub Estatos CAV, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
-      </c>
-      <c r="N16" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
-        <v>1</v>
-      </c>
-      <c r="D17" s="5">
-        <v>1</v>
-      </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="L17" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Sub Estatos CAV</v>
-      </c>
-      <c r="M17" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Sub Estatos CAV, hacer clic en boton modificar</v>
-      </c>
-      <c r="N17" s="27" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-    </row>
-    <row r="19" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-    </row>
-    <row r="20" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-    </row>
-    <row r="21" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-    </row>
-    <row r="22" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-    </row>
-    <row r="23" spans="1:14" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L23" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="M23" s="32" t="s">
-        <v>200</v>
-      </c>
-      <c r="N23" s="7" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-    </row>
-    <row r="25" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-    </row>
-    <row r="26" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="8"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="7"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="8"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="7"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="8"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="7"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="8"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="7"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="8"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="7"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="8"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="7"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="8"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="7"/>
-    </row>
-    <row r="34" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="8"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="7"/>
-      <c r="N34" s="7"/>
-    </row>
-    <row r="35" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="7"/>
-      <c r="N35" s="7"/>
-    </row>
-    <row r="36" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="7"/>
-      <c r="N36" s="7"/>
-    </row>
-    <row r="37" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="8"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="7"/>
-      <c r="N37" s="7"/>
-    </row>
-    <row r="38" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="8"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="12"/>
-      <c r="M38" s="7"/>
-      <c r="N38" s="7"/>
-    </row>
-    <row r="39" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="8"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="12"/>
-      <c r="M39" s="7"/>
-      <c r="N39" s="7"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="8"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="8"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="7"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="8"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="8"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="7"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="8"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="8"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="7"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="8"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="8"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="7"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="8"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="8"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="7"/>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="8"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="8"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="7"/>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="8"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="8"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="7"/>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="8"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="8"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="7"/>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="8"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="8"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9"/>
-      <c r="J48" s="10"/>
-      <c r="K48" s="7"/>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="8"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="8"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
-      <c r="J49" s="10"/>
-      <c r="K49" s="7"/>
-    </row>
-    <row r="50" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="8"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
-      <c r="J50" s="10"/>
-      <c r="K50" s="7"/>
-      <c r="L50" s="12"/>
-      <c r="M50" s="7"/>
-      <c r="N50" s="7"/>
-    </row>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:K2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M50"/>
-  <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="10" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A3" sqref="A3:A17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="7.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="5" customWidth="1"/>
-    <col min="3" max="3" width="4.85546875" style="13" customWidth="1"/>
-    <col min="4" max="4" width="5.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" style="16" customWidth="1"/>
-    <col min="6" max="6" width="4.42578125" customWidth="1"/>
-    <col min="7" max="7" width="5.85546875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="4.85546875" style="11" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="51.7109375" style="6" customWidth="1"/>
-    <col min="11" max="11" width="255.42578125" style="12" customWidth="1"/>
-    <col min="12" max="12" width="255.42578125" style="7" customWidth="1"/>
-    <col min="13" max="13" width="79" style="7" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="43" t="s">
-        <v>201</v>
-      </c>
-      <c r="B1" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="49" t="s">
-        <v>183</v>
-      </c>
-      <c r="G1" s="47"/>
-      <c r="H1" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="57"/>
-      <c r="J1" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="41" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
-      <c r="B2" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="42"/>
-      <c r="F2" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="I2" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-    </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="16">
-        <v>1</v>
-      </c>
-      <c r="F3" s="5">
-        <v>1</v>
-      </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="9">
-        <v>1</v>
-      </c>
-      <c r="I3" s="21">
-        <v>12</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="K3" s="12" t="str">
-        <f>CONCATENATE("Validar funcionalidad ",IF(B3=1,$B$2,IF(C3=1,$C$2,IF(D3=1,$D$2)))," del modulo Maestro, sub-modulo TIpo Bien",IF(E3=1,", considerando la opcion exportar a excel",""),IF(F3=1,", hacer clic en enlace Bien Descripción para modificar registro",IF(G3=1,", hacer clic en enlace Bien Descripción para eliminar registro","")),IF(H3=1,", finalizando con la consulta mediante el filtro ",""),IF(H3=1,$H$2,""),IF(H3=1," con el dato ",""),IF(H3=1,I3,""))</f>
-        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo TIpo Bien, considerando la opcion exportar a excel, hacer clic en enlace Bien Descripción para modificar registro, finalizando con la consulta mediante el filtro Bien Descripcion con el dato 12</v>
-      </c>
-      <c r="L3" s="12" t="str">
-        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo TIpo Bien",IF(B3=1,", hacer clic en boton agregar",IF(C3=1,", hacer clic en boton eliminar",IF(D3=1,", hacer clic en boton modificar"))),IF(E3=1,", hacer clic en boton exportar a excel",""),IF(F3=1,", hacer clic en enlace Bien Descripción para modificar registro",IF(G3=1,", hacer clic en enlace Bien Descripción para eliminar registro","")),IF(H3=1,", finalizando con la consulta mediante el filtro ",""),IF(H3=1,$H$2,""),IF(H3=1," con el dato ",""),IF(H3=1,I3,""))</f>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo TIpo Bien, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace Bien Descripción para modificar registro, finalizando con la consulta mediante el filtro Bien Descripcion con el dato 12</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="16">
-        <v>1</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="8">
-        <v>1</v>
-      </c>
-      <c r="H4" s="9">
-        <v>1</v>
-      </c>
-      <c r="I4" s="10">
-        <v>10</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="K4" s="12" t="str">
-        <f t="shared" ref="K4:K17" si="0">CONCATENATE("Validar funcionalidad ",IF(B4=1,$B$2,IF(C4=1,$C$2,IF(D4=1,$D$2)))," del modulo Maestro, sub-modulo TIpo Bien",IF(E4=1,", considerando la opcion exportar a excel",""),IF(F4=1,", hacer clic en enlace Bien Descripción para modificar registro",IF(G4=1,", hacer clic en enlace Bien Descripción para eliminar registro","")),IF(H4=1,", finalizando con la consulta mediante el filtro ",""),IF(H4=1,$H$2,""),IF(H4=1," con el dato ",""),IF(H4=1,I4,""))</f>
-        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo TIpo Bien, considerando la opcion exportar a excel, hacer clic en enlace Bien Descripción para eliminar registro, finalizando con la consulta mediante el filtro Bien Descripcion con el dato 10</v>
-      </c>
-      <c r="L4" s="12" t="str">
-        <f t="shared" ref="L4:L17" si="1">CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo TIpo Bien",IF(B4=1,", hacer clic en boton agregar",IF(C4=1,", hacer clic en boton eliminar",IF(D4=1,", hacer clic en boton modificar"))),IF(E4=1,", hacer clic en boton exportar a excel",""),IF(F4=1,", hacer clic en enlace Bien Descripción para modificar registro",IF(G4=1,", hacer clic en enlace Bien Descripción para eliminar registro","")),IF(H4=1,", finalizando con la consulta mediante el filtro ",""),IF(H4=1,$H$2,""),IF(H4=1," con el dato ",""),IF(H4=1,I4,""))</f>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo TIpo Bien, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace Bien Descripción para eliminar registro, finalizando con la consulta mediante el filtro Bien Descripcion con el dato 10</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <v>1</v>
-      </c>
-      <c r="B5" s="5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="5">
-        <v>1</v>
-      </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="K5" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo TIpo Bien, hacer clic en enlace Bien Descripción para modificar registro</v>
-      </c>
-      <c r="L5" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo TIpo Bien, hacer clic en boton agregar, hacer clic en enlace Bien Descripción para modificar registro</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>1</v>
-      </c>
-      <c r="B6" s="5">
-        <v>1</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="16">
-        <v>1</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="8">
-        <v>1</v>
-      </c>
-      <c r="H6" s="9"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="K6" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo TIpo Bien, considerando la opcion exportar a excel, hacer clic en enlace Bien Descripción para eliminar registro</v>
-      </c>
-      <c r="L6" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo TIpo Bien, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace Bien Descripción para eliminar registro</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <v>1</v>
-      </c>
-      <c r="B7" s="5">
-        <v>1</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="K7" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo TIpo Bien</v>
-      </c>
-      <c r="L7" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo TIpo Bien, hacer clic en boton agregar</v>
-      </c>
-      <c r="M7" s="27" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <v>1</v>
-      </c>
-      <c r="C8" s="5">
-        <v>1</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="16">
-        <v>1</v>
-      </c>
-      <c r="F8" s="5">
-        <v>1</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9">
-        <v>1</v>
-      </c>
-      <c r="I8" s="21">
-        <v>30</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="K8" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo TIpo Bien, considerando la opcion exportar a excel, hacer clic en enlace Bien Descripción para modificar registro, finalizando con la consulta mediante el filtro Bien Descripcion con el dato 30</v>
-      </c>
-      <c r="L8" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo TIpo Bien, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace Bien Descripción para modificar registro, finalizando con la consulta mediante el filtro Bien Descripcion con el dato 30</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
-        <v>1</v>
-      </c>
-      <c r="C9" s="5">
-        <v>1</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="16">
-        <v>1</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="8">
-        <v>1</v>
-      </c>
-      <c r="H9" s="9">
-        <v>1</v>
-      </c>
-      <c r="I9" s="10">
-        <v>5</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="K9" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo TIpo Bien, considerando la opcion exportar a excel, hacer clic en enlace Bien Descripción para eliminar registro, finalizando con la consulta mediante el filtro Bien Descripcion con el dato 5</v>
-      </c>
-      <c r="L9" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo TIpo Bien, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace Bien Descripción para eliminar registro, finalizando con la consulta mediante el filtro Bien Descripcion con el dato 5</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <v>1</v>
-      </c>
-      <c r="C10" s="5">
-        <v>1</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="F10" s="5">
-        <v>1</v>
-      </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="K10" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo TIpo Bien, hacer clic en enlace Bien Descripción para modificar registro</v>
-      </c>
-      <c r="L10" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo TIpo Bien, hacer clic en boton eliminar, hacer clic en enlace Bien Descripción para modificar registro</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
-        <v>1</v>
-      </c>
-      <c r="C11" s="5">
-        <v>1</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="16">
-        <v>1</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="8">
-        <v>1</v>
-      </c>
-      <c r="H11" s="9"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="K11" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo TIpo Bien, considerando la opcion exportar a excel, hacer clic en enlace Bien Descripción para eliminar registro</v>
-      </c>
-      <c r="L11" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo TIpo Bien, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace Bien Descripción para eliminar registro</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
-        <v>1</v>
-      </c>
-      <c r="C12" s="5">
-        <v>1</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="K12" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo TIpo Bien</v>
-      </c>
-      <c r="L12" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo TIpo Bien, hacer clic en boton eliminar</v>
-      </c>
-      <c r="M12" s="27" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
-        <v>1</v>
-      </c>
-      <c r="D13" s="5">
-        <v>1</v>
-      </c>
-      <c r="E13" s="16">
-        <v>1</v>
-      </c>
-      <c r="F13" s="5">
-        <v>1</v>
-      </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="9">
-        <v>1</v>
-      </c>
-      <c r="I13" s="21">
-        <v>2</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="K13" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo TIpo Bien, considerando la opcion exportar a excel, hacer clic en enlace Bien Descripción para modificar registro, finalizando con la consulta mediante el filtro Bien Descripcion con el dato 2</v>
-      </c>
-      <c r="L13" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo TIpo Bien, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace Bien Descripción para modificar registro, finalizando con la consulta mediante el filtro Bien Descripcion con el dato 2</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
-        <v>1</v>
-      </c>
-      <c r="D14" s="5">
-        <v>1</v>
-      </c>
-      <c r="E14" s="16">
-        <v>1</v>
-      </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="8">
-        <v>1</v>
-      </c>
-      <c r="H14" s="9">
-        <v>1</v>
-      </c>
-      <c r="I14" s="10">
-        <v>3</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="K14" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo TIpo Bien, considerando la opcion exportar a excel, hacer clic en enlace Bien Descripción para eliminar registro, finalizando con la consulta mediante el filtro Bien Descripcion con el dato 3</v>
-      </c>
-      <c r="L14" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo TIpo Bien, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace Bien Descripción para eliminar registro, finalizando con la consulta mediante el filtro Bien Descripcion con el dato 3</v>
-      </c>
-      <c r="M14" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
-        <v>1</v>
-      </c>
-      <c r="D15" s="5">
-        <v>1</v>
-      </c>
-      <c r="F15" s="5">
-        <v>1</v>
-      </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="K15" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo TIpo Bien, hacer clic en enlace Bien Descripción para modificar registro</v>
-      </c>
-      <c r="L15" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo TIpo Bien, hacer clic en boton modificar, hacer clic en enlace Bien Descripción para modificar registro</v>
-      </c>
-      <c r="M15" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
-        <v>1</v>
-      </c>
-      <c r="D16" s="5">
-        <v>1</v>
-      </c>
-      <c r="E16" s="16">
-        <v>1</v>
-      </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="8">
-        <v>1</v>
-      </c>
-      <c r="H16" s="9"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="K16" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo TIpo Bien, considerando la opcion exportar a excel, hacer clic en enlace Bien Descripción para eliminar registro</v>
-      </c>
-      <c r="L16" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo TIpo Bien, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace Bien Descripción para eliminar registro</v>
-      </c>
-      <c r="M16" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
-        <v>1</v>
-      </c>
-      <c r="D17" s="5">
-        <v>1</v>
-      </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="K17" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo TIpo Bien</v>
-      </c>
-      <c r="L17" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo TIpo Bien, hacer clic en boton modificar</v>
-      </c>
-      <c r="M17" s="27" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-    </row>
-    <row r="19" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-    </row>
-    <row r="20" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-    </row>
-    <row r="21" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-    </row>
-    <row r="22" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-    </row>
-    <row r="23" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-    </row>
-    <row r="24" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="K24" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="L24" s="32" t="s">
-        <v>203</v>
-      </c>
-      <c r="M24" s="7" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-    </row>
-    <row r="26" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="8"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="7"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="8"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="7"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="8"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="7"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="8"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="7"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="8"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="7"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="8"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="7"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="8"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="7"/>
-    </row>
-    <row r="34" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="8"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
-    </row>
-    <row r="35" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="7"/>
-    </row>
-    <row r="36" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="7"/>
-      <c r="M36" s="7"/>
-    </row>
-    <row r="37" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="8"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="7"/>
-      <c r="M37" s="7"/>
-    </row>
-    <row r="38" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="8"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="7"/>
-      <c r="M38" s="7"/>
-    </row>
-    <row r="39" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="8"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="7"/>
-      <c r="M39" s="7"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="8"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="8"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="7"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="8"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="8"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="7"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="8"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="8"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="7"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="8"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="8"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="7"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="8"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="8"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="7"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="8"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="8"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="7"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="8"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="8"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="7"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="8"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="8"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="7"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="8"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="8"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="7"/>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="8"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="8"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="7"/>
-    </row>
-    <row r="50" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="8"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="7"/>
-      <c r="K50" s="12"/>
-      <c r="L50" s="7"/>
-      <c r="M50" s="7"/>
-    </row>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:J2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -6689,92 +3485,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="52" t="s">
-        <v>211</v>
-      </c>
-      <c r="B1" s="53" t="s">
-        <v>208</v>
-      </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="48" t="s">
-        <v>221</v>
-      </c>
-      <c r="L1" s="49"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="50" t="s">
-        <v>223</v>
-      </c>
-      <c r="O1" s="51"/>
-      <c r="P1" s="54" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="50" t="s">
-        <v>209</v>
-      </c>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="51"/>
-      <c r="W1" s="41" t="s">
-        <v>230</v>
-      </c>
-      <c r="X1" s="50" t="s">
-        <v>231</v>
-      </c>
-      <c r="Y1" s="51"/>
-      <c r="Z1" s="50" t="s">
-        <v>234</v>
-      </c>
-      <c r="AA1" s="51"/>
-      <c r="AB1" s="41" t="s">
+      <c r="A1" s="49" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" s="50" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="54" t="s">
+        <v>160</v>
+      </c>
+      <c r="L1" s="55"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="53" t="s">
+        <v>162</v>
+      </c>
+      <c r="O1" s="52"/>
+      <c r="P1" s="51" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="53" t="s">
+        <v>148</v>
+      </c>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="52"/>
+      <c r="W1" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="X1" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y1" s="52"/>
+      <c r="Z1" s="53" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA1" s="52"/>
+      <c r="AB1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="AC1" s="41" t="s">
+      <c r="AC1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="AD1" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE1" s="41" t="s">
+      <c r="AD1" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE1" s="42" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:31" s="14" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
+      <c r="A2" s="45"/>
       <c r="B2" s="36" t="s">
-        <v>212</v>
+        <v>151</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>213</v>
+        <v>152</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>214</v>
+        <v>153</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>215</v>
+        <v>154</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>216</v>
+        <v>155</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>217</v>
+        <v>156</v>
       </c>
       <c r="H2" s="36" t="s">
-        <v>218</v>
+        <v>157</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>219</v>
+        <v>158</v>
       </c>
       <c r="J2" s="33" t="s">
-        <v>220</v>
+        <v>159</v>
       </c>
       <c r="K2" s="19" t="s">
         <v>7</v>
@@ -6783,7 +3579,7 @@
         <v>8</v>
       </c>
       <c r="M2" s="33" t="s">
-        <v>222</v>
+        <v>161</v>
       </c>
       <c r="N2" s="19" t="s">
         <v>5</v>
@@ -6795,36 +3591,36 @@
         <v>7</v>
       </c>
       <c r="Q2" s="39" t="s">
-        <v>276</v>
+        <v>215</v>
       </c>
       <c r="R2" s="36" t="s">
-        <v>225</v>
+        <v>164</v>
       </c>
       <c r="S2" s="19" t="s">
-        <v>226</v>
+        <v>165</v>
       </c>
       <c r="T2" s="38" t="s">
-        <v>227</v>
+        <v>166</v>
       </c>
       <c r="U2" s="14" t="s">
-        <v>228</v>
+        <v>167</v>
       </c>
       <c r="V2" s="35" t="s">
-        <v>229</v>
-      </c>
-      <c r="W2" s="42"/>
+        <v>168</v>
+      </c>
+      <c r="W2" s="43"/>
       <c r="X2" s="19" t="s">
-        <v>232</v>
+        <v>171</v>
       </c>
       <c r="Y2" s="34" t="s">
-        <v>233</v>
+        <v>172</v>
       </c>
       <c r="Z2" s="19"/>
       <c r="AA2" s="34"/>
-      <c r="AB2" s="42"/>
-      <c r="AC2" s="42"/>
-      <c r="AD2" s="42"/>
-      <c r="AE2" s="42"/>
+      <c r="AB2" s="43"/>
+      <c r="AC2" s="43"/>
+      <c r="AD2" s="43"/>
+      <c r="AE2" s="43"/>
     </row>
     <row r="3" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -6863,16 +3659,16 @@
       <c r="Z3" s="5"/>
       <c r="AA3" s="8"/>
       <c r="AB3" s="7" t="s">
-        <v>252</v>
+        <v>191</v>
       </c>
       <c r="AC3" s="12" t="s">
-        <v>274</v>
+        <v>213</v>
       </c>
       <c r="AD3" s="7" t="s">
-        <v>270</v>
+        <v>209</v>
       </c>
       <c r="AE3" s="7" t="s">
-        <v>269</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6910,16 +3706,16 @@
       <c r="Z4" s="5"/>
       <c r="AA4" s="8"/>
       <c r="AB4" s="7" t="s">
-        <v>253</v>
+        <v>192</v>
       </c>
       <c r="AC4" s="12" t="s">
-        <v>273</v>
+        <v>212</v>
       </c>
       <c r="AD4" s="7" t="s">
-        <v>271</v>
+        <v>210</v>
       </c>
       <c r="AE4" s="7" t="s">
-        <v>272</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6957,16 +3753,16 @@
       <c r="Z5" s="5"/>
       <c r="AA5" s="8"/>
       <c r="AB5" s="7" t="s">
-        <v>254</v>
+        <v>193</v>
       </c>
       <c r="AC5" s="12" t="s">
-        <v>279</v>
+        <v>218</v>
       </c>
       <c r="AD5" s="7" t="s">
-        <v>278</v>
+        <v>217</v>
       </c>
       <c r="AE5" s="7" t="s">
-        <v>322</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -7004,16 +3800,16 @@
       <c r="Z6" s="5"/>
       <c r="AA6" s="8"/>
       <c r="AB6" s="7" t="s">
-        <v>255</v>
+        <v>194</v>
       </c>
       <c r="AC6" s="12" t="s">
-        <v>280</v>
+        <v>219</v>
       </c>
       <c r="AD6" s="7" t="s">
-        <v>282</v>
+        <v>221</v>
       </c>
       <c r="AE6" s="7" t="s">
-        <v>323</v>
+        <v>262</v>
       </c>
     </row>
     <row r="7" spans="1:31" s="29" customFormat="1" x14ac:dyDescent="0.25">
@@ -7049,13 +3845,13 @@
       <c r="Z7" s="25"/>
       <c r="AA7" s="24"/>
       <c r="AB7" s="7" t="s">
-        <v>256</v>
+        <v>195</v>
       </c>
       <c r="AC7" s="12" t="s">
-        <v>281</v>
+        <v>220</v>
       </c>
       <c r="AD7" s="7" t="s">
-        <v>283</v>
+        <v>222</v>
       </c>
       <c r="AE7" s="27" t="s">
         <v>36</v>
@@ -7088,16 +3884,16 @@
       <c r="Z8" s="5"/>
       <c r="AA8" s="8"/>
       <c r="AB8" s="7" t="s">
-        <v>257</v>
+        <v>196</v>
       </c>
       <c r="AC8" s="12" t="s">
-        <v>286</v>
+        <v>225</v>
       </c>
       <c r="AD8" s="7" t="s">
-        <v>284</v>
+        <v>223</v>
       </c>
       <c r="AE8" s="7" t="s">
-        <v>285</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -7127,16 +3923,16 @@
       <c r="Z9" s="5"/>
       <c r="AA9" s="8"/>
       <c r="AB9" s="7" t="s">
-        <v>258</v>
+        <v>197</v>
       </c>
       <c r="AC9" s="12" t="s">
-        <v>287</v>
+        <v>226</v>
       </c>
       <c r="AD9" s="7" t="s">
-        <v>288</v>
+        <v>227</v>
       </c>
       <c r="AE9" s="7" t="s">
-        <v>289</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
@@ -7168,16 +3964,16 @@
       <c r="Z10" s="5"/>
       <c r="AA10" s="8"/>
       <c r="AB10" s="7" t="s">
-        <v>259</v>
+        <v>198</v>
       </c>
       <c r="AC10" s="12" t="s">
-        <v>290</v>
+        <v>229</v>
       </c>
       <c r="AD10" s="7" t="s">
-        <v>291</v>
+        <v>230</v>
       </c>
       <c r="AE10" s="7" t="s">
-        <v>292</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
@@ -7205,16 +4001,16 @@
       <c r="Z11" s="5"/>
       <c r="AA11" s="8"/>
       <c r="AB11" s="7" t="s">
-        <v>260</v>
+        <v>199</v>
       </c>
       <c r="AC11" s="12" t="s">
-        <v>293</v>
+        <v>232</v>
       </c>
       <c r="AD11" s="7" t="s">
-        <v>294</v>
+        <v>233</v>
       </c>
       <c r="AE11" s="7" t="s">
-        <v>295</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12" spans="1:31" s="28" customFormat="1" x14ac:dyDescent="0.25">
@@ -7242,16 +4038,16 @@
       <c r="Z12" s="25"/>
       <c r="AA12" s="24"/>
       <c r="AB12" s="7" t="s">
-        <v>261</v>
+        <v>200</v>
       </c>
       <c r="AC12" s="12" t="s">
-        <v>296</v>
+        <v>235</v>
       </c>
       <c r="AD12" s="7" t="s">
-        <v>297</v>
+        <v>236</v>
       </c>
       <c r="AE12" s="27" t="s">
-        <v>298</v>
+        <v>237</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
@@ -7278,16 +4074,16 @@
       <c r="Z13" s="5"/>
       <c r="AA13" s="8"/>
       <c r="AB13" s="7" t="s">
-        <v>262</v>
+        <v>201</v>
       </c>
       <c r="AC13" s="12" t="s">
-        <v>299</v>
+        <v>238</v>
       </c>
       <c r="AD13" s="7" t="s">
-        <v>300</v>
+        <v>239</v>
       </c>
       <c r="AE13" s="7" t="s">
-        <v>301</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
@@ -7314,16 +4110,16 @@
       <c r="Z14" s="5"/>
       <c r="AA14" s="8"/>
       <c r="AB14" s="7" t="s">
-        <v>263</v>
+        <v>202</v>
       </c>
       <c r="AC14" s="12" t="s">
-        <v>302</v>
+        <v>241</v>
       </c>
       <c r="AD14" s="7" t="s">
-        <v>303</v>
+        <v>242</v>
       </c>
       <c r="AE14" s="7" t="s">
-        <v>304</v>
+        <v>243</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
@@ -7352,16 +4148,16 @@
       <c r="Z15" s="5"/>
       <c r="AA15" s="8"/>
       <c r="AB15" s="7" t="s">
-        <v>264</v>
+        <v>203</v>
       </c>
       <c r="AC15" s="12" t="s">
-        <v>305</v>
+        <v>244</v>
       </c>
       <c r="AD15" s="7" t="s">
-        <v>306</v>
+        <v>245</v>
       </c>
       <c r="AE15" s="7" t="s">
-        <v>307</v>
+        <v>246</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
@@ -7390,16 +4186,16 @@
       <c r="Z16" s="5"/>
       <c r="AA16" s="8"/>
       <c r="AB16" s="7" t="s">
-        <v>265</v>
+        <v>204</v>
       </c>
       <c r="AC16" s="12" t="s">
-        <v>308</v>
+        <v>247</v>
       </c>
       <c r="AD16" s="7" t="s">
-        <v>309</v>
+        <v>248</v>
       </c>
       <c r="AE16" s="7" t="s">
-        <v>310</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="1:31" s="28" customFormat="1" x14ac:dyDescent="0.25">
@@ -7429,16 +4225,16 @@
       <c r="Z17" s="25"/>
       <c r="AA17" s="24"/>
       <c r="AB17" s="7" t="s">
-        <v>266</v>
+        <v>205</v>
       </c>
       <c r="AC17" s="12" t="s">
-        <v>311</v>
+        <v>250</v>
       </c>
       <c r="AD17" s="7" t="s">
-        <v>312</v>
+        <v>251</v>
       </c>
       <c r="AE17" s="27" t="s">
-        <v>313</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -7466,16 +4262,16 @@
       <c r="Z18" s="5"/>
       <c r="AA18" s="8"/>
       <c r="AB18" s="7" t="s">
-        <v>267</v>
+        <v>206</v>
       </c>
       <c r="AC18" s="12" t="s">
-        <v>314</v>
+        <v>253</v>
       </c>
       <c r="AD18" s="7" t="s">
-        <v>316</v>
+        <v>255</v>
       </c>
       <c r="AE18" s="27" t="s">
-        <v>317</v>
+        <v>256</v>
       </c>
     </row>
     <row r="19" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -7511,16 +4307,16 @@
       <c r="Z19" s="5"/>
       <c r="AA19" s="8"/>
       <c r="AB19" s="7" t="s">
-        <v>268</v>
+        <v>207</v>
       </c>
       <c r="AC19" s="12" t="s">
-        <v>315</v>
+        <v>254</v>
       </c>
       <c r="AD19" s="7" t="s">
-        <v>316</v>
+        <v>255</v>
       </c>
       <c r="AE19" s="27" t="s">
-        <v>317</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -7556,13 +4352,13 @@
       <c r="Z20" s="5"/>
       <c r="AA20" s="8"/>
       <c r="AB20" s="7" t="s">
-        <v>275</v>
+        <v>214</v>
       </c>
       <c r="AC20" s="12" t="s">
-        <v>318</v>
+        <v>257</v>
       </c>
       <c r="AD20" s="7" t="s">
-        <v>320</v>
+        <v>259</v>
       </c>
       <c r="AE20" s="7" t="s">
         <v>68</v>
@@ -7601,13 +4397,13 @@
       <c r="Z21" s="5"/>
       <c r="AA21" s="8"/>
       <c r="AB21" s="7" t="s">
-        <v>277</v>
+        <v>216</v>
       </c>
       <c r="AC21" s="12" t="s">
-        <v>319</v>
+        <v>258</v>
       </c>
       <c r="AD21" s="7" t="s">
-        <v>321</v>
+        <v>260</v>
       </c>
       <c r="AE21" s="7" t="s">
         <v>68</v>
@@ -7843,16 +4639,16 @@
       <c r="Z29" s="5"/>
       <c r="AA29" s="8"/>
       <c r="AB29" s="7" t="s">
-        <v>324</v>
+        <v>263</v>
       </c>
       <c r="AC29" s="12" t="s">
-        <v>325</v>
+        <v>264</v>
       </c>
       <c r="AD29" s="7" t="s">
-        <v>326</v>
+        <v>265</v>
       </c>
       <c r="AE29" s="7" t="s">
-        <v>327</v>
+        <v>266</v>
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
@@ -7876,16 +4672,16 @@
       <c r="Z30" s="5"/>
       <c r="AA30" s="8"/>
       <c r="AB30" s="7" t="s">
-        <v>328</v>
+        <v>267</v>
       </c>
       <c r="AC30" s="12" t="s">
-        <v>329</v>
+        <v>268</v>
       </c>
       <c r="AD30" s="7" t="s">
-        <v>330</v>
+        <v>269</v>
       </c>
       <c r="AE30" s="7" t="s">
-        <v>331</v>
+        <v>270</v>
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.25">
@@ -8351,11 +5147,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:V1"/>
-    <mergeCell ref="AC1:AC2"/>
     <mergeCell ref="AD1:AD2"/>
     <mergeCell ref="AE1:AE2"/>
     <mergeCell ref="K1:M1"/>
@@ -8364,6 +5155,11 @@
     <mergeCell ref="X1:Y1"/>
     <mergeCell ref="Z1:AA1"/>
     <mergeCell ref="W1:W2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:V1"/>
+    <mergeCell ref="AC1:AC2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8387,65 +5183,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="41" t="s">
+      <c r="C1" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="42" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="14" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>332</v>
+        <v>271</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>335</v>
+        <v>274</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>338</v>
+        <v>277</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>341</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>333</v>
+        <v>272</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>336</v>
+        <v>275</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>339</v>
+        <v>278</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>341</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>334</v>
+        <v>273</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>337</v>
+        <v>276</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>340</v>
+        <v>279</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>341</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8689,41 +5485,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="41" t="s">
+      <c r="C1" s="47"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="47"/>
-      <c r="H1" s="55" t="s">
+      <c r="G1" s="48"/>
+      <c r="H1" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="56"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="41" t="s">
+      <c r="I1" s="57"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="41" t="s">
+      <c r="L1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="N1" s="41" t="s">
+      <c r="M1" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="42" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="14" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
+      <c r="A2" s="45"/>
       <c r="B2" s="19" t="s">
         <v>5</v>
       </c>
@@ -8733,7 +5529,7 @@
       <c r="D2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="42"/>
+      <c r="E2" s="43"/>
       <c r="F2" s="19" t="s">
         <v>7</v>
       </c>
@@ -8749,10 +5545,10 @@
       <c r="J2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -9334,16 +6130,16 @@
       <c r="I22" s="9"/>
       <c r="J22" s="10"/>
       <c r="K22" s="7" t="s">
-        <v>185</v>
+        <v>132</v>
       </c>
       <c r="L22" s="12" t="s">
-        <v>186</v>
+        <v>133</v>
       </c>
       <c r="M22" s="32" t="s">
-        <v>187</v>
+        <v>134</v>
       </c>
       <c r="N22" s="7" t="s">
-        <v>184</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -9745,44 +6541,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="53" t="s">
+      <c r="C1" s="47"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="58" t="s">
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="55" t="s">
+      <c r="J1" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="41" t="s">
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="41" t="s">
+      <c r="O1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q1" s="41" t="s">
+      <c r="P1" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" s="42" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
+      <c r="A2" s="45"/>
       <c r="B2" s="19" t="s">
         <v>5</v>
       </c>
@@ -9804,7 +6600,7 @@
       <c r="H2" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="I2" s="42"/>
+      <c r="I2" s="43"/>
       <c r="J2" s="18" t="s">
         <v>20</v>
       </c>
@@ -9817,10 +6613,10 @@
       <c r="M2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="42"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
     </row>
     <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -10388,16 +7184,16 @@
       <c r="L20" s="9"/>
       <c r="M20" s="10"/>
       <c r="N20" s="7" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="O20" s="12" t="s">
-        <v>188</v>
+        <v>135</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>189</v>
+        <v>136</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>184</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -10917,42 +7713,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="41" t="s">
+      <c r="C1" s="47"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="47"/>
-      <c r="H1" s="55" t="s">
+      <c r="G1" s="48"/>
+      <c r="H1" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="41" t="s">
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="41" t="s">
+      <c r="M1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="O1" s="41" t="s">
+      <c r="N1" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="42" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
+      <c r="A2" s="45"/>
       <c r="B2" s="19" t="s">
         <v>5</v>
       </c>
@@ -10962,7 +7758,7 @@
       <c r="D2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="42"/>
+      <c r="E2" s="43"/>
       <c r="F2" s="19" t="s">
         <v>7</v>
       </c>
@@ -10981,10 +7777,10 @@
       <c r="K2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -11618,16 +8414,16 @@
       <c r="J24" s="9"/>
       <c r="K24" s="10"/>
       <c r="L24" s="7" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="M24" s="12" t="s">
-        <v>190</v>
+        <v>137</v>
       </c>
       <c r="N24" s="32" t="s">
-        <v>191</v>
+        <v>138</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>184</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -12023,47 +8819,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="41" t="s">
+      <c r="C1" s="47"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="47"/>
-      <c r="H1" s="55" t="s">
+      <c r="G1" s="48"/>
+      <c r="H1" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="41" t="s">
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="R1" s="41" t="s">
+      <c r="R1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="T1" s="41" t="s">
+      <c r="S1" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="T1" s="42" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="14" customFormat="1" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
+      <c r="A2" s="45"/>
       <c r="B2" s="19" t="s">
         <v>5</v>
       </c>
@@ -12073,7 +8869,7 @@
       <c r="D2" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="42"/>
+      <c r="E2" s="43"/>
       <c r="F2" s="19" t="s">
         <v>7</v>
       </c>
@@ -12107,10 +8903,10 @@
       <c r="P2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="42"/>
-      <c r="S2" s="42"/>
-      <c r="T2" s="42"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
     </row>
     <row r="3" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -12830,16 +9626,16 @@
       <c r="O22" s="9"/>
       <c r="P22" s="10"/>
       <c r="Q22" s="7" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="R22" s="12" t="s">
-        <v>192</v>
+        <v>139</v>
       </c>
       <c r="S22" s="32" t="s">
-        <v>193</v>
+        <v>140</v>
       </c>
       <c r="T22" s="7" t="s">
-        <v>184</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -13396,93 +10192,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="41" t="s">
+      <c r="C1" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="42" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>345</v>
+        <v>284</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>347</v>
+        <v>286</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>348</v>
+        <v>287</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>349</v>
+        <v>288</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>342</v>
+        <v>281</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>350</v>
+        <v>289</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>351</v>
+        <v>290</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>352</v>
+        <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>343</v>
+        <v>282</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>353</v>
+        <v>292</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>354</v>
+        <v>293</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>355</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="60" t="s">
-        <v>344</v>
+      <c r="A6" s="41" t="s">
+        <v>283</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>356</v>
+        <v>295</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>357</v>
+        <v>296</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>358</v>
+        <v>297</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>346</v>
+        <v>285</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>359</v>
+        <v>298</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>360</v>
+        <v>299</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>361</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -13693,7 +10489,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="C6" sqref="C6"/>
     </sheetView>
@@ -13707,65 +10503,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="41" t="s">
+      <c r="C1" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="42" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>362</v>
+        <v>301</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>365</v>
+        <v>304</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>368</v>
+        <v>307</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>369</v>
+        <v>308</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>363</v>
+        <v>302</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>366</v>
+        <v>305</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>371</v>
+        <v>310</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>369</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>364</v>
+        <v>303</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>367</v>
+        <v>306</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>372</v>
+        <v>311</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>370</v>
+        <v>309</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">

--- a/Casos Cartera/MenuFavorios.xlsx
+++ b/Casos Cartera/MenuFavorios.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" tabRatio="787" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" tabRatio="787" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Créditos" sheetId="15" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="224">
   <si>
     <t>Nombre CP</t>
   </si>
@@ -489,88 +489,6 @@
 Excel</t>
   </si>
   <si>
-    <t>ID Operación
-(Trabajar con remesas)</t>
-  </si>
-  <si>
-    <t>Informacion
-General (Cliente)</t>
-  </si>
-  <si>
-    <t>Informacion del
-Bien (Comerciales)</t>
-  </si>
-  <si>
-    <t>Contabilidad</t>
-  </si>
-  <si>
-    <t>Imprimir
-certificado</t>
-  </si>
-  <si>
-    <t>Documentos
-asociados</t>
-  </si>
-  <si>
-    <t>Pasar a Judicial</t>
-  </si>
-  <si>
-    <t>Pasar a pre
-Judicial</t>
-  </si>
-  <si>
-    <t>Bloquear RUT</t>
-  </si>
-  <si>
-    <t>Eliminar Crédito</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desarrollo del Crédito
-</t>
-  </si>
-  <si>
-    <t>Ver comisiones</t>
-  </si>
-  <si>
-    <t>Seguimiento</t>
-  </si>
-  <si>
-    <t>Cheques</t>
-  </si>
-  <si>
-    <t>Comprobante
-PDF</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Comprobante
-de pago</t>
-  </si>
-  <si>
-    <t>Anular</t>
-  </si>
-  <si>
-    <t>Forma de pago
-(Consulta)</t>
-  </si>
-  <si>
-    <t>Geolocalización</t>
-  </si>
-  <si>
-    <t>Proceso</t>
-  </si>
-  <si>
-    <t>TER</t>
-  </si>
-  <si>
-    <t>CRE</t>
-  </si>
-  <si>
-    <t>Legal</t>
-  </si>
-  <si>
     <t>TC_Cartera_ProcesoRemesa_Agregar</t>
   </si>
   <si>
@@ -622,244 +540,10 @@
     <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Procesos - sub modulo Tabajar con remesas, hacer clic en boton Agregar, ingresar datos de un registro existente y hacer clic en boton guardar, posterior a ello, intentar realizar registro sin llenar campos obligatorios.</t>
   </si>
   <si>
-    <t>TC_Cartera_ProcesoRemesa_InformacionGeneral</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesoRemesa_Contabilidad</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesoRemesa_Documentos</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesoRemesa_BloquearRut</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesoRemesa_EliminarCredito</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesoRemesa_Modificar</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesoRemesa_ExportarExcel</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesoRemesa_Comisiones</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesoRemesa_SeguimientoAgregar</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesoRemesa_SeguimientoEliminar</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesoRemesa_Geolocalizacion</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesoRemesa_ComprobantePDF</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesoRemesa_ComprobantePago</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesoRemesa_Anular</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesoRemesa_FormaPago</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesoRemesa_TER</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesoRemesa_CRE</t>
-  </si>
-  <si>
     <t>Modificación de datos y consulta de mapa de manera exitosa</t>
   </si>
   <si>
     <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en enlace ID, pestaña Recaudación, hacer clic en enlace Operaciones, pestaña General, modificar datos de la sección información general con la opción datos clientes, luego de esto, modificar datos de la sección información del bien con la opción datos comerciales. Finalizando con consulta a la pestaña geolocalización para visualizar mapa.</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en enlace ID, pestaña Recaudación, hacer clic en enlace Operaciones, pestaña General, modificar datos de la sección contabilidad con la opción datos clientes, luego de esto, hacer clic en boton imprimir certificado.</t>
-  </si>
-  <si>
-    <t>Modificación de datos e impresión de certificado de manera exitosa</t>
-  </si>
-  <si>
-    <t>Validar enlace Operaciones del formulario Remesa pestaña recaudación, modificando datos de la pestaña general sección contabilidad e imprimir certiticado</t>
-  </si>
-  <si>
-    <t>Validar enlace Operaciones del formulario Remesa pestaña recaudación, modificando datos de la pestaña general sección información general e información del bien</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesoRemesa_ChequeModificar</t>
-  </si>
-  <si>
-    <t>Enlace Número</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesoRemesa_ChequeNumero</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en enlace ID, pestaña Recaudación, hacer clic en enlace Operaciones, pestaña General, hacer clic en boton documentos asociados para visualizar y descargar documentos, luego, hacer clic en boton pasar a judicial y hacer clic en boton normalizar estado</t>
-  </si>
-  <si>
-    <t>Validar enlace Operaciones del formulario Remesa pestaña recaudación, en la opción General, visualizar y descargar documentos asociados, finalizando con pasar a judicial</t>
-  </si>
-  <si>
-    <t>Validar enlace Operaciones del formulario Remesa pestaña recaudación, en la opción General,pasar registro seleccionado a pre judicial, finalizando con bloqueo de RUT</t>
-  </si>
-  <si>
-    <t>Validar enlace Operaciones del formulario Remesa pestaña recaudación, en la opción General, eliminando credito seleccionado</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en enlace ID, pestaña Recaudación, hacer clic en enlace Operaciones, pestaña General, hacer clic en boton pasar a pre judicial y hacer clic en boton normalizar estado, finalizando con el bloqueo de RUT haciendo clic en boton bloquear RUT</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en enlace ID, pestaña Recaudación, hacer clic en enlace Operaciones, pestaña General, hacer clic en boton eliminar crédito.</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en enlace ID, pestaña Recaudación, hacer clic en enlace Operaciones, pestaña Desarrollo del crédito, hacer clic en icono editar, cambiar datos del registro, finalizar con exportar archivo excel</t>
-  </si>
-  <si>
-    <t>Registro modificado y archivo exportado de manera exitosa</t>
-  </si>
-  <si>
-    <t>Validar enlace Operaciones del formulario Remesa pestaña recaudación, en la opción Desarrollo del crédito, seleccionando registro para modificiar y exportar archivo excel</t>
-  </si>
-  <si>
-    <t>Validar enlace Operaciones del formulario Remesa pestaña recaudación, en la opción Desarrollo del crédito, seleccionando exportar archivo excel y consultar las comisiones</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en enlace ID, pestaña Recaudación, hacer clic en enlace Operaciones, pestaña Desarrollo del crédito, exportar archivo excel, hacer clic en boton ver comisiones</t>
-  </si>
-  <si>
-    <t>Archivo exportado y cosulta de comisiones de manera exitosa</t>
-  </si>
-  <si>
-    <t>Validar enlace Operaciones del formulario Remesa pestaña recaudación, en la opción Desarrollo del crédito, seleccionando registro para modificiar, se exporta archivo excel y se consultan las comisiones</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en enlace ID, pestaña Recaudación, hacer clic en enlace Operaciones, pestaña Desarrollo del crédito, hacer clic en icono editar, cambiar datos del registro, exportar archivo excel y hacer clic en boton ver comisiones para consultar las mismas</t>
-  </si>
-  <si>
-    <t>Registro modificado, archivo exportado y consulta de comisiones de manera exitosa</t>
-  </si>
-  <si>
-    <t>Validar enlace Operaciones del formulario Remesa pestaña recaudación, en la opción Seguimiento, agregando nuevo registro</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en enlace ID, pestaña Recaudación, hacer clic en enlace Operaciones, pestaña Desarrollo del crédito, hacer clic boton agregar, llenar formulario con datos correspondientes, hacer clic en boton confirmar</t>
-  </si>
-  <si>
-    <t>Ingreso de nuevo registro de manera exitosa</t>
-  </si>
-  <si>
-    <t>Validar enlace Operaciones del formulario Remesa pestaña recaudación, en la opción Seguimiento, eliminando registro exitente</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en enlace ID, pestaña Recaudación, hacer clic en enlace Operaciones, pestaña Desarrollo del crédito, hacer clic boton eliminar, hacer clic en boton confirmar</t>
-  </si>
-  <si>
-    <t>Eliminacion de registro de manera exitosa</t>
-  </si>
-  <si>
-    <t>Validar enlace Operaciones del formulario Remesa pestaña recaudación, en la opción Geolocalización, consultando ubicación en el mapa</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en enlace ID, pestaña Recaudación, hacer clic en enlace Operaciones, pestaña Geolocalización, consultar ubicación en mapa y comparar con google maps</t>
-  </si>
-  <si>
-    <t>Consulta de ubicación de manera exitosa</t>
-  </si>
-  <si>
-    <t>Validar enlace Operaciones del formulario Remesa pestaña recaudación, en la opción Recaudación, consultando comprobante de pago</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en enlace ID, pestaña Recaudación, hacer clic en enlace Operaciones, pestaña Recaudación, hacer clic en boton ver comprobante de pago</t>
-  </si>
-  <si>
-    <t>Consulta de comprobante de manera exitosa</t>
-  </si>
-  <si>
-    <t>Validar enlace Operaciones del formulario Remesa pestaña recaudación, en la opción Recaudación, para consultar comprobante de pago al acceder a traves del enlace ID.</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en enlace ID, pestaña Recaudación, hacer clic en enlace Operaciones, pestaña Recaudación, hacer clic en enlace ID, hacer clic en boton comprobante de pago.</t>
-  </si>
-  <si>
-    <t>Se debe visualizar el mismo comprobante del casos anterior</t>
-  </si>
-  <si>
-    <t>Validar enlace Operaciones del formulario Remesa pestaña recaudación, en la opción Recaudación, para anular comprobante de pago al acceder a traves del enlace ID.</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en enlace ID, pestaña Recaudación, hacer clic en enlace Operaciones, pestaña Recaudación, hacer clic en enlace ID, hacer clic en boton anular.</t>
-  </si>
-  <si>
-    <t>Sistema solo permite anular la  la última recaudación del crédito</t>
-  </si>
-  <si>
-    <t>Validar enlace Operaciones del formulario Remesa pestaña recaudación, en la opción Recaudación, para consultar de pago al acceder a traves del enlace ID.</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en enlace ID, pestaña Recaudación, hacer clic en enlace Operaciones, pestaña Recaudación, hacer clic en enlace ID, hacer clic en pestaña forma de pago</t>
-  </si>
-  <si>
-    <t>Visualizar datos de forma de pago</t>
-  </si>
-  <si>
-    <t>Validar enlace Operaciones del formulario Remesa pestaña recaudación, en la opción Proceso, para eliminar registro TER</t>
-  </si>
-  <si>
-    <t>Validar enlace Operaciones del formulario Remesa pestaña recaudación, en la opción Proceso, para eliminar registro CRE</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en enlace ID, pestaña Proceso, hacer clic en enlace ID Proceso, hacer clic en boton eliminar</t>
-  </si>
-  <si>
-    <t>Proceso eliminado exitosamente</t>
-  </si>
-  <si>
-    <t>Validar enlace Operaciones del formulario Remesa pestaña recaudación, en la opción Cheque, para modificar cheque</t>
-  </si>
-  <si>
-    <t>Validar enlace Operaciones del formulario Remesa pestaña recaudación, en la opción Cheque, para modificar registro cheque a traves de enlace Numero</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en enlace ID, pestaña Cheques, hacer clic en boton editar, editar datos correspondientes del cheque</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en enlace ID, pestaña Cheques, hacer clic en enlace Numero, hacer clic en boton modificar, editar datos correspondientes del registro de cheques, hacer clic en boton confirmar</t>
-  </si>
-  <si>
-    <t>Visualización, descarga de documentos y pasar a judicial de manera exitosa. El registro seleccionado debe tener 150 dias de en mora</t>
-  </si>
-  <si>
-    <t>Registro pasado a pre judicial, el registro seleccinado debe tener 91 dias en mora y bloqueo de Rut de manera exitosa</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesoRemesa_PreJudicial</t>
-  </si>
-  <si>
-    <t>Validar enlace Operaciones del formulario Remesa pestaña recaudación, en la opción General,pasar registro seleccionado a pre judicial que no ha cumplido plazo de 90 dias en mora</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en enlace ID, pestaña Recaudación, hacer clic en enlace Operaciones, pestaña General, hacer clic en boton pasar a pre judicial.</t>
-  </si>
-  <si>
-    <t>Sistema debe emitir mensaje indicando que no se ha cumplido el plazo de 90dias en mora</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesoRemesa_Judicial</t>
-  </si>
-  <si>
-    <t>Validar enlace Operaciones del formulario Remesa pestaña recaudación, en la opción General, seleccionando registro que no tiene estado pre judicial para pasar a judicial</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en enlace ID, pestaña Recaudación, hacer clic en enlace Operaciones, pestaña General, hacer clic en boton pasar a judicial.</t>
-  </si>
-  <si>
-    <t>Sistema debe emitir mensaje indicando que no el registro no tiene estado pre judicial</t>
   </si>
   <si>
     <t>TC_Cartera_ProcesosAsignacion_Asignacion</t>
@@ -985,6 +669,54 @@
   </si>
   <si>
     <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Generación XML (afianza), hacer clic en boton Generar XML Oferta y TD</t>
+  </si>
+  <si>
+    <t>Nueva Recaudación</t>
+  </si>
+  <si>
+    <t>Créditos</t>
+  </si>
+  <si>
+    <t>Concepto
+Recaudación
+Otros</t>
+  </si>
+  <si>
+    <t>Cuotas del Crédito</t>
+  </si>
+  <si>
+    <t>Cheques
+del
+Crédito</t>
+  </si>
+  <si>
+    <t>Paso 1 Fecha de pago</t>
+  </si>
+  <si>
+    <t>Paso 2</t>
+  </si>
+  <si>
+    <t>Enviar por email</t>
+  </si>
+  <si>
+    <t>Imprimir</t>
+  </si>
+  <si>
+    <t>Paso 3</t>
+  </si>
+  <si>
+    <t>Ingresar
+descuento</t>
+  </si>
+  <si>
+    <t>Costas
+Judiciales</t>
+  </si>
+  <si>
+    <t>Agregar Pago</t>
+  </si>
+  <si>
+    <t>TC_Cartera_NuevaRecaudacion_Paso1</t>
   </si>
 </sst>
 </file>
@@ -1029,7 +761,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1119,22 +851,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1198,9 +919,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1217,25 +935,13 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1263,6 +969,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1270,18 +985,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1297,6 +1000,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1624,41 +1336,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="47" t="s">
+      <c r="C1" s="42"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="42" t="s">
         <v>146</v>
       </c>
-      <c r="F1" s="47"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="42" t="s">
+      <c r="F1" s="42"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="42" t="s">
+      <c r="I1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="42" t="s">
+      <c r="J1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="37" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="14" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="45"/>
+      <c r="A2" s="40"/>
       <c r="B2" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="32" t="s">
         <v>145</v>
       </c>
       <c r="E2" s="14" t="s">
@@ -1667,13 +1379,13 @@
       <c r="F2" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="G2" s="35" t="s">
+      <c r="G2" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -1692,7 +1404,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="I3" s="12" t="str">
         <f>CONCATENATE("Validar funcionalidad ",IF(B3=1,$B$2,"")," ",IF(C3=1,$C$2,"")," ",IF(D3=1,$D$2,"")," del modulo Procesos, sub-modulo Trabajar con Remesa",IF(E3=1,", considerando la opcion enlace ID pestaña General",IF(F3=1,", considerando la opcion enlace ID pestaña Recaudacion y exportar registro a archivo excel","")))</f>
@@ -1721,7 +1433,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="8"/>
       <c r="H4" s="7" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="I4" s="12" t="str">
         <f t="shared" ref="I4:I12" si="0">CONCATENATE("Validar funcionalidad ",IF(B4=1,$B$2,"")," ",IF(C4=1,$C$2,"")," ",IF(D4=1,$D$2,"")," del modulo Procesos, sub-modulo Trabajar con Remesa",IF(E4=1,", considerando la opcion enlace ID pestaña General",IF(F4=1,", considerando la opcion enlace ID pestaña Recaudacion y exportar registro a archivo excel","")))</f>
@@ -1752,7 +1464,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="I5" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1763,7 +1475,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en boton   generar archivo PDF , considerando la opcion enlace ID pestaña recaudacion para consultar registro y exportar archivo excel</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1781,7 +1493,7 @@
       <c r="F6" s="5"/>
       <c r="G6" s="8"/>
       <c r="H6" s="7" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="I6" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1792,7 +1504,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en boton   generar archivo PDF , considerando la opcion enlace ID pestaña general para consultar registro</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1814,7 +1526,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="I7" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1846,7 +1558,7 @@
       <c r="F8" s="5"/>
       <c r="G8" s="8"/>
       <c r="H8" s="7" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="I8" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1858,7 +1570,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en boton  agregar para el registro de nuevo registro   depositar remesa, considerando la opcion enlace ID pestaña general para consultar registro</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1880,7 +1592,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="I9" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1892,10 +1604,10 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en boton   generar archivo PDF  depositar remesa, considerando la opcion enlace ID pestaña recaudacion para consultar registro y exportar archivo excel</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>1</v>
       </c>
@@ -1910,7 +1622,7 @@
       <c r="F10" s="25"/>
       <c r="G10" s="24"/>
       <c r="H10" s="7" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="I10" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1922,7 +1634,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en boton   generar archivo PDF  depositar remesa</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1946,7 +1658,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="I11" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1980,7 +1692,7 @@
       <c r="F12" s="5"/>
       <c r="G12" s="8"/>
       <c r="H12" s="7" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="I12" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2040,17 +1752,17 @@
       <c r="G17" s="8"/>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
       <c r="C18" s="25"/>
       <c r="D18" s="24"/>
       <c r="E18" s="25"/>
       <c r="F18" s="25"/>
       <c r="G18" s="24"/>
-      <c r="H18" s="27"/>
+      <c r="H18" s="26"/>
       <c r="I18" s="12"/>
       <c r="J18" s="7"/>
-      <c r="K18" s="27"/>
+      <c r="K18" s="26"/>
     </row>
     <row r="19" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
@@ -2136,14 +1848,14 @@
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
     </row>
-    <row r="26" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="24"/>
       <c r="B26" s="25"/>
       <c r="D26" s="24"/>
       <c r="E26" s="25"/>
       <c r="F26" s="25"/>
       <c r="G26" s="24"/>
-      <c r="H26" s="27"/>
+      <c r="H26" s="26"/>
       <c r="I26" s="12"/>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
@@ -2255,13 +1967,13 @@
       <c r="F37" s="5"/>
       <c r="G37" s="8"/>
       <c r="H37" s="7" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="J37" s="32" t="s">
-        <v>190</v>
+        <v>165</v>
+      </c>
+      <c r="J37" s="31" t="s">
+        <v>166</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>131</v>
@@ -2412,7 +2124,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="11" topLeftCell="L1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="A3" sqref="A3:A17"/>
     </sheetView>
@@ -2435,55 +2147,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="42" t="s">
+      <c r="C1" s="42"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="55" t="s">
+      <c r="F1" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="G1" s="48"/>
-      <c r="H1" s="56" t="s">
+      <c r="G1" s="43"/>
+      <c r="H1" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="57"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="42" t="s">
+      <c r="I1" s="51"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="42" t="s">
+      <c r="L1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="N1" s="42" t="s">
+      <c r="M1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="37" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="45"/>
+      <c r="A2" s="40"/>
       <c r="B2" s="19" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="43"/>
+      <c r="E2" s="38"/>
       <c r="F2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="G2" s="30" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="18" t="s">
@@ -2495,10 +2207,10 @@
       <c r="J2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -2668,7 +2380,7 @@
         <f t="shared" si="1"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton agregar</v>
       </c>
-      <c r="N7" s="27" t="s">
+      <c r="N7" s="26" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2833,7 +2545,7 @@
         <f t="shared" si="1"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton eliminar</v>
       </c>
-      <c r="N12" s="27" t="s">
+      <c r="N12" s="26" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2993,7 +2705,7 @@
         <f t="shared" si="1"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton modificar</v>
       </c>
-      <c r="N17" s="27" t="s">
+      <c r="N17" s="26" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3073,7 +2785,7 @@
       <c r="L22" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="M22" s="32" t="s">
+      <c r="M22" s="31" t="s">
         <v>142</v>
       </c>
       <c r="N22" s="7" t="s">
@@ -3451,190 +3163,119 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE50"/>
+  <dimension ref="A1:Q50"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="28" topLeftCell="AD1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AD21" sqref="AD21"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="14" topLeftCell="O1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="3" customWidth="1"/>
     <col min="2" max="2" width="4.5703125" customWidth="1"/>
-    <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="9" width="4.5703125" customWidth="1"/>
-    <col min="10" max="10" width="4" style="3" customWidth="1"/>
-    <col min="11" max="12" width="4.140625" customWidth="1"/>
-    <col min="13" max="13" width="4.140625" style="3" customWidth="1"/>
-    <col min="14" max="14" width="5" customWidth="1"/>
-    <col min="15" max="15" width="5.7109375" style="3" customWidth="1"/>
-    <col min="16" max="16" width="5.7109375" style="13" customWidth="1"/>
-    <col min="17" max="17" width="5.28515625" style="3" customWidth="1"/>
-    <col min="18" max="21" width="5" customWidth="1"/>
-    <col min="22" max="22" width="5.7109375" style="3" customWidth="1"/>
-    <col min="23" max="23" width="5" style="6" customWidth="1"/>
-    <col min="24" max="24" width="5" customWidth="1"/>
-    <col min="25" max="25" width="5.7109375" style="3" customWidth="1"/>
-    <col min="26" max="26" width="5" customWidth="1"/>
-    <col min="27" max="27" width="5.7109375" style="3" customWidth="1"/>
-    <col min="28" max="28" width="49.42578125" style="6" customWidth="1"/>
-    <col min="29" max="29" width="255.42578125" style="12" customWidth="1"/>
-    <col min="30" max="30" width="255.42578125" style="7" customWidth="1"/>
-    <col min="31" max="31" width="79" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.28515625" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" customWidth="1"/>
+    <col min="5" max="5" width="4.5703125" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="4.7109375" customWidth="1"/>
+    <col min="8" max="9" width="4.140625" customWidth="1"/>
+    <col min="10" max="10" width="4.140625" style="3" customWidth="1"/>
+    <col min="11" max="12" width="5" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="3" customWidth="1"/>
+    <col min="14" max="14" width="49.42578125" style="6" customWidth="1"/>
+    <col min="15" max="15" width="255.42578125" style="12" customWidth="1"/>
+    <col min="16" max="16" width="255.42578125" style="7" customWidth="1"/>
+    <col min="17" max="17" width="79" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="49" t="s">
-        <v>150</v>
-      </c>
-      <c r="B1" s="50" t="s">
-        <v>147</v>
-      </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="54" t="s">
-        <v>160</v>
-      </c>
-      <c r="L1" s="55"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="53" t="s">
-        <v>162</v>
-      </c>
-      <c r="O1" s="52"/>
-      <c r="P1" s="51" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="53" t="s">
-        <v>148</v>
-      </c>
-      <c r="S1" s="51"/>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="52"/>
-      <c r="W1" s="42" t="s">
-        <v>169</v>
-      </c>
-      <c r="X1" s="53" t="s">
-        <v>170</v>
-      </c>
-      <c r="Y1" s="52"/>
-      <c r="Z1" s="53" t="s">
-        <v>173</v>
-      </c>
-      <c r="AA1" s="52"/>
-      <c r="AB1" s="42" t="s">
+    <row r="1" spans="1:17" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="47" t="s">
+        <v>210</v>
+      </c>
+      <c r="B1" s="56" t="s">
+        <v>215</v>
+      </c>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="45" t="s">
+        <v>216</v>
+      </c>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="45" t="s">
+        <v>219</v>
+      </c>
+      <c r="L1" s="49"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="AC1" s="42" t="s">
+      <c r="O1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="AD1" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE1" s="42" t="s">
+      <c r="P1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" s="37" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:31" s="14" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="45"/>
-      <c r="B2" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>152</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="E2" s="36" t="s">
-        <v>154</v>
-      </c>
-      <c r="F2" s="36" t="s">
-        <v>155</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="H2" s="36" t="s">
-        <v>157</v>
+    <row r="2" spans="1:17" s="14" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="40"/>
+      <c r="B2" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>220</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>217</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="J2" s="33" t="s">
-        <v>159</v>
+        <v>218</v>
+      </c>
+      <c r="J2" s="23" t="s">
+        <v>221</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>7</v>
+        <v>222</v>
       </c>
       <c r="L2" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="M2" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="N2" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="O2" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="P2" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q2" s="39" t="s">
-        <v>215</v>
-      </c>
-      <c r="R2" s="36" t="s">
-        <v>164</v>
-      </c>
-      <c r="S2" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="T2" s="38" t="s">
-        <v>166</v>
-      </c>
-      <c r="U2" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="V2" s="35" t="s">
-        <v>168</v>
-      </c>
-      <c r="W2" s="43"/>
-      <c r="X2" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="Y2" s="34" t="s">
-        <v>172</v>
-      </c>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="34"/>
-      <c r="AB2" s="43"/>
-      <c r="AC2" s="43"/>
-      <c r="AD2" s="43"/>
-      <c r="AE2" s="43"/>
-    </row>
-    <row r="3" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+      <c r="M2" s="35" t="s">
+        <v>218</v>
+      </c>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+    </row>
+    <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="5">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5">
-        <v>1</v>
-      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
+      <c r="F3" s="8"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
@@ -3642,48 +3283,26 @@
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="M3" s="8"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="16">
-        <v>1</v>
-      </c>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="8"/>
-      <c r="Z3" s="5"/>
-      <c r="AA3" s="8"/>
-      <c r="AB3" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="AC3" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="AD3" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="AE3" s="7" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N3" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="O3" s="12"/>
+      <c r="P3" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>1</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="5">
-        <v>1</v>
-      </c>
-      <c r="E4" s="5">
-        <v>1</v>
-      </c>
-      <c r="F4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="8"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
@@ -3691,34 +3310,12 @@
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
       <c r="M4" s="8"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="16"/>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="8"/>
-      <c r="Z4" s="5"/>
-      <c r="AA4" s="8"/>
-      <c r="AB4" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="AC4" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="AD4" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="AE4" s="7" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N4" s="7"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+    </row>
+    <row r="5" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>1</v>
       </c>
@@ -3726,46 +3323,20 @@
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="5">
-        <v>1</v>
-      </c>
-      <c r="G5" s="5">
-        <v>1</v>
-      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="8"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="8"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="16"/>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="8"/>
-      <c r="Z5" s="5"/>
-      <c r="AA5" s="8"/>
-      <c r="AB5" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="AC5" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="AD5" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="AE5" s="7" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N5" s="7"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+    </row>
+    <row r="6" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>1</v>
       </c>
@@ -3773,46 +3344,20 @@
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
+      <c r="F6" s="8"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="5">
-        <v>1</v>
-      </c>
-      <c r="I6" s="5">
-        <v>1</v>
-      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
       <c r="J6" s="8"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="8"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="16"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="8"/>
-      <c r="Z6" s="5"/>
-      <c r="AA6" s="8"/>
-      <c r="AB6" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="AC6" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="AD6" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="AE6" s="7" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N6" s="7"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+    </row>
+    <row r="7" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>1</v>
       </c>
@@ -3820,461 +3365,183 @@
       <c r="C7" s="25"/>
       <c r="D7" s="25"/>
       <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
+      <c r="F7" s="24"/>
       <c r="G7" s="25"/>
       <c r="H7" s="25"/>
       <c r="I7" s="25"/>
-      <c r="J7" s="24">
-        <v>1</v>
-      </c>
+      <c r="J7" s="24"/>
       <c r="K7" s="25"/>
       <c r="L7" s="25"/>
       <c r="M7" s="24"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="25"/>
-      <c r="S7" s="25"/>
-      <c r="T7" s="25"/>
-      <c r="U7" s="25"/>
-      <c r="V7" s="24"/>
-      <c r="W7" s="26"/>
-      <c r="X7" s="25"/>
-      <c r="Y7" s="24"/>
-      <c r="Z7" s="25"/>
-      <c r="AA7" s="24"/>
-      <c r="AB7" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="AC7" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="AD7" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="AE7" s="27" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N7" s="7"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="26"/>
+    </row>
+    <row r="8" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>1</v>
       </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
       <c r="J8" s="8"/>
-      <c r="K8" s="5">
-        <v>1</v>
-      </c>
-      <c r="L8" s="5">
-        <v>1</v>
-      </c>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
       <c r="M8" s="8"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="16"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="8"/>
-      <c r="Z8" s="5"/>
-      <c r="AA8" s="8"/>
-      <c r="AB8" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="AC8" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="AD8" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="AE8" s="7" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N8" s="7"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+    </row>
+    <row r="9" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>1</v>
       </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
       <c r="J9" s="8"/>
       <c r="K9" s="5"/>
-      <c r="L9" s="5">
-        <v>1</v>
-      </c>
-      <c r="M9" s="8">
-        <v>1</v>
-      </c>
-      <c r="N9" s="5"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="16"/>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="8"/>
-      <c r="Z9" s="5"/>
-      <c r="AA9" s="8"/>
-      <c r="AB9" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="AC9" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="AD9" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="AE9" s="7" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="L9" s="5"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>1</v>
       </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
       <c r="J10" s="8"/>
-      <c r="K10" s="5">
-        <v>1</v>
-      </c>
-      <c r="L10" s="5">
-        <v>1</v>
-      </c>
-      <c r="M10" s="8">
-        <v>1</v>
-      </c>
-      <c r="N10" s="5"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="16"/>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="8"/>
-      <c r="Z10" s="5"/>
-      <c r="AA10" s="8"/>
-      <c r="AB10" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="AC10" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="AD10" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="AE10" s="7" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="7"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>1</v>
       </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
       <c r="J11" s="8"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
       <c r="M11" s="8"/>
-      <c r="N11" s="5">
-        <v>1</v>
-      </c>
-      <c r="O11" s="8"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="8"/>
-      <c r="W11" s="16"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="8"/>
-      <c r="Z11" s="5"/>
-      <c r="AA11" s="8"/>
-      <c r="AB11" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="AC11" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="AD11" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="AE11" s="7" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N11" s="7"/>
+    </row>
+    <row r="12" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>1</v>
       </c>
+      <c r="F12" s="34"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
       <c r="J12" s="24"/>
       <c r="K12" s="25"/>
       <c r="L12" s="25"/>
       <c r="M12" s="24"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="24">
-        <v>1</v>
-      </c>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="25"/>
-      <c r="S12" s="25"/>
-      <c r="T12" s="25"/>
-      <c r="U12" s="25"/>
-      <c r="V12" s="24"/>
-      <c r="W12" s="26"/>
-      <c r="X12" s="25"/>
-      <c r="Y12" s="24"/>
-      <c r="Z12" s="25"/>
-      <c r="AA12" s="24"/>
-      <c r="AB12" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="AC12" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="AD12" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="AE12" s="27" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="N12" s="7"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="26"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>1</v>
       </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="8"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="8"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="8"/>
-      <c r="W13" s="16">
-        <v>1</v>
-      </c>
-      <c r="X13" s="5"/>
-      <c r="Y13" s="8"/>
-      <c r="Z13" s="5"/>
-      <c r="AA13" s="8"/>
-      <c r="AB13" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="AC13" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="AD13" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="AE13" s="7" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="N13" s="7"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>1</v>
       </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="8"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
       <c r="M14" s="8"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="5">
-        <v>1</v>
-      </c>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="8"/>
-      <c r="W14" s="16"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="8"/>
-      <c r="Z14" s="5"/>
-      <c r="AA14" s="8"/>
-      <c r="AB14" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="AC14" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="AD14" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="AE14" s="7" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="N14" s="7"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>1</v>
       </c>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="8"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
       <c r="M15" s="8"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5">
-        <v>1</v>
-      </c>
-      <c r="T15" s="5">
-        <v>1</v>
-      </c>
-      <c r="U15" s="5"/>
-      <c r="V15" s="8"/>
-      <c r="W15" s="16"/>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="8"/>
-      <c r="Z15" s="5"/>
-      <c r="AA15" s="8"/>
-      <c r="AB15" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="AC15" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="AD15" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="AE15" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="N15" s="7"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>1</v>
       </c>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="8"/>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
       <c r="M16" s="8"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5">
-        <v>1</v>
-      </c>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5">
-        <v>1</v>
-      </c>
-      <c r="V16" s="8"/>
-      <c r="W16" s="16"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="8"/>
-      <c r="Z16" s="5"/>
-      <c r="AA16" s="8"/>
-      <c r="AB16" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="AC16" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="AD16" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="AE16" s="7" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="17" spans="1:31" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N16" s="7"/>
+    </row>
+    <row r="17" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>1</v>
       </c>
-      <c r="J17" s="37"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="24"/>
       <c r="K17" s="25"/>
       <c r="L17" s="25"/>
       <c r="M17" s="24"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="25"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="25"/>
-      <c r="S17" s="25">
-        <v>1</v>
-      </c>
-      <c r="T17" s="25"/>
-      <c r="U17" s="25"/>
-      <c r="V17" s="24">
-        <v>1</v>
-      </c>
-      <c r="W17" s="26"/>
-      <c r="X17" s="25"/>
-      <c r="Y17" s="24"/>
-      <c r="Z17" s="25"/>
-      <c r="AA17" s="24"/>
-      <c r="AB17" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="AC17" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="AD17" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="AE17" s="27" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="18" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N17" s="7"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="26"/>
+    </row>
+    <row r="18" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>1</v>
       </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
       <c r="J18" s="8"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
       <c r="M18" s="8"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="8"/>
-      <c r="W18" s="16"/>
-      <c r="X18" s="5">
-        <v>1</v>
-      </c>
-      <c r="Y18" s="8"/>
-      <c r="Z18" s="5"/>
-      <c r="AA18" s="8"/>
-      <c r="AB18" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="AC18" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="AD18" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="AE18" s="27" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="19" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N18" s="7"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="26"/>
+    </row>
+    <row r="19" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>1</v>
       </c>
@@ -4282,7 +3549,7 @@
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
+      <c r="F19" s="8"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
@@ -4290,36 +3557,12 @@
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="8"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="8"/>
-      <c r="W19" s="16"/>
-      <c r="X19" s="5"/>
-      <c r="Y19" s="8">
-        <v>1</v>
-      </c>
-      <c r="Z19" s="5"/>
-      <c r="AA19" s="8"/>
-      <c r="AB19" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="AC19" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="AD19" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="AE19" s="27" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="20" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N19" s="7"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="26"/>
+    </row>
+    <row r="20" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>1</v>
       </c>
@@ -4327,7 +3570,7 @@
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
+      <c r="F20" s="8"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
@@ -4335,36 +3578,12 @@
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="8"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="8"/>
-      <c r="W20" s="16"/>
-      <c r="X20" s="5"/>
-      <c r="Y20" s="8"/>
-      <c r="Z20" s="5"/>
-      <c r="AA20" s="8"/>
-      <c r="AB20" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="AC20" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="AD20" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="AE20" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N20" s="7"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+    </row>
+    <row r="21" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>1</v>
       </c>
@@ -4372,7 +3591,7 @@
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
+      <c r="F21" s="8"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
@@ -4380,42 +3599,18 @@
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
       <c r="M21" s="8"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="8">
-        <v>1</v>
-      </c>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
-      <c r="V21" s="8"/>
-      <c r="W21" s="16"/>
-      <c r="X21" s="5"/>
-      <c r="Y21" s="8"/>
-      <c r="Z21" s="5"/>
-      <c r="AA21" s="8"/>
-      <c r="AB21" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="AC21" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="AD21" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="AE21" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N21" s="7"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+    </row>
+    <row r="22" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
+      <c r="F22" s="8"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
@@ -4423,32 +3618,18 @@
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
       <c r="M22" s="8"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="5"/>
-      <c r="V22" s="8"/>
-      <c r="W22" s="16"/>
-      <c r="X22" s="5"/>
-      <c r="Y22" s="8"/>
-      <c r="Z22" s="5"/>
-      <c r="AA22" s="8"/>
-      <c r="AB22" s="7"/>
-      <c r="AC22" s="12"/>
-      <c r="AD22" s="7"/>
-      <c r="AE22" s="7"/>
-    </row>
-    <row r="23" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N22" s="7"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+    </row>
+    <row r="23" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
+      <c r="F23" s="8"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
@@ -4456,32 +3637,18 @@
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
       <c r="M23" s="8"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5"/>
-      <c r="V23" s="8"/>
-      <c r="W23" s="16"/>
-      <c r="X23" s="5"/>
-      <c r="Y23" s="8"/>
-      <c r="Z23" s="5"/>
-      <c r="AA23" s="8"/>
-      <c r="AB23" s="7"/>
-      <c r="AC23" s="12"/>
-      <c r="AD23" s="7"/>
-      <c r="AE23" s="7"/>
-    </row>
-    <row r="24" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N23" s="7"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+    </row>
+    <row r="24" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
+      <c r="F24" s="8"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
@@ -4489,32 +3656,18 @@
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
       <c r="M24" s="8"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="8"/>
-      <c r="W24" s="16"/>
-      <c r="X24" s="5"/>
-      <c r="Y24" s="8"/>
-      <c r="Z24" s="5"/>
-      <c r="AA24" s="8"/>
-      <c r="AB24" s="7"/>
-      <c r="AC24" s="12"/>
-      <c r="AD24" s="7"/>
-      <c r="AE24" s="7"/>
-    </row>
-    <row r="25" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N24" s="7"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+    </row>
+    <row r="25" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
+      <c r="F25" s="8"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
@@ -4522,32 +3675,18 @@
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
       <c r="M25" s="8"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
-      <c r="V25" s="8"/>
-      <c r="W25" s="16"/>
-      <c r="X25" s="5"/>
-      <c r="Y25" s="8"/>
-      <c r="Z25" s="5"/>
-      <c r="AA25" s="8"/>
-      <c r="AB25" s="7"/>
-      <c r="AC25" s="12"/>
-      <c r="AD25" s="32"/>
-      <c r="AE25" s="7"/>
-    </row>
-    <row r="26" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N25" s="7"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="31"/>
+      <c r="Q25" s="7"/>
+    </row>
+    <row r="26" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
+      <c r="F26" s="8"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
@@ -4555,611 +3694,313 @@
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
       <c r="M26" s="8"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="8"/>
-      <c r="R26" s="5"/>
-      <c r="S26" s="5"/>
-      <c r="T26" s="5"/>
-      <c r="U26" s="5"/>
-      <c r="V26" s="8"/>
-      <c r="W26" s="16"/>
-      <c r="X26" s="5"/>
-      <c r="Y26" s="8"/>
-      <c r="Z26" s="5"/>
-      <c r="AA26" s="8"/>
-      <c r="AB26" s="7"/>
-      <c r="AC26" s="12"/>
-      <c r="AD26" s="7"/>
-      <c r="AE26" s="7"/>
-    </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="N26" s="7"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
       <c r="J27" s="8"/>
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
       <c r="M27" s="8"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="8"/>
-      <c r="R27" s="5"/>
-      <c r="S27" s="5"/>
-      <c r="T27" s="5"/>
-      <c r="U27" s="5"/>
-      <c r="V27" s="8"/>
-      <c r="W27" s="16"/>
-      <c r="X27" s="5"/>
-      <c r="Y27" s="8"/>
-      <c r="Z27" s="5"/>
-      <c r="AA27" s="8"/>
-      <c r="AB27" s="7"/>
-    </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="N27" s="7"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
       <c r="J28" s="8"/>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
       <c r="M28" s="8"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="8"/>
-      <c r="R28" s="5"/>
-      <c r="S28" s="5"/>
-      <c r="T28" s="5"/>
-      <c r="U28" s="5"/>
-      <c r="V28" s="8"/>
-      <c r="W28" s="16"/>
-      <c r="X28" s="5"/>
-      <c r="Y28" s="8"/>
-      <c r="Z28" s="5"/>
-      <c r="AA28" s="8"/>
-      <c r="AB28" s="7"/>
-    </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="N28" s="7"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
       <c r="J29" s="8"/>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
       <c r="M29" s="8"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="8"/>
-      <c r="R29" s="5"/>
-      <c r="S29" s="5"/>
-      <c r="T29" s="5"/>
-      <c r="U29" s="5"/>
-      <c r="V29" s="8"/>
-      <c r="W29" s="16"/>
-      <c r="X29" s="5"/>
-      <c r="Y29" s="8"/>
-      <c r="Z29" s="5"/>
-      <c r="AA29" s="8"/>
-      <c r="AB29" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="AC29" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="AD29" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="AE29" s="7" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="N29" s="7"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
       <c r="J30" s="8"/>
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
       <c r="M30" s="8"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="8"/>
-      <c r="R30" s="5"/>
-      <c r="S30" s="5"/>
-      <c r="T30" s="5"/>
-      <c r="U30" s="5"/>
-      <c r="V30" s="8"/>
-      <c r="W30" s="16"/>
-      <c r="X30" s="5"/>
-      <c r="Y30" s="8"/>
-      <c r="Z30" s="5"/>
-      <c r="AA30" s="8"/>
-      <c r="AB30" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="AC30" s="12" t="s">
-        <v>268</v>
-      </c>
-      <c r="AD30" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="AE30" s="7" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="N30" s="7"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
       <c r="J31" s="8"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
       <c r="M31" s="8"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="8"/>
-      <c r="R31" s="5"/>
-      <c r="S31" s="5"/>
-      <c r="T31" s="5"/>
-      <c r="U31" s="5"/>
-      <c r="V31" s="8"/>
-      <c r="W31" s="16"/>
-      <c r="X31" s="5"/>
-      <c r="Y31" s="8"/>
-      <c r="Z31" s="5"/>
-      <c r="AA31" s="8"/>
-      <c r="AB31" s="7"/>
-    </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="N31" s="7"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
       <c r="J32" s="8"/>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
       <c r="M32" s="8"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="5"/>
-      <c r="Q32" s="8"/>
-      <c r="R32" s="5"/>
-      <c r="S32" s="5"/>
-      <c r="T32" s="5"/>
-      <c r="U32" s="5"/>
-      <c r="V32" s="8"/>
-      <c r="W32" s="16"/>
-      <c r="X32" s="5"/>
-      <c r="Y32" s="8"/>
-      <c r="Z32" s="5"/>
-      <c r="AA32" s="8"/>
-      <c r="AB32" s="7"/>
-    </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="N32" s="7"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
       <c r="J33" s="8"/>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
       <c r="M33" s="8"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="8"/>
-      <c r="R33" s="5"/>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="5"/>
-      <c r="V33" s="8"/>
-      <c r="W33" s="16"/>
-      <c r="X33" s="5"/>
-      <c r="Y33" s="8"/>
-      <c r="Z33" s="5"/>
-      <c r="AA33" s="8"/>
-      <c r="AB33" s="7"/>
-    </row>
-    <row r="34" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N33" s="7"/>
+    </row>
+    <row r="34" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
       <c r="J34" s="8"/>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
       <c r="M34" s="8"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="8"/>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="8"/>
-      <c r="R34" s="5"/>
-      <c r="S34" s="5"/>
-      <c r="T34" s="5"/>
-      <c r="U34" s="5"/>
-      <c r="V34" s="8"/>
-      <c r="W34" s="16"/>
-      <c r="X34" s="5"/>
-      <c r="Y34" s="8"/>
-      <c r="Z34" s="5"/>
-      <c r="AA34" s="8"/>
-      <c r="AB34" s="7"/>
-      <c r="AC34" s="12"/>
-      <c r="AD34" s="7"/>
-      <c r="AE34" s="7"/>
-    </row>
-    <row r="35" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N34" s="7"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
+    </row>
+    <row r="35" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
       <c r="J35" s="8"/>
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
       <c r="M35" s="8"/>
-      <c r="N35" s="5"/>
-      <c r="O35" s="8"/>
-      <c r="P35" s="5"/>
-      <c r="Q35" s="8"/>
-      <c r="R35" s="5"/>
-      <c r="S35" s="5"/>
-      <c r="T35" s="5"/>
-      <c r="U35" s="5"/>
-      <c r="V35" s="8"/>
-      <c r="W35" s="16"/>
-      <c r="X35" s="5"/>
-      <c r="Y35" s="8"/>
-      <c r="Z35" s="5"/>
-      <c r="AA35" s="8"/>
-      <c r="AB35" s="7"/>
-      <c r="AC35" s="12"/>
-      <c r="AD35" s="7"/>
-      <c r="AE35" s="7"/>
-    </row>
-    <row r="36" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N35" s="7"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
+    </row>
+    <row r="36" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
       <c r="J36" s="8"/>
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
       <c r="M36" s="8"/>
-      <c r="N36" s="5"/>
-      <c r="O36" s="8"/>
-      <c r="P36" s="5"/>
-      <c r="Q36" s="8"/>
-      <c r="R36" s="5"/>
-      <c r="S36" s="5"/>
-      <c r="T36" s="5"/>
-      <c r="U36" s="5"/>
-      <c r="V36" s="8"/>
-      <c r="W36" s="16"/>
-      <c r="X36" s="5"/>
-      <c r="Y36" s="8"/>
-      <c r="Z36" s="5"/>
-      <c r="AA36" s="8"/>
-      <c r="AB36" s="7"/>
-      <c r="AC36" s="12"/>
-      <c r="AD36" s="7"/>
-      <c r="AE36" s="7"/>
-    </row>
-    <row r="37" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N36" s="7"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7"/>
+    </row>
+    <row r="37" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
       <c r="J37" s="8"/>
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
       <c r="M37" s="8"/>
-      <c r="N37" s="5"/>
-      <c r="O37" s="8"/>
-      <c r="P37" s="5"/>
-      <c r="Q37" s="8"/>
-      <c r="R37" s="5"/>
-      <c r="S37" s="5"/>
-      <c r="T37" s="5"/>
-      <c r="U37" s="5"/>
-      <c r="V37" s="8"/>
-      <c r="W37" s="16"/>
-      <c r="X37" s="5"/>
-      <c r="Y37" s="8"/>
-      <c r="Z37" s="5"/>
-      <c r="AA37" s="8"/>
-      <c r="AB37" s="7"/>
-      <c r="AC37" s="12"/>
-      <c r="AD37" s="7"/>
-      <c r="AE37" s="7"/>
-    </row>
-    <row r="38" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N37" s="7"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="7"/>
+    </row>
+    <row r="38" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
       <c r="J38" s="8"/>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
       <c r="M38" s="8"/>
-      <c r="N38" s="5"/>
-      <c r="O38" s="8"/>
-      <c r="P38" s="5"/>
-      <c r="Q38" s="8"/>
-      <c r="R38" s="5"/>
-      <c r="S38" s="5"/>
-      <c r="T38" s="5"/>
-      <c r="U38" s="5"/>
-      <c r="V38" s="8"/>
-      <c r="W38" s="16"/>
-      <c r="X38" s="5"/>
-      <c r="Y38" s="8"/>
-      <c r="Z38" s="5"/>
-      <c r="AA38" s="8"/>
-      <c r="AB38" s="7"/>
-      <c r="AC38" s="12"/>
-      <c r="AD38" s="7"/>
-      <c r="AE38" s="7"/>
-    </row>
-    <row r="39" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N38" s="7"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="7"/>
+    </row>
+    <row r="39" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
       <c r="J39" s="8"/>
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
       <c r="M39" s="8"/>
-      <c r="N39" s="5"/>
-      <c r="O39" s="8"/>
-      <c r="P39" s="5"/>
-      <c r="Q39" s="8"/>
-      <c r="R39" s="5"/>
-      <c r="S39" s="5"/>
-      <c r="T39" s="5"/>
-      <c r="U39" s="5"/>
-      <c r="V39" s="8"/>
-      <c r="W39" s="16"/>
-      <c r="X39" s="5"/>
-      <c r="Y39" s="8"/>
-      <c r="Z39" s="5"/>
-      <c r="AA39" s="8"/>
-      <c r="AB39" s="7"/>
-      <c r="AC39" s="12"/>
-      <c r="AD39" s="7"/>
-      <c r="AE39" s="7"/>
-    </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="N39" s="7"/>
+      <c r="O39" s="12"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="7"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
       <c r="J40" s="8"/>
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
       <c r="M40" s="8"/>
-      <c r="N40" s="5"/>
-      <c r="O40" s="8"/>
-      <c r="P40" s="5"/>
-      <c r="Q40" s="8"/>
-      <c r="R40" s="5"/>
-      <c r="S40" s="5"/>
-      <c r="T40" s="5"/>
-      <c r="U40" s="5"/>
-      <c r="V40" s="8"/>
-      <c r="W40" s="16"/>
-      <c r="X40" s="5"/>
-      <c r="Y40" s="8"/>
-      <c r="Z40" s="5"/>
-      <c r="AA40" s="8"/>
-      <c r="AB40" s="7"/>
-    </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="N40" s="7"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
       <c r="J41" s="8"/>
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
       <c r="M41" s="8"/>
-      <c r="N41" s="5"/>
-      <c r="O41" s="8"/>
-      <c r="P41" s="5"/>
-      <c r="Q41" s="8"/>
-      <c r="R41" s="5"/>
-      <c r="S41" s="5"/>
-      <c r="T41" s="5"/>
-      <c r="U41" s="5"/>
-      <c r="V41" s="8"/>
-      <c r="W41" s="16"/>
-      <c r="X41" s="5"/>
-      <c r="Y41" s="8"/>
-      <c r="Z41" s="5"/>
-      <c r="AA41" s="8"/>
-      <c r="AB41" s="7"/>
-    </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="N41" s="7"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
       <c r="J42" s="8"/>
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
       <c r="M42" s="8"/>
-      <c r="N42" s="5"/>
-      <c r="O42" s="8"/>
-      <c r="P42" s="5"/>
-      <c r="Q42" s="8"/>
-      <c r="R42" s="5"/>
-      <c r="S42" s="5"/>
-      <c r="T42" s="5"/>
-      <c r="U42" s="5"/>
-      <c r="V42" s="8"/>
-      <c r="W42" s="16"/>
-      <c r="X42" s="5"/>
-      <c r="Y42" s="8"/>
-      <c r="Z42" s="5"/>
-      <c r="AA42" s="8"/>
-      <c r="AB42" s="7"/>
-    </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="N42" s="7"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
       <c r="J43" s="8"/>
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
       <c r="M43" s="8"/>
-      <c r="N43" s="5"/>
-      <c r="O43" s="8"/>
-      <c r="P43" s="5"/>
-      <c r="Q43" s="8"/>
-      <c r="R43" s="5"/>
-      <c r="S43" s="5"/>
-      <c r="T43" s="5"/>
-      <c r="U43" s="5"/>
-      <c r="V43" s="8"/>
-      <c r="W43" s="16"/>
-      <c r="X43" s="5"/>
-      <c r="Y43" s="8"/>
-      <c r="Z43" s="5"/>
-      <c r="AA43" s="8"/>
-      <c r="AB43" s="7"/>
-    </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="N43" s="7"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
       <c r="J44" s="8"/>
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
       <c r="M44" s="8"/>
-      <c r="N44" s="5"/>
-      <c r="O44" s="8"/>
-      <c r="P44" s="5"/>
-      <c r="Q44" s="8"/>
-      <c r="R44" s="5"/>
-      <c r="S44" s="5"/>
-      <c r="T44" s="5"/>
-      <c r="U44" s="5"/>
-      <c r="V44" s="8"/>
-      <c r="W44" s="16"/>
-      <c r="X44" s="5"/>
-      <c r="Y44" s="8"/>
-      <c r="Z44" s="5"/>
-      <c r="AA44" s="8"/>
-      <c r="AB44" s="7"/>
-    </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="N44" s="7"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
       <c r="J45" s="8"/>
       <c r="K45" s="5"/>
       <c r="L45" s="5"/>
       <c r="M45" s="8"/>
-      <c r="N45" s="5"/>
-      <c r="O45" s="8"/>
-      <c r="P45" s="5"/>
-      <c r="Q45" s="8"/>
-      <c r="R45" s="5"/>
-      <c r="S45" s="5"/>
-      <c r="T45" s="5"/>
-      <c r="U45" s="5"/>
-      <c r="V45" s="8"/>
-      <c r="W45" s="16"/>
-      <c r="X45" s="5"/>
-      <c r="Y45" s="8"/>
-      <c r="Z45" s="5"/>
-      <c r="AA45" s="8"/>
-      <c r="AB45" s="7"/>
-    </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="N45" s="7"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
       <c r="J46" s="8"/>
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
       <c r="M46" s="8"/>
-      <c r="N46" s="5"/>
-      <c r="O46" s="8"/>
-      <c r="P46" s="5"/>
-      <c r="Q46" s="8"/>
-      <c r="R46" s="5"/>
-      <c r="S46" s="5"/>
-      <c r="T46" s="5"/>
-      <c r="U46" s="5"/>
-      <c r="V46" s="8"/>
-      <c r="W46" s="16"/>
-      <c r="X46" s="5"/>
-      <c r="Y46" s="8"/>
-      <c r="Z46" s="5"/>
-      <c r="AA46" s="8"/>
-      <c r="AB46" s="7"/>
-    </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="N46" s="7"/>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
       <c r="J47" s="8"/>
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
       <c r="M47" s="8"/>
-      <c r="N47" s="5"/>
-      <c r="O47" s="8"/>
-      <c r="P47" s="5"/>
-      <c r="Q47" s="8"/>
-      <c r="R47" s="5"/>
-      <c r="S47" s="5"/>
-      <c r="T47" s="5"/>
-      <c r="U47" s="5"/>
-      <c r="V47" s="8"/>
-      <c r="W47" s="16"/>
-      <c r="X47" s="5"/>
-      <c r="Y47" s="8"/>
-      <c r="Z47" s="5"/>
-      <c r="AA47" s="8"/>
-      <c r="AB47" s="7"/>
-    </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="N47" s="7"/>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
       <c r="J48" s="8"/>
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
       <c r="M48" s="8"/>
-      <c r="N48" s="5"/>
-      <c r="O48" s="8"/>
-      <c r="P48" s="5"/>
-      <c r="Q48" s="8"/>
-      <c r="R48" s="5"/>
-      <c r="S48" s="5"/>
-      <c r="T48" s="5"/>
-      <c r="U48" s="5"/>
-      <c r="V48" s="8"/>
-      <c r="W48" s="16"/>
-      <c r="X48" s="5"/>
-      <c r="Y48" s="8"/>
-      <c r="Z48" s="5"/>
-      <c r="AA48" s="8"/>
-      <c r="AB48" s="7"/>
-    </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="N48" s="7"/>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
       <c r="J49" s="8"/>
       <c r="K49" s="5"/>
       <c r="L49" s="5"/>
       <c r="M49" s="8"/>
-      <c r="N49" s="5"/>
-      <c r="O49" s="8"/>
-      <c r="P49" s="5"/>
-      <c r="Q49" s="8"/>
-      <c r="R49" s="5"/>
-      <c r="S49" s="5"/>
-      <c r="T49" s="5"/>
-      <c r="U49" s="5"/>
-      <c r="V49" s="8"/>
-      <c r="W49" s="16"/>
-      <c r="X49" s="5"/>
-      <c r="Y49" s="8"/>
-      <c r="Z49" s="5"/>
-      <c r="AA49" s="8"/>
-      <c r="AB49" s="7"/>
-    </row>
-    <row r="50" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N49" s="7"/>
+    </row>
+    <row r="50" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
       <c r="J50" s="8"/>
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
       <c r="M50" s="8"/>
-      <c r="N50" s="5"/>
-      <c r="O50" s="8"/>
-      <c r="P50" s="5"/>
-      <c r="Q50" s="8"/>
-      <c r="R50" s="5"/>
-      <c r="S50" s="5"/>
-      <c r="T50" s="5"/>
-      <c r="U50" s="5"/>
-      <c r="V50" s="8"/>
-      <c r="W50" s="16"/>
-      <c r="X50" s="5"/>
-      <c r="Y50" s="8"/>
-      <c r="Z50" s="5"/>
-      <c r="AA50" s="8"/>
-      <c r="AB50" s="7"/>
-      <c r="AC50" s="12"/>
-      <c r="AD50" s="7"/>
-      <c r="AE50" s="7"/>
+      <c r="N50" s="7"/>
+      <c r="O50" s="12"/>
+      <c r="P50" s="7"/>
+      <c r="Q50" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="AD1:AD2"/>
-    <mergeCell ref="AE1:AE2"/>
+  <mergeCells count="8">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="AB1:AB2"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="W1:W2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:V1"/>
-    <mergeCell ref="AC1:AC2"/>
+    <mergeCell ref="N1:N2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5170,7 +4011,7 @@
   <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -5183,65 +4024,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="42" t="s">
+      <c r="C1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="37" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="14" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>271</v>
+        <v>169</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>274</v>
+        <v>172</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>277</v>
+        <v>175</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>280</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>272</v>
+        <v>170</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>275</v>
+        <v>173</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>278</v>
+        <v>176</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>280</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>273</v>
+        <v>171</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="C5" s="32" t="s">
-        <v>279</v>
+        <v>174</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>177</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>280</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5250,11 +4091,11 @@
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
+    <row r="7" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="26"/>
       <c r="B7" s="12"/>
       <c r="C7" s="7"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="26"/>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
@@ -5274,11 +4115,11 @@
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
     </row>
-    <row r="12" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="27"/>
+    <row r="12" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="26"/>
       <c r="B12" s="12"/>
       <c r="C12" s="7"/>
-      <c r="D12" s="27"/>
+      <c r="D12" s="26"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
@@ -5292,17 +4133,17 @@
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
     </row>
-    <row r="17" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="27"/>
+    <row r="17" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="26"/>
       <c r="B17" s="12"/>
       <c r="C17" s="7"/>
-      <c r="D17" s="27"/>
+      <c r="D17" s="26"/>
     </row>
     <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="12"/>
       <c r="C18" s="7"/>
-      <c r="D18" s="27"/>
+      <c r="D18" s="26"/>
     </row>
     <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
@@ -5343,7 +4184,7 @@
     <row r="25" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="32"/>
+      <c r="C25" s="31"/>
       <c r="D25" s="7"/>
     </row>
     <row r="26" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5485,41 +4326,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="42" t="s">
+      <c r="C1" s="42"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="55" t="s">
+      <c r="F1" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="48"/>
-      <c r="H1" s="56" t="s">
+      <c r="G1" s="43"/>
+      <c r="H1" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="57"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="42" t="s">
+      <c r="I1" s="51"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="42" t="s">
+      <c r="L1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="N1" s="42" t="s">
+      <c r="M1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="37" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="14" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="45"/>
+      <c r="A2" s="40"/>
       <c r="B2" s="19" t="s">
         <v>5</v>
       </c>
@@ -5529,7 +4370,7 @@
       <c r="D2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="43"/>
+      <c r="E2" s="38"/>
       <c r="F2" s="19" t="s">
         <v>7</v>
       </c>
@@ -5545,10 +4386,10 @@
       <c r="J2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -5722,7 +4563,7 @@
         <f t="shared" si="1"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Maestro, sub-modulo Estados de segumiento, hacer clic en boton Agregar para crear nuevo registro</v>
       </c>
-      <c r="N7" s="27" t="s">
+      <c r="N7" s="26" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5891,7 +4732,7 @@
         <f t="shared" si="1"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Maestro, sub-modulo Estados de segumiento, hacer clic en boton eliminar</v>
       </c>
-      <c r="N12" s="27" t="s">
+      <c r="N12" s="26" t="s">
         <v>36</v>
       </c>
     </row>
@@ -6055,7 +4896,7 @@
         <f t="shared" si="1"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Maestro, sub-modulo Estados de segumiento, hacer clic en boton modificar para editar registro</v>
       </c>
-      <c r="N17" s="27" t="s">
+      <c r="N17" s="26" t="s">
         <v>68</v>
       </c>
     </row>
@@ -6135,7 +4976,7 @@
       <c r="L22" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="M22" s="32" t="s">
+      <c r="M22" s="31" t="s">
         <v>134</v>
       </c>
       <c r="N22" s="7" t="s">
@@ -6541,44 +5382,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="50" t="s">
+      <c r="C1" s="42"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="59" t="s">
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="56" t="s">
+      <c r="J1" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="42" t="s">
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="42" t="s">
+      <c r="O1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q1" s="42" t="s">
+      <c r="P1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" s="37" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="45"/>
+      <c r="A2" s="40"/>
       <c r="B2" s="19" t="s">
         <v>5</v>
       </c>
@@ -6600,7 +5441,7 @@
       <c r="H2" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="I2" s="43"/>
+      <c r="I2" s="38"/>
       <c r="J2" s="18" t="s">
         <v>20</v>
       </c>
@@ -6613,10 +5454,10 @@
       <c r="M2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
     </row>
     <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -7132,7 +5973,7 @@
       <c r="L17" s="9"/>
       <c r="M17" s="10"/>
       <c r="N17" s="7"/>
-      <c r="Q17" s="27"/>
+      <c r="Q17" s="26"/>
     </row>
     <row r="18" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
@@ -7189,7 +6030,7 @@
       <c r="O20" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="P20" s="32" t="s">
+      <c r="P20" s="31" t="s">
         <v>136</v>
       </c>
       <c r="Q20" s="7" t="s">
@@ -7713,42 +6554,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="42" t="s">
+      <c r="C1" s="42"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="55" t="s">
+      <c r="F1" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="48"/>
-      <c r="H1" s="56" t="s">
+      <c r="G1" s="43"/>
+      <c r="H1" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="42" t="s">
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="42" t="s">
+      <c r="M1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="O1" s="42" t="s">
+      <c r="N1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="37" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="45"/>
+      <c r="A2" s="40"/>
       <c r="B2" s="19" t="s">
         <v>5</v>
       </c>
@@ -7758,7 +6599,7 @@
       <c r="D2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="43"/>
+      <c r="E2" s="38"/>
       <c r="F2" s="19" t="s">
         <v>7</v>
       </c>
@@ -7777,10 +6618,10 @@
       <c r="K2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -7959,7 +6800,7 @@
         <f t="shared" si="0"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Feriados, hacer clic en boton agregar</v>
       </c>
-      <c r="O7" s="27" t="s">
+      <c r="O7" s="26" t="s">
         <v>35</v>
       </c>
     </row>
@@ -8133,7 +6974,7 @@
         <f t="shared" si="0"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Feriados, hacer clic en boton eliminar</v>
       </c>
-      <c r="O12" s="27" t="s">
+      <c r="O12" s="26" t="s">
         <v>36</v>
       </c>
     </row>
@@ -8302,7 +7143,7 @@
         <f t="shared" si="0"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Feriados, hacer clic en boton modificar</v>
       </c>
-      <c r="O17" s="27" t="s">
+      <c r="O17" s="26" t="s">
         <v>68</v>
       </c>
     </row>
@@ -8419,7 +7260,7 @@
       <c r="M24" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="N24" s="32" t="s">
+      <c r="N24" s="31" t="s">
         <v>138</v>
       </c>
       <c r="O24" s="7" t="s">
@@ -8819,61 +7660,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="42" t="s">
+      <c r="C1" s="42"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="55" t="s">
+      <c r="F1" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="48"/>
-      <c r="H1" s="56" t="s">
+      <c r="G1" s="43"/>
+      <c r="H1" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="42" t="s">
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="R1" s="42" t="s">
+      <c r="R1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="T1" s="42" t="s">
+      <c r="S1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="T1" s="37" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="14" customFormat="1" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="45"/>
+      <c r="A2" s="40"/>
       <c r="B2" s="19" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="43"/>
+      <c r="E2" s="38"/>
       <c r="F2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="29" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="18" t="s">
@@ -8903,10 +7744,10 @@
       <c r="P2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
     </row>
     <row r="3" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -9116,7 +7957,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">Acceder a sistema cartera con usuario que poseea perfil para ingresar al modulo Maestro, sub-modulo Formas de pago para agregar registro  </v>
       </c>
-      <c r="T7" s="27" t="s">
+      <c r="T7" s="26" t="s">
         <v>35</v>
       </c>
     </row>
@@ -9321,7 +8162,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">Acceder a sistema cartera con usuario que poseea perfil para ingresar al modulo Maestro, sub-modulo Formas de pago para eliminar registro  </v>
       </c>
-      <c r="T12" s="27" t="s">
+      <c r="T12" s="26" t="s">
         <v>36</v>
       </c>
     </row>
@@ -9521,7 +8362,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">Acceder a sistema cartera con usuario que poseea perfil para ingresar al modulo Maestro, sub-modulo Formas de pago para modificar registro  </v>
       </c>
-      <c r="T17" s="27" t="s">
+      <c r="T17" s="26" t="s">
         <v>68</v>
       </c>
     </row>
@@ -9631,7 +8472,7 @@
       <c r="R22" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="S22" s="32" t="s">
+      <c r="S22" s="31" t="s">
         <v>140</v>
       </c>
       <c r="T22" s="7" t="s">
@@ -10192,93 +9033,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="42" t="s">
+      <c r="C1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="37" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>284</v>
+        <v>182</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>286</v>
+        <v>184</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>287</v>
+        <v>185</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>288</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>281</v>
+        <v>179</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>289</v>
+        <v>187</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>290</v>
+        <v>188</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>291</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>282</v>
+        <v>180</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>292</v>
+        <v>190</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>293</v>
+        <v>191</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>294</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="41" t="s">
-        <v>283</v>
+      <c r="A6" s="36" t="s">
+        <v>181</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>295</v>
+        <v>193</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="D6" s="32" t="s">
-        <v>297</v>
+        <v>194</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>285</v>
+        <v>183</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>298</v>
+        <v>196</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>299</v>
+        <v>197</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>300</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -10304,7 +9145,7 @@
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="C12" s="12"/>
-      <c r="D12" s="27"/>
+      <c r="D12" s="26"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
@@ -10325,7 +9166,7 @@
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="C17" s="12"/>
-      <c r="D17" s="27"/>
+      <c r="D17" s="26"/>
     </row>
     <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
@@ -10360,7 +9201,7 @@
     <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="12"/>
-      <c r="C23" s="32"/>
+      <c r="C23" s="31"/>
       <c r="D23" s="7"/>
     </row>
     <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -10503,65 +9344,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="42" t="s">
+      <c r="C1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="37" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>301</v>
+        <v>199</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>304</v>
+        <v>202</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>307</v>
+        <v>205</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>308</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>302</v>
+        <v>200</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>305</v>
+        <v>203</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>310</v>
+        <v>208</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>308</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>303</v>
+        <v>201</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>306</v>
+        <v>204</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>311</v>
+        <v>209</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>309</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -10574,7 +9415,7 @@
       <c r="A7" s="7"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="26"/>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
@@ -10599,7 +9440,7 @@
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="C12" s="12"/>
-      <c r="D12" s="27"/>
+      <c r="D12" s="26"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
@@ -10620,7 +9461,7 @@
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="C17" s="12"/>
-      <c r="D17" s="27"/>
+      <c r="D17" s="26"/>
     </row>
     <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
@@ -10655,7 +9496,7 @@
     <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="12"/>
-      <c r="C23" s="32"/>
+      <c r="C23" s="31"/>
       <c r="D23" s="7"/>
     </row>
     <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">

--- a/Casos Cartera/MenuFavorios.xlsx
+++ b/Casos Cartera/MenuFavorios.xlsx
@@ -27,11 +27,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Créditos!$A$2:$O$50</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="236">
   <si>
     <t>Nombre CP</t>
   </si>
@@ -538,12 +539,6 @@
   </si>
   <si>
     <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Procesos - sub modulo Tabajar con remesas, hacer clic en boton Agregar, ingresar datos de un registro existente y hacer clic en boton guardar, posterior a ello, intentar realizar registro sin llenar campos obligatorios.</t>
-  </si>
-  <si>
-    <t>Modificación de datos y consulta de mapa de manera exitosa</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en enlace ID, pestaña Recaudación, hacer clic en enlace Operaciones, pestaña General, modificar datos de la sección información general con la opción datos clientes, luego de esto, modificar datos de la sección información del bien con la opción datos comerciales. Finalizando con consulta a la pestaña geolocalización para visualizar mapa.</t>
   </si>
   <si>
     <t>TC_Cartera_ProcesosAsignacion_Asignacion</t>
@@ -716,7 +711,50 @@
     <t>Agregar Pago</t>
   </si>
   <si>
-    <t>TC_Cartera_NuevaRecaudacion_Paso1</t>
+    <t>TC_Cartera_NuevaRecaudacion_Paso1Credito</t>
+  </si>
+  <si>
+    <t>Validar proceso de nueva recaudacion con credito que posee estado de contrato vigente, seleccionando cuotas pendientes (corresponde al paso 1)</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú favoritos, sub-modulo Nueva recaudación, seleccionar opcion vigente del combo estado contrato, hacer clic en boton buscar, seleccionar credito, seleccionar cuotas del credito, ingresar fecha de pago, hacer clic en boton siguiente</t>
+  </si>
+  <si>
+    <t>Proceso de credito de paso 1 de manera exitosa</t>
+  </si>
+  <si>
+    <t>TC_Cartera_NuevaRecaudacion_Paso1CuotaDocumentada</t>
+  </si>
+  <si>
+    <t>Validar proceso de nueva recaudacion con credito que posee estado de contrato vigente, seleccionando credito que tiene cuotas anteriores documentadas.</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú favoritos, sub-modulo Nueva recaudación, seleccionar opcion vigente del combo estado contrato, hacer clic en boton buscar, seleccionar credito, seleccionar cuotas del credito, ingresar fecha de pago, hacer clic en boton siguiente.</t>
+  </si>
+  <si>
+    <t>Sistema emite mensaje indicando No es posible recaudar esta cuota porque
+tiene cuotas anteriores documentadas</t>
+  </si>
+  <si>
+    <t>TC_Cartera_NuevaRecaudacion_Paso1CreditoSinDeuda</t>
+  </si>
+  <si>
+    <t>Validar proceso de nueva recaudacion con credito que posee estado de contrato distinto a vigente, seleccionando credito que no posee deuda</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú favoritos, sub-modulo Nueva recaudación, seleccionar opcion vendido del combo estado contrato, hacer clic en boton buscar, seleccionar credito, seleccionar opcion otros del combo Concepto Recaudación, ingresar fecha de pago, hacer clic en boton siguiente.</t>
+  </si>
+  <si>
+    <t>Sistema emite mensaje indicando credito seleccionado no posee deuda</t>
+  </si>
+  <si>
+    <t>TC_Cartera_NuevaRecaudacion_Paso1ConceptoRecaudacion</t>
+  </si>
+  <si>
+    <t>Validar proceso de nueva recaudacion con credito que posee estado de contrato vigente, seleccionando concepto recaudacion sin considerar la selección de cuotas del credito (corresponde al paso 1)</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú favoritos, sub-modulo Nueva recaudación, seleccionar opcion vigente del combo estado contrato, hacer clic en boton buscar, seleccionar credito, seleccionar opcion otros del combo "Concepto Recaudación", hacer clic en boton siguiente, ingresar fecha de pago, hacer clic en boton aceptar</t>
   </si>
 </sst>
 </file>
@@ -969,22 +1007,28 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -998,17 +1042,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2147,7 +2185,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="57" t="s">
         <v>111</v>
       </c>
       <c r="B1" s="41" t="s">
@@ -2158,15 +2196,15 @@
       <c r="E1" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="51" t="s">
         <v>109</v>
       </c>
       <c r="G1" s="43"/>
-      <c r="H1" s="50" t="s">
+      <c r="H1" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="51"/>
-      <c r="J1" s="52"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="54"/>
       <c r="K1" s="37" t="s">
         <v>0</v>
       </c>
@@ -3166,8 +3204,8 @@
   <dimension ref="A1:Q50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="14" topLeftCell="O1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N3" sqref="N3"/>
+      <pane xSplit="14" topLeftCell="Q1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3183,34 +3221,34 @@
     <col min="10" max="10" width="4.140625" style="3" customWidth="1"/>
     <col min="11" max="12" width="5" customWidth="1"/>
     <col min="13" max="13" width="5.7109375" style="3" customWidth="1"/>
-    <col min="14" max="14" width="49.42578125" style="6" customWidth="1"/>
+    <col min="14" max="14" width="59" style="6" customWidth="1"/>
     <col min="15" max="15" width="255.42578125" style="12" customWidth="1"/>
     <col min="16" max="16" width="255.42578125" style="7" customWidth="1"/>
     <col min="17" max="17" width="79" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="47" t="s">
-        <v>210</v>
-      </c>
-      <c r="B1" s="56" t="s">
-        <v>215</v>
-      </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="45" t="s">
-        <v>216</v>
-      </c>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="45" t="s">
-        <v>219</v>
-      </c>
-      <c r="L1" s="49"/>
-      <c r="M1" s="46"/>
+      <c r="A1" s="44" t="s">
+        <v>208</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>213</v>
+      </c>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="47" t="s">
+        <v>214</v>
+      </c>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="47" t="s">
+        <v>217</v>
+      </c>
+      <c r="L1" s="48"/>
+      <c r="M1" s="50"/>
       <c r="N1" s="37" t="s">
         <v>0</v>
       </c>
@@ -3230,37 +3268,37 @@
         <v>9</v>
       </c>
       <c r="C2" s="33" t="s">
+        <v>209</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="E2" s="33" t="s">
         <v>211</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="F2" s="23" t="s">
         <v>212</v>
       </c>
-      <c r="E2" s="33" t="s">
-        <v>213</v>
-      </c>
-      <c r="F2" s="23" t="s">
-        <v>214</v>
-      </c>
       <c r="G2" s="33" t="s">
+        <v>218</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="J2" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="K2" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="H2" s="19" t="s">
-        <v>217</v>
-      </c>
-      <c r="I2" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="J2" s="23" t="s">
-        <v>221</v>
-      </c>
-      <c r="K2" s="19" t="s">
-        <v>222</v>
-      </c>
       <c r="L2" s="19" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="M2" s="35" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="N2" s="38"/>
       <c r="O2" s="38"/>
@@ -3284,17 +3322,19 @@
       <c r="L3" s="5"/>
       <c r="M3" s="8"/>
       <c r="N3" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="P3" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="O3" s="12"/>
-      <c r="P3" s="7" t="s">
-        <v>168</v>
-      </c>
       <c r="Q3" s="7" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>1</v>
       </c>
@@ -3310,10 +3350,18 @@
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
       <c r="M4" s="8"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
+      <c r="N4" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q4" s="31" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="5" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
@@ -3331,10 +3379,18 @@
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="8"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
+      <c r="N5" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q5" s="31" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="6" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
@@ -3352,10 +3408,18 @@
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="8"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
+      <c r="N6" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="O6" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="7" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
@@ -4045,44 +4109,44 @@
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C4" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4337,15 +4401,15 @@
       <c r="E1" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="51" t="s">
         <v>25</v>
       </c>
       <c r="G1" s="43"/>
-      <c r="H1" s="50" t="s">
+      <c r="H1" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="51"/>
-      <c r="J1" s="52"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="54"/>
       <c r="K1" s="37" t="s">
         <v>0</v>
       </c>
@@ -5390,21 +5454,21 @@
       </c>
       <c r="C1" s="42"/>
       <c r="D1" s="43"/>
-      <c r="E1" s="48" t="s">
+      <c r="E1" s="56" t="s">
         <v>17</v>
       </c>
       <c r="F1" s="42"/>
       <c r="G1" s="42"/>
       <c r="H1" s="43"/>
-      <c r="I1" s="53" t="s">
+      <c r="I1" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="50" t="s">
+      <c r="J1" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="52"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="54"/>
       <c r="N1" s="37" t="s">
         <v>0</v>
       </c>
@@ -6565,16 +6629,16 @@
       <c r="E1" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="51" t="s">
         <v>27</v>
       </c>
       <c r="G1" s="43"/>
-      <c r="H1" s="50" t="s">
+      <c r="H1" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="52"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="54"/>
       <c r="L1" s="37" t="s">
         <v>0</v>
       </c>
@@ -7671,21 +7735,21 @@
       <c r="E1" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="51" t="s">
         <v>26</v>
       </c>
       <c r="G1" s="43"/>
-      <c r="H1" s="50" t="s">
+      <c r="H1" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="52"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="54"/>
       <c r="Q1" s="37" t="s">
         <v>0</v>
       </c>
@@ -9054,72 +9118,72 @@
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="C3" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B4" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B5" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="36" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B6" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="D6" s="31" t="s">
         <v>193</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="D6" s="31" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B7" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -9365,44 +9429,44 @@
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">

--- a/Casos Cartera/MenuFavorios.xlsx
+++ b/Casos Cartera/MenuFavorios.xlsx
@@ -27,12 +27,11 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Créditos!$A$2:$O$50</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="256">
   <si>
     <t>Nombre CP</t>
   </si>
@@ -755,6 +754,66 @@
   </si>
   <si>
     <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú favoritos, sub-modulo Nueva recaudación, seleccionar opcion vigente del combo estado contrato, hacer clic en boton buscar, seleccionar credito, seleccionar opcion otros del combo "Concepto Recaudación", hacer clic en boton siguiente, ingresar fecha de pago, hacer clic en boton aceptar</t>
+  </si>
+  <si>
+    <t>TC_Cartera_NuevaRecaudacion_Paso2</t>
+  </si>
+  <si>
+    <t>TC_Cartera_NuevaRecaudacion_Paso3</t>
+  </si>
+  <si>
+    <t>TC_Cartera_NuevaRecaudacion_Paso2Descuentos</t>
+  </si>
+  <si>
+    <t>TC_Cartera_NuevaRecaudacion_Paso2CostasJudiciales</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú favoritos, sub-modulo Nueva recaudación, seleccionar opcion vigente del combo estado contrato, hacer clic en boton buscar, seleccionar credito, seleccionar cuotas del credito, ingresar fecha de pago, hacer clic en boton siguiente, hacer clic en boton imprimir para visualizar cupon de pago, hacer clic en boton siguiente</t>
+  </si>
+  <si>
+    <t>Proceso de credito de paso 2 de manera exitosa</t>
+  </si>
+  <si>
+    <t>Validar proceso de nueva recaudacion con credito seleccionado en paso 1, sin agregar descuentos (corresponde al paso 2)</t>
+  </si>
+  <si>
+    <t>Validar proceso de nueva recaudacion con credito seleccionado en paso 1, agregando descuentos en los Sub Total Intereses Mora y Sub Total Gastos Cobranza (corresponde al paso 2)</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú favoritos, sub-modulo Nueva recaudación, seleccionar opcion vigente del combo estado contrato, hacer clic en boton buscar, seleccionar credito, seleccionar cuotas del credito, ingresar fecha de pago, hacer clic en boton siguiente, hacer clic en icono ingresar descuento, verificar resultado del calculo de descuento, hacer clic en boton siguiente</t>
+  </si>
+  <si>
+    <t>Validar proceso de nueva recaudacion con credito seleccionado en paso 1, indicando porcentaje de costas judiciales (corresponde al paso 2)</t>
+  </si>
+  <si>
+    <t>TC_Cartera_NuevaRecaudacion_Paso3FormaPago</t>
+  </si>
+  <si>
+    <t>TC_Cartera_NuevaRecaudacion_Paso3SinFormaPago</t>
+  </si>
+  <si>
+    <t>Validar proceso de nueva recaudacion con credito seleccionado en paso 1, procesado en paso 2, indicando indicando una forma de pago  (corresponde al paso 3)</t>
+  </si>
+  <si>
+    <t>Validar proceso de nueva recaudacion con credito seleccionado en paso 1, procesado en paso 2, indicando indicando más de una forma de pago  (corresponde al paso 3)</t>
+  </si>
+  <si>
+    <t>Validar proceso de nueva recaudacion con credito seleccionado en paso 1, procesado en paso 2, indicando sin indicando una forma de pago  (corresponde al paso 3)</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú favoritos, sub-modulo Nueva recaudación, seleccionar opcion vigente del combo estado contrato, hacer clic en boton buscar, seleccionar credito, seleccionar cuotas del credito, ingresar fecha de pago, hacer clic en boton siguiente, hacer clic en boton siguiente, seleccionar forma de pago, hacer clic en boton confirmar</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú favoritos, sub-modulo Nueva recaudación, seleccionar opcion vigente del combo estado contrato, hacer clic en boton buscar, seleccionar credito, seleccionar cuotas del credito, ingresar fecha de pago, hacer clic en boton siguiente, hacer clic en boton siguiente, hacer clic en boton confirmar</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú favoritos, sub-modulo Nueva recaudación, seleccionar opcion vigente del combo estado contrato, hacer clic en boton buscar, seleccionar credito, seleccionar cuotas del credito, ingresar fecha de pago, hacer clic en boton siguiente, hacer clic en boton siguiente, seleccionar varias forma de pago, hacer clic en boton confirmar</t>
+  </si>
+  <si>
+    <t>Sistema emite mensaje indicando que debe ingresar forma de pago</t>
+  </si>
+  <si>
+    <t>Proceso de credito de paso 3 de manera exitosa</t>
   </si>
 </sst>
 </file>
@@ -3205,7 +3264,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="14" topLeftCell="Q1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q6" sqref="Q6"/>
+      <selection pane="topRight" activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3437,10 +3496,18 @@
       <c r="K7" s="25"/>
       <c r="L7" s="25"/>
       <c r="M7" s="24"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="26"/>
+      <c r="N7" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="8" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
@@ -3454,10 +3521,18 @@
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="8"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
+      <c r="N8" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="O8" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="9" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
@@ -3471,10 +3546,18 @@
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
       <c r="M9" s="8"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
+      <c r="N9" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="O9" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
@@ -3487,7 +3570,18 @@
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
       <c r="M10" s="8"/>
-      <c r="N10" s="7"/>
+      <c r="N10" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="O10" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
@@ -3500,7 +3594,18 @@
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
       <c r="M11" s="8"/>
-      <c r="N11" s="7"/>
+      <c r="N11" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="O11" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="12" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
@@ -3514,10 +3619,18 @@
       <c r="K12" s="25"/>
       <c r="L12" s="25"/>
       <c r="M12" s="24"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="26"/>
+      <c r="N12" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="O12" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q12" s="26" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="8">

--- a/Casos Cartera/MenuFavorios.xlsx
+++ b/Casos Cartera/MenuFavorios.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" tabRatio="787" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" tabRatio="787" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Créditos" sheetId="15" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="234">
   <si>
     <t>Nombre CP</t>
   </si>
@@ -540,37 +540,6 @@
     <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Procesos - sub modulo Tabajar con remesas, hacer clic en boton Agregar, ingresar datos de un registro existente y hacer clic en boton guardar, posterior a ello, intentar realizar registro sin llenar campos obligatorios.</t>
   </si>
   <si>
-    <t>TC_Cartera_ProcesosAsignacion_Asignacion</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesosAsignacion_ReporteGrupos</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesosAsignacion_ReporteEjecutivos</t>
-  </si>
-  <si>
-    <t>Validar la emisión de archivo en formato excel que posee registro de la asignación de ejecutivos</t>
-  </si>
-  <si>
-    <t>Validar la emisión de reporte de ejecutivos, ordenados por grupo</t>
-  </si>
-  <si>
-    <t>Validar la emisión de reporte de ejecutivos, considerando todas las opciones del combo asignacion</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Asignacion ejecutivos, hacer clic en boton asignar ejecutivos</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Asignacion ejecutivos, hacer clic en boton reporte por grupos</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Asignacion ejecutivos, seleccionar opcione del combo
-asignación, hacer clic en boton reporte ejecutivos</t>
-  </si>
-  <si>
-    <t>Reporte generado de manera exitosa</t>
-  </si>
-  <si>
     <t>TC_Cartera_ProcesosSeleccion_CartaGuia</t>
   </si>
   <si>
@@ -665,51 +634,6 @@
     <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Generación XML (afianza), hacer clic en boton Generar XML Oferta y TD</t>
   </si>
   <si>
-    <t>Nueva Recaudación</t>
-  </si>
-  <si>
-    <t>Créditos</t>
-  </si>
-  <si>
-    <t>Concepto
-Recaudación
-Otros</t>
-  </si>
-  <si>
-    <t>Cuotas del Crédito</t>
-  </si>
-  <si>
-    <t>Cheques
-del
-Crédito</t>
-  </si>
-  <si>
-    <t>Paso 1 Fecha de pago</t>
-  </si>
-  <si>
-    <t>Paso 2</t>
-  </si>
-  <si>
-    <t>Enviar por email</t>
-  </si>
-  <si>
-    <t>Imprimir</t>
-  </si>
-  <si>
-    <t>Paso 3</t>
-  </si>
-  <si>
-    <t>Ingresar
-descuento</t>
-  </si>
-  <si>
-    <t>Costas
-Judiciales</t>
-  </si>
-  <si>
-    <t>Agregar Pago</t>
-  </si>
-  <si>
     <t>TC_Cartera_NuevaRecaudacion_Paso1Credito</t>
   </si>
   <si>
@@ -814,6 +738,9 @@
   </si>
   <si>
     <t>Proceso de credito de paso 3 de manera exitosa</t>
+  </si>
+  <si>
+    <t>TC_Cartera_Recaudacion_</t>
   </si>
 </sst>
 </file>
@@ -952,7 +879,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1034,13 +961,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1064,27 +984,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1433,34 +1332,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="36" t="s">
         <v>143</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="42" t="s">
+      <c r="C1" s="39"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="39" t="s">
         <v>146</v>
       </c>
-      <c r="F1" s="42"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="37" t="s">
+      <c r="F1" s="39"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="I1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="37" t="s">
+      <c r="J1" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="34" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="14" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
+      <c r="A2" s="37"/>
       <c r="B2" s="14" t="s">
         <v>5</v>
       </c>
@@ -1479,10 +1378,10 @@
       <c r="G2" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -2244,41 +2143,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="37" t="s">
+      <c r="C1" s="39"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="F1" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="G1" s="43"/>
-      <c r="H1" s="52" t="s">
+      <c r="G1" s="40"/>
+      <c r="H1" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="53"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="37" t="s">
+      <c r="I1" s="43"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="37" t="s">
+      <c r="L1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="N1" s="37" t="s">
+      <c r="M1" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="34" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
+      <c r="A2" s="37"/>
       <c r="B2" s="19" t="s">
         <v>5</v>
       </c>
@@ -2288,7 +2187,7 @@
       <c r="D2" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="38"/>
+      <c r="E2" s="35"/>
       <c r="F2" s="19" t="s">
         <v>7</v>
       </c>
@@ -2304,10 +2203,10 @@
       <c r="J2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -3260,924 +3159,352 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q50"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="14" topLeftCell="Q1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q11" sqref="Q11"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="4.5703125" customWidth="1"/>
-    <col min="3" max="3" width="3.28515625" customWidth="1"/>
-    <col min="4" max="4" width="6.5703125" customWidth="1"/>
-    <col min="5" max="5" width="4.5703125" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="4.7109375" customWidth="1"/>
-    <col min="8" max="9" width="4.140625" customWidth="1"/>
-    <col min="10" max="10" width="4.140625" style="3" customWidth="1"/>
-    <col min="11" max="12" width="5" customWidth="1"/>
-    <col min="13" max="13" width="5.7109375" style="3" customWidth="1"/>
-    <col min="14" max="14" width="59" style="6" customWidth="1"/>
-    <col min="15" max="15" width="255.42578125" style="12" customWidth="1"/>
-    <col min="16" max="16" width="255.42578125" style="7" customWidth="1"/>
-    <col min="17" max="17" width="79" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="59" style="6" customWidth="1"/>
+    <col min="2" max="2" width="255.42578125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="255.42578125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="79" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="14" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+    </row>
+    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="D5" s="31" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="47" t="s">
+      <c r="B7" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="47" t="s">
-        <v>217</v>
-      </c>
-      <c r="L1" s="48"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="O1" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="P1" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q1" s="37" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" s="14" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>209</v>
-      </c>
-      <c r="D2" s="33" t="s">
-        <v>210</v>
-      </c>
-      <c r="E2" s="33" t="s">
-        <v>211</v>
-      </c>
-      <c r="F2" s="23" t="s">
-        <v>212</v>
-      </c>
-      <c r="G2" s="33" t="s">
-        <v>218</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="I2" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="J2" s="23" t="s">
-        <v>219</v>
-      </c>
-      <c r="K2" s="19" t="s">
-        <v>220</v>
-      </c>
-      <c r="L2" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="M2" s="35" t="s">
-        <v>216</v>
-      </c>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-    </row>
-    <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="O3" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="P3" s="7" t="s">
+      <c r="B10" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="B11" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="O4" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="P4" s="7" t="s">
+      <c r="B12" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="Q4" s="31" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <v>1</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="7" t="s">
+      <c r="C12" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="O5" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="P5" s="7" t="s">
+      <c r="D12" s="26" t="s">
         <v>231</v>
       </c>
-      <c r="Q5" s="31" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>1</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="O6" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <v>1</v>
-      </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="O7" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <v>1</v>
-      </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="O8" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
-        <v>1</v>
-      </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="O9" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <v>1</v>
-      </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="O10" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
-        <v>1</v>
-      </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="O11" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
-        <v>1</v>
-      </c>
-      <c r="F12" s="34"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="O12" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q12" s="26" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
-        <v>1</v>
-      </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="7"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
-        <v>1</v>
-      </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="7"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
-        <v>1</v>
-      </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="7"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
-        <v>1</v>
-      </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="7"/>
-    </row>
-    <row r="17" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
-        <v>1</v>
-      </c>
-      <c r="F17" s="34"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="26"/>
-    </row>
-    <row r="18" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
-        <v>1</v>
-      </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="26"/>
-    </row>
-    <row r="19" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
-        <v>1</v>
-      </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="26"/>
-    </row>
-    <row r="20" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
-        <v>1</v>
-      </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
-    </row>
-    <row r="21" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
-        <v>1</v>
-      </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-    </row>
-    <row r="22" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
-    </row>
-    <row r="23" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
-    </row>
-    <row r="24" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="7"/>
-    </row>
-    <row r="25" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="31"/>
-      <c r="Q25" s="7"/>
-    </row>
-    <row r="26" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="7"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="7"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="7"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="7"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="7"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="7"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="7"/>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="7"/>
-    </row>
-    <row r="34" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="7"/>
-      <c r="O34" s="12"/>
-      <c r="P34" s="7"/>
-      <c r="Q34" s="7"/>
-    </row>
-    <row r="35" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="7"/>
-      <c r="O35" s="12"/>
-      <c r="P35" s="7"/>
-      <c r="Q35" s="7"/>
-    </row>
-    <row r="36" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="7"/>
-      <c r="O36" s="12"/>
-      <c r="P36" s="7"/>
-      <c r="Q36" s="7"/>
-    </row>
-    <row r="37" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="7"/>
-      <c r="O37" s="12"/>
-      <c r="P37" s="7"/>
-      <c r="Q37" s="7"/>
-    </row>
-    <row r="38" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="7"/>
-      <c r="O38" s="12"/>
-      <c r="P38" s="7"/>
-      <c r="Q38" s="7"/>
-    </row>
-    <row r="39" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="8"/>
-      <c r="N39" s="7"/>
-      <c r="O39" s="12"/>
-      <c r="P39" s="7"/>
-      <c r="Q39" s="7"/>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="8"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="8"/>
-      <c r="N40" s="7"/>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" s="8"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
-      <c r="M41" s="8"/>
-      <c r="N41" s="7"/>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A42" s="8"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
-      <c r="M42" s="8"/>
-      <c r="N42" s="7"/>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="8"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
-      <c r="M43" s="8"/>
-      <c r="N43" s="7"/>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="8"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
-      <c r="M44" s="8"/>
-      <c r="N44" s="7"/>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A45" s="8"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="5"/>
-      <c r="L45" s="5"/>
-      <c r="M45" s="8"/>
-      <c r="N45" s="7"/>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A46" s="8"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="5"/>
-      <c r="L46" s="5"/>
-      <c r="M46" s="8"/>
-      <c r="N46" s="7"/>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="8"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="5"/>
-      <c r="L47" s="5"/>
-      <c r="M47" s="8"/>
-      <c r="N47" s="7"/>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" s="8"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="5"/>
-      <c r="L48" s="5"/>
-      <c r="M48" s="8"/>
-      <c r="N48" s="7"/>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A49" s="8"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="5"/>
-      <c r="L49" s="5"/>
-      <c r="M49" s="8"/>
-      <c r="N49" s="7"/>
-    </row>
-    <row r="50" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="5"/>
-      <c r="L50" s="5"/>
-      <c r="M50" s="8"/>
-      <c r="N50" s="7"/>
-      <c r="O50" s="12"/>
-      <c r="P50" s="7"/>
-      <c r="Q50" s="7"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+    </row>
+    <row r="17" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="26"/>
+    </row>
+    <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="26"/>
+    </row>
+    <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="26"/>
+    </row>
+    <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+    </row>
+    <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+    </row>
+    <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+    </row>
+    <row r="25" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="7"/>
+    </row>
+    <row r="26" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="7"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="7"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="7"/>
+    </row>
+    <row r="34" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="7"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+    </row>
+    <row r="35" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="7"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+    </row>
+    <row r="36" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="7"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+    </row>
+    <row r="37" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="7"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+    </row>
+    <row r="38" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="7"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+    </row>
+    <row r="39" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="7"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="7"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="7"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="7"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="7"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="7"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="7"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="7"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="7"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="7"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="7"/>
+    </row>
+    <row r="50" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="7"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="4">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:N2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4187,80 +3514,58 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D5" sqref="D5"/>
+      <selection pane="topRight" activeCell="D3" sqref="D3:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.140625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="34.7109375" style="6" customWidth="1"/>
     <col min="2" max="2" width="101" style="12" customWidth="1"/>
     <col min="3" max="3" width="160.140625" style="7" customWidth="1"/>
     <col min="4" max="4" width="79" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="37" t="s">
+      <c r="C1" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="34" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="14" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>176</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>175</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>176</v>
-      </c>
+      <c r="A4" s="7"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="7"/>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
@@ -4503,41 +3808,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="37" t="s">
+      <c r="C1" s="39"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="F1" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="43"/>
-      <c r="H1" s="52" t="s">
+      <c r="G1" s="40"/>
+      <c r="H1" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="53"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="37" t="s">
+      <c r="I1" s="43"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="37" t="s">
+      <c r="L1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="N1" s="37" t="s">
+      <c r="M1" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="34" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="14" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
+      <c r="A2" s="37"/>
       <c r="B2" s="19" t="s">
         <v>5</v>
       </c>
@@ -4547,7 +3852,7 @@
       <c r="D2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="38"/>
+      <c r="E2" s="35"/>
       <c r="F2" s="19" t="s">
         <v>7</v>
       </c>
@@ -4563,10 +3868,10 @@
       <c r="J2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -5559,44 +4864,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="56" t="s">
+      <c r="C1" s="39"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="55" t="s">
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="52" t="s">
+      <c r="J1" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="37" t="s">
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="37" t="s">
+      <c r="O1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q1" s="37" t="s">
+      <c r="P1" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" s="34" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
+      <c r="A2" s="37"/>
       <c r="B2" s="19" t="s">
         <v>5</v>
       </c>
@@ -5618,7 +4923,7 @@
       <c r="H2" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="I2" s="38"/>
+      <c r="I2" s="35"/>
       <c r="J2" s="18" t="s">
         <v>20</v>
       </c>
@@ -5631,10 +4936,10 @@
       <c r="M2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
     </row>
     <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -6731,42 +6036,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="37" t="s">
+      <c r="C1" s="39"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="F1" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="43"/>
-      <c r="H1" s="52" t="s">
+      <c r="G1" s="40"/>
+      <c r="H1" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="37" t="s">
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="37" t="s">
+      <c r="M1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="O1" s="37" t="s">
+      <c r="N1" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="34" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
+      <c r="A2" s="37"/>
       <c r="B2" s="19" t="s">
         <v>5</v>
       </c>
@@ -6776,7 +6081,7 @@
       <c r="D2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="38"/>
+      <c r="E2" s="35"/>
       <c r="F2" s="19" t="s">
         <v>7</v>
       </c>
@@ -6795,10 +6100,10 @@
       <c r="K2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -7837,47 +7142,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="37" t="s">
+      <c r="C1" s="39"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="F1" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="43"/>
-      <c r="H1" s="52" t="s">
+      <c r="G1" s="40"/>
+      <c r="H1" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="37" t="s">
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="R1" s="37" t="s">
+      <c r="R1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="T1" s="37" t="s">
+      <c r="S1" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="T1" s="34" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="14" customFormat="1" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
+      <c r="A2" s="37"/>
       <c r="B2" s="19" t="s">
         <v>5</v>
       </c>
@@ -7887,7 +7192,7 @@
       <c r="D2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="38"/>
+      <c r="E2" s="35"/>
       <c r="F2" s="19" t="s">
         <v>7</v>
       </c>
@@ -7921,10 +7226,10 @@
       <c r="P2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
     </row>
     <row r="3" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -9210,93 +8515,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="37" t="s">
+      <c r="C1" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="34" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>188</v>
-      </c>
       <c r="C5" s="7" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
-        <v>179</v>
+      <c r="A6" s="33" t="s">
+        <v>169</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -9521,65 +8826,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="37" t="s">
+      <c r="C1" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="34" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">

--- a/Casos Cartera/MenuFavorios.xlsx
+++ b/Casos Cartera/MenuFavorios.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="249">
   <si>
     <t>Nombre CP</t>
   </si>
@@ -740,7 +740,52 @@
     <t>Proceso de credito de paso 3 de manera exitosa</t>
   </si>
   <si>
-    <t>TC_Cartera_Recaudacion_</t>
+    <t>TC_Cartera_Recaudacion_Retomar</t>
+  </si>
+  <si>
+    <t>Recaudación es procesada de manera exitosa, debe cambiar estado a procesada</t>
+  </si>
+  <si>
+    <t>Validar funcionalidad retomar recaudación que posee estado ingresada e ingresada prepago para finalizar su proceso</t>
+  </si>
+  <si>
+    <t>TC_Cartera_Recaudacion_ExportarExcel</t>
+  </si>
+  <si>
+    <t>TC_Cartera_Recaudacion_ExcelFormaPago</t>
+  </si>
+  <si>
+    <t>Validar funcionalidad exportar excel, el cual debe contener las recaudaciones en todos sus estados</t>
+  </si>
+  <si>
+    <t>Validar funcionalidad excel por forma de pago, el cual debe contener las recaudaciones en todos sus estados, las que tengas estada procesadas, se debe visualizar forma de pago</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú favoritos, sub-modulo Recaudación, hace clic en boton exportar excel</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú favoritos, sub-modulo Recaudación, hace clic en boton excel por forma de pago</t>
+  </si>
+  <si>
+    <t>Visualizar registro de recaudaciones que se encuentran en sistema</t>
+  </si>
+  <si>
+    <t>Visualizar registro de recaudaciones que se encuentran en sistema, las recaudaciones con estado procesada, debe tener formar de pago</t>
+  </si>
+  <si>
+    <t>TC_Cartera_Recaudacion_Anular</t>
+  </si>
+  <si>
+    <t>Validar funcionalidad anular recaudación, a recaudaciones que posee estado ingresada e ingresada prepago.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú favoritos, sub-modulo Recaudación, seleccionar recaudacion en estado ingresada e ingresada prepago, hacer clic en boton eliminar </t>
+  </si>
+  <si>
+    <t>Se elimina registro de recaudación de manera exitosa</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú favoritos, sub-modulo Recaudación, seleccionar recaudación en estado ingresada, hacer clic en boton PDF para visualizar comprobante de pago, hacer clic en boton retomar, en el formulario que redirecciona luego de hacer clic en retomar, ingresar datos correspondientes para finalizar proceso de recaudación</t>
   </si>
 </sst>
 </file>
@@ -3162,8 +3207,8 @@
   <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A12" sqref="A12"/>
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3516,15 +3561,15 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D3" sqref="D3:D5"/>
+      <selection pane="topRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="101" style="12" customWidth="1"/>
-    <col min="3" max="3" width="160.140625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="79" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.85546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="152.28515625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="162" style="7" customWidth="1"/>
+    <col min="4" max="4" width="135" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
@@ -3551,27 +3596,57 @@
       <c r="A3" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
+      <c r="B3" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
+      <c r="A4" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="7"/>
+      <c r="A5" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
+      <c r="A6" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="7" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="26"/>

--- a/Casos Cartera/MenuFavorios.xlsx
+++ b/Casos Cartera/MenuFavorios.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" tabRatio="787" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" tabRatio="787" firstSheet="4" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Créditos" sheetId="15" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Pagarés" sheetId="21" r:id="rId8"/>
     <sheet name="Activos Vehículos" sheetId="22" r:id="rId9"/>
     <sheet name="Administración Medios de Pago " sheetId="23" r:id="rId10"/>
+    <sheet name="Usuario" sheetId="39" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Créditos!$A$2:$O$50</definedName>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="258">
   <si>
     <t>Nombre CP</t>
   </si>
@@ -281,87 +282,6 @@
     <t>Enlace Descripción (Modificar y/o Eliminar registro)</t>
   </si>
   <si>
-    <t>Formas de pago</t>
-  </si>
-  <si>
-    <t>Pago descripcion</t>
-  </si>
-  <si>
-    <t>Es convenido</t>
-  </si>
-  <si>
-    <t>Requiere banco</t>
-  </si>
-  <si>
-    <t>Requiere fecha</t>
-  </si>
-  <si>
-    <t>Requiere numero</t>
-  </si>
-  <si>
-    <t>Nro de operación</t>
-  </si>
-  <si>
-    <t>Requiere monto</t>
-  </si>
-  <si>
-    <t>Corresponde alzamiento</t>
-  </si>
-  <si>
-    <t>TC_Cartera_FormasPago_AgregarConsulta</t>
-  </si>
-  <si>
-    <t>TC_Cartera_FormasPago_AgregarExportarExcel</t>
-  </si>
-  <si>
-    <t>TC_Cartera_FormasPago_Agregar</t>
-  </si>
-  <si>
-    <t>TC_Cartera_FormasPago_EliminarConsulta</t>
-  </si>
-  <si>
-    <t>TC_Cartera_FormasPago_EliminarExportarExcel</t>
-  </si>
-  <si>
-    <t>TC_Cartera_FormasPago_Eliminar</t>
-  </si>
-  <si>
-    <t>TC_Cartera_FormasPago_ModificarConsulta</t>
-  </si>
-  <si>
-    <t>TC_Cartera_FormasPago_ModificarExportarExcel</t>
-  </si>
-  <si>
-    <t>TC_Cartera_FormasPago_Modificar</t>
-  </si>
-  <si>
-    <t>TC_Cartera_FormasPago_EliminarEnlaceDescripcion</t>
-  </si>
-  <si>
-    <t>TC_Cartera_FormasPago_EliminarConsultaNumero</t>
-  </si>
-  <si>
-    <t>TC_Cartera_FormasPago_AgregarConsultaBanco</t>
-  </si>
-  <si>
-    <t>TC_Cartera_FormasPago_AgregarEnlaceDescripcion</t>
-  </si>
-  <si>
-    <t>TC_Cartera_FormasPago_ModificarEnlaceEliminar</t>
-  </si>
-  <si>
-    <t>TC_Cartera_FormasPago_ModificarEnlace</t>
-  </si>
-  <si>
-    <t>Cheque</t>
-  </si>
-  <si>
-    <t>Efectivo</t>
-  </si>
-  <si>
-    <t>Tarjeta</t>
-  </si>
-  <si>
     <t>Concepto</t>
   </si>
   <si>
@@ -379,9 +299,6 @@
     <t>TC_Cartera_Feriados_ConsolidadoError</t>
   </si>
   <si>
-    <t>TC_Cartera_FormasPago_ConsolidadoError</t>
-  </si>
-  <si>
     <t>TC_Cartera_Recaudacion_ConsolidadoError</t>
   </si>
   <si>
@@ -452,12 +369,6 @@
   </si>
   <si>
     <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Maestro - sub modulo Feriados, hacer clic en boton Agregar, ingresar datos de un registro existente y hacer clic en boton guardar, posterior a ello, intentar realizar registro sin llenar campos obligatorios. Finalizando con la modificación y eliminación de registro en uso.</t>
-  </si>
-  <si>
-    <t>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Formas de Pago, ingresando datos de un registro existente, luego de ello, intentar crear registro sin llenar campo obligatorios. Finanlizando, con la modificación y eliminación de registro que está siendo usado en otro modulo.</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Maestro - sub modulo Formas de pago, hacer clic en boton Agregar, ingresar datos de un registro existente y hacer clic en boton guardar, posterior a ello, intentar realizar registro sin llenar campos obligatorios. Finalizando con la modificación y eliminación de registro en uso.</t>
   </si>
   <si>
     <t>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Recaudacion, ingresando datos de un registro existente, luego de ello, intentar crear registro sin llenar campo obligatorios. Finanlizando, con la modificación y eliminación de registro que está siendo usado en otro modulo.</t>
@@ -786,6 +697,123 @@
   </si>
   <si>
     <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú favoritos, sub-modulo Recaudación, seleccionar recaudación en estado ingresada, hacer clic en boton PDF para visualizar comprobante de pago, hacer clic en boton retomar, en el formulario que redirecciona luego de hacer clic en retomar, ingresar datos correspondientes para finalizar proceso de recaudación</t>
+  </si>
+  <si>
+    <t>TC_Cartera_GenerarPrepago_Prepago</t>
+  </si>
+  <si>
+    <t>TC_Cartera_GenerarPrepago_Castigo</t>
+  </si>
+  <si>
+    <t>TC_Cartera_GenerarPrepago_Incautacion</t>
+  </si>
+  <si>
+    <t>TC_Cartera_GenerarPrepago_Dacion</t>
+  </si>
+  <si>
+    <t>TC_Cartera_GenerarPrepago_NroOperacionError</t>
+  </si>
+  <si>
+    <t>TC_Cartera_GenerarPrepago_CreditoProcesado</t>
+  </si>
+  <si>
+    <t>Validar funcionalidad generar prepago, seleccionando tipo de prepago prepago e indicando numero de operación valido</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú favoritos, sub-modulo Generar Prepago, seleccionar opcion Prepago del combo tipo de prepago, seleccionar opcion 5% del combo costas judiciales, indicar fecha igual o mayor a la actual, ingresar numero de operacion que tenga deuda por pagar</t>
+  </si>
+  <si>
+    <t>Se genera recuadacion con estado ingresada prepago</t>
+  </si>
+  <si>
+    <t>Validar funcionalidad generar prepago, seleccionando tipo de prepago castigo e indicando numero de operación valido</t>
+  </si>
+  <si>
+    <t>Validar funcionalidad generar prepago, seleccionando tipo de prepago incautacion e indicando numero de operación valido</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú favoritos, sub-modulo Generar Prepago, seleccionar opcion castigo del combo tipo de prepago, seleccionar opcion si del combo refinancia, indicar fecha igual o mayor a la actual, ingresar numero de operacion que tenga deuda por pagar</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú favoritos, sub-modulo Generar Prepago, seleccionar opcion incautacion del combo tipo de prepago, indicar fecha igual o mayor a la actual, ingresar numero de operacion que tenga deuda por pagar, datos correspondientes al vehiculo</t>
+  </si>
+  <si>
+    <t>Validar funcionalidad generar prepago, seleccionando tipo de prepago dacion pago e indicando numero de operación valido</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú favoritos, sub-modulo Generar Prepago, seleccionar opcion dacion pago del combo tipo de prepago, seleccionar opcion si del combo refinancia, seleccionar opcion 10% del combo costas judiciales, indicar fecha igual o mayor a la actual, ingresar numero de operacion que tenga deuda por pagar, datos correspondientes al vehiculo</t>
+  </si>
+  <si>
+    <t>Validar funcionalidad generar prepago, indicando numero de operación que no posee deuda</t>
+  </si>
+  <si>
+    <t>Sistema emite mensaje indicando que no es posible generar prepago</t>
+  </si>
+  <si>
+    <t>TC_Cartera_GenerarPrepago_Credito</t>
+  </si>
+  <si>
+    <t>Validar funcionalidad generar prepago, indicando numero de operación que no ha paga la primera cuota de deuda pero el saldo precio esta pagado</t>
+  </si>
+  <si>
+    <t>Validar funcionalidad generar prepago, indicando numero de operación al cual ya se le ha generado prepago</t>
+  </si>
+  <si>
+    <t>TC_Cartera_GenerarPrepago_FechaMenor</t>
+  </si>
+  <si>
+    <t>Validar funcionalidad generar prepago, indicando fecha de menor a la actual</t>
+  </si>
+  <si>
+    <t>Sistema emite mensaje indicando que la fecha no pude ser menor a la actual</t>
+  </si>
+  <si>
+    <t>TC_Cartera_Recaudacion_FormaPago</t>
+  </si>
+  <si>
+    <t>Validar funcionalidad retomar recaudación que posee estado ingresada, sin indicar forma de pago</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú favoritos, sub-modulo Recaudación, seleccionar recaudación en estado ingresada, hacer clic en boton PDF para visualizar comprobante de pago, hacer clic en boton retomar, en el formulario que redirecciona luego de hacer clic en retomar, no se indican datos correspondientes a la forma de pago</t>
+  </si>
+  <si>
+    <t>Sistema emite mensaje solicitando el ingreso de forma de pago</t>
+  </si>
+  <si>
+    <t>TC_Cartera_Usuario_Password</t>
+  </si>
+  <si>
+    <t>Validar cambio de contraseña de usuario, ingresando cantidad y caracteres correctos</t>
+  </si>
+  <si>
+    <t>Cambio de contraseña de manera exitosa</t>
+  </si>
+  <si>
+    <t>TC_Cartera_Usuario_Formato</t>
+  </si>
+  <si>
+    <t>TC_Cartera_Usuario_PasswordAnterior</t>
+  </si>
+  <si>
+    <t>Validar cambio de contraseña de usuario, ingresando cantidad y caracteres que no cumple con el formato establecido</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú Usuario, sub-modulo cambiar contraseña, ingresar contraseña actual, ingresar contraseña nueva que cumpla con la cantidad y caracteres del formato establecidos, hacer clic en boton aceptar</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú Usuario, sub-modulo cambiar contraseña, ingresar contraseña actual, ingresar contraseña nueva que no cumpla con la cantidad y caracteres del formato establecidos, hacer clic en boton aceptar</t>
+  </si>
+  <si>
+    <t>Validar cambio de contraseña de usuario, ingresando la misma contraseña que tiene actualmente</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú Usuario, sub-modulo cambiar contraseña, ingresar contraseña actual, en los campos ingrese su nueva contraseña e Ingrese nuevamente su contraseña, ingresar la contraseña actual, hacer clic en boton aceptar</t>
+  </si>
+  <si>
+    <t>Sistema emite mensaje indicando "La contraseña debe contener a lo menos una letra mayúscula."</t>
+  </si>
+  <si>
+    <t>Sistema emite mensaje indicando "Su contraseña no puede ser igual a la actual."</t>
   </si>
 </sst>
 </file>
@@ -924,7 +952,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -993,9 +1021,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -1377,56 +1402,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="36" t="s">
-        <v>143</v>
-      </c>
-      <c r="B1" s="38" t="s">
+      <c r="A1" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="39" t="s">
-        <v>146</v>
-      </c>
-      <c r="F1" s="39"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="34" t="s">
+      <c r="C1" s="38"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1" s="38"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="34" t="s">
+      <c r="J1" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="33" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="14" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="37"/>
+      <c r="A2" s="36"/>
       <c r="B2" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="D2" s="32" t="s">
-        <v>145</v>
+        <v>114</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>115</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="G2" s="32" t="s">
-        <v>149</v>
-      </c>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
+        <v>118</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -1445,7 +1470,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="I3" s="12" t="str">
         <f>CONCATENATE("Validar funcionalidad ",IF(B3=1,$B$2,"")," ",IF(C3=1,$C$2,"")," ",IF(D3=1,$D$2,"")," del modulo Procesos, sub-modulo Trabajar con Remesa",IF(E3=1,", considerando la opcion enlace ID pestaña General",IF(F3=1,", considerando la opcion enlace ID pestaña Recaudacion y exportar registro a archivo excel","")))</f>
@@ -1474,7 +1499,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="8"/>
       <c r="H4" s="7" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
       <c r="I4" s="12" t="str">
         <f t="shared" ref="I4:I12" si="0">CONCATENATE("Validar funcionalidad ",IF(B4=1,$B$2,"")," ",IF(C4=1,$C$2,"")," ",IF(D4=1,$D$2,"")," del modulo Procesos, sub-modulo Trabajar con Remesa",IF(E4=1,", considerando la opcion enlace ID pestaña General",IF(F4=1,", considerando la opcion enlace ID pestaña Recaudacion y exportar registro a archivo excel","")))</f>
@@ -1505,7 +1530,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="I5" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1516,7 +1541,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en boton   generar archivo PDF , considerando la opcion enlace ID pestaña recaudacion para consultar registro y exportar archivo excel</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>160</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1534,7 +1559,7 @@
       <c r="F6" s="5"/>
       <c r="G6" s="8"/>
       <c r="H6" s="7" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="I6" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1545,7 +1570,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en boton   generar archivo PDF , considerando la opcion enlace ID pestaña general para consultar registro</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1567,7 +1592,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="I7" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1599,7 +1624,7 @@
       <c r="F8" s="5"/>
       <c r="G8" s="8"/>
       <c r="H8" s="7" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="I8" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1611,7 +1636,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en boton  agregar para el registro de nuevo registro   depositar remesa, considerando la opcion enlace ID pestaña general para consultar registro</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>162</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1633,7 +1658,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="I9" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1645,7 +1670,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en boton   generar archivo PDF  depositar remesa, considerando la opcion enlace ID pestaña recaudacion para consultar registro y exportar archivo excel</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>160</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.25">
@@ -1663,7 +1688,7 @@
       <c r="F10" s="25"/>
       <c r="G10" s="24"/>
       <c r="H10" s="7" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="I10" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1675,7 +1700,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en boton   generar archivo PDF  depositar remesa</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1699,7 +1724,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="I11" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1733,7 +1758,7 @@
       <c r="F12" s="5"/>
       <c r="G12" s="8"/>
       <c r="H12" s="7" t="s">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="I12" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2008,16 +2033,16 @@
       <c r="F37" s="5"/>
       <c r="G37" s="8"/>
       <c r="H37" s="7" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="J37" s="31" t="s">
-        <v>166</v>
+        <v>135</v>
+      </c>
+      <c r="J37" s="30" t="s">
+        <v>136</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2188,70 +2213,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="47" t="s">
-        <v>111</v>
-      </c>
-      <c r="B1" s="38" t="s">
+      <c r="A1" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="34" t="s">
+      <c r="C1" s="38"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="41" t="s">
-        <v>109</v>
-      </c>
-      <c r="G1" s="40"/>
-      <c r="H1" s="42" t="s">
+      <c r="F1" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="39"/>
+      <c r="H1" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="43"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="34" t="s">
+      <c r="I1" s="42"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="34" t="s">
+      <c r="L1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="N1" s="34" t="s">
+      <c r="M1" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="33" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="37"/>
+      <c r="A2" s="36"/>
       <c r="B2" s="19" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="35"/>
+      <c r="E2" s="34"/>
       <c r="F2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="29" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="I2" s="22" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="J2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -2277,7 +2302,7 @@
         <v>12</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="L3" s="12" t="str">
         <f>CONCATENATE("Validar funcionalidad ",IF(B3=1,$B$2,IF(C3=1,$C$2,IF(D3=1,$D$2)))," del modulo Maestro, sub-modulo Recaudacion",IF(E3=1,", considerando la opcion exportar a excel",""),IF(F3=1,", hacer clic en enlace concepto para modificar registro",IF(G3=1,", hacer clic en enlace concepto para eliminar registro","")),IF(H3=1,", finalizando con la consulta mediante el filtro ",""),IF(H3=1,$H$2,""),IF(H3=1," con el dato ",""),IF(H3=1,J3,""))</f>
@@ -2315,7 +2340,7 @@
         <v>10</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="L4" s="12" t="str">
         <f t="shared" ref="L4:L17" si="0">CONCATENATE("Validar funcionalidad ",IF(B4=1,$B$2,IF(C4=1,$C$2,IF(D4=1,$D$2)))," del modulo Maestro, sub-modulo Recaudacion",IF(E4=1,", considerando la opcion exportar a excel",""),IF(F4=1,", hacer clic en enlace concepto para modificar registro",IF(G4=1,", hacer clic en enlace concepto para eliminar registro","")),IF(H4=1,", finalizando con la consulta mediante el filtro ",""),IF(H4=1,$H$2,""),IF(H4=1," con el dato ",""),IF(H4=1,J4,""))</f>
@@ -2347,7 +2372,7 @@
       <c r="I5" s="9"/>
       <c r="J5" s="10"/>
       <c r="K5" s="7" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="L5" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2381,7 +2406,7 @@
       <c r="I6" s="9"/>
       <c r="J6" s="10"/>
       <c r="K6" s="7" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="L6" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2411,7 +2436,7 @@
       <c r="I7" s="9"/>
       <c r="J7" s="10"/>
       <c r="K7" s="7" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="L7" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2448,7 +2473,7 @@
         <v>30</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="L8" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2485,7 +2510,7 @@
         <v>5</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="L9" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2515,7 +2540,7 @@
       <c r="I10" s="9"/>
       <c r="J10" s="10"/>
       <c r="K10" s="7" t="s">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="L10" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2548,7 +2573,7 @@
       <c r="I11" s="9"/>
       <c r="J11" s="10"/>
       <c r="K11" s="7" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="L11" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2576,7 +2601,7 @@
       <c r="I12" s="9"/>
       <c r="J12" s="10"/>
       <c r="K12" s="7" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="L12" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2612,7 +2637,7 @@
         <v>2</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="L13" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2648,7 +2673,7 @@
         <v>3</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="L14" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2677,7 +2702,7 @@
       <c r="I15" s="9"/>
       <c r="J15" s="20"/>
       <c r="K15" s="7" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="L15" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2709,7 +2734,7 @@
       <c r="I16" s="9"/>
       <c r="J16" s="10"/>
       <c r="K16" s="7" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="L16" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2736,7 +2761,7 @@
       <c r="I17" s="9"/>
       <c r="J17" s="10"/>
       <c r="K17" s="7" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="L17" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2821,16 +2846,16 @@
       <c r="I22" s="9"/>
       <c r="J22" s="10"/>
       <c r="K22" s="7" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="L22" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="M22" s="31" t="s">
-        <v>142</v>
+        <v>111</v>
+      </c>
+      <c r="M22" s="30" t="s">
+        <v>112</v>
       </c>
       <c r="N22" s="7" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3199,6 +3224,300 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="51.7109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="117" style="12" customWidth="1"/>
+    <col min="3" max="3" width="255.42578125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="100.140625" style="7" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="14" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+    </row>
+    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="26"/>
+    </row>
+    <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="C11" s="12"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="26"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="C13" s="12"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="C14" s="12"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="C15" s="12"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="C16" s="12"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="26"/>
+    </row>
+    <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+    </row>
+    <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="7"/>
+    </row>
+    <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+    </row>
+    <row r="25" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+    </row>
+    <row r="26" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="7"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="7"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="7"/>
+    </row>
+    <row r="34" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="7"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+    </row>
+    <row r="35" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="7"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+    </row>
+    <row r="36" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="7"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+    </row>
+    <row r="37" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="7"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+    </row>
+    <row r="38" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="7"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+    </row>
+    <row r="39" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="7"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="7"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="7"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="7"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="7"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="7"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="7"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="7"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="7"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="7"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="7"/>
+    </row>
+    <row r="50" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="7"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -3220,163 +3539,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="34" t="s">
+      <c r="C1" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="33" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="14" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>198</v>
+        <v>168</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>199</v>
+        <v>169</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>201</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="D4" s="31" t="s">
-        <v>205</v>
+        <v>174</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>206</v>
+        <v>176</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="D5" s="31" t="s">
-        <v>209</v>
+        <v>178</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>211</v>
+        <v>181</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>212</v>
+        <v>182</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>201</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>213</v>
+        <v>183</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>219</v>
+        <v>189</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>217</v>
+        <v>187</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>218</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>218</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>216</v>
+        <v>186</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>222</v>
+        <v>192</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>218</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>225</v>
+        <v>195</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>228</v>
+        <v>198</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>232</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>223</v>
+        <v>193</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>226</v>
+        <v>196</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>232</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>224</v>
+        <v>194</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>227</v>
+        <v>197</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>231</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -3442,7 +3761,7 @@
     <row r="25" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="31"/>
+      <c r="C25" s="30"/>
       <c r="D25" s="7"/>
     </row>
     <row r="26" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3559,9 +3878,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C4" sqref="C4"/>
+      <selection pane="topRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3573,86 +3892,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="34" t="s">
+      <c r="C1" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="33" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="14" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>233</v>
+        <v>203</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>234</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>236</v>
+        <v>206</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>238</v>
+        <v>208</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>242</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>237</v>
+        <v>207</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>239</v>
+        <v>209</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>241</v>
+        <v>211</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>243</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="D7" s="26" t="s">
         <v>245</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="26"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="26"/>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
@@ -3741,7 +4068,7 @@
     <row r="25" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="31"/>
+      <c r="C25" s="30"/>
       <c r="D25" s="7"/>
     </row>
     <row r="26" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3860,7 +4187,7 @@
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="11" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <pane xSplit="11" topLeftCell="L1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="A3" sqref="A3:A17"/>
     </sheetView>
   </sheetViews>
@@ -3883,41 +4210,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="34" t="s">
+      <c r="C1" s="38"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="40"/>
-      <c r="H1" s="42" t="s">
+      <c r="G1" s="39"/>
+      <c r="H1" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="43"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="34" t="s">
+      <c r="I1" s="42"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="34" t="s">
+      <c r="L1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="N1" s="34" t="s">
+      <c r="M1" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="33" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="14" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="37"/>
+      <c r="A2" s="36"/>
       <c r="B2" s="19" t="s">
         <v>5</v>
       </c>
@@ -3927,7 +4254,7 @@
       <c r="D2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="35"/>
+      <c r="E2" s="34"/>
       <c r="F2" s="19" t="s">
         <v>7</v>
       </c>
@@ -3943,10 +4270,10 @@
       <c r="J2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -4528,16 +4855,16 @@
       <c r="I22" s="9"/>
       <c r="J22" s="10"/>
       <c r="K22" s="7" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="L22" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="M22" s="31" t="s">
-        <v>134</v>
+        <v>105</v>
+      </c>
+      <c r="M22" s="30" t="s">
+        <v>106</v>
       </c>
       <c r="N22" s="7" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4939,44 +5266,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="46" t="s">
+      <c r="C1" s="38"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="45" t="s">
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="42" t="s">
+      <c r="J1" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="34" t="s">
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="34" t="s">
+      <c r="O1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q1" s="34" t="s">
+      <c r="P1" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" s="33" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="37"/>
+      <c r="A2" s="36"/>
       <c r="B2" s="19" t="s">
         <v>5</v>
       </c>
@@ -4998,7 +5325,7 @@
       <c r="H2" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="I2" s="35"/>
+      <c r="I2" s="34"/>
       <c r="J2" s="18" t="s">
         <v>20</v>
       </c>
@@ -5011,10 +5338,10 @@
       <c r="M2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
     </row>
     <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -5582,16 +5909,16 @@
       <c r="L20" s="9"/>
       <c r="M20" s="10"/>
       <c r="N20" s="7" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="O20" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="P20" s="31" t="s">
-        <v>136</v>
+        <v>107</v>
+      </c>
+      <c r="P20" s="30" t="s">
+        <v>108</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6111,42 +6438,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="34" t="s">
+      <c r="C1" s="38"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="40"/>
-      <c r="H1" s="42" t="s">
+      <c r="G1" s="39"/>
+      <c r="H1" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="34" t="s">
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="34" t="s">
+      <c r="M1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="O1" s="34" t="s">
+      <c r="N1" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="33" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="37"/>
+      <c r="A2" s="36"/>
       <c r="B2" s="19" t="s">
         <v>5</v>
       </c>
@@ -6156,7 +6483,7 @@
       <c r="D2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="35"/>
+      <c r="E2" s="34"/>
       <c r="F2" s="19" t="s">
         <v>7</v>
       </c>
@@ -6175,10 +6502,10 @@
       <c r="K2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -6812,16 +7139,16 @@
       <c r="J24" s="9"/>
       <c r="K24" s="10"/>
       <c r="L24" s="7" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="M24" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="N24" s="31" t="s">
-        <v>138</v>
+        <v>109</v>
+      </c>
+      <c r="N24" s="30" t="s">
+        <v>110</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -7190,1383 +7517,338 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T50"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="17" topLeftCell="R1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A3" sqref="A3:A17"/>
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="5" customWidth="1"/>
-    <col min="3" max="3" width="4.85546875" style="13" customWidth="1"/>
-    <col min="4" max="4" width="5.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" style="16" customWidth="1"/>
-    <col min="6" max="6" width="4.42578125" customWidth="1"/>
-    <col min="7" max="7" width="5.7109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="4.85546875" style="11" customWidth="1"/>
-    <col min="9" max="14" width="4.140625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="5" style="2" customWidth="1"/>
-    <col min="16" max="16" width="12.42578125" style="2" customWidth="1"/>
-    <col min="17" max="17" width="51.7109375" style="6" customWidth="1"/>
-    <col min="18" max="18" width="255.42578125" style="12" customWidth="1"/>
-    <col min="19" max="19" width="255.42578125" style="7" customWidth="1"/>
-    <col min="20" max="20" width="79" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.7109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="255.42578125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="255.42578125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="79" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="B1" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="40"/>
-      <c r="H1" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="34" t="s">
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="R1" s="34" t="s">
+      <c r="B1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="T1" s="34" t="s">
+      <c r="C1" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="33" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="14" customFormat="1" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="37"/>
-      <c r="B2" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="I2" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="J2" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="K2" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="L2" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="M2" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="N2" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="O2" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="P2" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-    </row>
-    <row r="3" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="16">
-        <v>1</v>
-      </c>
-      <c r="F3" s="5">
-        <v>1</v>
-      </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="9">
-        <v>1</v>
-      </c>
-      <c r="I3" s="9">
-        <v>1</v>
-      </c>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="R3" s="12" t="str">
-        <f>CONCATENATE("Validar funcionalidad ",IF(B3=1,$B$2,IF(C3=1,$C$2,IF(D3=1,$D$2)))," del modulo Maestro, sub-modulo Formas de pago",IF(E3=1,", considerando la opcion exportar a excel",""),IF(F3=1,", hacer clic en enlace descripcion para modificar registro",IF(G3=1,", hacer clic en enlace descripcion para eliminar registro","")),IF(H3=1,", finalizando con la consulta mediante los filtros ",""),IF(H3=1,$H$2,"")," ",IF(I3=1,$I$2,""),IF(J3=1,", finalizando con la consulta mediante los filtros ",""),IF(J3=1,$J$2,"")," ",IF(K3=1,$K$2,""),IF(L3=1,", finalizando con la consulta mediante los filtros ",""),IF(L3=1,$L$2,""),IF(M3=1,$M$2,""),IF(N3=1,", finalizando con la consulta mediante los filtros ",""),IF(N3=1,$N$2,""),IF(O3=1,$O$2,""),IF(H3=1," con el dato ",""),IF(H3=1,P3,""))</f>
-        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Formas de pago, considerando la opcion exportar a excel, hacer clic en enlace descripcion para modificar registro, finalizando con la consulta mediante los filtros Pago descripcion Es convenido  con el dato Cheque</v>
-      </c>
-      <c r="S3" s="12" t="str">
-        <f>CONCATENATE("Acceder a sistema cartera con usuario que poseea perfil para ingresar al modulo Maestro, sub-modulo Formas de pago ",IF(B3=1,"para agregar registro",IF(C3=1,"para eliminar registro",IF(D3=1,"para modificar registro"))),IF(E3=1,", hacer  clic botón exportar a excel",""),IF(F3=1,", hacer clic en enlace descripcion para modificar registro",IF(G3=1,", hacer clic en enlace descripcion para eliminar registro","")),IF(H3=1,", finalizando con la consulta mediante los filtros ",""),IF(H3=1,$H$2,"")," ",IF(I3=1,$I$2,""),IF(J3=1,", finalizando con la consulta mediante los filtros ",""),IF(J3=1,$J$2,"")," ",IF(K3=1,$K$2,""),IF(L3=1,", finalizando con la consulta mediante los filtros ",""),IF(L3=1,$L$2,""),IF(M3=1,$M$2,""),IF(N3=1,", finalizando con la consulta mediante los filtros ",""),IF(N3=1,$N$2,""),IF(O3=1,$O$2,""),IF(H3=1," con el dato ",""),IF(H3=1,P3,""))</f>
-        <v>Acceder a sistema cartera con usuario que poseea perfil para ingresar al modulo Maestro, sub-modulo Formas de pago para agregar registro, hacer  clic botón exportar a excel, hacer clic en enlace descripcion para modificar registro, finalizando con la consulta mediante los filtros Pago descripcion Es convenido  con el dato Cheque</v>
-      </c>
-      <c r="T3" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="16">
-        <v>1</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="8">
-        <v>1</v>
-      </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9">
-        <v>1</v>
-      </c>
-      <c r="K4" s="9">
-        <v>1</v>
-      </c>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="R4" s="12" t="str">
-        <f t="shared" ref="R4:R17" si="0">CONCATENATE("Validar funcionalidad ",IF(B4=1,$B$2,IF(C4=1,$C$2,IF(D4=1,$D$2)))," del modulo Maestro, sub-modulo Formas de pago",IF(E4=1,", considerando la opcion exportar a excel",""),IF(F4=1,", hacer clic en enlace descripcion para modificar registro",IF(G4=1,", hacer clic en enlace descripcion para eliminar registro","")),IF(H4=1,", finalizando con la consulta mediante los filtros ",""),IF(H4=1,$H$2,"")," ",IF(I4=1,$I$2,""),IF(J4=1,", finalizando con la consulta mediante los filtros ",""),IF(J4=1,$J$2,"")," ",IF(K4=1,$K$2,""),IF(L4=1,", finalizando con la consulta mediante los filtros ",""),IF(L4=1,$L$2,""),IF(M4=1,$M$2,""),IF(N4=1,", finalizando con la consulta mediante los filtros ",""),IF(N4=1,$N$2,""),IF(O4=1,$O$2,""),IF(H4=1," con el dato ",""),IF(H4=1,P4,""))</f>
-        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Formas de pago, considerando la opcion exportar a excel, hacer clic en enlace descripcion para eliminar registro , finalizando con la consulta mediante los filtros Requiere banco Requiere fecha</v>
-      </c>
-      <c r="S4" s="12" t="str">
-        <f t="shared" ref="S4:S17" si="1">CONCATENATE("Acceder a sistema cartera con usuario que poseea perfil para ingresar al modulo Maestro, sub-modulo Formas de pago ",IF(B4=1,"para agregar registro",IF(C4=1,"para eliminar registro",IF(D4=1,"para modificar registro"))),IF(E4=1,", hacer  clic botón exportar a excel",""),IF(F4=1,", hacer clic en enlace descripcion para modificar registro",IF(G4=1,", hacer clic en enlace descripcion para eliminar registro","")),IF(H4=1,", finalizando con la consulta mediante los filtros ",""),IF(H4=1,$H$2,"")," ",IF(I4=1,$I$2,""),IF(J4=1,", finalizando con la consulta mediante los filtros ",""),IF(J4=1,$J$2,"")," ",IF(K4=1,$K$2,""),IF(L4=1,", finalizando con la consulta mediante los filtros ",""),IF(L4=1,$L$2,""),IF(M4=1,$M$2,""),IF(N4=1,", finalizando con la consulta mediante los filtros ",""),IF(N4=1,$N$2,""),IF(O4=1,$O$2,""),IF(H4=1," con el dato ",""),IF(H4=1,P4,""))</f>
-        <v>Acceder a sistema cartera con usuario que poseea perfil para ingresar al modulo Maestro, sub-modulo Formas de pago para agregar registro, hacer  clic botón exportar a excel, hacer clic en enlace descripcion para eliminar registro , finalizando con la consulta mediante los filtros Requiere banco Requiere fecha</v>
-      </c>
-      <c r="T4" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <v>1</v>
-      </c>
-      <c r="B5" s="5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="5">
-        <v>1</v>
-      </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9">
-        <v>1</v>
-      </c>
-      <c r="M5" s="9">
-        <v>1</v>
-      </c>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="7" t="s">
+    <row r="2" spans="1:4" s="14" customFormat="1" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+    </row>
+    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="C11" s="12"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="26"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="C13" s="12"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="C14" s="12"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="C15" s="12"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="C16" s="12"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="26"/>
+    </row>
+    <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+    </row>
+    <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="R5" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Formas de pago, hacer clic en enlace descripcion para modificar registro  , finalizando con la consulta mediante los filtros Requiere numeroNro de operación</v>
-      </c>
-      <c r="S5" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema cartera con usuario que poseea perfil para ingresar al modulo Maestro, sub-modulo Formas de pago para agregar registro, hacer clic en enlace descripcion para modificar registro  , finalizando con la consulta mediante los filtros Requiere numeroNro de operación</v>
-      </c>
-      <c r="T5" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>1</v>
-      </c>
-      <c r="B6" s="5">
-        <v>1</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="16">
-        <v>1</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="8">
-        <v>1</v>
-      </c>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9">
-        <v>1</v>
-      </c>
-      <c r="O6" s="9">
-        <v>1</v>
-      </c>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="R6" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Formas de pago, considerando la opcion exportar a excel, hacer clic en enlace descripcion para eliminar registro  , finalizando con la consulta mediante los filtros Requiere montoCorresponde alzamiento</v>
-      </c>
-      <c r="S6" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema cartera con usuario que poseea perfil para ingresar al modulo Maestro, sub-modulo Formas de pago para agregar registro, hacer  clic botón exportar a excel, hacer clic en enlace descripcion para eliminar registro  , finalizando con la consulta mediante los filtros Requiere montoCorresponde alzamiento</v>
-      </c>
-      <c r="T6" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <v>1</v>
-      </c>
-      <c r="B7" s="5">
-        <v>1</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="R7" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">Validar funcionalidad Agregar del modulo Maestro, sub-modulo Formas de pago  </v>
-      </c>
-      <c r="S7" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">Acceder a sistema cartera con usuario que poseea perfil para ingresar al modulo Maestro, sub-modulo Formas de pago para agregar registro  </v>
-      </c>
-      <c r="T7" s="26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <v>1</v>
-      </c>
-      <c r="C8" s="5">
-        <v>1</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="16">
-        <v>1</v>
-      </c>
-      <c r="F8" s="5">
-        <v>1</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9">
-        <v>1</v>
-      </c>
-      <c r="I8" s="9">
-        <v>1</v>
-      </c>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="R8" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Formas de pago, considerando la opcion exportar a excel, hacer clic en enlace descripcion para modificar registro, finalizando con la consulta mediante los filtros Pago descripcion Es convenido  con el dato Efectivo</v>
-      </c>
-      <c r="S8" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema cartera con usuario que poseea perfil para ingresar al modulo Maestro, sub-modulo Formas de pago para eliminar registro, hacer  clic botón exportar a excel, hacer clic en enlace descripcion para modificar registro, finalizando con la consulta mediante los filtros Pago descripcion Es convenido  con el dato Efectivo</v>
-      </c>
-      <c r="T8" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
-        <v>1</v>
-      </c>
-      <c r="C9" s="5">
-        <v>1</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="16">
-        <v>1</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="8">
-        <v>1</v>
-      </c>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9">
-        <v>1</v>
-      </c>
-      <c r="K9" s="9">
-        <v>1</v>
-      </c>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="R9" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Formas de pago, considerando la opcion exportar a excel, hacer clic en enlace descripcion para eliminar registro , finalizando con la consulta mediante los filtros Requiere banco Requiere fecha</v>
-      </c>
-      <c r="S9" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema cartera con usuario que poseea perfil para ingresar al modulo Maestro, sub-modulo Formas de pago para eliminar registro, hacer  clic botón exportar a excel, hacer clic en enlace descripcion para eliminar registro , finalizando con la consulta mediante los filtros Requiere banco Requiere fecha</v>
-      </c>
-      <c r="T9" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <v>1</v>
-      </c>
-      <c r="C10" s="5">
-        <v>1</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="F10" s="5">
-        <v>1</v>
-      </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9">
-        <v>1</v>
-      </c>
-      <c r="M10" s="9">
-        <v>1</v>
-      </c>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="R10" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Formas de pago, hacer clic en enlace descripcion para modificar registro  , finalizando con la consulta mediante los filtros Requiere numeroNro de operación</v>
-      </c>
-      <c r="S10" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema cartera con usuario que poseea perfil para ingresar al modulo Maestro, sub-modulo Formas de pago para eliminar registro, hacer clic en enlace descripcion para modificar registro  , finalizando con la consulta mediante los filtros Requiere numeroNro de operación</v>
-      </c>
-      <c r="T10" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
-        <v>1</v>
-      </c>
-      <c r="C11" s="5">
-        <v>1</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="16">
-        <v>1</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="8">
-        <v>1</v>
-      </c>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9">
-        <v>1</v>
-      </c>
-      <c r="O11" s="9">
-        <v>1</v>
-      </c>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="R11" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Formas de pago, considerando la opcion exportar a excel, hacer clic en enlace descripcion para eliminar registro  , finalizando con la consulta mediante los filtros Requiere montoCorresponde alzamiento</v>
-      </c>
-      <c r="S11" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema cartera con usuario que poseea perfil para ingresar al modulo Maestro, sub-modulo Formas de pago para eliminar registro, hacer  clic botón exportar a excel, hacer clic en enlace descripcion para eliminar registro  , finalizando con la consulta mediante los filtros Requiere montoCorresponde alzamiento</v>
-      </c>
-      <c r="T11" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
-        <v>1</v>
-      </c>
-      <c r="C12" s="5">
-        <v>1</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="R12" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Formas de pago  </v>
-      </c>
-      <c r="S12" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">Acceder a sistema cartera con usuario que poseea perfil para ingresar al modulo Maestro, sub-modulo Formas de pago para eliminar registro  </v>
-      </c>
-      <c r="T12" s="26" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
-        <v>1</v>
-      </c>
-      <c r="D13" s="5">
-        <v>1</v>
-      </c>
-      <c r="E13" s="16">
-        <v>1</v>
-      </c>
-      <c r="F13" s="5">
-        <v>1</v>
-      </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="9">
-        <v>1</v>
-      </c>
-      <c r="I13" s="9">
-        <v>1</v>
-      </c>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="R13" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Formas de pago, considerando la opcion exportar a excel, hacer clic en enlace descripcion para modificar registro, finalizando con la consulta mediante los filtros Pago descripcion Es convenido  con el dato Tarjeta</v>
-      </c>
-      <c r="S13" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema cartera con usuario que poseea perfil para ingresar al modulo Maestro, sub-modulo Formas de pago para modificar registro, hacer  clic botón exportar a excel, hacer clic en enlace descripcion para modificar registro, finalizando con la consulta mediante los filtros Pago descripcion Es convenido  con el dato Tarjeta</v>
-      </c>
-      <c r="T13" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
-        <v>1</v>
-      </c>
-      <c r="D14" s="5">
-        <v>1</v>
-      </c>
-      <c r="E14" s="16">
-        <v>1</v>
-      </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="8">
-        <v>1</v>
-      </c>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9">
-        <v>1</v>
-      </c>
-      <c r="K14" s="9">
-        <v>1</v>
-      </c>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="R14" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Formas de pago, considerando la opcion exportar a excel, hacer clic en enlace descripcion para eliminar registro , finalizando con la consulta mediante los filtros Requiere banco Requiere fecha</v>
-      </c>
-      <c r="S14" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema cartera con usuario que poseea perfil para ingresar al modulo Maestro, sub-modulo Formas de pago para modificar registro, hacer  clic botón exportar a excel, hacer clic en enlace descripcion para eliminar registro , finalizando con la consulta mediante los filtros Requiere banco Requiere fecha</v>
-      </c>
-      <c r="T14" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
-        <v>1</v>
-      </c>
-      <c r="D15" s="5">
-        <v>1</v>
-      </c>
-      <c r="F15" s="5">
-        <v>1</v>
-      </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9">
-        <v>1</v>
-      </c>
-      <c r="M15" s="9">
-        <v>1</v>
-      </c>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="R15" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Formas de pago, hacer clic en enlace descripcion para modificar registro  , finalizando con la consulta mediante los filtros Requiere numeroNro de operación</v>
-      </c>
-      <c r="S15" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema cartera con usuario que poseea perfil para ingresar al modulo Maestro, sub-modulo Formas de pago para modificar registro, hacer clic en enlace descripcion para modificar registro  , finalizando con la consulta mediante los filtros Requiere numeroNro de operación</v>
-      </c>
-      <c r="T15" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
-        <v>1</v>
-      </c>
-      <c r="D16" s="5">
-        <v>1</v>
-      </c>
-      <c r="E16" s="16">
-        <v>1</v>
-      </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="8">
-        <v>1</v>
-      </c>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9">
-        <v>1</v>
-      </c>
-      <c r="O16" s="9">
-        <v>1</v>
-      </c>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="R16" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Formas de pago, considerando la opcion exportar a excel, hacer clic en enlace descripcion para eliminar registro  , finalizando con la consulta mediante los filtros Requiere montoCorresponde alzamiento</v>
-      </c>
-      <c r="S16" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema cartera con usuario que poseea perfil para ingresar al modulo Maestro, sub-modulo Formas de pago para modificar registro, hacer  clic botón exportar a excel, hacer clic en enlace descripcion para eliminar registro  , finalizando con la consulta mediante los filtros Requiere montoCorresponde alzamiento</v>
-      </c>
-      <c r="T16" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
-        <v>1</v>
-      </c>
-      <c r="D17" s="5">
-        <v>1</v>
-      </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="R17" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">Validar funcionalidad Modificar del modulo Maestro, sub-modulo Formas de pago  </v>
-      </c>
-      <c r="S17" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">Acceder a sistema cartera con usuario que poseea perfil para ingresar al modulo Maestro, sub-modulo Formas de pago para modificar registro  </v>
-      </c>
-      <c r="T17" s="26" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="7"/>
-      <c r="T18" s="7"/>
-    </row>
-    <row r="19" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="7"/>
-      <c r="T19" s="7"/>
-    </row>
-    <row r="20" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="7"/>
-      <c r="T20" s="7"/>
-    </row>
-    <row r="21" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="12"/>
-      <c r="S21" s="7"/>
-      <c r="T21" s="7"/>
-    </row>
-    <row r="22" spans="1:20" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="R22" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="S22" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="T22" s="7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="12"/>
-      <c r="S23" s="7"/>
-      <c r="T23" s="7"/>
-    </row>
-    <row r="24" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="12"/>
-      <c r="S24" s="7"/>
-      <c r="T24" s="7"/>
-    </row>
-    <row r="25" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="12"/>
-      <c r="S25" s="7"/>
-      <c r="T25" s="7"/>
-    </row>
-    <row r="26" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="7"/>
-      <c r="R26" s="12"/>
-      <c r="S26" s="7"/>
-      <c r="T26" s="7"/>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="8"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="7"/>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="8"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="7"/>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="8"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="7"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="8"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="7"/>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="8"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="10"/>
-      <c r="Q31" s="7"/>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="8"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="10"/>
-      <c r="Q32" s="7"/>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="8"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="9"/>
-      <c r="P33" s="10"/>
-      <c r="Q33" s="7"/>
-    </row>
-    <row r="34" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="8"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="9"/>
-      <c r="P34" s="10"/>
-      <c r="Q34" s="7"/>
-      <c r="R34" s="12"/>
-      <c r="S34" s="7"/>
-      <c r="T34" s="7"/>
-    </row>
-    <row r="35" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="9"/>
-      <c r="O35" s="9"/>
-      <c r="P35" s="10"/>
-      <c r="Q35" s="7"/>
-      <c r="R35" s="12"/>
-      <c r="S35" s="7"/>
-      <c r="T35" s="7"/>
-    </row>
-    <row r="36" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
-      <c r="N36" s="9"/>
-      <c r="O36" s="9"/>
-      <c r="P36" s="10"/>
-      <c r="Q36" s="7"/>
-      <c r="R36" s="12"/>
-      <c r="S36" s="7"/>
-      <c r="T36" s="7"/>
-    </row>
-    <row r="37" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="8"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
-      <c r="N37" s="9"/>
-      <c r="O37" s="9"/>
-      <c r="P37" s="10"/>
-      <c r="Q37" s="7"/>
-      <c r="R37" s="12"/>
-      <c r="S37" s="7"/>
-      <c r="T37" s="7"/>
-    </row>
-    <row r="38" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="8"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="9"/>
-      <c r="P38" s="10"/>
-      <c r="Q38" s="7"/>
-      <c r="R38" s="12"/>
-      <c r="S38" s="7"/>
-      <c r="T38" s="7"/>
-    </row>
-    <row r="39" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="8"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
-      <c r="N39" s="9"/>
-      <c r="O39" s="9"/>
-      <c r="P39" s="10"/>
-      <c r="Q39" s="7"/>
-      <c r="R39" s="12"/>
-      <c r="S39" s="7"/>
-      <c r="T39" s="7"/>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A40" s="8"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="8"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="9"/>
-      <c r="L40" s="9"/>
-      <c r="M40" s="9"/>
-      <c r="N40" s="9"/>
-      <c r="O40" s="9"/>
-      <c r="P40" s="10"/>
-      <c r="Q40" s="7"/>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A41" s="8"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="8"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="9"/>
-      <c r="L41" s="9"/>
-      <c r="M41" s="9"/>
-      <c r="N41" s="9"/>
-      <c r="O41" s="9"/>
-      <c r="P41" s="10"/>
-      <c r="Q41" s="7"/>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A42" s="8"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="8"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="9"/>
-      <c r="K42" s="9"/>
-      <c r="L42" s="9"/>
-      <c r="M42" s="9"/>
-      <c r="N42" s="9"/>
-      <c r="O42" s="9"/>
-      <c r="P42" s="10"/>
-      <c r="Q42" s="7"/>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A43" s="8"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="8"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="9"/>
-      <c r="K43" s="9"/>
-      <c r="L43" s="9"/>
-      <c r="M43" s="9"/>
-      <c r="N43" s="9"/>
-      <c r="O43" s="9"/>
-      <c r="P43" s="10"/>
-      <c r="Q43" s="7"/>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A44" s="8"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="8"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="9"/>
-      <c r="K44" s="9"/>
-      <c r="L44" s="9"/>
-      <c r="M44" s="9"/>
-      <c r="N44" s="9"/>
-      <c r="O44" s="9"/>
-      <c r="P44" s="10"/>
-      <c r="Q44" s="7"/>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A45" s="8"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="8"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="9"/>
-      <c r="K45" s="9"/>
-      <c r="L45" s="9"/>
-      <c r="M45" s="9"/>
-      <c r="N45" s="9"/>
-      <c r="O45" s="9"/>
-      <c r="P45" s="10"/>
-      <c r="Q45" s="7"/>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A46" s="8"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="8"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="9"/>
-      <c r="K46" s="9"/>
-      <c r="L46" s="9"/>
-      <c r="M46" s="9"/>
-      <c r="N46" s="9"/>
-      <c r="O46" s="9"/>
-      <c r="P46" s="10"/>
-      <c r="Q46" s="7"/>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A47" s="8"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="8"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
-      <c r="J47" s="9"/>
-      <c r="K47" s="9"/>
-      <c r="L47" s="9"/>
-      <c r="M47" s="9"/>
-      <c r="N47" s="9"/>
-      <c r="O47" s="9"/>
-      <c r="P47" s="10"/>
-      <c r="Q47" s="7"/>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A48" s="8"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="8"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9"/>
-      <c r="J48" s="9"/>
-      <c r="K48" s="9"/>
-      <c r="L48" s="9"/>
-      <c r="M48" s="9"/>
-      <c r="N48" s="9"/>
-      <c r="O48" s="9"/>
-      <c r="P48" s="10"/>
-      <c r="Q48" s="7"/>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A49" s="8"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="8"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
-      <c r="J49" s="9"/>
-      <c r="K49" s="9"/>
-      <c r="L49" s="9"/>
-      <c r="M49" s="9"/>
-      <c r="N49" s="9"/>
-      <c r="O49" s="9"/>
-      <c r="P49" s="10"/>
-      <c r="Q49" s="7"/>
-    </row>
-    <row r="50" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="8"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
-      <c r="J50" s="9"/>
-      <c r="K50" s="9"/>
-      <c r="L50" s="9"/>
-      <c r="M50" s="9"/>
-      <c r="N50" s="9"/>
-      <c r="O50" s="9"/>
-      <c r="P50" s="10"/>
-      <c r="Q50" s="7"/>
-      <c r="R50" s="12"/>
-      <c r="S50" s="7"/>
-      <c r="T50" s="7"/>
+    </row>
+    <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+    </row>
+    <row r="25" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+    </row>
+    <row r="26" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="7"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="7"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="7"/>
+    </row>
+    <row r="34" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="7"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+    </row>
+    <row r="35" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="7"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+    </row>
+    <row r="36" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="7"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+    </row>
+    <row r="37" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="7"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+    </row>
+    <row r="38" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="7"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+    </row>
+    <row r="39" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="7"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="7"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="7"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="7"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="7"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="7"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="7"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="7"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="7"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="7"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="7"/>
+    </row>
+    <row r="50" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="7"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="T1:T2"/>
+  <mergeCells count="4">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:P1"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8590,93 +7872,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="34" t="s">
+      <c r="C1" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="33" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>179</v>
+        <v>149</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>180</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
-        <v>169</v>
+      <c r="A6" s="32" t="s">
+        <v>139</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="D6" s="31" t="s">
-        <v>183</v>
+        <v>152</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>184</v>
+        <v>154</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8758,7 +8040,7 @@
     <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="12"/>
-      <c r="C23" s="31"/>
+      <c r="C23" s="30"/>
       <c r="D23" s="7"/>
     </row>
     <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8901,65 +8183,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="34" t="s">
+      <c r="C1" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="33" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>193</v>
+        <v>163</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>194</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>191</v>
+        <v>161</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>194</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>189</v>
+        <v>159</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -9053,7 +8335,7 @@
     <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="12"/>
-      <c r="C23" s="31"/>
+      <c r="C23" s="30"/>
       <c r="D23" s="7"/>
     </row>
     <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">

--- a/Casos Cartera/MenuFavorios.xlsx
+++ b/Casos Cartera/MenuFavorios.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" tabRatio="787" firstSheet="4" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" tabRatio="787" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Créditos" sheetId="15" r:id="rId1"/>
@@ -3231,7 +3231,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="D6" sqref="D6"/>
     </sheetView>
@@ -3244,7 +3244,7 @@
     <col min="4" max="4" width="100.140625" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
@@ -4186,7 +4186,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="11" topLeftCell="L1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="A3" sqref="A3:A17"/>
     </sheetView>

--- a/Casos Cartera/MenuFavorios.xlsx
+++ b/Casos Cartera/MenuFavorios.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" tabRatio="787" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" tabRatio="787" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Créditos" sheetId="15" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="265">
   <si>
     <t>Nombre CP</t>
   </si>
@@ -451,67 +451,6 @@
     <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Procesos - sub modulo Tabajar con remesas, hacer clic en boton Agregar, ingresar datos de un registro existente y hacer clic en boton guardar, posterior a ello, intentar realizar registro sin llenar campos obligatorios.</t>
   </si>
   <si>
-    <t>TC_Cartera_ProcesosSeleccion_CartaGuia</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesosSeleccion_ExportarExcel</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesosSeleccion_CartaGuiaPolitica</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesosSeleccion_IncluirPagares</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesosSeleccion_ExcluirPagares</t>
-  </si>
-  <si>
-    <t>Validar inclusión de pagares que cumple con las políticas aplicadas en los criterios de selección</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Selección de creditos (afianza), seleccionar opcion si del filtro excluidos, hacer clic en boton incorporar, hacer clic en boton si</t>
-  </si>
-  <si>
-    <t>Inclusion de pagare de manera exitosa</t>
-  </si>
-  <si>
-    <t>Validar emision de carta guia con pagares que cumple con las políticas aplicadas en los criterios de selección</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Selección de creditos (afianza), hacer clic en boton crear carta guia</t>
-  </si>
-  <si>
-    <t>Emisión de carta guia con pagares que cumple con las políticas aplicadas en los criterios de selección</t>
-  </si>
-  <si>
-    <t>Validar descarga de archivo excel con pagares que cumple y no cumplen con las políticas aplicadas en los criterios de selección</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Selección de creditos (afianza), seleccionar opcion con politica del filtro Política Selección, hacer clic en boton exportar a excel, luego, seleccionar opcion sin politica del filtro Política Selección, hacer clic en boton exportar a excel</t>
-  </si>
-  <si>
-    <t>Descarga de archivo excel, visualizando registro según criterios seleccionados</t>
-  </si>
-  <si>
-    <t>Validar emision de carta guia con pagares que no cumple con las políticas aplicadas en los criterios de selección</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Selección de creditos (afianza), seleccionar opcion sin politica del filtro Política Selección, hacer clic en boton crear carta guia</t>
-  </si>
-  <si>
-    <t>Emisión de carta guia con pagares que no cumple con las políticas aplicadas en los criterios 
-de selección, la selección de pagares queda a criterio del usuario para emitir carta</t>
-  </si>
-  <si>
-    <t>Validar exclusión de pagares que cumplen y no cumplen con las políticas aplicadas en los criterios de selección</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Selección de creditos (afianza), seleccionar opcion sin politica del filtro Política Selección, hacer clic en boton desmarcar credito, hacer clic en boton si, luego, seleccionar opcion sin politica del filtro Política Selección, hacer clic en boton desmarcar credito, hacer clic en boton si</t>
-  </si>
-  <si>
-    <t>Exclusion de pagare de manera exitosa</t>
-  </si>
-  <si>
     <t>TC_Cartera_ProcesoXML_OfertaTD</t>
   </si>
   <si>
@@ -814,6 +753,88 @@
   </si>
   <si>
     <t>Sistema emite mensaje indicando "Su contraseña no puede ser igual a la actual."</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+Pagarés</t>
+  </si>
+  <si>
+    <t>Carta guía Pagare</t>
+  </si>
+  <si>
+    <t>Carta Guía Traslado</t>
+  </si>
+  <si>
+    <t>Importar Carta Guía</t>
+  </si>
+  <si>
+    <t>Importar Recompras</t>
+  </si>
+  <si>
+    <t>Exportar carta guía</t>
+  </si>
+  <si>
+    <t>Eliminar carta guía</t>
+  </si>
+  <si>
+    <t>Pagarés</t>
+  </si>
+  <si>
+    <t>Agregar Pagares</t>
+  </si>
+  <si>
+    <t>Eliminar Pagare</t>
+  </si>
+  <si>
+    <t>Aprobar carta guía</t>
+  </si>
+  <si>
+    <t>TC_Cartera_Pagares_CartaGuiaAgregar</t>
+  </si>
+  <si>
+    <t>TC_Cartera_Pagares_CartaGuiaEliminarPagare</t>
+  </si>
+  <si>
+    <t>TC_Cartera_Pagares_CartaGuiaAprobar</t>
+  </si>
+  <si>
+    <t>TC_Cartera_Pagares_EliminarCartaGuia</t>
+  </si>
+  <si>
+    <t>TC_Cartera_Pagares_TrasladoAgregar</t>
+  </si>
+  <si>
+    <t>TC_Cartera_Pagares_TrasladoEliminarPagare</t>
+  </si>
+  <si>
+    <t>TC_Cartera_Pagares_TrasladoAprobar</t>
+  </si>
+  <si>
+    <t>TC_Cartera_Pagares_TrasladoEliminarCartaGuia</t>
+  </si>
+  <si>
+    <t>TC_Cartera_Pagares_ImportarCartaGuiaAgregar</t>
+  </si>
+  <si>
+    <t>TC_Cartera_Pagares_ImportarCartaGuiaEliminarPagare</t>
+  </si>
+  <si>
+    <t>TC_Cartera_Pagares_ImportarCartaGuiaAprobar</t>
+  </si>
+  <si>
+    <t>TC_Cartera_Pagares_ImportarCartaGuiaEliminar</t>
+  </si>
+  <si>
+    <t>TC_Cartera_Pagares_ImportarRecomprasAgregar</t>
+  </si>
+  <si>
+    <t>TC_Cartera_Pagares_ImportarRecomprasEliminarPagares</t>
+  </si>
+  <si>
+    <t>TC_Cartera_Pagares_ImportarRecomprasAprobar</t>
+  </si>
+  <si>
+    <t>TC_Cartera_Pagares_ImportarRecomprasEliminar</t>
   </si>
 </sst>
 </file>
@@ -1031,8 +1052,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -3266,44 +3287,44 @@
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3560,142 +3581,142 @@
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -3913,72 +3934,72 @@
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4186,7 +4207,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="11" topLeftCell="L1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="A3" sqref="A3:A17"/>
     </sheetView>
@@ -5241,7 +5262,7 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="14" topLeftCell="O1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A3" sqref="A3:A14"/>
+      <selection pane="topRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7554,114 +7575,114 @@
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -7856,312 +7877,929 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="49.42578125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="126.7109375" style="12" customWidth="1"/>
-    <col min="3" max="3" width="255.42578125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="101" style="7" customWidth="1"/>
+    <col min="1" max="1" width="7.5703125" style="3" customWidth="1"/>
+    <col min="2" max="3" width="4.7109375" customWidth="1"/>
+    <col min="4" max="4" width="4.85546875" style="13" customWidth="1"/>
+    <col min="5" max="5" width="4.140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="5.28515625" style="6" customWidth="1"/>
+    <col min="8" max="9" width="5.28515625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="3.85546875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="5.42578125" style="16" customWidth="1"/>
+    <col min="12" max="12" width="55.5703125" style="6" customWidth="1"/>
+    <col min="13" max="13" width="255.42578125" style="12" customWidth="1"/>
+    <col min="14" max="14" width="255.42578125" style="7" customWidth="1"/>
+    <col min="15" max="15" width="79" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:15" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="46" t="s">
+        <v>238</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="45" t="s">
+        <v>245</v>
+      </c>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="M1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="33" t="s">
+      <c r="N1" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="33" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-    </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="7"/>
-    </row>
-    <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="7"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="C10" s="12"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="C11" s="12"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="26"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="C13" s="12"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="C14" s="12"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="C15" s="12"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="C16" s="12"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="26"/>
-    </row>
-    <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-    </row>
-    <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-    </row>
-    <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-    </row>
-    <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-    </row>
-    <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-    </row>
-    <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="7"/>
-    </row>
-    <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-    </row>
-    <row r="25" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-    </row>
-    <row r="26" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="7"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
-    </row>
-    <row r="34" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-    </row>
-    <row r="35" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="7"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-    </row>
-    <row r="36" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-    </row>
-    <row r="37" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="7"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-    </row>
-    <row r="38" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="7"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-    </row>
-    <row r="39" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="7"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="7"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="7"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="7"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="7"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="7"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="7"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="7"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="7"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="7"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="7"/>
-    </row>
-    <row r="50" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="7"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
+    <row r="2" spans="1:15" s="14" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="36"/>
+      <c r="B2" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>242</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+    </row>
+    <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="16">
+        <v>1</v>
+      </c>
+      <c r="G3" s="16"/>
+      <c r="H3" s="8">
+        <v>1</v>
+      </c>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="M3" s="12" t="e">
+        <f>CONCATENATE("Validar funcionalidad ",IF(B3=1,$B$2,IF(D3=1,$D$2,IF(E3=1,$E$2)))," del modulo Maestro, sub-moduloEmpresas Externas",IF(F3=1," considerando enlace documentos proveedor para agregar nuevo registro",IF(G3=1," considerando enlace documentos proveedor para modificar registro",IF(J3=1," considerando enlace documentos proveedor para modificar registro",""))),IF(#REF!=1," y hacer clic en ",""),IF(#REF!=1,#REF!,""),IF(K3=1,", considerando la opcion exportar a excel",""),IF(#REF!=1,", finalizando con la consulta mediante el filtro ",IF(#REF!=1,", finalizando con la consulta mediante el filtro ",IF(#REF!=1,", finalizando con la consulta mediante el filtro ",""))),IF(#REF!=1,#REF!,IF(#REF!=1,#REF!,IF(#REF!=1,#REF!,""))),IF(#REF!=1," con el dato ",IF(#REF!=1," con el dato ",IF(#REF!=1," con el dato ",""))),IF(#REF!=1,#REF!,IF(#REF!=1,#REF!,IF(#REF!=1,#REF!,""))))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N3" s="12" t="e">
+        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Maestro, sub-modulo Empresas Externas",IF(B3=1,", hacer clic en boton agregar",IF(D3=1,", hacer clic en boton modificar",IF(E3=1,", hacer clic en boton eliminar"))),IF(F3=1,", hacer clic en enlace documentos proveedor para agregar nuevo registro",IF(G3=1,", hacer clic en enlace documentos proveedor para modificar registro",IF(J3=1," , hacer clic en enlace documentos proveedor para modificar registro",""))),IF(#REF!=1," y hacer clic en ",""),IF(#REF!=1,#REF!,""),IF(K3=1,", hacer clic en boton exportar a excel",""),IF(#REF!=1,", finalizando con la consulta mediante el filtro ",IF(#REF!=1,", finalizando con la consulta mediante el filtro ",IF(#REF!=1,", finalizando con la consulta mediante el filtro ",""))),IF(#REF!=1,#REF!,IF(#REF!=1,#REF!,IF(#REF!=1,#REF!,""))),IF(#REF!=1," con el dato ",IF(#REF!=1," con el dato ",IF(#REF!=1," con el dato ",""))),IF(#REF!=1,#REF!,IF(#REF!=1,#REF!,IF(#REF!=1,#REF!,""))))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O3" s="7"/>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="16">
+        <v>1</v>
+      </c>
+      <c r="G4" s="16"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8">
+        <v>1</v>
+      </c>
+      <c r="J4" s="8"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="7"/>
+    </row>
+    <row r="5" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>1</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="16">
+        <v>1</v>
+      </c>
+      <c r="G5" s="16"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8">
+        <v>1</v>
+      </c>
+      <c r="K5" s="16"/>
+      <c r="L5" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="7"/>
+    </row>
+    <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16">
+        <v>1</v>
+      </c>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="16">
+        <v>1</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="16">
+        <v>1</v>
+      </c>
+      <c r="G7" s="16"/>
+      <c r="H7" s="8">
+        <v>1</v>
+      </c>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="7"/>
+    </row>
+    <row r="8" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="16">
+        <v>1</v>
+      </c>
+      <c r="G8" s="16"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8">
+        <v>1</v>
+      </c>
+      <c r="J8" s="8"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="7"/>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="16">
+        <v>1</v>
+      </c>
+      <c r="G9" s="16"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8">
+        <v>1</v>
+      </c>
+      <c r="K9" s="16"/>
+      <c r="L9" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="7"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16">
+        <v>1</v>
+      </c>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="16">
+        <v>1</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="N10" s="12"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="16">
+        <v>1</v>
+      </c>
+      <c r="G11" s="16"/>
+      <c r="H11" s="8">
+        <v>1</v>
+      </c>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="L11" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="N11" s="12"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="16">
+        <v>1</v>
+      </c>
+      <c r="G12" s="16"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8">
+        <v>1</v>
+      </c>
+      <c r="J12" s="8"/>
+      <c r="L12" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="N12" s="12"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="16">
+        <v>1</v>
+      </c>
+      <c r="G13" s="16"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8">
+        <v>1</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="N13" s="12"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16">
+        <v>1</v>
+      </c>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="16">
+        <v>1</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="N14" s="12"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>1</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1</v>
+      </c>
+      <c r="F15" s="16">
+        <v>1</v>
+      </c>
+      <c r="G15" s="16"/>
+      <c r="H15" s="8">
+        <v>1</v>
+      </c>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="L15" s="7" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <v>1</v>
+      </c>
+      <c r="E16" s="5">
+        <v>1</v>
+      </c>
+      <c r="F16" s="16">
+        <v>1</v>
+      </c>
+      <c r="G16" s="16"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8">
+        <v>1</v>
+      </c>
+      <c r="J16" s="8"/>
+      <c r="L16" s="7" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <v>1</v>
+      </c>
+      <c r="E17" s="5">
+        <v>1</v>
+      </c>
+      <c r="F17" s="16">
+        <v>1</v>
+      </c>
+      <c r="G17" s="16"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8">
+        <v>1</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="O17" s="26"/>
+    </row>
+    <row r="18" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <v>1</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5">
+        <v>1</v>
+      </c>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16">
+        <v>1</v>
+      </c>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="16">
+        <v>1</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="M18" s="12"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+    </row>
+    <row r="19" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+    </row>
+    <row r="20" spans="1:15" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M20" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="N20" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+    </row>
+    <row r="22" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+    </row>
+    <row r="23" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+    </row>
+    <row r="24" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+    </row>
+    <row r="25" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+    </row>
+    <row r="26" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="L27" s="7"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="8"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="L28" s="7"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="8"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="L29" s="7"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="L30" s="7"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="8"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="L31" s="7"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="8"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="L32" s="7"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="8"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="L33" s="7"/>
+    </row>
+    <row r="34" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="8"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+    </row>
+    <row r="35" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="8"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+    </row>
+    <row r="36" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="8"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+    </row>
+    <row r="37" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="8"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+    </row>
+    <row r="38" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="8"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+    </row>
+    <row r="39" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="8"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="8"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="L40" s="7"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="8"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="L41" s="7"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="8"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="L42" s="7"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" s="8"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="L43" s="7"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" s="8"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="L44" s="7"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" s="8"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="L45" s="7"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" s="8"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="L46" s="7"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47" s="8"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="L47" s="7"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48" s="8"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="L48" s="7"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A49" s="8"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+      <c r="L49" s="7"/>
+    </row>
+    <row r="50" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="8"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="16"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="12"/>
+      <c r="N50" s="7"/>
+      <c r="O50" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
+  <mergeCells count="8">
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
     <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8204,44 +8842,44 @@
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">

--- a/Casos Cartera/MenuFavorios.xlsx
+++ b/Casos Cartera/MenuFavorios.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" tabRatio="787" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" tabRatio="787"/>
   </bookViews>
   <sheets>
     <sheet name="Créditos" sheetId="15" r:id="rId1"/>
@@ -777,9 +777,6 @@
     <t>Eliminar carta guía</t>
   </si>
   <si>
-    <t>Pagarés</t>
-  </si>
-  <si>
     <t>Agregar Pagares</t>
   </si>
   <si>
@@ -835,6 +832,9 @@
   </si>
   <si>
     <t>TC_Cartera_Pagares_ImportarRecomprasEliminar</t>
+  </si>
+  <si>
+    <t>funcionalidad</t>
   </si>
 </sst>
 </file>
@@ -1403,9 +1403,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="8" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H37" sqref="H37"/>
+      <selection pane="topRight" activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1416,7 +1416,7 @@
     <col min="4" max="4" width="4.5703125" style="3" customWidth="1"/>
     <col min="5" max="6" width="6.140625" customWidth="1"/>
     <col min="7" max="7" width="4.7109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="54.28515625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" style="6" customWidth="1"/>
     <col min="9" max="9" width="255.42578125" style="12" customWidth="1"/>
     <col min="10" max="10" width="255.7109375" style="7" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="79" style="7" bestFit="1" customWidth="1"/>
@@ -7541,7 +7541,7 @@
   <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -7879,8 +7879,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="12" topLeftCell="N1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7894,7 +7895,7 @@
     <col min="8" max="9" width="5.28515625" style="3" customWidth="1"/>
     <col min="10" max="10" width="3.85546875" style="3" customWidth="1"/>
     <col min="11" max="11" width="5.42578125" style="16" customWidth="1"/>
-    <col min="12" max="12" width="55.5703125" style="6" customWidth="1"/>
+    <col min="12" max="12" width="56.7109375" style="6" customWidth="1"/>
     <col min="13" max="13" width="255.42578125" style="12" customWidth="1"/>
     <col min="14" max="14" width="255.42578125" style="7" customWidth="1"/>
     <col min="15" max="15" width="79" style="7" bestFit="1" customWidth="1"/>
@@ -7905,13 +7906,13 @@
         <v>238</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>4</v>
+        <v>264</v>
       </c>
       <c r="C1" s="38"/>
       <c r="D1" s="38"/>
       <c r="E1" s="39"/>
       <c r="F1" s="45" t="s">
-        <v>245</v>
+        <v>4</v>
       </c>
       <c r="G1" s="38"/>
       <c r="H1" s="38"/>
@@ -7954,13 +7955,13 @@
         <v>244</v>
       </c>
       <c r="H2" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="I2" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="J2" s="19" t="s">
         <v>247</v>
-      </c>
-      <c r="J2" s="19" t="s">
-        <v>248</v>
       </c>
       <c r="K2" s="34"/>
       <c r="L2" s="34"/>
@@ -7989,15 +7990,15 @@
       <c r="J3" s="8"/>
       <c r="K3" s="16"/>
       <c r="L3" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="M3" s="12" t="e">
-        <f>CONCATENATE("Validar funcionalidad ",IF(B3=1,$B$2,IF(D3=1,$D$2,IF(E3=1,$E$2)))," del modulo Maestro, sub-moduloEmpresas Externas",IF(F3=1," considerando enlace documentos proveedor para agregar nuevo registro",IF(G3=1," considerando enlace documentos proveedor para modificar registro",IF(J3=1," considerando enlace documentos proveedor para modificar registro",""))),IF(#REF!=1," y hacer clic en ",""),IF(#REF!=1,#REF!,""),IF(K3=1,", considerando la opcion exportar a excel",""),IF(#REF!=1,", finalizando con la consulta mediante el filtro ",IF(#REF!=1,", finalizando con la consulta mediante el filtro ",IF(#REF!=1,", finalizando con la consulta mediante el filtro ",""))),IF(#REF!=1,#REF!,IF(#REF!=1,#REF!,IF(#REF!=1,#REF!,""))),IF(#REF!=1," con el dato ",IF(#REF!=1," con el dato ",IF(#REF!=1," con el dato ",""))),IF(#REF!=1,#REF!,IF(#REF!=1,#REF!,IF(#REF!=1,#REF!,""))))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N3" s="12" t="e">
-        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Maestro, sub-modulo Empresas Externas",IF(B3=1,", hacer clic en boton agregar",IF(D3=1,", hacer clic en boton modificar",IF(E3=1,", hacer clic en boton eliminar"))),IF(F3=1,", hacer clic en enlace documentos proveedor para agregar nuevo registro",IF(G3=1,", hacer clic en enlace documentos proveedor para modificar registro",IF(J3=1," , hacer clic en enlace documentos proveedor para modificar registro",""))),IF(#REF!=1," y hacer clic en ",""),IF(#REF!=1,#REF!,""),IF(K3=1,", hacer clic en boton exportar a excel",""),IF(#REF!=1,", finalizando con la consulta mediante el filtro ",IF(#REF!=1,", finalizando con la consulta mediante el filtro ",IF(#REF!=1,", finalizando con la consulta mediante el filtro ",""))),IF(#REF!=1,#REF!,IF(#REF!=1,#REF!,IF(#REF!=1,#REF!,""))),IF(#REF!=1," con el dato ",IF(#REF!=1," con el dato ",IF(#REF!=1," con el dato ",""))),IF(#REF!=1,#REF!,IF(#REF!=1,#REF!,IF(#REF!=1,#REF!,""))))</f>
-        <v>#REF!</v>
+        <v>248</v>
+      </c>
+      <c r="M3" s="12" t="str">
+        <f>CONCATENATE("Validar funcionalidad ",IF(B3=1,$B$2,IF(C3=1,$C$2,IF(D3=1,$D$2,IF(E3=1,$E$2))))," del Menú Favoritos, sub-modulo Pagarés, considerando la opción ",IF(H3=1,$H$2,IF(I3=1,$I$2,IF(J3=1,$J$2,""))), " y ",IF(F3=1,$F$2,$G$2),IF(K3=1,". Finalizando con exportar a excel",""))</f>
+        <v>Validar funcionalidad Carta guía Pagare del Menú Favoritos, sub-modulo Pagarés, considerando la opción Agregar Pagares y Exportar carta guía</v>
+      </c>
+      <c r="N3" s="12" t="str">
+        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Menú favoritos, sub-modulo Pagarés",IF(B3=1,", hacer clic en boton agregar",IF(D3=1,", hacer clic en boton modificar",IF(E3=1,", hacer clic en boton eliminar"))))</f>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Menú favoritos, sub-modulo Pagarés, hacer clic en boton agregar</v>
       </c>
       <c r="O3" s="7"/>
     </row>
@@ -8022,9 +8023,12 @@
       <c r="J4" s="8"/>
       <c r="K4" s="16"/>
       <c r="L4" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="M4" s="12"/>
+        <v>249</v>
+      </c>
+      <c r="M4" s="12" t="str">
+        <f t="shared" ref="M4:M19" si="0">CONCATENATE("Validar funcionalidad ",IF(B4=1,$B$2,IF(C4=1,$C$2,IF(D4=1,$D$2,IF(E4=1,$E$2))))," del Menú Favoritos, sub-modulo Pagarés, considerando la opción ",IF(H4=1,$H$2,IF(I4=1,$I$2,IF(J4=1,$J$2,""))), " y ",IF(F4=1,$F$2,$G$2),IF(K4=1,". Finalizando con exportar a excel",""))</f>
+        <v>Validar funcionalidad Carta guía Pagare del Menú Favoritos, sub-modulo Pagarés, considerando la opción Eliminar Pagare y Exportar carta guía</v>
+      </c>
       <c r="N4" s="12"/>
       <c r="O4" s="7"/>
     </row>
@@ -8049,9 +8053,12 @@
       </c>
       <c r="K5" s="16"/>
       <c r="L5" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="M5" s="12"/>
+        <v>250</v>
+      </c>
+      <c r="M5" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Carta guía Pagare del Menú Favoritos, sub-modulo Pagarés, considerando la opción Aprobar carta guía y Exportar carta guía</v>
+      </c>
       <c r="N5" s="12"/>
       <c r="O5" s="7"/>
     </row>
@@ -8076,9 +8083,12 @@
         <v>1</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="M6" s="12"/>
+        <v>251</v>
+      </c>
+      <c r="M6" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Carta guía Pagare del Menú Favoritos, sub-modulo Pagarés, considerando la opción  y Eliminar carta guía. Finalizando con exportar a excel</v>
+      </c>
       <c r="N6" s="12"/>
       <c r="O6" s="7"/>
     </row>
@@ -8102,9 +8112,12 @@
       <c r="J7" s="8"/>
       <c r="K7" s="16"/>
       <c r="L7" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="M7" s="12"/>
+        <v>252</v>
+      </c>
+      <c r="M7" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Carta Guía Traslado del Menú Favoritos, sub-modulo Pagarés, considerando la opción Agregar Pagares y Exportar carta guía</v>
+      </c>
       <c r="N7" s="12"/>
       <c r="O7" s="7"/>
     </row>
@@ -8128,9 +8141,12 @@
       <c r="J8" s="8"/>
       <c r="K8" s="16"/>
       <c r="L8" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="M8" s="12"/>
+        <v>253</v>
+      </c>
+      <c r="M8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Carta Guía Traslado del Menú Favoritos, sub-modulo Pagarés, considerando la opción Eliminar Pagare y Exportar carta guía</v>
+      </c>
       <c r="N8" s="12"/>
       <c r="O8" s="7"/>
     </row>
@@ -8154,9 +8170,12 @@
       </c>
       <c r="K9" s="16"/>
       <c r="L9" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="M9" s="12"/>
+        <v>254</v>
+      </c>
+      <c r="M9" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Carta Guía Traslado del Menú Favoritos, sub-modulo Pagarés, considerando la opción Aprobar carta guía y Exportar carta guía</v>
+      </c>
       <c r="N9" s="12"/>
       <c r="O9" s="7"/>
     </row>
@@ -8180,7 +8199,11 @@
         <v>1</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
+      </c>
+      <c r="M10" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Carta Guía Traslado del Menú Favoritos, sub-modulo Pagarés, considerando la opción  y Eliminar carta guía. Finalizando con exportar a excel</v>
       </c>
       <c r="N10" s="12"/>
     </row>
@@ -8202,7 +8225,11 @@
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="L11" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
+      </c>
+      <c r="M11" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Importar Carta Guía del Menú Favoritos, sub-modulo Pagarés, considerando la opción Agregar Pagares y Exportar carta guía</v>
       </c>
       <c r="N11" s="12"/>
     </row>
@@ -8224,7 +8251,11 @@
       </c>
       <c r="J12" s="8"/>
       <c r="L12" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
+      </c>
+      <c r="M12" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Importar Carta Guía del Menú Favoritos, sub-modulo Pagarés, considerando la opción Eliminar Pagare y Exportar carta guía</v>
       </c>
       <c r="N12" s="12"/>
     </row>
@@ -8246,7 +8277,11 @@
         <v>1</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
+      </c>
+      <c r="M13" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Importar Carta Guía del Menú Favoritos, sub-modulo Pagarés, considerando la opción Aprobar carta guía y Exportar carta guía</v>
       </c>
       <c r="N13" s="12"/>
     </row>
@@ -8269,7 +8304,11 @@
         <v>1</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
+      </c>
+      <c r="M14" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Importar Carta Guía del Menú Favoritos, sub-modulo Pagarés, considerando la opción  y Eliminar carta guía. Finalizando con exportar a excel</v>
       </c>
       <c r="N14" s="12"/>
     </row>
@@ -8290,7 +8329,11 @@
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="L15" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
+      </c>
+      <c r="M15" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Importar Recompras del Menú Favoritos, sub-modulo Pagarés, considerando la opción Agregar Pagares y Exportar carta guía</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -8310,7 +8353,11 @@
       </c>
       <c r="J16" s="8"/>
       <c r="L16" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
+      </c>
+      <c r="M16" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Importar Recompras del Menú Favoritos, sub-modulo Pagarés, considerando la opción Eliminar Pagare y Exportar carta guía</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -8330,7 +8377,11 @@
         <v>1</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
+      </c>
+      <c r="M17" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Importar Recompras del Menú Favoritos, sub-modulo Pagarés, considerando la opción Aprobar carta guía y Exportar carta guía</v>
       </c>
       <c r="O17" s="26"/>
     </row>
@@ -8353,9 +8404,12 @@
         <v>1</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="M18" s="12"/>
+        <v>263</v>
+      </c>
+      <c r="M18" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Importar Recompras del Menú Favoritos, sub-modulo Pagarés, considerando la opción  y Eliminar carta guía. Finalizando con exportar a excel</v>
+      </c>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
     </row>
@@ -8371,7 +8425,10 @@
       <c r="J19" s="8"/>
       <c r="K19" s="16"/>
       <c r="L19" s="7"/>
-      <c r="M19" s="12"/>
+      <c r="M19" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad FALSO del Menú Favoritos, sub-modulo Pagarés, considerando la opción  y Eliminar carta guía</v>
+      </c>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
     </row>
@@ -8789,14 +8846,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:E1"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="F1:J1"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="M1:M2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Casos Cartera/MenuFavorios.xlsx
+++ b/Casos Cartera/MenuFavorios.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" tabRatio="787"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" tabRatio="787" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Créditos" sheetId="15" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="269">
   <si>
     <t>Nombre CP</t>
   </si>
@@ -835,6 +835,18 @@
   </si>
   <si>
     <t>funcionalidad</t>
+  </si>
+  <si>
+    <t>Registro de pagare agregado exitosamente</t>
+  </si>
+  <si>
+    <t>Registro de pagare eliminado exitosamente</t>
+  </si>
+  <si>
+    <t>Registro de carta guia agregado exitosamente</t>
+  </si>
+  <si>
+    <t>Registro de carta guia eliminado exitosamente</t>
   </si>
 </sst>
 </file>
@@ -1403,7 +1415,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="8" topLeftCell="J1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="J3" sqref="J3"/>
     </sheetView>
@@ -7879,9 +7891,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="12" topLeftCell="N1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N3" sqref="N3"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="12" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7997,10 +8009,12 @@
         <v>Validar funcionalidad Carta guía Pagare del Menú Favoritos, sub-modulo Pagarés, considerando la opción Agregar Pagares y Exportar carta guía</v>
       </c>
       <c r="N3" s="12" t="str">
-        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Menú favoritos, sub-modulo Pagarés",IF(B3=1,", hacer clic en boton agregar",IF(D3=1,", hacer clic en boton modificar",IF(E3=1,", hacer clic en boton eliminar"))))</f>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Menú favoritos, sub-modulo Pagarés, hacer clic en boton agregar</v>
-      </c>
-      <c r="O3" s="7"/>
+        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Menú favoritos, sub-modulo Pagarés, ingresar a ",IF(B3=1,$B$2,IF(C3=1,$C$2,IF(D3=1,$D$2,IF(E3=1,$E$2)))),", realizando la(s) accion(es) ",IF(F3=1,$F$2,$G$2)," ",IF(H3=1,$H$2,IF(I3=1,$I$2,IF(J3=1,$J$2,IF(K3=1,$K$1)))))</f>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Menú favoritos, sub-modulo Pagarés, ingresar a Carta guía Pagare, realizando la(s) accion(es) Exportar carta guía Agregar Pagares</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
@@ -8029,8 +8043,13 @@
         <f t="shared" ref="M4:M19" si="0">CONCATENATE("Validar funcionalidad ",IF(B4=1,$B$2,IF(C4=1,$C$2,IF(D4=1,$D$2,IF(E4=1,$E$2))))," del Menú Favoritos, sub-modulo Pagarés, considerando la opción ",IF(H4=1,$H$2,IF(I4=1,$I$2,IF(J4=1,$J$2,""))), " y ",IF(F4=1,$F$2,$G$2),IF(K4=1,". Finalizando con exportar a excel",""))</f>
         <v>Validar funcionalidad Carta guía Pagare del Menú Favoritos, sub-modulo Pagarés, considerando la opción Eliminar Pagare y Exportar carta guía</v>
       </c>
-      <c r="N4" s="12"/>
-      <c r="O4" s="7"/>
+      <c r="N4" s="12" t="str">
+        <f t="shared" ref="N4:N18" si="1">CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Menú favoritos, sub-modulo Pagarés, ingresar a ",IF(B4=1,$B$2,IF(C4=1,$C$2,IF(D4=1,$D$2,IF(E4=1,$E$2)))),", realizando la(s) accion(es) ",IF(F4=1,$F$2,$G$2)," ",IF(H4=1,$H$2,IF(I4=1,$I$2,IF(J4=1,$J$2,IF(K4=1,$K$1)))))</f>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Menú favoritos, sub-modulo Pagarés, ingresar a Carta guía Pagare, realizando la(s) accion(es) Exportar carta guía Eliminar Pagare</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="5" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
@@ -8059,8 +8078,13 @@
         <f t="shared" si="0"/>
         <v>Validar funcionalidad Carta guía Pagare del Menú Favoritos, sub-modulo Pagarés, considerando la opción Aprobar carta guía y Exportar carta guía</v>
       </c>
-      <c r="N5" s="12"/>
-      <c r="O5" s="7"/>
+      <c r="N5" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Menú favoritos, sub-modulo Pagarés, ingresar a Carta guía Pagare, realizando la(s) accion(es) Exportar carta guía Aprobar carta guía</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
@@ -8089,8 +8113,13 @@
         <f t="shared" si="0"/>
         <v>Validar funcionalidad Carta guía Pagare del Menú Favoritos, sub-modulo Pagarés, considerando la opción  y Eliminar carta guía. Finalizando con exportar a excel</v>
       </c>
-      <c r="N6" s="12"/>
-      <c r="O6" s="7"/>
+      <c r="N6" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Menú favoritos, sub-modulo Pagarés, ingresar a Carta guía Pagare, realizando la(s) accion(es) Eliminar carta guía Exportar a Excel</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="7" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
@@ -8118,8 +8147,13 @@
         <f t="shared" si="0"/>
         <v>Validar funcionalidad Carta Guía Traslado del Menú Favoritos, sub-modulo Pagarés, considerando la opción Agregar Pagares y Exportar carta guía</v>
       </c>
-      <c r="N7" s="12"/>
-      <c r="O7" s="7"/>
+      <c r="N7" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Menú favoritos, sub-modulo Pagarés, ingresar a Carta Guía Traslado, realizando la(s) accion(es) Exportar carta guía Agregar Pagares</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="8" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
@@ -8147,8 +8181,13 @@
         <f t="shared" si="0"/>
         <v>Validar funcionalidad Carta Guía Traslado del Menú Favoritos, sub-modulo Pagarés, considerando la opción Eliminar Pagare y Exportar carta guía</v>
       </c>
-      <c r="N8" s="12"/>
-      <c r="O8" s="7"/>
+      <c r="N8" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Menú favoritos, sub-modulo Pagarés, ingresar a Carta Guía Traslado, realizando la(s) accion(es) Exportar carta guía Eliminar Pagare</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="9" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
@@ -8176,8 +8215,13 @@
         <f t="shared" si="0"/>
         <v>Validar funcionalidad Carta Guía Traslado del Menú Favoritos, sub-modulo Pagarés, considerando la opción Aprobar carta guía y Exportar carta guía</v>
       </c>
-      <c r="N9" s="12"/>
-      <c r="O9" s="7"/>
+      <c r="N9" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Menú favoritos, sub-modulo Pagarés, ingresar a Carta Guía Traslado, realizando la(s) accion(es) Exportar carta guía Aprobar carta guía</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
@@ -8205,7 +8249,13 @@
         <f t="shared" si="0"/>
         <v>Validar funcionalidad Carta Guía Traslado del Menú Favoritos, sub-modulo Pagarés, considerando la opción  y Eliminar carta guía. Finalizando con exportar a excel</v>
       </c>
-      <c r="N10" s="12"/>
+      <c r="N10" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Menú favoritos, sub-modulo Pagarés, ingresar a Carta Guía Traslado, realizando la(s) accion(es) Eliminar carta guía Exportar a Excel</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
@@ -8231,7 +8281,13 @@
         <f t="shared" si="0"/>
         <v>Validar funcionalidad Importar Carta Guía del Menú Favoritos, sub-modulo Pagarés, considerando la opción Agregar Pagares y Exportar carta guía</v>
       </c>
-      <c r="N11" s="12"/>
+      <c r="N11" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Menú favoritos, sub-modulo Pagarés, ingresar a Importar Carta Guía, realizando la(s) accion(es) Exportar carta guía Agregar Pagares</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
@@ -8257,7 +8313,13 @@
         <f t="shared" si="0"/>
         <v>Validar funcionalidad Importar Carta Guía del Menú Favoritos, sub-modulo Pagarés, considerando la opción Eliminar Pagare y Exportar carta guía</v>
       </c>
-      <c r="N12" s="12"/>
+      <c r="N12" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Menú favoritos, sub-modulo Pagarés, ingresar a Importar Carta Guía, realizando la(s) accion(es) Exportar carta guía Eliminar Pagare</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
@@ -8283,7 +8345,13 @@
         <f t="shared" si="0"/>
         <v>Validar funcionalidad Importar Carta Guía del Menú Favoritos, sub-modulo Pagarés, considerando la opción Aprobar carta guía y Exportar carta guía</v>
       </c>
-      <c r="N13" s="12"/>
+      <c r="N13" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Menú favoritos, sub-modulo Pagarés, ingresar a Importar Carta Guía, realizando la(s) accion(es) Exportar carta guía Aprobar carta guía</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
@@ -8310,7 +8378,13 @@
         <f t="shared" si="0"/>
         <v>Validar funcionalidad Importar Carta Guía del Menú Favoritos, sub-modulo Pagarés, considerando la opción  y Eliminar carta guía. Finalizando con exportar a excel</v>
       </c>
-      <c r="N14" s="12"/>
+      <c r="N14" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Menú favoritos, sub-modulo Pagarés, ingresar a Importar Carta Guía, realizando la(s) accion(es) Eliminar carta guía Exportar a Excel</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
@@ -8335,6 +8409,13 @@
         <f t="shared" si="0"/>
         <v>Validar funcionalidad Importar Recompras del Menú Favoritos, sub-modulo Pagarés, considerando la opción Agregar Pagares y Exportar carta guía</v>
       </c>
+      <c r="N15" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Menú favoritos, sub-modulo Pagarés, ingresar a Importar Recompras, realizando la(s) accion(es) Exportar carta guía Agregar Pagares</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
@@ -8358,6 +8439,13 @@
       <c r="M16" s="12" t="str">
         <f t="shared" si="0"/>
         <v>Validar funcionalidad Importar Recompras del Menú Favoritos, sub-modulo Pagarés, considerando la opción Eliminar Pagare y Exportar carta guía</v>
+      </c>
+      <c r="N16" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Menú favoritos, sub-modulo Pagarés, ingresar a Importar Recompras, realizando la(s) accion(es) Exportar carta guía Eliminar Pagare</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -8383,7 +8471,13 @@
         <f t="shared" si="0"/>
         <v>Validar funcionalidad Importar Recompras del Menú Favoritos, sub-modulo Pagarés, considerando la opción Aprobar carta guía y Exportar carta guía</v>
       </c>
-      <c r="O17" s="26"/>
+      <c r="N17" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Menú favoritos, sub-modulo Pagarés, ingresar a Importar Recompras, realizando la(s) accion(es) Exportar carta guía Aprobar carta guía</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="18" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
@@ -8410,8 +8504,13 @@
         <f t="shared" si="0"/>
         <v>Validar funcionalidad Importar Recompras del Menú Favoritos, sub-modulo Pagarés, considerando la opción  y Eliminar carta guía. Finalizando con exportar a excel</v>
       </c>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
+      <c r="N18" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Menú favoritos, sub-modulo Pagarés, ingresar a Importar Recompras, realizando la(s) accion(es) Eliminar carta guía Exportar a Excel</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="19" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
@@ -8425,14 +8524,11 @@
       <c r="J19" s="8"/>
       <c r="K19" s="16"/>
       <c r="L19" s="7"/>
-      <c r="M19" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad FALSO del Menú Favoritos, sub-modulo Pagarés, considerando la opción  y Eliminar carta guía</v>
-      </c>
+      <c r="M19" s="12"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
     </row>
-    <row r="20" spans="1:15" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -8443,18 +8539,10 @@
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="16"/>
-      <c r="L20" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="M20" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="N20" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>103</v>
-      </c>
+      <c r="L20" s="7"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="7"/>
     </row>
     <row r="21" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>

--- a/Casos Cartera/MenuFavorios.xlsx
+++ b/Casos Cartera/MenuFavorios.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" tabRatio="787" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" tabRatio="787"/>
   </bookViews>
   <sheets>
     <sheet name="Créditos" sheetId="15" r:id="rId1"/>
@@ -25,14 +25,14 @@
     <sheet name="Usuario" sheetId="39" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Créditos!$A$2:$O$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Créditos!$A$2:$T$50</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="277">
   <si>
     <t>Nombre CP</t>
   </si>
@@ -377,71 +377,6 @@
     <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Maestro - sub modulo Recaudacion, hacer clic en boton Agregar, ingresar datos de un registro existente y hacer clic en boton guardar, posterior a ello, intentar realizar registro sin llenar campos obligatorios. Finalizando con la modificación y eliminación de registro en uso.</t>
   </si>
   <si>
-    <t>Remesas</t>
-  </si>
-  <si>
-    <t>PDF</t>
-  </si>
-  <si>
-    <t>Depositar
-Remesa</t>
-  </si>
-  <si>
-    <t>Enlace ID</t>
-  </si>
-  <si>
-    <t>General</t>
-  </si>
-  <si>
-    <t>Recaudación</t>
-  </si>
-  <si>
-    <t>Exportar
-Excel</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesoRemesa_Agregar</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesoRemesa_AgregarGeneral</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesoRemesa_GenerarPDF</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesoRemesa_EnlaceGeneral</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesoRemesa_AgregarDepositarRemesa</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesoRemesa_DepositarRemesa</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesoRemesa_PDFDepositarRemesa</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesoRemesa_RemesaPDF</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesoRemesa_AgregarPDF</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesoRemesa_AgregarDepositarPDF</t>
-  </si>
-  <si>
-    <t>Archivo PDF generado de manera exitosa</t>
-  </si>
-  <si>
-    <t>Archivo PDF generado y consulta de manera exitosa</t>
-  </si>
-  <si>
-    <t>Deposito de remesa de maera exitosa</t>
-  </si>
-  <si>
-    <t>Archivo PDF generado y deposito de remesa de manera exitosa</t>
-  </si>
-  <si>
     <t>TC_Cartera_ProcesoRemesa_ConsolidadoError</t>
   </si>
   <si>
@@ -847,6 +782,93 @@
   </si>
   <si>
     <t>Registro de carta guia eliminado exitosamente</t>
+  </si>
+  <si>
+    <t>Créditos</t>
+  </si>
+  <si>
+    <t>Seguimiento</t>
+  </si>
+  <si>
+    <t>Tipo crédito</t>
+  </si>
+  <si>
+    <t>Convencional</t>
+  </si>
+  <si>
+    <t>Estado Pago</t>
+  </si>
+  <si>
+    <t>Al día</t>
+  </si>
+  <si>
+    <t>Moroso</t>
+  </si>
+  <si>
+    <t>Vencido</t>
+  </si>
+  <si>
+    <t>Judicial</t>
+  </si>
+  <si>
+    <t>Pre Judicial</t>
+  </si>
+  <si>
+    <t>Inteligente</t>
+  </si>
+  <si>
+    <t>Leasing</t>
+  </si>
+  <si>
+    <t>Leasing Inteligente</t>
+  </si>
+  <si>
+    <t>TC_Cartera_Creditos_SeguimientoInteligente</t>
+  </si>
+  <si>
+    <t>TC_Cartera_Creditos_SeguimientoConvencional</t>
+  </si>
+  <si>
+    <t>TC_Cartera_Creditos_SeguimientoLeasing</t>
+  </si>
+  <si>
+    <t>TC_Cartera_Creditos_SeguimientoLeasingInteligente</t>
+  </si>
+  <si>
+    <t>TC_Cartera_Creditos_SeguimientoInteligentePreJudicial</t>
+  </si>
+  <si>
+    <t>TC_Cartera_Creditos_InteligenteDia</t>
+  </si>
+  <si>
+    <t>TC_Cartera_Creditos_InteligenteMoroso</t>
+  </si>
+  <si>
+    <t>TC_Cartera_Creditos_ConvencionalVencido</t>
+  </si>
+  <si>
+    <t>TC_Cartera_Creditos_ConvencionalJudicial</t>
+  </si>
+  <si>
+    <t>TC_Cartera_Creditos_LeasingPreJudicial</t>
+  </si>
+  <si>
+    <t>TC_Cartera_Creditos_LeasingDia</t>
+  </si>
+  <si>
+    <t>TC_Cartera_Creditos_LeasingIMoroso</t>
+  </si>
+  <si>
+    <t>TC_Cartera_Creditos_LeasingIVencido</t>
+  </si>
+  <si>
+    <t>Editar Crédito</t>
+  </si>
+  <si>
+    <t>Ingreso de seguimiento de manera exitosa</t>
+  </si>
+  <si>
+    <t>Crédito editado de manera exitosa</t>
   </si>
 </sst>
 </file>
@@ -985,7 +1007,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1108,6 +1130,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1413,806 +1444,1133 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K50"/>
+  <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="8" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="13" topLeftCell="N1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="P8" sqref="P8:P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.85546875" style="3" customWidth="1"/>
     <col min="2" max="2" width="3.7109375" customWidth="1"/>
-    <col min="3" max="3" width="4.42578125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="4.5703125" style="3" customWidth="1"/>
-    <col min="5" max="6" width="6.140625" customWidth="1"/>
-    <col min="7" max="7" width="4.7109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" style="6" customWidth="1"/>
-    <col min="9" max="9" width="255.42578125" style="12" customWidth="1"/>
-    <col min="10" max="10" width="255.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="79" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.85546875" style="3" customWidth="1"/>
+    <col min="4" max="6" width="3.85546875" style="13" customWidth="1"/>
+    <col min="7" max="7" width="5.140625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="3.85546875" style="13" customWidth="1"/>
+    <col min="9" max="9" width="4.140625" customWidth="1"/>
+    <col min="10" max="10" width="3.85546875" customWidth="1"/>
+    <col min="11" max="11" width="4" customWidth="1"/>
+    <col min="12" max="12" width="4.5703125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="55" style="6" customWidth="1"/>
+    <col min="14" max="14" width="255.42578125" style="12" customWidth="1"/>
+    <col min="15" max="15" width="255.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="79" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="35" t="s">
-        <v>113</v>
+        <v>248</v>
       </c>
       <c r="B1" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="38" t="s">
-        <v>116</v>
-      </c>
+      <c r="C1" s="39"/>
+      <c r="D1" s="38" t="s">
+        <v>250</v>
+      </c>
+      <c r="E1" s="38"/>
       <c r="F1" s="38"/>
       <c r="G1" s="39"/>
-      <c r="H1" s="33" t="s">
+      <c r="H1" s="45" t="s">
+        <v>252</v>
+      </c>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="N1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="33" t="s">
+      <c r="O1" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="33" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="14" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" s="14" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36"/>
       <c r="B2" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="D2" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="G2" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-    </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>274</v>
+      </c>
+      <c r="D2" s="48" t="s">
+        <v>258</v>
+      </c>
+      <c r="E2" s="47" t="s">
+        <v>251</v>
+      </c>
+      <c r="F2" s="47" t="s">
+        <v>259</v>
+      </c>
+      <c r="G2" s="49" t="s">
+        <v>260</v>
+      </c>
+      <c r="H2" s="47" t="s">
+        <v>253</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="L2" s="31" t="s">
+        <v>257</v>
+      </c>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+    </row>
+    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>1</v>
       </c>
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="5">
+        <v>1</v>
+      </c>
       <c r="E3" s="5"/>
-      <c r="F3" s="5">
-        <v>1</v>
-      </c>
-      <c r="G3" s="8">
-        <v>1</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="I3" s="12" t="str">
-        <f>CONCATENATE("Validar funcionalidad ",IF(B3=1,$B$2,"")," ",IF(C3=1,$C$2,"")," ",IF(D3=1,$D$2,"")," del modulo Procesos, sub-modulo Trabajar con Remesa",IF(E3=1,", considerando la opcion enlace ID pestaña General",IF(F3=1,", considerando la opcion enlace ID pestaña Recaudacion y exportar registro a archivo excel","")))</f>
-        <v>Validar funcionalidad Agregar   del modulo Procesos, sub-modulo Trabajar con Remesa, considerando la opcion enlace ID pestaña Recaudacion y exportar registro a archivo excel</v>
-      </c>
-      <c r="J3" s="7" t="str">
-        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en boton ",IF(B3=1," agregar para el registro de nuevo registro","")," ",IF(C3=1," generar archivo PDF","")," ",IF(D3=1," depositar remesa",""),IF(E3=1,", considerando la opcion enlace ID pestaña general para consultar registro",IF(F3=1,", considerando la opcion enlace ID pestaña recaudacion para consultar registro y exportar archivo excel","")))</f>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en boton  agregar para el registro de nuevo registro  , considerando la opcion enlace ID pestaña recaudacion para consultar registro y exportar archivo excel</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F3" s="5"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="5">
+        <v>1</v>
+      </c>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="N3" s="12" t="str">
+        <f>CONCATENATE("Validar funcionalidad ",IF(B3=1,$B$2,$C$2)," del modulo Menú Favoritos, sub-modulo Créditos, seleccionando tipo de crédito ",IF(D3=1,$D$2,IF(E3=1,$E$2,IF(F3=1,$F$2,IF(G3=1,$G$2,"")))),", con estado pago ",IF(H3=1,$H$2,IF(I3=1,$I$2,IF(J3=1,$J$2,IF(K3=1,$K$2,IF(L3=1,$L$2,""))))))</f>
+        <v>Validar funcionalidad Seguimiento del modulo Menú Favoritos, sub-modulo Créditos, seleccionando tipo de crédito Inteligente, con estado pago Al día</v>
+      </c>
+      <c r="O3" s="7" t="str">
+        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú Favoritos - sub modulo Créditos, filtrar por tipo crédito ",IF(D3=1,$D$2,IF(E3=1,$E$2,IF(F3=1,$F$2,IF(G3=1,$G$2))))," y estado de pago ",IF(H3=1,$H$2,IF(I3=1,$I$2,IF(J3=1,$J$2,IF(K3=1,$K$2,IF(L3=1,$L$2))))),IF(B3=1,", hacer clic en boton Información de contacto para ingresar seguimiento",", hacer clic en boton editar crédito para modificar datos del crédito seleccionado"))</f>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú Favoritos - sub modulo Créditos, filtrar por tipo crédito Inteligente y estado de pago Al día, hacer clic en boton Información de contacto para ingresar seguimiento</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>1</v>
       </c>
       <c r="B4" s="5">
         <v>1</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="5"/>
       <c r="E4" s="5">
         <v>1</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="I4" s="12" t="str">
-        <f t="shared" ref="I4:I12" si="0">CONCATENATE("Validar funcionalidad ",IF(B4=1,$B$2,"")," ",IF(C4=1,$C$2,"")," ",IF(D4=1,$D$2,"")," del modulo Procesos, sub-modulo Trabajar con Remesa",IF(E4=1,", considerando la opcion enlace ID pestaña General",IF(F4=1,", considerando la opcion enlace ID pestaña Recaudacion y exportar registro a archivo excel","")))</f>
-        <v>Validar funcionalidad Agregar   del modulo Procesos, sub-modulo Trabajar con Remesa, considerando la opcion enlace ID pestaña General</v>
-      </c>
-      <c r="J4" s="7" t="str">
-        <f t="shared" ref="J4:J12" si="1">CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en boton ",IF(B4=1," agregar para el registro de nuevo registro","")," ",IF(C4=1," generar archivo PDF","")," ",IF(D4=1," depositar remesa",""),IF(E4=1,", considerando la opcion enlace ID pestaña general para consultar registro",IF(F4=1,", considerando la opcion enlace ID pestaña recaudacion para consultar registro y exportar archivo excel","")))</f>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en boton  agregar para el registro de nuevo registro  , considerando la opcion enlace ID pestaña general para consultar registro</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H4" s="5"/>
+      <c r="I4" s="5">
+        <v>1</v>
+      </c>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="N4" s="12" t="str">
+        <f t="shared" ref="N4:N15" si="0">CONCATENATE("Validar funcionalidad ",IF(B4=1,$B$2,$C$2)," del modulo Menú Favoritos, sub-modulo Créditos, seleccionando tipo de crédito ",IF(D4=1,$D$2,IF(E4=1,$E$2,IF(F4=1,$F$2,IF(G4=1,$G$2,"")))),", con estado pago ",IF(H4=1,$H$2,IF(I4=1,$I$2,IF(J4=1,$J$2,IF(K4=1,$K$2,IF(L4=1,$L$2,""))))))</f>
+        <v>Validar funcionalidad Seguimiento del modulo Menú Favoritos, sub-modulo Créditos, seleccionando tipo de crédito Convencional, con estado pago Moroso</v>
+      </c>
+      <c r="O4" s="7" t="str">
+        <f t="shared" ref="O4:O15" si="1">CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú Favoritos - sub modulo Créditos, filtrar por tipo crédito ",IF(D4=1,$D$2,IF(E4=1,$E$2,IF(F4=1,$F$2,IF(G4=1,$G$2))))," y estado de pago ",IF(H4=1,$H$2,IF(I4=1,$I$2,IF(J4=1,$J$2,IF(K4=1,$K$2,IF(L4=1,$L$2))))),IF(B4=1,", hacer clic en boton Información de contacto para ingresar seguimiento",", hacer clic en boton editar crédito para modificar datos del crédito seleccionado"))</f>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú Favoritos - sub modulo Créditos, filtrar por tipo crédito Convencional y estado de pago Moroso, hacer clic en boton Información de contacto para ingresar seguimiento</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>1</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5">
-        <v>1</v>
-      </c>
-      <c r="D5" s="8"/>
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5">
         <v>1</v>
       </c>
-      <c r="G5" s="8">
-        <v>1</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="I5" s="12" t="str">
+      <c r="G5" s="8"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5">
+        <v>1</v>
+      </c>
+      <c r="K5" s="5"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="N5" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>Validar funcionalidad  PDF  del modulo Procesos, sub-modulo Trabajar con Remesa, considerando la opcion enlace ID pestaña Recaudacion y exportar registro a archivo excel</v>
-      </c>
-      <c r="J5" s="7" t="str">
+        <v>Validar funcionalidad Seguimiento del modulo Menú Favoritos, sub-modulo Créditos, seleccionando tipo de crédito Leasing, con estado pago Vencido</v>
+      </c>
+      <c r="O5" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en boton   generar archivo PDF , considerando la opcion enlace ID pestaña recaudacion para consultar registro y exportar archivo excel</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú Favoritos - sub modulo Créditos, filtrar por tipo crédito Leasing y estado de pago Vencido, hacer clic en boton Información de contacto para ingresar seguimiento</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>1</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5">
-        <v>1</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="5">
-        <v>1</v>
-      </c>
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="I6" s="12" t="str">
+      <c r="G6" s="8">
+        <v>1</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5">
+        <v>1</v>
+      </c>
+      <c r="L6" s="8"/>
+      <c r="M6" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="N6" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>Validar funcionalidad  PDF  del modulo Procesos, sub-modulo Trabajar con Remesa, considerando la opcion enlace ID pestaña General</v>
-      </c>
-      <c r="J6" s="7" t="str">
+        <v>Validar funcionalidad Seguimiento del modulo Menú Favoritos, sub-modulo Créditos, seleccionando tipo de crédito Leasing Inteligente, con estado pago Judicial</v>
+      </c>
+      <c r="O6" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en boton   generar archivo PDF , considerando la opcion enlace ID pestaña general para consultar registro</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú Favoritos - sub modulo Créditos, filtrar por tipo crédito Leasing Inteligente y estado de pago Judicial, hacer clic en boton Información de contacto para ingresar seguimiento</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>1</v>
       </c>
       <c r="B7" s="5">
         <v>1</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="8">
+      <c r="C7" s="8"/>
+      <c r="D7" s="5">
         <v>1</v>
       </c>
       <c r="E7" s="5"/>
-      <c r="F7" s="5">
-        <v>1</v>
-      </c>
-      <c r="G7" s="8">
-        <v>1</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="I7" s="12" t="str">
+      <c r="F7" s="5"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="8">
+        <v>1</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="N7" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>Validar funcionalidad Agregar  Depositar
-Remesa del modulo Procesos, sub-modulo Trabajar con Remesa, considerando la opcion enlace ID pestaña Recaudacion y exportar registro a archivo excel</v>
-      </c>
-      <c r="J7" s="7" t="str">
+        <v>Validar funcionalidad Seguimiento del modulo Menú Favoritos, sub-modulo Créditos, seleccionando tipo de crédito Inteligente, con estado pago Pre Judicial</v>
+      </c>
+      <c r="O7" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en boton  agregar para el registro de nuevo registro   depositar remesa, considerando la opcion enlace ID pestaña recaudacion para consultar registro y exportar archivo excel</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú Favoritos - sub modulo Créditos, filtrar por tipo crédito Inteligente y estado de pago Pre Judicial, hacer clic en boton Información de contacto para ingresar seguimiento</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>1</v>
       </c>
-      <c r="B8" s="5">
-        <v>1</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="8">
-        <v>1</v>
-      </c>
-      <c r="E8" s="5">
-        <v>1</v>
-      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1</v>
+      </c>
+      <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="8"/>
-      <c r="H8" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="I8" s="12" t="str">
+      <c r="H8" s="5">
+        <v>1</v>
+      </c>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="N8" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>Validar funcionalidad Agregar  Depositar
-Remesa del modulo Procesos, sub-modulo Trabajar con Remesa, considerando la opcion enlace ID pestaña General</v>
-      </c>
-      <c r="J8" s="7" t="str">
+        <v>Validar funcionalidad Editar Crédito del modulo Menú Favoritos, sub-modulo Créditos, seleccionando tipo de crédito Inteligente, con estado pago Al día</v>
+      </c>
+      <c r="O8" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en boton  agregar para el registro de nuevo registro   depositar remesa, considerando la opcion enlace ID pestaña general para consultar registro</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú Favoritos - sub modulo Créditos, filtrar por tipo crédito Inteligente y estado de pago Al día, hacer clic en boton editar crédito para modificar datos del crédito seleccionado</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>1</v>
       </c>
       <c r="B9" s="5"/>
-      <c r="C9" s="5">
-        <v>1</v>
-      </c>
-      <c r="D9" s="8">
+      <c r="C9" s="8">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5">
         <v>1</v>
       </c>
       <c r="E9" s="5"/>
-      <c r="F9" s="5">
-        <v>1</v>
-      </c>
-      <c r="G9" s="8">
-        <v>1</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="I9" s="12" t="str">
+      <c r="F9" s="5"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5">
+        <v>1</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="N9" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>Validar funcionalidad  PDF Depositar
-Remesa del modulo Procesos, sub-modulo Trabajar con Remesa, considerando la opcion enlace ID pestaña Recaudacion y exportar registro a archivo excel</v>
-      </c>
-      <c r="J9" s="7" t="str">
+        <v>Validar funcionalidad Editar Crédito del modulo Menú Favoritos, sub-modulo Créditos, seleccionando tipo de crédito Inteligente, con estado pago Moroso</v>
+      </c>
+      <c r="O9" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en boton   generar archivo PDF  depositar remesa, considerando la opcion enlace ID pestaña recaudacion para consultar registro y exportar archivo excel</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.25">
+        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú Favoritos - sub modulo Créditos, filtrar por tipo crédito Inteligente y estado de pago Moroso, hacer clic en boton editar crédito para modificar datos del crédito seleccionado</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>1</v>
       </c>
       <c r="B10" s="25"/>
-      <c r="C10" s="25">
-        <v>1</v>
-      </c>
-      <c r="D10" s="24">
-        <v>1</v>
-      </c>
-      <c r="E10" s="25"/>
+      <c r="C10" s="8">
+        <v>1</v>
+      </c>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25">
+        <v>1</v>
+      </c>
       <c r="F10" s="25"/>
       <c r="G10" s="24"/>
-      <c r="H10" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="I10" s="12" t="str">
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25">
+        <v>1</v>
+      </c>
+      <c r="K10" s="25"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="N10" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>Validar funcionalidad  PDF Depositar
-Remesa del modulo Procesos, sub-modulo Trabajar con Remesa</v>
-      </c>
-      <c r="J10" s="7" t="str">
+        <v>Validar funcionalidad Editar Crédito del modulo Menú Favoritos, sub-modulo Créditos, seleccionando tipo de crédito Convencional, con estado pago Vencido</v>
+      </c>
+      <c r="O10" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en boton   generar archivo PDF  depositar remesa</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú Favoritos - sub modulo Créditos, filtrar por tipo crédito Convencional y estado de pago Vencido, hacer clic en boton editar crédito para modificar datos del crédito seleccionado</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>1</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" s="5">
-        <v>1</v>
-      </c>
-      <c r="D11" s="8">
-        <v>1</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5">
-        <v>1</v>
-      </c>
-      <c r="G11" s="8">
-        <v>1</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="I11" s="12" t="str">
+      <c r="C11" s="8">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5">
+        <v>1</v>
+      </c>
+      <c r="L11" s="8"/>
+      <c r="M11" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="N11" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>Validar funcionalidad Agregar PDF Depositar
-Remesa del modulo Procesos, sub-modulo Trabajar con Remesa, considerando la opcion enlace ID pestaña Recaudacion y exportar registro a archivo excel</v>
-      </c>
-      <c r="J11" s="7" t="str">
+        <v>Validar funcionalidad Editar Crédito del modulo Menú Favoritos, sub-modulo Créditos, seleccionando tipo de crédito Convencional, con estado pago Judicial</v>
+      </c>
+      <c r="O11" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en boton  agregar para el registro de nuevo registro  generar archivo PDF  depositar remesa, considerando la opcion enlace ID pestaña recaudacion para consultar registro y exportar archivo excel</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú Favoritos - sub modulo Créditos, filtrar por tipo crédito Convencional y estado de pago Judicial, hacer clic en boton editar crédito para modificar datos del crédito seleccionado</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>1</v>
       </c>
-      <c r="B12" s="25">
-        <v>1</v>
-      </c>
-      <c r="C12" s="5">
-        <v>1</v>
-      </c>
-      <c r="D12" s="8">
-        <v>1</v>
-      </c>
-      <c r="E12" s="5">
-        <v>1</v>
-      </c>
-      <c r="F12" s="5"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="8">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5">
+        <v>1</v>
+      </c>
       <c r="G12" s="8"/>
-      <c r="H12" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="I12" s="12" t="str">
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="8">
+        <v>1</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="N12" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>Validar funcionalidad Agregar PDF Depositar
-Remesa del modulo Procesos, sub-modulo Trabajar con Remesa, considerando la opcion enlace ID pestaña General</v>
-      </c>
-      <c r="J12" s="7" t="str">
+        <v>Validar funcionalidad Editar Crédito del modulo Menú Favoritos, sub-modulo Créditos, seleccionando tipo de crédito Leasing, con estado pago Pre Judicial</v>
+      </c>
+      <c r="O12" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en boton  agregar para el registro de nuevo registro  generar archivo PDF  depositar remesa, considerando la opcion enlace ID pestaña general para consultar registro</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="8"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú Favoritos - sub modulo Créditos, filtrar por tipo crédito Leasing y estado de pago Pre Judicial, hacer clic en boton editar crédito para modificar datos del crédito seleccionado</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>1</v>
+      </c>
+      <c r="C13" s="8">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5"/>
       <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
+      <c r="F13" s="5">
+        <v>1</v>
+      </c>
       <c r="G13" s="8"/>
-      <c r="H13" s="7"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="8"/>
+      <c r="H13" s="5">
+        <v>1</v>
+      </c>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="N13" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Editar Crédito del modulo Menú Favoritos, sub-modulo Créditos, seleccionando tipo de crédito Leasing, con estado pago Al día</v>
+      </c>
+      <c r="O13" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú Favoritos - sub modulo Créditos, filtrar por tipo crédito Leasing y estado de pago Al día, hacer clic en boton editar crédito para modificar datos del crédito seleccionado</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>1</v>
+      </c>
+      <c r="C14" s="8">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="7"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="8"/>
+      <c r="G14" s="8">
+        <v>1</v>
+      </c>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5">
+        <v>1</v>
+      </c>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="N14" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Editar Crédito del modulo Menú Favoritos, sub-modulo Créditos, seleccionando tipo de crédito Leasing Inteligente, con estado pago Moroso</v>
+      </c>
+      <c r="O14" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú Favoritos - sub modulo Créditos, filtrar por tipo crédito Leasing Inteligente y estado de pago Moroso, hacer clic en boton editar crédito para modificar datos del crédito seleccionado</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>1</v>
+      </c>
+      <c r="C15" s="8">
+        <v>1</v>
+      </c>
+      <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G15" s="8">
+        <v>1</v>
+      </c>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5">
+        <v>1</v>
+      </c>
+      <c r="K15" s="5"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="N15" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Editar Crédito del modulo Menú Favoritos, sub-modulo Créditos, seleccionando tipo de crédito Leasing Inteligente, con estado pago Vencido</v>
+      </c>
+      <c r="O15" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú Favoritos - sub modulo Créditos, filtrar por tipo crédito Leasing Inteligente y estado de pago Vencido, hacer clic en boton editar crédito para modificar datos del crédito seleccionado</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="8"/>
-      <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="7"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="8"/>
-      <c r="H17" s="7"/>
-    </row>
-    <row r="18" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="7"/>
+    </row>
+    <row r="18" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="25"/>
       <c r="E18" s="25"/>
       <c r="F18" s="25"/>
       <c r="G18" s="24"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="26"/>
-    </row>
-    <row r="19" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="26"/>
+    </row>
+    <row r="19" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="5"/>
-      <c r="D19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="8"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-    </row>
-    <row r="20" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+    </row>
+    <row r="20" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="5"/>
-      <c r="D20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="8"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-    </row>
-    <row r="21" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+    </row>
+    <row r="21" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="5"/>
-      <c r="D21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="8"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-    </row>
-    <row r="22" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+    </row>
+    <row r="22" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="5"/>
-      <c r="D22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="8"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-    </row>
-    <row r="23" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+    </row>
+    <row r="23" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="5"/>
-      <c r="D23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="8"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-    </row>
-    <row r="24" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+    </row>
+    <row r="24" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="5"/>
-      <c r="D24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="8"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-    </row>
-    <row r="25" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+    </row>
+    <row r="25" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="5"/>
-      <c r="D25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="8"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-    </row>
-    <row r="26" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+    </row>
+    <row r="26" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="24"/>
       <c r="B26" s="25"/>
-      <c r="D26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="25"/>
       <c r="E26" s="25"/>
       <c r="F26" s="25"/>
       <c r="G26" s="24"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="8"/>
-      <c r="H27" s="7"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="7"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="8"/>
-      <c r="H28" s="7"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="7"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="8"/>
-      <c r="H29" s="7"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="7"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="8"/>
-      <c r="H30" s="7"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="7"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="8"/>
-      <c r="H31" s="7"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="7"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
       <c r="G32" s="8"/>
-      <c r="H32" s="7"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="7"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="5"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
       <c r="G33" s="8"/>
-      <c r="H33" s="7"/>
-    </row>
-    <row r="34" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="7"/>
+    </row>
+    <row r="34" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="5"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="8"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-    </row>
-    <row r="35" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+    </row>
+    <row r="35" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="5"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="8"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
-    </row>
-    <row r="36" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
+    </row>
+    <row r="36" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="5"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="8"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-    </row>
-    <row r="37" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
+    </row>
+    <row r="37" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="5"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
       <c r="G37" s="8"/>
-      <c r="H37" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="I37" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="J37" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="K37" s="7" t="s">
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="N37" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="O37" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="5"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
       <c r="G38" s="8"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
-    </row>
-    <row r="39" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="7"/>
+    </row>
+    <row r="39" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="5"/>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
       <c r="G39" s="8"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="7"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="5"/>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
       <c r="G40" s="8"/>
-      <c r="H40" s="7"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="7"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="5"/>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
       <c r="G41" s="8"/>
-      <c r="H41" s="7"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="7"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="5"/>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
       <c r="G42" s="8"/>
-      <c r="H42" s="7"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="7"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="5"/>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
       <c r="G43" s="8"/>
-      <c r="H43" s="7"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="7"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="5"/>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
       <c r="G44" s="8"/>
-      <c r="H44" s="7"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="7"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="5"/>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
       <c r="G45" s="8"/>
-      <c r="H45" s="7"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="7"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="5"/>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
       <c r="G46" s="8"/>
-      <c r="H46" s="7"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="7"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="5"/>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
       <c r="G47" s="8"/>
-      <c r="H47" s="7"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="7"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="5"/>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
       <c r="G48" s="8"/>
-      <c r="H48" s="7"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="7"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="5"/>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
       <c r="G49" s="8"/>
-      <c r="H49" s="7"/>
-    </row>
-    <row r="50" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="7"/>
+    </row>
+    <row r="50" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="5"/>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
       <c r="G50" s="8"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="12"/>
-      <c r="J50" s="7"/>
-      <c r="K50" s="7"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="7"/>
+      <c r="N50" s="12"/>
+      <c r="O50" s="7"/>
+      <c r="P50" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="I1:I2"/>
+  <mergeCells count="8">
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="N1:N2"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="H1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3299,44 +3657,44 @@
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>229</v>
+        <v>208</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3593,142 +3951,142 @@
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -3946,72 +4304,72 @@
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5274,7 +5632,7 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="14" topLeftCell="O1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" sqref="A1:XFD1048576"/>
+      <selection pane="topRight" activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7587,114 +7945,114 @@
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -7891,9 +8249,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="12" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L20" sqref="L20"/>
+      <selection pane="topRight" activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7915,10 +8273,10 @@
   <sheetData>
     <row r="1" spans="1:15" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="46" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>264</v>
+        <v>243</v>
       </c>
       <c r="C1" s="38"/>
       <c r="D1" s="38"/>
@@ -7949,31 +8307,31 @@
     <row r="2" spans="1:15" s="14" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36"/>
       <c r="B2" s="19" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>241</v>
+        <v>220</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>243</v>
+        <v>222</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="J2" s="19" t="s">
-        <v>247</v>
+        <v>226</v>
       </c>
       <c r="K2" s="34"/>
       <c r="L2" s="34"/>
@@ -8002,7 +8360,7 @@
       <c r="J3" s="8"/>
       <c r="K3" s="16"/>
       <c r="L3" s="7" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="M3" s="12" t="str">
         <f>CONCATENATE("Validar funcionalidad ",IF(B3=1,$B$2,IF(C3=1,$C$2,IF(D3=1,$D$2,IF(E3=1,$E$2))))," del Menú Favoritos, sub-modulo Pagarés, considerando la opción ",IF(H3=1,$H$2,IF(I3=1,$I$2,IF(J3=1,$J$2,""))), " y ",IF(F3=1,$F$2,$G$2),IF(K3=1,". Finalizando con exportar a excel",""))</f>
@@ -8013,7 +8371,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Menú favoritos, sub-modulo Pagarés, ingresar a Carta guía Pagare, realizando la(s) accion(es) Exportar carta guía Agregar Pagares</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8037,10 +8395,10 @@
       <c r="J4" s="8"/>
       <c r="K4" s="16"/>
       <c r="L4" s="7" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
       <c r="M4" s="12" t="str">
-        <f t="shared" ref="M4:M19" si="0">CONCATENATE("Validar funcionalidad ",IF(B4=1,$B$2,IF(C4=1,$C$2,IF(D4=1,$D$2,IF(E4=1,$E$2))))," del Menú Favoritos, sub-modulo Pagarés, considerando la opción ",IF(H4=1,$H$2,IF(I4=1,$I$2,IF(J4=1,$J$2,""))), " y ",IF(F4=1,$F$2,$G$2),IF(K4=1,". Finalizando con exportar a excel",""))</f>
+        <f t="shared" ref="M4:M18" si="0">CONCATENATE("Validar funcionalidad ",IF(B4=1,$B$2,IF(C4=1,$C$2,IF(D4=1,$D$2,IF(E4=1,$E$2))))," del Menú Favoritos, sub-modulo Pagarés, considerando la opción ",IF(H4=1,$H$2,IF(I4=1,$I$2,IF(J4=1,$J$2,""))), " y ",IF(F4=1,$F$2,$G$2),IF(K4=1,". Finalizando con exportar a excel",""))</f>
         <v>Validar funcionalidad Carta guía Pagare del Menú Favoritos, sub-modulo Pagarés, considerando la opción Eliminar Pagare y Exportar carta guía</v>
       </c>
       <c r="N4" s="12" t="str">
@@ -8048,7 +8406,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Menú favoritos, sub-modulo Pagarés, ingresar a Carta guía Pagare, realizando la(s) accion(es) Exportar carta guía Eliminar Pagare</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8072,7 +8430,7 @@
       </c>
       <c r="K5" s="16"/>
       <c r="L5" s="7" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="M5" s="12" t="str">
         <f t="shared" si="0"/>
@@ -8083,7 +8441,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Menú favoritos, sub-modulo Pagarés, ingresar a Carta guía Pagare, realizando la(s) accion(es) Exportar carta guía Aprobar carta guía</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8107,7 +8465,7 @@
         <v>1</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>251</v>
+        <v>230</v>
       </c>
       <c r="M6" s="12" t="str">
         <f t="shared" si="0"/>
@@ -8118,7 +8476,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Menú favoritos, sub-modulo Pagarés, ingresar a Carta guía Pagare, realizando la(s) accion(es) Eliminar carta guía Exportar a Excel</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>268</v>
+        <v>247</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8141,7 +8499,7 @@
       <c r="J7" s="8"/>
       <c r="K7" s="16"/>
       <c r="L7" s="7" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="M7" s="12" t="str">
         <f t="shared" si="0"/>
@@ -8152,7 +8510,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Menú favoritos, sub-modulo Pagarés, ingresar a Carta Guía Traslado, realizando la(s) accion(es) Exportar carta guía Agregar Pagares</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8175,7 +8533,7 @@
       <c r="J8" s="8"/>
       <c r="K8" s="16"/>
       <c r="L8" s="7" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
       <c r="M8" s="12" t="str">
         <f t="shared" si="0"/>
@@ -8186,7 +8544,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Menú favoritos, sub-modulo Pagarés, ingresar a Carta Guía Traslado, realizando la(s) accion(es) Exportar carta guía Eliminar Pagare</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8209,7 +8567,7 @@
       </c>
       <c r="K9" s="16"/>
       <c r="L9" s="7" t="s">
-        <v>254</v>
+        <v>233</v>
       </c>
       <c r="M9" s="12" t="str">
         <f t="shared" si="0"/>
@@ -8220,7 +8578,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Menú favoritos, sub-modulo Pagarés, ingresar a Carta Guía Traslado, realizando la(s) accion(es) Exportar carta guía Aprobar carta guía</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -8243,7 +8601,7 @@
         <v>1</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="M10" s="12" t="str">
         <f t="shared" si="0"/>
@@ -8254,7 +8612,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Menú favoritos, sub-modulo Pagarés, ingresar a Carta Guía Traslado, realizando la(s) accion(es) Eliminar carta guía Exportar a Excel</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>268</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -8275,7 +8633,7 @@
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="L11" s="7" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="M11" s="12" t="str">
         <f t="shared" si="0"/>
@@ -8286,7 +8644,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Menú favoritos, sub-modulo Pagarés, ingresar a Importar Carta Guía, realizando la(s) accion(es) Exportar carta guía Agregar Pagares</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -8307,7 +8665,7 @@
       </c>
       <c r="J12" s="8"/>
       <c r="L12" s="7" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="M12" s="12" t="str">
         <f t="shared" si="0"/>
@@ -8318,7 +8676,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Menú favoritos, sub-modulo Pagarés, ingresar a Importar Carta Guía, realizando la(s) accion(es) Exportar carta guía Eliminar Pagare</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -8339,7 +8697,7 @@
         <v>1</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="M13" s="12" t="str">
         <f t="shared" si="0"/>
@@ -8350,7 +8708,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Menú favoritos, sub-modulo Pagarés, ingresar a Importar Carta Guía, realizando la(s) accion(es) Exportar carta guía Aprobar carta guía</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -8372,7 +8730,7 @@
         <v>1</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="M14" s="12" t="str">
         <f t="shared" si="0"/>
@@ -8383,7 +8741,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Menú favoritos, sub-modulo Pagarés, ingresar a Importar Carta Guía, realizando la(s) accion(es) Eliminar carta guía Exportar a Excel</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>268</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -8403,7 +8761,7 @@
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="L15" s="7" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="M15" s="12" t="str">
         <f t="shared" si="0"/>
@@ -8414,7 +8772,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Menú favoritos, sub-modulo Pagarés, ingresar a Importar Recompras, realizando la(s) accion(es) Exportar carta guía Agregar Pagares</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -8434,7 +8792,7 @@
       </c>
       <c r="J16" s="8"/>
       <c r="L16" s="7" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="M16" s="12" t="str">
         <f t="shared" si="0"/>
@@ -8445,7 +8803,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Menú favoritos, sub-modulo Pagarés, ingresar a Importar Recompras, realizando la(s) accion(es) Exportar carta guía Eliminar Pagare</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -8465,7 +8823,7 @@
         <v>1</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>262</v>
+        <v>241</v>
       </c>
       <c r="M17" s="12" t="str">
         <f t="shared" si="0"/>
@@ -8476,7 +8834,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Menú favoritos, sub-modulo Pagarés, ingresar a Importar Recompras, realizando la(s) accion(es) Exportar carta guía Aprobar carta guía</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8498,7 +8856,7 @@
         <v>1</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
       <c r="M18" s="12" t="str">
         <f t="shared" si="0"/>
@@ -8509,7 +8867,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Menú favoritos, sub-modulo Pagarés, ingresar a Importar Recompras, realizando la(s) accion(es) Eliminar carta guía Exportar a Excel</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>268</v>
+        <v>247</v>
       </c>
     </row>
     <row r="19" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8987,44 +9345,44 @@
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">

--- a/Casos Cartera/MenuFavorios.xlsx
+++ b/Casos Cartera/MenuFavorios.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" tabRatio="787"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" tabRatio="787" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Créditos" sheetId="15" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="281">
   <si>
     <t>Nombre CP</t>
   </si>
@@ -65,21 +65,6 @@
   </si>
   <si>
     <t>Valor</t>
-  </si>
-  <si>
-    <t>Buzón de Voz</t>
-  </si>
-  <si>
-    <t>Vencimiento no le acomoda</t>
-  </si>
-  <si>
-    <t>PAC Inactivo</t>
-  </si>
-  <si>
-    <t>No contesta</t>
-  </si>
-  <si>
-    <t>Licencia Medica</t>
   </si>
   <si>
     <t>Empresas Externas</t>
@@ -107,20 +92,7 @@
     <t>PRENDA : Cedula</t>
   </si>
   <si>
-    <t>Estados de seguimiento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enlace Descripción
-</t>
-  </si>
-  <si>
-    <t>Descripción</t>
-  </si>
-  <si>
     <t>Días</t>
-  </si>
-  <si>
-    <t>Anulación de Recaudación</t>
   </si>
   <si>
     <t>Feriados</t>
@@ -353,12 +325,6 @@
     <t>TC_Cartera_Estados_ConsolidadoError</t>
   </si>
   <si>
-    <t>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Estados, ingresando datos de un registro existente, luego de ello, intentar crear registro sin llenar campo obligatorios. Finanlizando, con la modificación y eliminación de registro que está siendo usado en otro modulo.</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Maestro - sub modulo Estados de seguimiento, hacer clic en boton Agregar, ingresar datos de un registro existente y hacer clic en boton guardar, posterior a ello, intentar realizar registro sin llenar campos obligatorios. Finalizando con la modificación y eliminación de registro en uso.</t>
-  </si>
-  <si>
     <t>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Empresas Externas, ingresando datos de un registro existente, luego de ello, intentar crear registro sin llenar campo obligatorios. Finanlizando, con la modificación y eliminación de registro que está siendo usado en otro modulo.</t>
   </si>
   <si>
@@ -869,6 +835,52 @@
   </si>
   <si>
     <t>Crédito editado de manera exitosa</t>
+  </si>
+  <si>
+    <t>TC_Cartera_Creditos_SeguimientoError</t>
+  </si>
+  <si>
+    <t>Validar funcionalidad registro seguimiento del modulo Menú favoritos, sub-modulo Créditos, ingresando fecha que no posea definición de UF</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú Favoritos - sub modulo Créditos, hacer clic en boton Información de contacto para ingresar seguimiento, ingresar fecha en la cual no exista definición de UF.</t>
+  </si>
+  <si>
+    <t>Sistema emite mensaje indicando "No existe definición de UF para la fecha."</t>
+  </si>
+  <si>
+    <t>Asignaciones</t>
+  </si>
+  <si>
+    <t>Estado contrato</t>
+  </si>
+  <si>
+    <t>Vigente</t>
+  </si>
+  <si>
+    <t>Otro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estado pago
+</t>
+  </si>
+  <si>
+    <t>Tipo ejecutivo</t>
+  </si>
+  <si>
+    <t>Call</t>
+  </si>
+  <si>
+    <t>Terreno</t>
+  </si>
+  <si>
+    <t>Regiones</t>
+  </si>
+  <si>
+    <t>Abogado</t>
+  </si>
+  <si>
+    <t>Exportar excel</t>
   </si>
 </sst>
 </file>
@@ -1007,7 +1019,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1089,6 +1101,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1104,10 +1128,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1125,21 +1152,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1446,9 +1471,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="13" topLeftCell="N1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="P8" sqref="P8:P15"/>
+      <selection pane="topRight" activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1470,78 +1495,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="39" t="s">
+        <v>237</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="42"/>
+      <c r="D1" s="43" t="s">
+        <v>239</v>
+      </c>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="44" t="s">
+        <v>241</v>
+      </c>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="14" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="40"/>
+      <c r="B2" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>240</v>
+      </c>
+      <c r="F2" s="34" t="s">
         <v>248</v>
       </c>
-      <c r="B1" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="38" t="s">
-        <v>250</v>
-      </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="45" t="s">
-        <v>252</v>
-      </c>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="N1" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="O1" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" s="33" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" s="14" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36"/>
-      <c r="B2" s="14" t="s">
+      <c r="G2" s="36" t="s">
         <v>249</v>
       </c>
-      <c r="C2" s="31" t="s">
-        <v>274</v>
-      </c>
-      <c r="D2" s="48" t="s">
-        <v>258</v>
-      </c>
-      <c r="E2" s="47" t="s">
-        <v>251</v>
-      </c>
-      <c r="F2" s="47" t="s">
-        <v>259</v>
-      </c>
-      <c r="G2" s="49" t="s">
-        <v>260</v>
-      </c>
-      <c r="H2" s="47" t="s">
-        <v>253</v>
+      <c r="H2" s="34" t="s">
+        <v>242</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="L2" s="31" t="s">
-        <v>257</v>
-      </c>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
+        <v>246</v>
+      </c>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
     </row>
     <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -1565,7 +1590,7 @@
       <c r="K3" s="5"/>
       <c r="L3" s="8"/>
       <c r="M3" s="7" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="N3" s="12" t="str">
         <f>CONCATENATE("Validar funcionalidad ",IF(B3=1,$B$2,$C$2)," del modulo Menú Favoritos, sub-modulo Créditos, seleccionando tipo de crédito ",IF(D3=1,$D$2,IF(E3=1,$E$2,IF(F3=1,$F$2,IF(G3=1,$G$2,"")))),", con estado pago ",IF(H3=1,$H$2,IF(I3=1,$I$2,IF(J3=1,$J$2,IF(K3=1,$K$2,IF(L3=1,$L$2,""))))))</f>
@@ -1576,7 +1601,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú Favoritos - sub modulo Créditos, filtrar por tipo crédito Inteligente y estado de pago Al día, hacer clic en boton Información de contacto para ingresar seguimiento</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1601,7 +1626,7 @@
       <c r="K4" s="5"/>
       <c r="L4" s="8"/>
       <c r="M4" s="7" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="N4" s="12" t="str">
         <f t="shared" ref="N4:N15" si="0">CONCATENATE("Validar funcionalidad ",IF(B4=1,$B$2,$C$2)," del modulo Menú Favoritos, sub-modulo Créditos, seleccionando tipo de crédito ",IF(D4=1,$D$2,IF(E4=1,$E$2,IF(F4=1,$F$2,IF(G4=1,$G$2,"")))),", con estado pago ",IF(H4=1,$H$2,IF(I4=1,$I$2,IF(J4=1,$J$2,IF(K4=1,$K$2,IF(L4=1,$L$2,""))))))</f>
@@ -1612,7 +1637,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú Favoritos - sub modulo Créditos, filtrar por tipo crédito Convencional y estado de pago Moroso, hacer clic en boton Información de contacto para ingresar seguimiento</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1637,7 +1662,7 @@
       <c r="K5" s="5"/>
       <c r="L5" s="8"/>
       <c r="M5" s="7" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="N5" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1648,7 +1673,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú Favoritos - sub modulo Créditos, filtrar por tipo crédito Leasing y estado de pago Vencido, hacer clic en boton Información de contacto para ingresar seguimiento</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1673,7 +1698,7 @@
       </c>
       <c r="L6" s="8"/>
       <c r="M6" s="7" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="N6" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1684,7 +1709,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú Favoritos - sub modulo Créditos, filtrar por tipo crédito Leasing Inteligente y estado de pago Judicial, hacer clic en boton Información de contacto para ingresar seguimiento</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1709,7 +1734,7 @@
         <v>1</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="N7" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1720,7 +1745,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú Favoritos - sub modulo Créditos, filtrar por tipo crédito Inteligente y estado de pago Pre Judicial, hacer clic en boton Información de contacto para ingresar seguimiento</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1745,7 +1770,7 @@
       <c r="K8" s="5"/>
       <c r="L8" s="8"/>
       <c r="M8" s="7" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="N8" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1756,7 +1781,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú Favoritos - sub modulo Créditos, filtrar por tipo crédito Inteligente y estado de pago Al día, hacer clic en boton editar crédito para modificar datos del crédito seleccionado</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1781,7 +1806,7 @@
       <c r="K9" s="5"/>
       <c r="L9" s="8"/>
       <c r="M9" s="7" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="N9" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1792,7 +1817,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú Favoritos - sub modulo Créditos, filtrar por tipo crédito Inteligente y estado de pago Moroso, hacer clic en boton editar crédito para modificar datos del crédito seleccionado</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="27" customFormat="1" x14ac:dyDescent="0.25">
@@ -1817,7 +1842,7 @@
       <c r="K10" s="25"/>
       <c r="L10" s="24"/>
       <c r="M10" s="7" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="N10" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1828,7 +1853,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú Favoritos - sub modulo Créditos, filtrar por tipo crédito Convencional y estado de pago Vencido, hacer clic en boton editar crédito para modificar datos del crédito seleccionado</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -1852,7 +1877,7 @@
       </c>
       <c r="L11" s="8"/>
       <c r="M11" s="7" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="N11" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1863,7 +1888,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú Favoritos - sub modulo Créditos, filtrar por tipo crédito Convencional y estado de pago Judicial, hacer clic en boton editar crédito para modificar datos del crédito seleccionado</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -1888,7 +1913,7 @@
         <v>1</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="N12" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1899,7 +1924,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú Favoritos - sub modulo Créditos, filtrar por tipo crédito Leasing y estado de pago Pre Judicial, hacer clic en boton editar crédito para modificar datos del crédito seleccionado</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -1923,7 +1948,7 @@
       <c r="K13" s="5"/>
       <c r="L13" s="8"/>
       <c r="M13" s="7" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="N13" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1934,7 +1959,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú Favoritos - sub modulo Créditos, filtrar por tipo crédito Leasing y estado de pago Al día, hacer clic en boton editar crédito para modificar datos del crédito seleccionado</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -1958,7 +1983,7 @@
       <c r="K14" s="5"/>
       <c r="L14" s="8"/>
       <c r="M14" s="7" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="N14" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1969,7 +1994,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú Favoritos - sub modulo Créditos, filtrar por tipo crédito Leasing Inteligente y estado de pago Moroso, hacer clic en boton editar crédito para modificar datos del crédito seleccionado</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -1993,7 +2018,7 @@
       <c r="K15" s="5"/>
       <c r="L15" s="8"/>
       <c r="M15" s="7" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="N15" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2004,7 +2029,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú Favoritos - sub modulo Créditos, filtrar por tipo crédito Leasing Inteligente y estado de pago Vencido, hacer clic en boton editar crédito para modificar datos del crédito seleccionado</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -2083,10 +2108,18 @@
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
       <c r="L20" s="8"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
+      <c r="M20" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="N20" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="O20" s="30" t="s">
+        <v>268</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="21" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
@@ -2358,16 +2391,16 @@
       <c r="K37" s="5"/>
       <c r="L37" s="8"/>
       <c r="M37" s="7" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="N37" s="12" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="O37" s="30" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2604,41 +2637,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1" s="37" t="s">
+      <c r="A1" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="33" t="s">
+      <c r="C1" s="43"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="G1" s="39"/>
-      <c r="H1" s="41" t="s">
+      <c r="F1" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="42"/>
+      <c r="H1" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="42"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="33" t="s">
+      <c r="I1" s="47"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="33" t="s">
+      <c r="L1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="N1" s="33" t="s">
+      <c r="M1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="37" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36"/>
+      <c r="A2" s="40"/>
       <c r="B2" s="19" t="s">
         <v>5</v>
       </c>
@@ -2648,7 +2681,7 @@
       <c r="D2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="34"/>
+      <c r="E2" s="38"/>
       <c r="F2" s="19" t="s">
         <v>7</v>
       </c>
@@ -2656,18 +2689,18 @@
         <v>6</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="I2" s="22" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -2693,7 +2726,7 @@
         <v>12</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="L3" s="12" t="str">
         <f>CONCATENATE("Validar funcionalidad ",IF(B3=1,$B$2,IF(C3=1,$C$2,IF(D3=1,$D$2)))," del modulo Maestro, sub-modulo Recaudacion",IF(E3=1,", considerando la opcion exportar a excel",""),IF(F3=1,", hacer clic en enlace concepto para modificar registro",IF(G3=1,", hacer clic en enlace concepto para eliminar registro","")),IF(H3=1,", finalizando con la consulta mediante el filtro ",""),IF(H3=1,$H$2,""),IF(H3=1," con el dato ",""),IF(H3=1,J3,""))</f>
@@ -2704,7 +2737,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace concepto para modificar registro, finalizando con la consulta mediante el filtro Concepto con el dato 12</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2731,7 +2764,7 @@
         <v>10</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="L4" s="12" t="str">
         <f t="shared" ref="L4:L17" si="0">CONCATENATE("Validar funcionalidad ",IF(B4=1,$B$2,IF(C4=1,$C$2,IF(D4=1,$D$2)))," del modulo Maestro, sub-modulo Recaudacion",IF(E4=1,", considerando la opcion exportar a excel",""),IF(F4=1,", hacer clic en enlace concepto para modificar registro",IF(G4=1,", hacer clic en enlace concepto para eliminar registro","")),IF(H4=1,", finalizando con la consulta mediante el filtro ",""),IF(H4=1,$H$2,""),IF(H4=1," con el dato ",""),IF(H4=1,J4,""))</f>
@@ -2742,7 +2775,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace concepto para eliminar registro, finalizando con la consulta mediante el filtro Concepto con el dato 10</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2763,7 +2796,7 @@
       <c r="I5" s="9"/>
       <c r="J5" s="10"/>
       <c r="K5" s="7" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="L5" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2774,7 +2807,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton agregar, hacer clic en enlace concepto para modificar registro</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2797,7 +2830,7 @@
       <c r="I6" s="9"/>
       <c r="J6" s="10"/>
       <c r="K6" s="7" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="L6" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2808,7 +2841,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace concepto para eliminar registro</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2827,7 +2860,7 @@
       <c r="I7" s="9"/>
       <c r="J7" s="10"/>
       <c r="K7" s="7" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="L7" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2838,7 +2871,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton agregar</v>
       </c>
       <c r="N7" s="26" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2864,7 +2897,7 @@
         <v>30</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="L8" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2875,7 +2908,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace concepto para modificar registro, finalizando con la consulta mediante el filtro Concepto con el dato 30</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2901,7 +2934,7 @@
         <v>5</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="L9" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2912,7 +2945,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace concepto para eliminar registro, finalizando con la consulta mediante el filtro Concepto con el dato 5</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -2931,7 +2964,7 @@
       <c r="I10" s="9"/>
       <c r="J10" s="10"/>
       <c r="K10" s="7" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="L10" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2942,7 +2975,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton eliminar, hacer clic en enlace concepto para modificar registro</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -2964,7 +2997,7 @@
       <c r="I11" s="9"/>
       <c r="J11" s="10"/>
       <c r="K11" s="7" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="L11" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2975,7 +3008,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace concepto para eliminar registro</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -2992,7 +3025,7 @@
       <c r="I12" s="9"/>
       <c r="J12" s="10"/>
       <c r="K12" s="7" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="L12" s="12" t="str">
         <f t="shared" si="0"/>
@@ -3003,7 +3036,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton eliminar</v>
       </c>
       <c r="N12" s="26" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -3028,7 +3061,7 @@
         <v>2</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="L13" s="12" t="str">
         <f t="shared" si="0"/>
@@ -3039,7 +3072,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace concepto para modificar registro, finalizando con la consulta mediante el filtro Concepto con el dato 2</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -3064,7 +3097,7 @@
         <v>3</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="L14" s="12" t="str">
         <f t="shared" si="0"/>
@@ -3075,7 +3108,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace concepto para eliminar registro, finalizando con la consulta mediante el filtro Concepto con el dato 3</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -3093,7 +3126,7 @@
       <c r="I15" s="9"/>
       <c r="J15" s="20"/>
       <c r="K15" s="7" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="L15" s="12" t="str">
         <f t="shared" si="0"/>
@@ -3104,7 +3137,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton modificar, hacer clic en enlace concepto para modificar registro</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -3125,7 +3158,7 @@
       <c r="I16" s="9"/>
       <c r="J16" s="10"/>
       <c r="K16" s="7" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="L16" s="12" t="str">
         <f t="shared" si="0"/>
@@ -3136,7 +3169,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace concepto para eliminar registro</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -3152,7 +3185,7 @@
       <c r="I17" s="9"/>
       <c r="J17" s="10"/>
       <c r="K17" s="7" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="L17" s="12" t="str">
         <f t="shared" si="0"/>
@@ -3163,7 +3196,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton modificar</v>
       </c>
       <c r="N17" s="26" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3237,16 +3270,16 @@
       <c r="I22" s="9"/>
       <c r="J22" s="10"/>
       <c r="K22" s="7" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="L22" s="12" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="M22" s="30" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="N22" s="7" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3636,65 +3669,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="33" t="s">
+      <c r="C1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="37" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="14" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3930,163 +3963,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="33" t="s">
+      <c r="C1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="37" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="14" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>154</v>
-      </c>
       <c r="C10" s="7" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -4283,93 +4316,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="33" t="s">
+      <c r="C1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="37" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="14" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4575,1052 +4608,1150 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:Q50"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="11" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A3" sqref="A3:A17"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="14" topLeftCell="O1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A3" sqref="A3:A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.140625" style="3" customWidth="1"/>
     <col min="2" max="2" width="6.140625" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" style="16" customWidth="1"/>
-    <col min="6" max="6" width="8" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" style="11" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="23.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="53" style="6" customWidth="1"/>
-    <col min="12" max="12" width="255.42578125" style="12" customWidth="1"/>
-    <col min="13" max="13" width="255.42578125" style="7" customWidth="1"/>
-    <col min="14" max="14" width="79" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="3.85546875" customWidth="1"/>
+    <col min="5" max="5" width="4.5703125" customWidth="1"/>
+    <col min="6" max="6" width="5" customWidth="1"/>
+    <col min="7" max="7" width="4" customWidth="1"/>
+    <col min="8" max="8" width="3.7109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="3.42578125" style="11" customWidth="1"/>
+    <col min="10" max="10" width="5.7109375" style="11" customWidth="1"/>
+    <col min="11" max="11" width="5.28515625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="4.85546875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="4.85546875" style="54" customWidth="1"/>
+    <col min="14" max="14" width="58" style="3" customWidth="1"/>
+    <col min="15" max="15" width="255.42578125" style="12" customWidth="1"/>
+    <col min="16" max="16" width="255.42578125" style="7" customWidth="1"/>
+    <col min="17" max="17" width="79" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="39"/>
-      <c r="H1" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="42"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="33" t="s">
+    <row r="1" spans="1:17" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="39" t="s">
+        <v>270</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>271</v>
+      </c>
+      <c r="C1" s="42"/>
+      <c r="D1" s="45" t="s">
+        <v>274</v>
+      </c>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="46" t="s">
+        <v>275</v>
+      </c>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="52" t="s">
+        <v>280</v>
+      </c>
+      <c r="N1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="33" t="s">
+      <c r="O1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="N1" s="33" t="s">
+      <c r="P1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" s="37" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="14" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36"/>
+    <row r="2" spans="1:17" s="14" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="40"/>
       <c r="B2" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="34"/>
+        <v>272</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>273</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>243</v>
+      </c>
       <c r="F2" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>26</v>
+        <v>244</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>246</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-    </row>
-    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="M2" s="53"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+    </row>
+    <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>1</v>
       </c>
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="16">
-        <v>1</v>
-      </c>
-      <c r="F3" s="5">
-        <v>1</v>
-      </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="9">
-        <v>1</v>
-      </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="21" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" s="5">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="9">
+        <v>1</v>
+      </c>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="L3" s="12" t="str">
-        <f>CONCATENATE("Validar funcionalidad ",IF(B3=1,$B$2,IF(C3=1,$C$2,IF(D3=1,$D$2)))," del modulo Maestro, sub-modulo Estados de seguimiento",IF(E3=1,", considerando la opcion exportar a excel",),IF(F3=1,", hacer clic en enlace descripcion para modificar registro",IF(G3=1,", hacer clic en enlace descripcion para eliminar registro","")),IF(H3=1,", realizando consulta con el uso del filtro ",IF(I3=1,", realizando consulta con el uso del filtro ","")),IF(H3=1,$H$2,IF(I3=1,$I$2,"")),IF(H3=1," con el dato ",IF(I3=1," con el dato ","")),IF(H3=1,J3,IF(I3=1,J3,"")))</f>
-        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Estados de seguimiento, considerando la opcion exportar a excel, hacer clic en enlace descripcion para modificar registro, realizando consulta con el uso del filtro Descripción con el dato Anulación de Recaudación</v>
-      </c>
-      <c r="M3" s="7" t="str">
-        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Maestro, sub-modulo Estados de segumiento",IF(B3=1,", hacer clic en boton Agregar para crear nuevo registro",IF(C3=1,", hacer clic en boton eliminar",IF(D3=1,", hacer clic en boton modificar para editar registro",""))),IF(E3=1,", hacer clic en boton exportar a excel",""),IF(F3=1,", hacer clic en enlace descripcion para modificar registro",IF(G3=1,", hacer clic en enlace descripcion para eliminar registro","")),IF(H3=1,", finalizando con la consulta usando el filtro ",IF(I3=1,", finalizando con la consulta usando el filtro ","")),IF(H3=1,$H$2,IF(I3=1,$I$2,"")),IF(H3=1," con el dato ",IF(I3=1," con el dato ","")),IF(H3=1,J3,IF(I3=1,J3,"")))</f>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Maestro, sub-modulo Estados de segumiento, hacer clic en boton Agregar para crear nuevo registro, hacer clic en boton exportar a excel, hacer clic en enlace descripcion para modificar registro, finalizando con la consulta usando el filtro Descripción con el dato Anulación de Recaudación</v>
-      </c>
-      <c r="N3" s="7" t="s">
+      <c r="O3" s="12"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+    </row>
+    <row r="4" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="5">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9">
+        <v>1</v>
+      </c>
+      <c r="K4" s="9"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10">
+        <v>1</v>
+      </c>
+      <c r="N4" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="O4" s="12"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+    </row>
+    <row r="5" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>1</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9">
+        <v>1</v>
+      </c>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="O5" s="12"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+    </row>
+    <row r="6" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5">
+        <v>1</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="10">
+        <v>1</v>
+      </c>
+      <c r="M6" s="10">
+        <v>1</v>
+      </c>
+      <c r="N6" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="O6" s="12"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+    </row>
+    <row r="7" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>1</v>
+      </c>
+      <c r="B7" s="5">
+        <v>1</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5">
+        <v>1</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="9">
+        <v>1</v>
+      </c>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="O7" s="12"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="26"/>
+    </row>
+    <row r="8" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>1</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5">
+        <v>1</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9">
+        <v>1</v>
+      </c>
+      <c r="K8" s="9"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21">
+        <v>1</v>
+      </c>
+      <c r="N8" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="O8" s="12"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+    </row>
+    <row r="9" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>1</v>
+      </c>
+      <c r="B9" s="5">
+        <v>1</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5">
+        <v>1</v>
+      </c>
+      <c r="H9" s="8"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9">
+        <v>1</v>
+      </c>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="O9" s="12"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>1</v>
+      </c>
+      <c r="B10" s="5">
+        <v>1</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5">
+        <v>1</v>
+      </c>
+      <c r="H10" s="8"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="10">
+        <v>1</v>
+      </c>
+      <c r="M10" s="10">
+        <v>1</v>
+      </c>
+      <c r="N10" s="51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>1</v>
+      </c>
+      <c r="B11" s="5">
+        <v>1</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="8">
+        <v>1</v>
+      </c>
+      <c r="I11" s="9">
+        <v>1</v>
+      </c>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="51" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>1</v>
+      </c>
+      <c r="B12" s="5">
+        <v>1</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="8">
+        <v>1</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9">
+        <v>1</v>
+      </c>
+      <c r="K12" s="9"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10">
+        <v>1</v>
+      </c>
+      <c r="N12" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q12" s="26"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>1</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="8">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="9">
+        <v>1</v>
+      </c>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="51" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>1</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="8">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9">
+        <v>1</v>
+      </c>
+      <c r="K14" s="9"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10">
+        <v>1</v>
+      </c>
+      <c r="N14" s="51" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>1</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="8">
+        <v>1</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5">
+        <v>1</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9">
+        <v>1</v>
+      </c>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="51" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <v>1</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="8">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5">
+        <v>1</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="10">
+        <v>1</v>
+      </c>
+      <c r="M16" s="10">
+        <v>1</v>
+      </c>
+      <c r="N16" s="51" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="16">
-        <v>1</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="8">
-        <v>1</v>
-      </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9">
-        <v>1</v>
-      </c>
-      <c r="J4" s="10">
-        <v>10</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L4" s="12" t="str">
-        <f t="shared" ref="L4:L17" si="0">CONCATENATE("Validar funcionalidad ",IF(B4=1,$B$2,IF(C4=1,$C$2,IF(D4=1,$D$2)))," del modulo Maestro, sub-modulo Estados de seguimiento",IF(E4=1,", considerando la opcion exportar a excel",),IF(F4=1,", hacer clic en enlace descripcion para modificar registro",IF(G4=1,", hacer clic en enlace descripcion para eliminar registro","")),IF(H4=1,", realizando consulta con el uso del filtro ",IF(I4=1,", realizando consulta con el uso del filtro ","")),IF(H4=1,$H$2,IF(I4=1,$I$2,"")),IF(H4=1," con el dato ",IF(I4=1," con el dato ","")),IF(H4=1,J4,IF(I4=1,J4,"")))</f>
-        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Estados de seguimiento, considerando la opcion exportar a excel, hacer clic en enlace descripcion para eliminar registro, realizando consulta con el uso del filtro Días con el dato 10</v>
-      </c>
-      <c r="M4" s="7" t="str">
-        <f t="shared" ref="M4:M17" si="1">CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Maestro, sub-modulo Estados de segumiento",IF(B4=1,", hacer clic en boton Agregar para crear nuevo registro",IF(C4=1,", hacer clic en boton eliminar",IF(D4=1,", hacer clic en boton modificar para editar registro",""))),IF(E4=1,", hacer clic en boton exportar a excel",""),IF(F4=1,", hacer clic en enlace descripcion para modificar registro",IF(G4=1,", hacer clic en enlace descripcion para eliminar registro","")),IF(H4=1,", finalizando con la consulta usando el filtro ",IF(I4=1,", finalizando con la consulta usando el filtro ","")),IF(H4=1,$H$2,IF(I4=1,$I$2,"")),IF(H4=1," con el dato ",IF(I4=1," con el dato ","")),IF(H4=1,J4,IF(I4=1,J4,"")))</f>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Maestro, sub-modulo Estados de segumiento, hacer clic en boton Agregar para crear nuevo registro, hacer clic en boton exportar a excel, hacer clic en enlace descripcion para eliminar registro, finalizando con la consulta usando el filtro Días con el dato 10</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <v>1</v>
-      </c>
-      <c r="B5" s="5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="5">
-        <v>1</v>
-      </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="9">
-        <v>1</v>
-      </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L5" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Estados de seguimiento, hacer clic en enlace descripcion para modificar registro, realizando consulta con el uso del filtro Descripción con el dato Buzón de Voz</v>
-      </c>
-      <c r="M5" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Maestro, sub-modulo Estados de segumiento, hacer clic en boton Agregar para crear nuevo registro, hacer clic en enlace descripcion para modificar registro, finalizando con la consulta usando el filtro Descripción con el dato Buzón de Voz</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>1</v>
-      </c>
-      <c r="B6" s="5">
-        <v>1</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="16">
-        <v>1</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="8">
-        <v>1</v>
-      </c>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="L6" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Estados de seguimiento, considerando la opcion exportar a excel, hacer clic en enlace descripcion para eliminar registro</v>
-      </c>
-      <c r="M6" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Maestro, sub-modulo Estados de segumiento, hacer clic en boton Agregar para crear nuevo registro, hacer clic en boton exportar a excel, hacer clic en enlace descripcion para eliminar registro</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <v>1</v>
-      </c>
-      <c r="B7" s="5">
-        <v>1</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L7" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Estados de seguimiento</v>
-      </c>
-      <c r="M7" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Maestro, sub-modulo Estados de segumiento, hacer clic en boton Agregar para crear nuevo registro</v>
-      </c>
-      <c r="N7" s="26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <v>1</v>
-      </c>
-      <c r="C8" s="5">
-        <v>1</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="16">
-        <v>1</v>
-      </c>
-      <c r="F8" s="5">
-        <v>1</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9">
-        <v>1</v>
-      </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L8" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Estados de seguimiento, considerando la opcion exportar a excel, hacer clic en enlace descripcion para modificar registro, realizando consulta con el uso del filtro Descripción con el dato Licencia Medica</v>
-      </c>
-      <c r="M8" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Maestro, sub-modulo Estados de segumiento, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace descripcion para modificar registro, finalizando con la consulta usando el filtro Descripción con el dato Licencia Medica</v>
-      </c>
-      <c r="N8" s="7" t="s">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <v>1</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="8">
+        <v>1</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5">
+        <v>1</v>
+      </c>
+      <c r="G17" s="5"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="9">
+        <v>1</v>
+      </c>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="51" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
-        <v>1</v>
-      </c>
-      <c r="C9" s="5">
-        <v>1</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="16">
-        <v>1</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="8">
-        <v>1</v>
-      </c>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9">
-        <v>1</v>
-      </c>
-      <c r="J9" s="10">
-        <v>5</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L9" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Estados de seguimiento, considerando la opcion exportar a excel, hacer clic en enlace descripcion para eliminar registro, realizando consulta con el uso del filtro Días con el dato 5</v>
-      </c>
-      <c r="M9" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Maestro, sub-modulo Estados de segumiento, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace descripcion para eliminar registro, finalizando con la consulta usando el filtro Días con el dato 5</v>
-      </c>
-      <c r="N9" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <v>1</v>
-      </c>
-      <c r="C10" s="5">
-        <v>1</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="F10" s="5">
-        <v>1</v>
-      </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="9">
-        <v>1</v>
-      </c>
-      <c r="I10" s="9"/>
-      <c r="J10" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="L10" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Estados de seguimiento, hacer clic en enlace descripcion para modificar registro, realizando consulta con el uso del filtro Descripción con el dato No contesta</v>
-      </c>
-      <c r="M10" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Maestro, sub-modulo Estados de segumiento, hacer clic en boton eliminar, hacer clic en enlace descripcion para modificar registro, finalizando con la consulta usando el filtro Descripción con el dato No contesta</v>
-      </c>
-      <c r="N10" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
-        <v>1</v>
-      </c>
-      <c r="C11" s="5">
-        <v>1</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="16">
-        <v>1</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="8">
-        <v>1</v>
-      </c>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L11" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Estados de seguimiento, considerando la opcion exportar a excel, hacer clic en enlace descripcion para eliminar registro</v>
-      </c>
-      <c r="M11" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Maestro, sub-modulo Estados de segumiento, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace descripcion para eliminar registro</v>
-      </c>
-      <c r="N11" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
-        <v>1</v>
-      </c>
-      <c r="C12" s="5">
-        <v>1</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="L12" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Estados de seguimiento</v>
-      </c>
-      <c r="M12" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Maestro, sub-modulo Estados de segumiento, hacer clic en boton eliminar</v>
-      </c>
-      <c r="N12" s="26" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
-        <v>1</v>
-      </c>
-      <c r="D13" s="5">
-        <v>1</v>
-      </c>
-      <c r="E13" s="16">
-        <v>1</v>
-      </c>
-      <c r="F13" s="5">
-        <v>1</v>
-      </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="9">
-        <v>1</v>
-      </c>
-      <c r="I13" s="9"/>
-      <c r="J13" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="L13" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Estados de seguimiento, considerando la opcion exportar a excel, hacer clic en enlace descripcion para modificar registro, realizando consulta con el uso del filtro Descripción con el dato PAC Inactivo</v>
-      </c>
-      <c r="M13" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Maestro, sub-modulo Estados de segumiento, hacer clic en boton modificar para editar registro, hacer clic en boton exportar a excel, hacer clic en enlace descripcion para modificar registro, finalizando con la consulta usando el filtro Descripción con el dato PAC Inactivo</v>
-      </c>
-      <c r="N13" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
-        <v>1</v>
-      </c>
-      <c r="D14" s="5">
-        <v>1</v>
-      </c>
-      <c r="E14" s="16">
-        <v>1</v>
-      </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="8">
-        <v>1</v>
-      </c>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9">
-        <v>1</v>
-      </c>
-      <c r="J14" s="10">
-        <v>3</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="L14" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Estados de seguimiento, considerando la opcion exportar a excel, hacer clic en enlace descripcion para eliminar registro, realizando consulta con el uso del filtro Días con el dato 3</v>
-      </c>
-      <c r="M14" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Maestro, sub-modulo Estados de segumiento, hacer clic en boton modificar para editar registro, hacer clic en boton exportar a excel, hacer clic en enlace descripcion para eliminar registro, finalizando con la consulta usando el filtro Días con el dato 3</v>
-      </c>
-      <c r="N14" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
-        <v>1</v>
-      </c>
-      <c r="D15" s="5">
-        <v>1</v>
-      </c>
-      <c r="F15" s="5">
-        <v>1</v>
-      </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="9">
-        <v>1</v>
-      </c>
-      <c r="I15" s="9"/>
-      <c r="J15" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L15" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Estados de seguimiento, hacer clic en enlace descripcion para modificar registro, realizando consulta con el uso del filtro Descripción con el dato Vencimiento no le acomoda</v>
-      </c>
-      <c r="M15" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Maestro, sub-modulo Estados de segumiento, hacer clic en boton modificar para editar registro, hacer clic en enlace descripcion para modificar registro, finalizando con la consulta usando el filtro Descripción con el dato Vencimiento no le acomoda</v>
-      </c>
-      <c r="N15" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
-        <v>1</v>
-      </c>
-      <c r="D16" s="5">
-        <v>1</v>
-      </c>
-      <c r="E16" s="16">
-        <v>1</v>
-      </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="8">
-        <v>1</v>
-      </c>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L16" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Estados de seguimiento, considerando la opcion exportar a excel, hacer clic en enlace descripcion para eliminar registro</v>
-      </c>
-      <c r="M16" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Maestro, sub-modulo Estados de segumiento, hacer clic en boton modificar para editar registro, hacer clic en boton exportar a excel, hacer clic en enlace descripcion para eliminar registro</v>
-      </c>
-      <c r="N16" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
-        <v>1</v>
-      </c>
-      <c r="D17" s="5">
-        <v>1</v>
-      </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L17" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Estados de seguimiento</v>
-      </c>
-      <c r="M17" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Maestro, sub-modulo Estados de segumiento, hacer clic en boton modificar para editar registro</v>
-      </c>
-      <c r="N17" s="26" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="9"/>
+      <c r="Q17" s="26"/>
+    </row>
+    <row r="18" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <v>1</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="8">
+        <v>1</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5">
+        <v>1</v>
+      </c>
+      <c r="G18" s="5"/>
+      <c r="H18" s="8"/>
       <c r="I18" s="9"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-    </row>
-    <row r="19" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
+      <c r="J18" s="9">
+        <v>1</v>
+      </c>
+      <c r="K18" s="9"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21">
+        <v>1</v>
+      </c>
+      <c r="N18" s="51"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+    </row>
+    <row r="19" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
+        <v>1</v>
+      </c>
       <c r="B19" s="5"/>
+      <c r="C19" s="8">
+        <v>1</v>
+      </c>
       <c r="D19" s="5"/>
-      <c r="E19" s="16"/>
+      <c r="E19" s="5"/>
       <c r="F19" s="5"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="9"/>
+      <c r="G19" s="5">
+        <v>1</v>
+      </c>
+      <c r="H19" s="8"/>
       <c r="I19" s="9"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-    </row>
-    <row r="20" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9">
+        <v>1</v>
+      </c>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="51"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+    </row>
+    <row r="20" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <v>1</v>
+      </c>
       <c r="B20" s="5"/>
+      <c r="C20" s="8">
+        <v>1</v>
+      </c>
       <c r="D20" s="5"/>
-      <c r="E20" s="16"/>
+      <c r="E20" s="5"/>
       <c r="F20" s="5"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="9"/>
+      <c r="G20" s="5">
+        <v>1</v>
+      </c>
+      <c r="H20" s="8"/>
       <c r="I20" s="9"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-    </row>
-    <row r="21" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="10">
+        <v>1</v>
+      </c>
+      <c r="M20" s="10">
+        <v>1</v>
+      </c>
+      <c r="N20" s="51"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+    </row>
+    <row r="21" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <v>1</v>
+      </c>
       <c r="B21" s="5"/>
+      <c r="C21" s="8">
+        <v>1</v>
+      </c>
       <c r="D21" s="5"/>
-      <c r="E21" s="16"/>
+      <c r="E21" s="5"/>
       <c r="F21" s="5"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-    </row>
-    <row r="22" spans="1:14" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="8">
+        <v>1</v>
+      </c>
+      <c r="I21" s="9">
+        <v>1</v>
+      </c>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="51"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+    </row>
+    <row r="22" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <v>1</v>
+      </c>
       <c r="B22" s="5"/>
+      <c r="C22" s="8">
+        <v>1</v>
+      </c>
       <c r="D22" s="5"/>
-      <c r="E22" s="16"/>
+      <c r="E22" s="5"/>
       <c r="F22" s="5"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="9"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="8">
+        <v>1</v>
+      </c>
       <c r="I22" s="9"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="L22" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="M22" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="N22" s="7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J22" s="9">
+        <v>1</v>
+      </c>
+      <c r="K22" s="9"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10">
+        <v>1</v>
+      </c>
+      <c r="N22" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="O22" s="12"/>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="7"/>
+    </row>
+    <row r="23" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="5"/>
+      <c r="C23" s="8"/>
       <c r="D23" s="5"/>
-      <c r="E23" s="16"/>
+      <c r="E23" s="5"/>
       <c r="F23" s="5"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="9"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="8"/>
       <c r="I23" s="9"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-    </row>
-    <row r="24" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="51"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+    </row>
+    <row r="24" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="5"/>
+      <c r="C24" s="8"/>
       <c r="D24" s="5"/>
-      <c r="E24" s="16"/>
+      <c r="E24" s="5"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="9"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="8"/>
       <c r="I24" s="9"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-    </row>
-    <row r="25" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="51"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+    </row>
+    <row r="25" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="5"/>
+      <c r="C25" s="8"/>
       <c r="D25" s="5"/>
-      <c r="E25" s="16"/>
+      <c r="E25" s="5"/>
       <c r="F25" s="5"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="9"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="8"/>
       <c r="I25" s="9"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-    </row>
-    <row r="26" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="51"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+    </row>
+    <row r="26" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="5"/>
+      <c r="C26" s="8"/>
       <c r="D26" s="5"/>
-      <c r="E26" s="16"/>
+      <c r="E26" s="5"/>
       <c r="F26" s="5"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="9"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="8"/>
       <c r="I26" s="9"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="51"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
       <c r="F27" s="5"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="9"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="8"/>
       <c r="I27" s="9"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="7"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="51"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
       <c r="F28" s="5"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="9"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="8"/>
       <c r="I28" s="9"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="7"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="51"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
       <c r="F29" s="5"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="9"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="8"/>
       <c r="I29" s="9"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="7"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="51"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
       <c r="F30" s="5"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="9"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="8"/>
       <c r="I30" s="9"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="7"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="51"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
       <c r="F31" s="5"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="9"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="8"/>
       <c r="I31" s="9"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="7"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="51"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
       <c r="F32" s="5"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="9"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="8"/>
       <c r="I32" s="9"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="7"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="51"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
       <c r="F33" s="5"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="9"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="8"/>
       <c r="I33" s="9"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="7"/>
-    </row>
-    <row r="34" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="51"/>
+    </row>
+    <row r="34" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="16"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
       <c r="F34" s="5"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="9"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="8"/>
       <c r="I34" s="9"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="7"/>
-      <c r="N34" s="7"/>
-    </row>
-    <row r="35" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="51"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
+    </row>
+    <row r="35" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="16"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
       <c r="F35" s="5"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="9"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="8"/>
       <c r="I35" s="9"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="7"/>
-      <c r="N35" s="7"/>
-    </row>
-    <row r="36" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="51"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
+    </row>
+    <row r="36" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="16"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
       <c r="F36" s="5"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="9"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="8"/>
       <c r="I36" s="9"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="7"/>
-      <c r="N36" s="7"/>
-    </row>
-    <row r="37" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="51"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7"/>
+    </row>
+    <row r="37" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="16"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
       <c r="F37" s="5"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="9"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="8"/>
       <c r="I37" s="9"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="7"/>
-      <c r="N37" s="7"/>
-    </row>
-    <row r="38" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="51"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="7"/>
+    </row>
+    <row r="38" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="16"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
       <c r="F38" s="5"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="9"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="8"/>
       <c r="I38" s="9"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="12"/>
-      <c r="M38" s="7"/>
-      <c r="N38" s="7"/>
-    </row>
-    <row r="39" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="51"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="7"/>
+    </row>
+    <row r="39" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="16"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
       <c r="F39" s="5"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="9"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="8"/>
       <c r="I39" s="9"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="12"/>
-      <c r="M39" s="7"/>
-      <c r="N39" s="7"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="51"/>
+      <c r="O39" s="12"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="7"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
       <c r="F40" s="5"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="9"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="8"/>
       <c r="I40" s="9"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="7"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="51"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
       <c r="F41" s="5"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="9"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="8"/>
       <c r="I41" s="9"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="7"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="51"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
       <c r="F42" s="5"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="9"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="8"/>
       <c r="I42" s="9"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="7"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="51"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
       <c r="F43" s="5"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="9"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="8"/>
       <c r="I43" s="9"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="7"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="51"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
       <c r="F44" s="5"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="9"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="8"/>
       <c r="I44" s="9"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="7"/>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="51"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
       <c r="F45" s="5"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="9"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="8"/>
       <c r="I45" s="9"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="7"/>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="51"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
       <c r="F46" s="5"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="9"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="8"/>
       <c r="I46" s="9"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="7"/>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="51"/>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
       <c r="F47" s="5"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="9"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="8"/>
       <c r="I47" s="9"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="7"/>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="51"/>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
       <c r="F48" s="5"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="9"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="8"/>
       <c r="I48" s="9"/>
-      <c r="J48" s="10"/>
-      <c r="K48" s="7"/>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="51"/>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
       <c r="F49" s="5"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="9"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="8"/>
       <c r="I49" s="9"/>
-      <c r="J49" s="10"/>
-      <c r="K49" s="7"/>
-    </row>
-    <row r="50" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="51"/>
+    </row>
+    <row r="50" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="16"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
       <c r="F50" s="5"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="9"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="8"/>
       <c r="I50" s="9"/>
-      <c r="J50" s="10"/>
-      <c r="K50" s="7"/>
-      <c r="L50" s="12"/>
-      <c r="M50" s="7"/>
-      <c r="N50" s="7"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="51"/>
+      <c r="O50" s="12"/>
+      <c r="P50" s="7"/>
+      <c r="Q50" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="O1:O2"/>
     <mergeCell ref="N1:N2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:L1"/>
     <mergeCell ref="M1:M2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5632,7 +5763,7 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="14" topLeftCell="O1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N19" sqref="N19"/>
+      <selection pane="topRight" activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5657,44 +5788,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="37" t="s">
+      <c r="A1" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="44" t="s">
+      <c r="C1" s="43"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="J1" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="33" t="s">
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="33" t="s">
+      <c r="O1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q1" s="33" t="s">
+      <c r="P1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" s="37" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36"/>
+      <c r="A2" s="40"/>
       <c r="B2" s="19" t="s">
         <v>5</v>
       </c>
@@ -5714,25 +5845,25 @@
         <v>6</v>
       </c>
       <c r="H2" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="I2" s="34"/>
+        <v>72</v>
+      </c>
+      <c r="I2" s="38"/>
       <c r="J2" s="18" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K2" s="18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="L2" s="22" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
     </row>
     <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -5760,10 +5891,10 @@
       <c r="K3" s="9"/>
       <c r="L3" s="9"/>
       <c r="M3" s="21" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="O3" s="12" t="str">
         <f>CONCATENATE("Validar funcionalidad ",IF(B3=1,$B$2,IF(C3=1,$C$2,IF(D3=1,$D$2)))," del modulo Maestro, sub-moduloEmpresas Externas",IF(E3=1," considerando enlace documentos proveedor para agregar nuevo registro",IF(F3=1," considerando enlace documentos proveedor para modificar registro",IF(G3=1," considerando enlace documentos proveedor para modificar registro",""))),IF(H3=1," y hacer clic en ",""),IF(H3=1,$H$2,""),IF(I3=1,", considerando la opcion exportar a excel",""),IF(J3=1,", finalizando con la consulta mediante el filtro ",IF(K3=1,", finalizando con la consulta mediante el filtro ",IF(L3=1,", finalizando con la consulta mediante el filtro ",""))),IF(J3=1,$J$2,IF(K3=1,$K$2,IF(L3=1,$L$2,""))),IF(J3=1," con el dato ",IF(K3=1," con el dato ",IF(L3=1," con el dato ",""))),IF(J3=1,M3,IF(K3=1,M3,IF(L3=1,M3,""))))</f>
@@ -5774,7 +5905,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Maestro, sub-modulo Empresas Externas, hacer clic en boton agregar, hacer clic en enlace documentos proveedor para agregar nuevo registro y hacer clic en Enlace Descripción (Modificar y/o Eliminar registro), hacer clic en boton exportar a excel, finalizando con la consulta mediante el filtro Nombre con el dato Empresa</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5803,10 +5934,10 @@
       </c>
       <c r="L4" s="9"/>
       <c r="M4" s="10" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="O4" s="12" t="str">
         <f t="shared" ref="O4:O14" si="0">CONCATENATE("Validar funcionalidad ",IF(B4=1,$B$2,IF(C4=1,$C$2,IF(D4=1,$D$2)))," del modulo Maestro, sub-moduloEmpresas Externas",IF(E4=1," considerando enlace documentos proveedor para agregar nuevo registro",IF(F4=1," considerando enlace documentos proveedor para modificar registro",IF(G4=1," considerando enlace documentos proveedor para modificar registro",""))),IF(H4=1," y hacer clic en ",""),IF(H4=1,$H$2,""),IF(I4=1,", considerando la opcion exportar a excel",""),IF(J4=1,", finalizando con la consulta mediante el filtro ",IF(K4=1,", finalizando con la consulta mediante el filtro ",IF(L4=1,", finalizando con la consulta mediante el filtro ",""))),IF(J4=1,$J$2,IF(K4=1,$K$2,IF(L4=1,$L$2,""))),IF(J4=1," con el dato ",IF(K4=1," con el dato ",IF(L4=1," con el dato ",""))),IF(J4=1,M4,IF(K4=1,M4,IF(L4=1,M4,""))))</f>
@@ -5817,7 +5948,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Maestro, sub-modulo Empresas Externas, hacer clic en boton agregar, hacer clic en enlace documentos proveedor para modificar registro y hacer clic en Enlace Descripción (Modificar y/o Eliminar registro), hacer clic en boton exportar a excel, finalizando con la consulta mediante el filtro Nombre corto con el dato EPR</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5844,10 +5975,10 @@
         <v>1</v>
       </c>
       <c r="M5" s="21" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="O5" s="12" t="str">
         <f t="shared" si="0"/>
@@ -5860,7 +5991,7 @@
 (Formulario Documentos Proveedor) con el dato PRENDA : Cedula</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5882,7 +6013,7 @@
       <c r="L6" s="9"/>
       <c r="M6" s="10"/>
       <c r="N6" s="7" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="O6" s="12" t="str">
         <f t="shared" si="0"/>
@@ -5893,7 +6024,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Maestro, sub-modulo Empresas Externas, hacer clic en boton agregar</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5921,10 +6052,10 @@
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
       <c r="M7" s="21" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="O7" s="12" t="str">
         <f t="shared" si="0"/>
@@ -5935,7 +6066,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Maestro, sub-modulo Empresas Externas, hacer clic en boton modificar, hacer clic en enlace documentos proveedor para agregar nuevo registro y hacer clic en Enlace Descripción (Modificar y/o Eliminar registro), hacer clic en boton exportar a excel, finalizando con la consulta mediante el filtro Nombre con el dato Empresa</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5963,10 +6094,10 @@
       </c>
       <c r="L8" s="9"/>
       <c r="M8" s="10" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="O8" s="12" t="str">
         <f t="shared" si="0"/>
@@ -5977,7 +6108,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Maestro, sub-modulo Empresas Externas, hacer clic en boton modificar, hacer clic en enlace documentos proveedor para modificar registro y hacer clic en Enlace Descripción (Modificar y/o Eliminar registro), hacer clic en boton exportar a excel, finalizando con la consulta mediante el filtro Nombre corto con el dato EPR</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6003,10 +6134,10 @@
         <v>1</v>
       </c>
       <c r="M9" s="21" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="O9" s="12" t="str">
         <f t="shared" si="0"/>
@@ -6019,7 +6150,7 @@
 (Formulario Documentos Proveedor) con el dato PRENDA : Cedula</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -6039,7 +6170,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="10"/>
       <c r="N10" s="7" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="O10" s="12" t="str">
         <f t="shared" si="0"/>
@@ -6050,7 +6181,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Maestro, sub-modulo Empresas Externas, hacer clic en boton modificar</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -6078,10 +6209,10 @@
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
       <c r="M11" s="21" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="O11" s="12" t="str">
         <f t="shared" si="0"/>
@@ -6092,7 +6223,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Maestro, sub-modulo Empresas Externas, hacer clic en boton eliminar, hacer clic en enlace documentos proveedor para agregar nuevo registro y hacer clic en Enlace Descripción (Modificar y/o Eliminar registro), hacer clic en boton exportar a excel, finalizando con la consulta mediante el filtro Nombre con el dato Empresa</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -6120,10 +6251,10 @@
       </c>
       <c r="L12" s="9"/>
       <c r="M12" s="10" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="O12" s="12" t="str">
         <f t="shared" si="0"/>
@@ -6134,7 +6265,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Maestro, sub-modulo Empresas Externas, hacer clic en boton eliminar, hacer clic en enlace documentos proveedor para modificar registro y hacer clic en Enlace Descripción (Modificar y/o Eliminar registro), hacer clic en boton exportar a excel, finalizando con la consulta mediante el filtro Nombre corto con el dato EPR</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -6160,10 +6291,10 @@
         <v>1</v>
       </c>
       <c r="M13" s="21" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="O13" s="12" t="str">
         <f t="shared" si="0"/>
@@ -6176,7 +6307,7 @@
 (Formulario Documentos Proveedor) con el dato PRENDA : Cedula</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -6196,7 +6327,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="10"/>
       <c r="N14" s="7" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="O14" s="12" t="str">
         <f t="shared" si="0"/>
@@ -6207,7 +6338,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Maestro, sub-modulo Empresas Externas, hacer clic en boton eliminar</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -6300,16 +6431,16 @@
       <c r="L20" s="9"/>
       <c r="M20" s="10"/>
       <c r="N20" s="7" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="O20" s="12" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="P20" s="30" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6829,42 +6960,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="37" t="s">
+      <c r="A1" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="33" t="s">
+      <c r="C1" s="43"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="39"/>
-      <c r="H1" s="41" t="s">
+      <c r="F1" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="42"/>
+      <c r="H1" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="33" t="s">
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="33" t="s">
+      <c r="M1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="O1" s="33" t="s">
+      <c r="N1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="37" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36"/>
+      <c r="A2" s="40"/>
       <c r="B2" s="19" t="s">
         <v>5</v>
       </c>
@@ -6874,7 +7005,7 @@
       <c r="D2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="34"/>
+      <c r="E2" s="38"/>
       <c r="F2" s="19" t="s">
         <v>7</v>
       </c>
@@ -6882,21 +7013,21 @@
         <v>6</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="K2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -6923,7 +7054,7 @@
         <v>12</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="M3" s="12" t="str">
         <f>CONCATENATE("Validar funcionalidad ",IF(B3=1,$B$2,IF(C3=1,$C$2,IF(D3=1,$D$2)))," del modulo Maestro, sub-modulo Feriados",IF(E3=1,", considerando la opcion exportar a excel",""),IF(F3=1,", hacer clic en enlace Días para modificar registro",IF(G3=1,", hacer clic en enlace Días para eliminar registro","")),IF(H3=1,", finalizando con la consulta mediante el filtro ",IF(I3=1,", finalizando con la consulta mediante el filtro ",IF(J3=1,", finalizando con la consulta mediante el filtro ",""))),IF(H3=1,$H$2,IF(I3=1,$I$2,IF(J3=1,$J$2,""))),IF(H3=1," con el dato ",IF(I3=1," con el dato ",IF(J3=1," con el dato ",""))),IF(H3=1,K3,IF(I3=1,K3,IF(J3=1,K3,""))))</f>
@@ -6934,7 +7065,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Feriados, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace Días para modificar registro, finalizando con la consulta mediante el filtro Días con el dato 12</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6962,7 +7093,7 @@
         <v>10</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="M4" s="12" t="str">
         <f>CONCATENATE("Validar funcionalidad ",IF(B4=1,$B$2,IF(C4=1,$C$2,IF(D4=1,$D$2)))," del modulo Maestro, sub-modulo Feriados",IF(E4=1,", considerando la opcion exportar a excel",""),IF(F4=1,", hacer clic en enlace Días para modificar registro",IF(G4=1,", hacer clic en enlace Días para eliminar registro","")),IF(H4=1,", finalizando con la consulta mediante el filtro ",IF(I4=1,", finalizando con la consulta mediante el filtro ",IF(J4=1,", finalizando con la consulta mediante el filtro ",""))),IF(H4=1,$H$2,IF(I4=1,$I$2,IF(J4=1,$J$2,""))),IF(H4=1," con el dato ",IF(I4=1," con el dato ",IF(J4=1," con el dato ",""))),IF(H4=1,K4,IF(I4=1,K4,IF(J4=1,K4,""))))</f>
@@ -6973,7 +7104,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Feriados, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace Días para eliminar registro, finalizando con la consulta mediante el filtro Mes con el dato 10</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6996,10 +7127,10 @@
         <v>1</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="M5" s="12" t="str">
         <f t="shared" ref="M5:M17" si="1">CONCATENATE("Validar funcionalidad ",IF(B5=1,$B$2,IF(C5=1,$C$2,IF(D5=1,$D$2)))," del modulo Maestro, sub-modulo Feriados",IF(E5=1,", considerando la opcion exportar a excel",""),IF(F5=1,", hacer clic en enlace Días para modificar registro",IF(G5=1,", hacer clic en enlace Días para eliminar registro","")),IF(H5=1,", finalizando con la consulta mediante el filtro ",IF(I5=1,", finalizando con la consulta mediante el filtro ",IF(J5=1,", finalizando con la consulta mediante el filtro ",""))),IF(H5=1,$H$2,IF(I5=1,$I$2,IF(J5=1,$J$2,""))),IF(H5=1," con el dato ",IF(I5=1," con el dato ",IF(J5=1," con el dato ",""))),IF(H5=1,K5,IF(I5=1,K5,IF(J5=1,K5,""))))</f>
@@ -7010,7 +7141,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Feriados, hacer clic en boton agregar, hacer clic en enlace Días para modificar registro, finalizando con la consulta mediante el filtro Motivo con el dato Día feriado</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -7034,7 +7165,7 @@
       <c r="J6" s="9"/>
       <c r="K6" s="10"/>
       <c r="L6" s="7" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="M6" s="12" t="str">
         <f t="shared" si="1"/>
@@ -7045,7 +7176,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Feriados, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace Días para eliminar registro</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -7065,7 +7196,7 @@
       <c r="J7" s="9"/>
       <c r="K7" s="10"/>
       <c r="L7" s="7" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="M7" s="12" t="str">
         <f t="shared" si="1"/>
@@ -7076,7 +7207,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Feriados, hacer clic en boton agregar</v>
       </c>
       <c r="O7" s="26" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -7103,7 +7234,7 @@
         <v>30</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="M8" s="12" t="str">
         <f t="shared" si="1"/>
@@ -7114,7 +7245,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Feriados, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace Días para modificar registro, finalizando con la consulta mediante el filtro Días con el dato 30</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -7141,7 +7272,7 @@
         <v>5</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="M9" s="12" t="str">
         <f t="shared" si="1"/>
@@ -7152,7 +7283,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Feriados, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace Días para eliminar registro, finalizando con la consulta mediante el filtro Mes con el dato 5</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -7173,10 +7304,10 @@
         <v>1</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="M10" s="12" t="str">
         <f t="shared" si="1"/>
@@ -7187,7 +7318,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Feriados, hacer clic en boton eliminar, hacer clic en enlace Días para modificar registro, finalizando con la consulta mediante el filtro Motivo con el dato Feriado</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -7210,7 +7341,7 @@
       <c r="J11" s="9"/>
       <c r="K11" s="10"/>
       <c r="L11" s="7" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="M11" s="12" t="str">
         <f t="shared" si="1"/>
@@ -7221,7 +7352,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Feriados, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace Días para eliminar registro</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -7239,7 +7370,7 @@
       <c r="J12" s="9"/>
       <c r="K12" s="10"/>
       <c r="L12" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="M12" s="12" t="str">
         <f t="shared" si="1"/>
@@ -7250,7 +7381,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Feriados, hacer clic en boton eliminar</v>
       </c>
       <c r="O12" s="26" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -7276,7 +7407,7 @@
         <v>2</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="M13" s="12" t="str">
         <f t="shared" si="1"/>
@@ -7287,7 +7418,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Feriados, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace Días para modificar registro, finalizando con la consulta mediante el filtro Días con el dato 2</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -7313,7 +7444,7 @@
         <v>3</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="M14" s="12" t="str">
         <f t="shared" si="1"/>
@@ -7324,7 +7455,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Feriados, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace Días para eliminar registro, finalizando con la consulta mediante el filtro Mes con el dato 3</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -7344,10 +7475,10 @@
         <v>1</v>
       </c>
       <c r="K15" s="20" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="M15" s="12" t="str">
         <f t="shared" si="1"/>
@@ -7358,7 +7489,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Feriados, hacer clic en boton modificar, hacer clic en enlace Días para modificar registro, finalizando con la consulta mediante el filtro Motivo con el dato Celebración</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -7380,7 +7511,7 @@
       <c r="J16" s="9"/>
       <c r="K16" s="10"/>
       <c r="L16" s="7" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="M16" s="12" t="str">
         <f t="shared" si="1"/>
@@ -7391,7 +7522,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Feriados, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace Días para eliminar registro</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -7408,7 +7539,7 @@
       <c r="J17" s="9"/>
       <c r="K17" s="10"/>
       <c r="L17" s="7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="M17" s="12" t="str">
         <f t="shared" si="1"/>
@@ -7419,7 +7550,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Feriados, hacer clic en boton modificar</v>
       </c>
       <c r="O17" s="26" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -7530,16 +7661,16 @@
       <c r="J24" s="9"/>
       <c r="K24" s="10"/>
       <c r="L24" s="7" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="M24" s="12" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="N24" s="30" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -7924,135 +8055,135 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="33" t="s">
+      <c r="C1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="37" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="14" customFormat="1" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>192</v>
-      </c>
       <c r="D6" s="7" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>193</v>
-      </c>
       <c r="C7" s="7" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -8114,7 +8245,7 @@
       <c r="B22" s="12"/>
       <c r="C22" s="30"/>
       <c r="D22" s="7" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8272,72 +8403,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="46" t="s">
-        <v>217</v>
-      </c>
-      <c r="B1" s="37" t="s">
-        <v>243</v>
-      </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="45" t="s">
+      <c r="A1" s="50" t="s">
+        <v>206</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="33" t="s">
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="33" t="s">
+      <c r="L1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="33" t="s">
+      <c r="M1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="O1" s="33" t="s">
+      <c r="N1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="37" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="14" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36"/>
+      <c r="A2" s="40"/>
       <c r="B2" s="19" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="J2" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
+        <v>215</v>
+      </c>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -8360,7 +8491,7 @@
       <c r="J3" s="8"/>
       <c r="K3" s="16"/>
       <c r="L3" s="7" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="M3" s="12" t="str">
         <f>CONCATENATE("Validar funcionalidad ",IF(B3=1,$B$2,IF(C3=1,$C$2,IF(D3=1,$D$2,IF(E3=1,$E$2))))," del Menú Favoritos, sub-modulo Pagarés, considerando la opción ",IF(H3=1,$H$2,IF(I3=1,$I$2,IF(J3=1,$J$2,""))), " y ",IF(F3=1,$F$2,$G$2),IF(K3=1,". Finalizando con exportar a excel",""))</f>
@@ -8371,7 +8502,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Menú favoritos, sub-modulo Pagarés, ingresar a Carta guía Pagare, realizando la(s) accion(es) Exportar carta guía Agregar Pagares</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8395,7 +8526,7 @@
       <c r="J4" s="8"/>
       <c r="K4" s="16"/>
       <c r="L4" s="7" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="M4" s="12" t="str">
         <f t="shared" ref="M4:M18" si="0">CONCATENATE("Validar funcionalidad ",IF(B4=1,$B$2,IF(C4=1,$C$2,IF(D4=1,$D$2,IF(E4=1,$E$2))))," del Menú Favoritos, sub-modulo Pagarés, considerando la opción ",IF(H4=1,$H$2,IF(I4=1,$I$2,IF(J4=1,$J$2,""))), " y ",IF(F4=1,$F$2,$G$2),IF(K4=1,". Finalizando con exportar a excel",""))</f>
@@ -8406,7 +8537,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Menú favoritos, sub-modulo Pagarés, ingresar a Carta guía Pagare, realizando la(s) accion(es) Exportar carta guía Eliminar Pagare</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8430,7 +8561,7 @@
       </c>
       <c r="K5" s="16"/>
       <c r="L5" s="7" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="M5" s="12" t="str">
         <f t="shared" si="0"/>
@@ -8441,7 +8572,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Menú favoritos, sub-modulo Pagarés, ingresar a Carta guía Pagare, realizando la(s) accion(es) Exportar carta guía Aprobar carta guía</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8465,7 +8596,7 @@
         <v>1</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="M6" s="12" t="str">
         <f t="shared" si="0"/>
@@ -8476,7 +8607,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Menú favoritos, sub-modulo Pagarés, ingresar a Carta guía Pagare, realizando la(s) accion(es) Eliminar carta guía Exportar a Excel</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8499,7 +8630,7 @@
       <c r="J7" s="8"/>
       <c r="K7" s="16"/>
       <c r="L7" s="7" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="M7" s="12" t="str">
         <f t="shared" si="0"/>
@@ -8510,7 +8641,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Menú favoritos, sub-modulo Pagarés, ingresar a Carta Guía Traslado, realizando la(s) accion(es) Exportar carta guía Agregar Pagares</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8533,7 +8664,7 @@
       <c r="J8" s="8"/>
       <c r="K8" s="16"/>
       <c r="L8" s="7" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="M8" s="12" t="str">
         <f t="shared" si="0"/>
@@ -8544,7 +8675,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Menú favoritos, sub-modulo Pagarés, ingresar a Carta Guía Traslado, realizando la(s) accion(es) Exportar carta guía Eliminar Pagare</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8567,7 +8698,7 @@
       </c>
       <c r="K9" s="16"/>
       <c r="L9" s="7" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="M9" s="12" t="str">
         <f t="shared" si="0"/>
@@ -8578,7 +8709,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Menú favoritos, sub-modulo Pagarés, ingresar a Carta Guía Traslado, realizando la(s) accion(es) Exportar carta guía Aprobar carta guía</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -8601,7 +8732,7 @@
         <v>1</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="M10" s="12" t="str">
         <f t="shared" si="0"/>
@@ -8612,7 +8743,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Menú favoritos, sub-modulo Pagarés, ingresar a Carta Guía Traslado, realizando la(s) accion(es) Eliminar carta guía Exportar a Excel</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -8633,7 +8764,7 @@
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="L11" s="7" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="M11" s="12" t="str">
         <f t="shared" si="0"/>
@@ -8644,7 +8775,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Menú favoritos, sub-modulo Pagarés, ingresar a Importar Carta Guía, realizando la(s) accion(es) Exportar carta guía Agregar Pagares</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -8665,7 +8796,7 @@
       </c>
       <c r="J12" s="8"/>
       <c r="L12" s="7" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="M12" s="12" t="str">
         <f t="shared" si="0"/>
@@ -8676,7 +8807,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Menú favoritos, sub-modulo Pagarés, ingresar a Importar Carta Guía, realizando la(s) accion(es) Exportar carta guía Eliminar Pagare</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -8697,7 +8828,7 @@
         <v>1</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="M13" s="12" t="str">
         <f t="shared" si="0"/>
@@ -8708,7 +8839,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Menú favoritos, sub-modulo Pagarés, ingresar a Importar Carta Guía, realizando la(s) accion(es) Exportar carta guía Aprobar carta guía</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -8730,7 +8861,7 @@
         <v>1</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="M14" s="12" t="str">
         <f t="shared" si="0"/>
@@ -8741,7 +8872,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Menú favoritos, sub-modulo Pagarés, ingresar a Importar Carta Guía, realizando la(s) accion(es) Eliminar carta guía Exportar a Excel</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -8761,7 +8892,7 @@
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="L15" s="7" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="M15" s="12" t="str">
         <f t="shared" si="0"/>
@@ -8772,7 +8903,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Menú favoritos, sub-modulo Pagarés, ingresar a Importar Recompras, realizando la(s) accion(es) Exportar carta guía Agregar Pagares</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -8792,7 +8923,7 @@
       </c>
       <c r="J16" s="8"/>
       <c r="L16" s="7" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="M16" s="12" t="str">
         <f t="shared" si="0"/>
@@ -8803,7 +8934,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Menú favoritos, sub-modulo Pagarés, ingresar a Importar Recompras, realizando la(s) accion(es) Exportar carta guía Eliminar Pagare</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -8823,7 +8954,7 @@
         <v>1</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="M17" s="12" t="str">
         <f t="shared" si="0"/>
@@ -8834,7 +8965,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Menú favoritos, sub-modulo Pagarés, ingresar a Importar Recompras, realizando la(s) accion(es) Exportar carta guía Aprobar carta guía</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8856,7 +8987,7 @@
         <v>1</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="M18" s="12" t="str">
         <f t="shared" si="0"/>
@@ -8867,7 +8998,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Menú favoritos, sub-modulo Pagarés, ingresar a Importar Recompras, realizando la(s) accion(es) Eliminar carta guía Exportar a Excel</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
     </row>
     <row r="19" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -9324,65 +9455,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="33" t="s">
+      <c r="C1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="37" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">

--- a/Casos Cartera/MenuFavorios.xlsx
+++ b/Casos Cartera/MenuFavorios.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" tabRatio="787" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" tabRatio="787" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Créditos" sheetId="15" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="300">
   <si>
     <t>Nombre CP</t>
   </si>
@@ -92,60 +92,12 @@
     <t>PRENDA : Cedula</t>
   </si>
   <si>
-    <t>Días</t>
-  </si>
-  <si>
-    <t>Feriados</t>
-  </si>
-  <si>
-    <t>Motivo</t>
-  </si>
-  <si>
-    <t>Mes</t>
-  </si>
-  <si>
-    <t>Día feriado</t>
-  </si>
-  <si>
-    <t>Feriado</t>
-  </si>
-  <si>
-    <t>Celebración</t>
-  </si>
-  <si>
     <t>Registro creado exitosamente</t>
   </si>
   <si>
     <t>Registro eliminado exitosamente</t>
   </si>
   <si>
-    <t>TC_Cartera_Estados_AgregarConsulta</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Estados_AgregarExportarExcel</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Estados_Agregar</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Estados_EliminarConsulta</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Estados_EliminarExportarExcel</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Estados_Eliminar</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Estados_ModificarConsulta</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Estados_ModificarExportarExcel</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Estados_Modificar</t>
-  </si>
-  <si>
     <t>TC_Cartera_Feriados_AgregarConsulta</t>
   </si>
   <si>
@@ -171,24 +123,6 @@
   </si>
   <si>
     <t>TC_Cartera_Feriados_Modificar</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Estados_AgregarEnlaceDescripcion</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Estados_AgregarEnlaceDescripcionModificar</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Estados_EliminarEnlaceDescripcion</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Estados_ModificarEnlaceDescripcion</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Estados_EliminarEnlaceDescripcionModificar</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Estados_ModificarEnlaceDescripcionModificar</t>
   </si>
   <si>
     <t>TC_Cartera_Feriados_AgregarEnlaceDias</t>
@@ -322,9 +256,6 @@
     <t>Sistema debe de emitir mensaje de alerta correspondiente a cada situación</t>
   </si>
   <si>
-    <t>TC_Cartera_Estados_ConsolidadoError</t>
-  </si>
-  <si>
     <t>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Empresas Externas, ingresando datos de un registro existente, luego de ello, intentar crear registro sin llenar campo obligatorios. Finanlizando, con la modificación y eliminación de registro que está siendo usado en otro modulo.</t>
   </si>
   <si>
@@ -881,6 +812,133 @@
   </si>
   <si>
     <t>Exportar excel</t>
+  </si>
+  <si>
+    <t>TC_Cartera_Asignaciones_DiaCall</t>
+  </si>
+  <si>
+    <t>TC_Cartera_Asignaciones_DiaTerreno</t>
+  </si>
+  <si>
+    <t>TC_Cartera_Asignaciones_MorosoRegiones</t>
+  </si>
+  <si>
+    <t>TC_Cartera_Asignaciones_MorosoAbogado</t>
+  </si>
+  <si>
+    <t>TC_Cartera_Asignaciones_VencidoCall</t>
+  </si>
+  <si>
+    <t>TC_Cartera_Asignaciones_VencidoTerreno</t>
+  </si>
+  <si>
+    <t>TC_Cartera_Asignaciones_JudicialRegiones</t>
+  </si>
+  <si>
+    <t>TC_Cartera_Asignaciones_JudicialAbogado</t>
+  </si>
+  <si>
+    <t>TC_Cartera_Asignaciones_PreJudicialCall</t>
+  </si>
+  <si>
+    <t>TC_Cartera_Asignaciones_PreJudicialTerreno</t>
+  </si>
+  <si>
+    <t>TC_Cartera_Asignaciones_ContratoRegiones</t>
+  </si>
+  <si>
+    <t>TC_Cartera_Asignaciones_ContratoAbogado</t>
+  </si>
+  <si>
+    <t>TC_Cartera_Asignaciones_ContratoVencidoRegiones</t>
+  </si>
+  <si>
+    <t>TC_Cartera_Asignaciones_ContratoVencidoAbogado</t>
+  </si>
+  <si>
+    <t>TC_Cartera_Asignaciones_ContratoJudicialCall</t>
+  </si>
+  <si>
+    <t>TC_Cartera_Asignaciones_ContratoJudicialTerreno</t>
+  </si>
+  <si>
+    <t>TC_Cartera_Asignaciones_ContratoPreJudicialRegiones</t>
+  </si>
+  <si>
+    <t>TC_Cartera_Asignaciones_ContratoPreJudicialAbogado</t>
+  </si>
+  <si>
+    <t>TC_Cartera_Asignaciones_AsignacionAumatica</t>
+  </si>
+  <si>
+    <t>TC_Cartera_Asignaciones_SinEjecutivo</t>
+  </si>
+  <si>
+    <t>Asignación de ejecutivo de manera exitosa</t>
+  </si>
+  <si>
+    <t>Validar asignación manual de ejecutivo, sin indicar el tipo y nombre del mismo</t>
+  </si>
+  <si>
+    <t>Validar funcionalidad volver a asignación automatica, seleccionando crédito que tenga habilitada la opción</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú favoritos, sub-modulo Asignaciones, seleccionar crédito, hacer clic en boton volver a asignación automática</t>
+  </si>
+  <si>
+    <t>Retorno a asignación automática de manera exitosa</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú favoritos, sub-modulo Asignaciones, seleccionar crédito, hacer clic en boton asignar a cobrador</t>
+  </si>
+  <si>
+    <t>Sistema emite mensaje indicando Debe seleccionar un tipo de ejecutivo</t>
+  </si>
+  <si>
+    <t>Cheques</t>
+  </si>
+  <si>
+    <t>Estado Cheque</t>
+  </si>
+  <si>
+    <t>En cartera</t>
+  </si>
+  <si>
+    <t>Cobrado</t>
+  </si>
+  <si>
+    <t>Protestado</t>
+  </si>
+  <si>
+    <t>Reemplazado</t>
+  </si>
+  <si>
+    <t>Deppositado</t>
+  </si>
+  <si>
+    <t>Acciones</t>
+  </si>
+  <si>
+    <t>Depositar</t>
+  </si>
+  <si>
+    <t>Cambiar la
+ubiciación</t>
+  </si>
+  <si>
+    <t>Cobrar</t>
+  </si>
+  <si>
+    <t>Cambio Cheque</t>
+  </si>
+  <si>
+    <t>Protesto</t>
+  </si>
+  <si>
+    <t>Prorroga</t>
+  </si>
+  <si>
+    <t>Exportar Excel</t>
   </si>
 </sst>
 </file>
@@ -1019,7 +1077,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1113,6 +1171,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1137,6 +1202,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1149,22 +1217,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1495,78 +1556,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="39" t="s">
-        <v>237</v>
-      </c>
-      <c r="B1" s="41" t="s">
+      <c r="A1" s="42" t="s">
+        <v>214</v>
+      </c>
+      <c r="B1" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="43" t="s">
-        <v>239</v>
-      </c>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="44" t="s">
-        <v>241</v>
-      </c>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="37" t="s">
+      <c r="C1" s="45"/>
+      <c r="D1" s="46" t="s">
+        <v>216</v>
+      </c>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="47" t="s">
+        <v>218</v>
+      </c>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="37" t="s">
+      <c r="N1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" s="37" t="s">
+      <c r="O1" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="40" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="14" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
+      <c r="A2" s="43"/>
       <c r="B2" s="14" t="s">
-        <v>238</v>
+        <v>215</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>247</v>
+        <v>224</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="F2" s="34" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
       <c r="G2" s="36" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="H2" s="34" t="s">
-        <v>242</v>
+        <v>219</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>245</v>
+        <v>222</v>
       </c>
       <c r="L2" s="31" t="s">
-        <v>246</v>
-      </c>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
+        <v>223</v>
+      </c>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
     </row>
     <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -1590,7 +1651,7 @@
       <c r="K3" s="5"/>
       <c r="L3" s="8"/>
       <c r="M3" s="7" t="s">
-        <v>250</v>
+        <v>227</v>
       </c>
       <c r="N3" s="12" t="str">
         <f>CONCATENATE("Validar funcionalidad ",IF(B3=1,$B$2,$C$2)," del modulo Menú Favoritos, sub-modulo Créditos, seleccionando tipo de crédito ",IF(D3=1,$D$2,IF(E3=1,$E$2,IF(F3=1,$F$2,IF(G3=1,$G$2,"")))),", con estado pago ",IF(H3=1,$H$2,IF(I3=1,$I$2,IF(J3=1,$J$2,IF(K3=1,$K$2,IF(L3=1,$L$2,""))))))</f>
@@ -1601,7 +1662,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú Favoritos - sub modulo Créditos, filtrar por tipo crédito Inteligente y estado de pago Al día, hacer clic en boton Información de contacto para ingresar seguimiento</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1626,7 +1687,7 @@
       <c r="K4" s="5"/>
       <c r="L4" s="8"/>
       <c r="M4" s="7" t="s">
-        <v>251</v>
+        <v>228</v>
       </c>
       <c r="N4" s="12" t="str">
         <f t="shared" ref="N4:N15" si="0">CONCATENATE("Validar funcionalidad ",IF(B4=1,$B$2,$C$2)," del modulo Menú Favoritos, sub-modulo Créditos, seleccionando tipo de crédito ",IF(D4=1,$D$2,IF(E4=1,$E$2,IF(F4=1,$F$2,IF(G4=1,$G$2,"")))),", con estado pago ",IF(H4=1,$H$2,IF(I4=1,$I$2,IF(J4=1,$J$2,IF(K4=1,$K$2,IF(L4=1,$L$2,""))))))</f>
@@ -1637,7 +1698,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú Favoritos - sub modulo Créditos, filtrar por tipo crédito Convencional y estado de pago Moroso, hacer clic en boton Información de contacto para ingresar seguimiento</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1662,7 +1723,7 @@
       <c r="K5" s="5"/>
       <c r="L5" s="8"/>
       <c r="M5" s="7" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="N5" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1673,7 +1734,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú Favoritos - sub modulo Créditos, filtrar por tipo crédito Leasing y estado de pago Vencido, hacer clic en boton Información de contacto para ingresar seguimiento</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1698,7 +1759,7 @@
       </c>
       <c r="L6" s="8"/>
       <c r="M6" s="7" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
       <c r="N6" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1709,7 +1770,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú Favoritos - sub modulo Créditos, filtrar por tipo crédito Leasing Inteligente y estado de pago Judicial, hacer clic en boton Información de contacto para ingresar seguimiento</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1734,7 +1795,7 @@
         <v>1</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>254</v>
+        <v>231</v>
       </c>
       <c r="N7" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1745,7 +1806,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú Favoritos - sub modulo Créditos, filtrar por tipo crédito Inteligente y estado de pago Pre Judicial, hacer clic en boton Información de contacto para ingresar seguimiento</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1770,7 +1831,7 @@
       <c r="K8" s="5"/>
       <c r="L8" s="8"/>
       <c r="M8" s="7" t="s">
-        <v>255</v>
+        <v>232</v>
       </c>
       <c r="N8" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1781,7 +1842,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú Favoritos - sub modulo Créditos, filtrar por tipo crédito Inteligente y estado de pago Al día, hacer clic en boton editar crédito para modificar datos del crédito seleccionado</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>265</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1806,7 +1867,7 @@
       <c r="K9" s="5"/>
       <c r="L9" s="8"/>
       <c r="M9" s="7" t="s">
-        <v>256</v>
+        <v>233</v>
       </c>
       <c r="N9" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1817,7 +1878,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú Favoritos - sub modulo Créditos, filtrar por tipo crédito Inteligente y estado de pago Moroso, hacer clic en boton editar crédito para modificar datos del crédito seleccionado</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>265</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="27" customFormat="1" x14ac:dyDescent="0.25">
@@ -1842,7 +1903,7 @@
       <c r="K10" s="25"/>
       <c r="L10" s="24"/>
       <c r="M10" s="7" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
       <c r="N10" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1853,7 +1914,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú Favoritos - sub modulo Créditos, filtrar por tipo crédito Convencional y estado de pago Vencido, hacer clic en boton editar crédito para modificar datos del crédito seleccionado</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>265</v>
+        <v>242</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -1877,7 +1938,7 @@
       </c>
       <c r="L11" s="8"/>
       <c r="M11" s="7" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
       <c r="N11" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1888,7 +1949,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú Favoritos - sub modulo Créditos, filtrar por tipo crédito Convencional y estado de pago Judicial, hacer clic en boton editar crédito para modificar datos del crédito seleccionado</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>265</v>
+        <v>242</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -1913,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>259</v>
+        <v>236</v>
       </c>
       <c r="N12" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1924,7 +1985,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú Favoritos - sub modulo Créditos, filtrar por tipo crédito Leasing y estado de pago Pre Judicial, hacer clic en boton editar crédito para modificar datos del crédito seleccionado</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>265</v>
+        <v>242</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -1948,7 +2009,7 @@
       <c r="K13" s="5"/>
       <c r="L13" s="8"/>
       <c r="M13" s="7" t="s">
-        <v>260</v>
+        <v>237</v>
       </c>
       <c r="N13" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1959,7 +2020,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú Favoritos - sub modulo Créditos, filtrar por tipo crédito Leasing y estado de pago Al día, hacer clic en boton editar crédito para modificar datos del crédito seleccionado</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>265</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -1983,7 +2044,7 @@
       <c r="K14" s="5"/>
       <c r="L14" s="8"/>
       <c r="M14" s="7" t="s">
-        <v>261</v>
+        <v>238</v>
       </c>
       <c r="N14" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1994,7 +2055,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú Favoritos - sub modulo Créditos, filtrar por tipo crédito Leasing Inteligente y estado de pago Moroso, hacer clic en boton editar crédito para modificar datos del crédito seleccionado</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>265</v>
+        <v>242</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -2018,7 +2079,7 @@
       <c r="K15" s="5"/>
       <c r="L15" s="8"/>
       <c r="M15" s="7" t="s">
-        <v>262</v>
+        <v>239</v>
       </c>
       <c r="N15" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2029,7 +2090,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú Favoritos - sub modulo Créditos, filtrar por tipo crédito Leasing Inteligente y estado de pago Vencido, hacer clic en boton editar crédito para modificar datos del crédito seleccionado</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>265</v>
+        <v>242</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -2109,16 +2170,16 @@
       <c r="K20" s="5"/>
       <c r="L20" s="8"/>
       <c r="M20" s="7" t="s">
-        <v>266</v>
+        <v>243</v>
       </c>
       <c r="N20" s="12" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="O20" s="30" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>269</v>
+        <v>246</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2391,16 +2452,16 @@
       <c r="K37" s="5"/>
       <c r="L37" s="8"/>
       <c r="M37" s="7" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="N37" s="12" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="O37" s="30" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2637,41 +2698,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="50" t="s">
-        <v>75</v>
-      </c>
-      <c r="B1" s="41" t="s">
+      <c r="A1" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="37" t="s">
+      <c r="C1" s="46"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="45" t="s">
-        <v>73</v>
-      </c>
-      <c r="G1" s="42"/>
-      <c r="H1" s="46" t="s">
+      <c r="F1" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="45"/>
+      <c r="H1" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="47"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="37" t="s">
+      <c r="I1" s="51"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="37" t="s">
+      <c r="L1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="N1" s="37" t="s">
+      <c r="M1" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="40" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
+      <c r="A2" s="43"/>
       <c r="B2" s="19" t="s">
         <v>5</v>
       </c>
@@ -2681,7 +2742,7 @@
       <c r="D2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="38"/>
+      <c r="E2" s="41"/>
       <c r="F2" s="19" t="s">
         <v>7</v>
       </c>
@@ -2689,18 +2750,18 @@
         <v>6</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="I2" s="22" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="J2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -2726,7 +2787,7 @@
         <v>12</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="L3" s="12" t="str">
         <f>CONCATENATE("Validar funcionalidad ",IF(B3=1,$B$2,IF(C3=1,$C$2,IF(D3=1,$D$2)))," del modulo Maestro, sub-modulo Recaudacion",IF(E3=1,", considerando la opcion exportar a excel",""),IF(F3=1,", hacer clic en enlace concepto para modificar registro",IF(G3=1,", hacer clic en enlace concepto para eliminar registro","")),IF(H3=1,", finalizando con la consulta mediante el filtro ",""),IF(H3=1,$H$2,""),IF(H3=1," con el dato ",""),IF(H3=1,J3,""))</f>
@@ -2737,7 +2798,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace concepto para modificar registro, finalizando con la consulta mediante el filtro Concepto con el dato 12</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2764,7 +2825,7 @@
         <v>10</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="L4" s="12" t="str">
         <f t="shared" ref="L4:L17" si="0">CONCATENATE("Validar funcionalidad ",IF(B4=1,$B$2,IF(C4=1,$C$2,IF(D4=1,$D$2)))," del modulo Maestro, sub-modulo Recaudacion",IF(E4=1,", considerando la opcion exportar a excel",""),IF(F4=1,", hacer clic en enlace concepto para modificar registro",IF(G4=1,", hacer clic en enlace concepto para eliminar registro","")),IF(H4=1,", finalizando con la consulta mediante el filtro ",""),IF(H4=1,$H$2,""),IF(H4=1," con el dato ",""),IF(H4=1,J4,""))</f>
@@ -2775,7 +2836,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace concepto para eliminar registro, finalizando con la consulta mediante el filtro Concepto con el dato 10</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2796,7 +2857,7 @@
       <c r="I5" s="9"/>
       <c r="J5" s="10"/>
       <c r="K5" s="7" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="L5" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2807,7 +2868,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton agregar, hacer clic en enlace concepto para modificar registro</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2830,7 +2891,7 @@
       <c r="I6" s="9"/>
       <c r="J6" s="10"/>
       <c r="K6" s="7" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="L6" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2841,7 +2902,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace concepto para eliminar registro</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2860,7 +2921,7 @@
       <c r="I7" s="9"/>
       <c r="J7" s="10"/>
       <c r="K7" s="7" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="L7" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2871,7 +2932,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton agregar</v>
       </c>
       <c r="N7" s="26" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2897,7 +2958,7 @@
         <v>30</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="L8" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2908,7 +2969,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace concepto para modificar registro, finalizando con la consulta mediante el filtro Concepto con el dato 30</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2934,7 +2995,7 @@
         <v>5</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="L9" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2945,7 +3006,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace concepto para eliminar registro, finalizando con la consulta mediante el filtro Concepto con el dato 5</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -2964,7 +3025,7 @@
       <c r="I10" s="9"/>
       <c r="J10" s="10"/>
       <c r="K10" s="7" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="L10" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2975,7 +3036,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton eliminar, hacer clic en enlace concepto para modificar registro</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -2997,7 +3058,7 @@
       <c r="I11" s="9"/>
       <c r="J11" s="10"/>
       <c r="K11" s="7" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="L11" s="12" t="str">
         <f t="shared" si="0"/>
@@ -3008,7 +3069,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace concepto para eliminar registro</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -3025,7 +3086,7 @@
       <c r="I12" s="9"/>
       <c r="J12" s="10"/>
       <c r="K12" s="7" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="L12" s="12" t="str">
         <f t="shared" si="0"/>
@@ -3036,7 +3097,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton eliminar</v>
       </c>
       <c r="N12" s="26" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -3061,7 +3122,7 @@
         <v>2</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="L13" s="12" t="str">
         <f t="shared" si="0"/>
@@ -3072,7 +3133,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace concepto para modificar registro, finalizando con la consulta mediante el filtro Concepto con el dato 2</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -3097,7 +3158,7 @@
         <v>3</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="L14" s="12" t="str">
         <f t="shared" si="0"/>
@@ -3108,7 +3169,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace concepto para eliminar registro, finalizando con la consulta mediante el filtro Concepto con el dato 3</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -3126,7 +3187,7 @@
       <c r="I15" s="9"/>
       <c r="J15" s="20"/>
       <c r="K15" s="7" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="L15" s="12" t="str">
         <f t="shared" si="0"/>
@@ -3137,7 +3198,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton modificar, hacer clic en enlace concepto para modificar registro</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -3158,7 +3219,7 @@
       <c r="I16" s="9"/>
       <c r="J16" s="10"/>
       <c r="K16" s="7" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="L16" s="12" t="str">
         <f t="shared" si="0"/>
@@ -3169,7 +3230,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace concepto para eliminar registro</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -3185,7 +3246,7 @@
       <c r="I17" s="9"/>
       <c r="J17" s="10"/>
       <c r="K17" s="7" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="L17" s="12" t="str">
         <f t="shared" si="0"/>
@@ -3196,7 +3257,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton modificar</v>
       </c>
       <c r="N17" s="26" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3270,16 +3331,16 @@
       <c r="I22" s="9"/>
       <c r="J22" s="10"/>
       <c r="K22" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L22" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="M22" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="L22" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="M22" s="30" t="s">
-        <v>101</v>
-      </c>
       <c r="N22" s="7" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3669,65 +3730,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="37" t="s">
+      <c r="C1" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="40" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="14" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3963,163 +4024,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="37" t="s">
+      <c r="C1" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="40" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="14" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -4303,8 +4364,8 @@
   <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D8" sqref="D8"/>
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4316,93 +4377,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="37" t="s">
+      <c r="C1" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="40" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="14" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4608,11 +4669,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q50"/>
+  <dimension ref="A1:Q48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="14" topLeftCell="O1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A3" sqref="A3:A22"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="14" topLeftCell="Q1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4629,90 +4690,90 @@
     <col min="10" max="10" width="5.7109375" style="11" customWidth="1"/>
     <col min="11" max="11" width="5.28515625" style="2" customWidth="1"/>
     <col min="12" max="12" width="4.85546875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="4.85546875" style="54" customWidth="1"/>
-    <col min="14" max="14" width="58" style="3" customWidth="1"/>
-    <col min="15" max="15" width="255.42578125" style="12" customWidth="1"/>
+    <col min="13" max="13" width="4.85546875" style="39" customWidth="1"/>
+    <col min="14" max="14" width="56.42578125" style="3" customWidth="1"/>
+    <col min="15" max="15" width="134.28515625" style="12" customWidth="1"/>
     <col min="16" max="16" width="255.42578125" style="7" customWidth="1"/>
     <col min="17" max="17" width="79" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="39" t="s">
-        <v>270</v>
-      </c>
-      <c r="B1" s="41" t="s">
-        <v>271</v>
-      </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="45" t="s">
-        <v>274</v>
-      </c>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="46" t="s">
-        <v>275</v>
-      </c>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="52" t="s">
-        <v>280</v>
-      </c>
-      <c r="N1" s="49" t="s">
+      <c r="A1" s="42" t="s">
+        <v>247</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>248</v>
+      </c>
+      <c r="C1" s="45"/>
+      <c r="D1" s="49" t="s">
+        <v>251</v>
+      </c>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="50" t="s">
+        <v>252</v>
+      </c>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="53" t="s">
+        <v>257</v>
+      </c>
+      <c r="N1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="37" t="s">
+      <c r="O1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q1" s="37" t="s">
+      <c r="P1" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" s="40" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="14" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
+      <c r="A2" s="43"/>
       <c r="B2" s="19" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>273</v>
+        <v>250</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>242</v>
+        <v>219</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>245</v>
+        <v>222</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>276</v>
+        <v>253</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>277</v>
+        <v>254</v>
       </c>
       <c r="K2" s="18" t="s">
-        <v>278</v>
+        <v>255</v>
       </c>
       <c r="L2" s="17" t="s">
-        <v>279</v>
-      </c>
-      <c r="M2" s="53"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
+        <v>256</v>
+      </c>
+      <c r="M2" s="54"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
     </row>
     <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -4736,12 +4797,20 @@
       <c r="K3" s="9"/>
       <c r="L3" s="21"/>
       <c r="M3" s="21"/>
-      <c r="N3" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="O3" s="12"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
+      <c r="N3" s="38" t="s">
+        <v>258</v>
+      </c>
+      <c r="O3" s="12" t="str">
+        <f>CONCATENATE("Validar Asignaciones, seleccionando crédito con estado contrato ",IF(B3=1,$B$2," distinto a vigente")," y estado de pago ",IF(D3=1,$D$2,IF(E3=1,$E$2,IF(F3=1,$F$2,IF(G3=1,$G$2,IF(H3=1,$H$2))))),", asignando ejecutivo tipo ",IF(I3=1,$I$2,IF(J3=1,$J$2,IF(K3=1,$K$2,IF(L3=1,$L$2)))))</f>
+        <v>Validar Asignaciones, seleccionando crédito con estado contrato Vigente y estado de pago Al día, asignando ejecutivo tipo Call</v>
+      </c>
+      <c r="P3" s="7" t="str">
+        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú favoritos, sub-modulo Asignaciones, seleccionar crédito que posea contrato en estado ",IF(B3=1,$B$2," distinto de vigente")," y estado de pago ",IF(D3=1,$D$2,IF(E3=1,$E$2,IF(F3=1,$F$2,IF(G3=1,$G$2,IF(H3=1,$H$2))))),", asignar tipo ejecutivo ",IF(I3=1,$I$2,IF(J3=1,$J$2,IF(K3=1,$K$2,IF(L3=1,$L$2)))),IF(M3=1,". Finalizando con exportar a excel",""))</f>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú favoritos, sub-modulo Asignaciones, seleccionar crédito que posea contrato en estado Vigente y estado de pago Al día, asignar tipo ejecutivo Call</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="4" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
@@ -4767,12 +4836,20 @@
       <c r="M4" s="10">
         <v>1</v>
       </c>
-      <c r="N4" s="51" t="s">
-        <v>46</v>
-      </c>
-      <c r="O4" s="12"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
+      <c r="N4" s="38" t="s">
+        <v>259</v>
+      </c>
+      <c r="O4" s="12" t="str">
+        <f t="shared" ref="O4:O20" si="0">CONCATENATE("Validar Asignaciones, seleccionando crédito con estado contrato ",IF(B4=1,$B$2," distinto a vigente")," y estado de pago ",IF(D4=1,$D$2,IF(E4=1,$E$2,IF(F4=1,$F$2,IF(G4=1,$G$2,IF(H4=1,$H$2))))),", asignando ejecutivo tipo ",IF(I4=1,$I$2,IF(J4=1,$J$2,IF(K4=1,$K$2,IF(L4=1,$L$2)))))</f>
+        <v>Validar Asignaciones, seleccionando crédito con estado contrato Vigente y estado de pago Al día, asignando ejecutivo tipo Terreno</v>
+      </c>
+      <c r="P4" s="7" t="str">
+        <f t="shared" ref="P4:P20" si="1">CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú favoritos, sub-modulo Asignaciones, seleccionar crédito que posea contrato en estado ",IF(B4=1,$B$2," distinto de vigente")," y estado de pago ",IF(D4=1,$D$2,IF(E4=1,$E$2,IF(F4=1,$F$2,IF(G4=1,$G$2,IF(H4=1,$H$2))))),", asignar tipo ejecutivo ",IF(I4=1,$I$2,IF(J4=1,$J$2,IF(K4=1,$K$2,IF(L4=1,$L$2)))),IF(M4=1,". Finalizando con exportar a excel",""))</f>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú favoritos, sub-modulo Asignaciones, seleccionar crédito que posea contrato en estado Vigente y estado de pago Al día, asignar tipo ejecutivo Terreno. Finalizando con exportar a excel</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="5" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
@@ -4796,12 +4873,20 @@
       </c>
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
-      <c r="N5" s="51" t="s">
-        <v>47</v>
-      </c>
-      <c r="O5" s="12"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
+      <c r="N5" s="38" t="s">
+        <v>260</v>
+      </c>
+      <c r="O5" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar Asignaciones, seleccionando crédito con estado contrato Vigente y estado de pago Moroso, asignando ejecutivo tipo Regiones</v>
+      </c>
+      <c r="P5" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú favoritos, sub-modulo Asignaciones, seleccionar crédito que posea contrato en estado Vigente y estado de pago Moroso, asignar tipo ejecutivo Regiones</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="6" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
@@ -4827,12 +4912,20 @@
       <c r="M6" s="10">
         <v>1</v>
       </c>
-      <c r="N6" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="O6" s="12"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
+      <c r="N6" s="38" t="s">
+        <v>261</v>
+      </c>
+      <c r="O6" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar Asignaciones, seleccionando crédito con estado contrato Vigente y estado de pago Moroso, asignando ejecutivo tipo Abogado</v>
+      </c>
+      <c r="P6" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú favoritos, sub-modulo Asignaciones, seleccionar crédito que posea contrato en estado Vigente y estado de pago Moroso, asignar tipo ejecutivo Abogado. Finalizando con exportar a excel</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="7" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
@@ -4856,12 +4949,20 @@
       <c r="K7" s="9"/>
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
-      <c r="N7" s="51" t="s">
-        <v>30</v>
-      </c>
-      <c r="O7" s="12"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="26"/>
+      <c r="N7" s="38" t="s">
+        <v>262</v>
+      </c>
+      <c r="O7" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar Asignaciones, seleccionando crédito con estado contrato Vigente y estado de pago Vencido, asignando ejecutivo tipo Call</v>
+      </c>
+      <c r="P7" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú favoritos, sub-modulo Asignaciones, seleccionar crédito que posea contrato en estado Vigente y estado de pago Vencido, asignar tipo ejecutivo Call</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="8" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
@@ -4887,12 +4988,20 @@
       <c r="M8" s="21">
         <v>1</v>
       </c>
-      <c r="N8" s="51" t="s">
-        <v>31</v>
-      </c>
-      <c r="O8" s="12"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
+      <c r="N8" s="38" t="s">
+        <v>263</v>
+      </c>
+      <c r="O8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar Asignaciones, seleccionando crédito con estado contrato Vigente y estado de pago Vencido, asignando ejecutivo tipo Terreno</v>
+      </c>
+      <c r="P8" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú favoritos, sub-modulo Asignaciones, seleccionar crédito que posea contrato en estado Vigente y estado de pago Vencido, asignar tipo ejecutivo Terreno. Finalizando con exportar a excel</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="9" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
@@ -4916,12 +5025,20 @@
       </c>
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
-      <c r="N9" s="51" t="s">
-        <v>48</v>
-      </c>
-      <c r="O9" s="12"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
+      <c r="N9" s="38" t="s">
+        <v>264</v>
+      </c>
+      <c r="O9" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar Asignaciones, seleccionando crédito con estado contrato Vigente y estado de pago Judicial, asignando ejecutivo tipo Regiones</v>
+      </c>
+      <c r="P9" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú favoritos, sub-modulo Asignaciones, seleccionar crédito que posea contrato en estado Vigente y estado de pago Judicial, asignar tipo ejecutivo Regiones</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
@@ -4947,8 +5064,19 @@
       <c r="M10" s="10">
         <v>1</v>
       </c>
-      <c r="N10" s="51" t="s">
-        <v>50</v>
+      <c r="N10" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="O10" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar Asignaciones, seleccionando crédito con estado contrato Vigente y estado de pago Judicial, asignando ejecutivo tipo Abogado</v>
+      </c>
+      <c r="P10" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú favoritos, sub-modulo Asignaciones, seleccionar crédito que posea contrato en estado Vigente y estado de pago Judicial, asignar tipo ejecutivo Abogado. Finalizando con exportar a excel</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -4973,8 +5101,19 @@
       <c r="K11" s="9"/>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
-      <c r="N11" s="51" t="s">
-        <v>32</v>
+      <c r="N11" s="38" t="s">
+        <v>266</v>
+      </c>
+      <c r="O11" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar Asignaciones, seleccionando crédito con estado contrato Vigente y estado de pago Pre Judicial, asignando ejecutivo tipo Call</v>
+      </c>
+      <c r="P11" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú favoritos, sub-modulo Asignaciones, seleccionar crédito que posea contrato en estado Vigente y estado de pago Pre Judicial, asignar tipo ejecutivo Call</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -5001,10 +5140,20 @@
       <c r="M12" s="10">
         <v>1</v>
       </c>
-      <c r="N12" s="51" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q12" s="26"/>
+      <c r="N12" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="O12" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar Asignaciones, seleccionando crédito con estado contrato Vigente y estado de pago Pre Judicial, asignando ejecutivo tipo Terreno</v>
+      </c>
+      <c r="P12" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú favoritos, sub-modulo Asignaciones, seleccionar crédito que posea contrato en estado Vigente y estado de pago Pre Judicial, asignar tipo ejecutivo Terreno. Finalizando con exportar a excel</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
@@ -5021,15 +5170,26 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="8"/>
-      <c r="I13" s="9">
-        <v>1</v>
-      </c>
+      <c r="I13" s="9"/>
       <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
+      <c r="K13" s="9">
+        <v>1</v>
+      </c>
       <c r="L13" s="21"/>
       <c r="M13" s="21"/>
-      <c r="N13" s="51" t="s">
-        <v>34</v>
+      <c r="N13" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="O13" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar Asignaciones, seleccionando crédito con estado contrato  distinto a vigente y estado de pago Al día, asignando ejecutivo tipo Regiones</v>
+      </c>
+      <c r="P13" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú favoritos, sub-modulo Asignaciones, seleccionar crédito que posea contrato en estado  distinto de vigente y estado de pago Al día, asignar tipo ejecutivo Regiones</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -5048,16 +5208,27 @@
       <c r="G14" s="5"/>
       <c r="H14" s="8"/>
       <c r="I14" s="9"/>
-      <c r="J14" s="9">
-        <v>1</v>
-      </c>
+      <c r="J14" s="9"/>
       <c r="K14" s="9"/>
-      <c r="L14" s="10"/>
+      <c r="L14" s="10">
+        <v>1</v>
+      </c>
       <c r="M14" s="10">
         <v>1</v>
       </c>
-      <c r="N14" s="51" t="s">
-        <v>49</v>
+      <c r="N14" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="O14" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar Asignaciones, seleccionando crédito con estado contrato  distinto a vigente y estado de pago Al día, asignando ejecutivo tipo Abogado</v>
+      </c>
+      <c r="P14" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú favoritos, sub-modulo Asignaciones, seleccionar crédito que posea contrato en estado  distinto de vigente y estado de pago Al día, asignar tipo ejecutivo Abogado. Finalizando con exportar a excel</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -5069,24 +5240,35 @@
         <v>1</v>
       </c>
       <c r="D15" s="5"/>
-      <c r="E15" s="5">
-        <v>1</v>
-      </c>
-      <c r="F15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5">
+        <v>1</v>
+      </c>
       <c r="G15" s="5"/>
       <c r="H15" s="8"/>
       <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9">
-        <v>1</v>
-      </c>
+      <c r="J15" s="9">
+        <v>1</v>
+      </c>
+      <c r="K15" s="9"/>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
-      <c r="N15" s="51" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N15" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="O15" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar Asignaciones, seleccionando crédito con estado contrato  distinto a vigente y estado de pago Vencido, asignando ejecutivo tipo Terreno</v>
+      </c>
+      <c r="P15" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú favoritos, sub-modulo Asignaciones, seleccionar crédito que posea contrato en estado  distinto de vigente y estado de pago Vencido, asignar tipo ejecutivo Terreno</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>1</v>
       </c>
@@ -5095,26 +5277,37 @@
         <v>1</v>
       </c>
       <c r="D16" s="5"/>
-      <c r="E16" s="5">
-        <v>1</v>
-      </c>
-      <c r="F16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5">
+        <v>1</v>
+      </c>
       <c r="G16" s="5"/>
       <c r="H16" s="8"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
-      <c r="L16" s="10">
-        <v>1</v>
-      </c>
-      <c r="M16" s="10">
-        <v>1</v>
-      </c>
-      <c r="N16" s="51" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L16" s="21">
+        <v>1</v>
+      </c>
+      <c r="M16" s="21">
+        <v>1</v>
+      </c>
+      <c r="N16" s="38" t="s">
+        <v>271</v>
+      </c>
+      <c r="O16" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar Asignaciones, seleccionando crédito con estado contrato  distinto a vigente y estado de pago Vencido, asignando ejecutivo tipo Abogado</v>
+      </c>
+      <c r="P16" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú favoritos, sub-modulo Asignaciones, seleccionar crédito que posea contrato en estado  distinto de vigente y estado de pago Vencido, asignar tipo ejecutivo Abogado. Finalizando con exportar a excel</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>1</v>
       </c>
@@ -5124,10 +5317,10 @@
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="5">
-        <v>1</v>
-      </c>
-      <c r="G17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5">
+        <v>1</v>
+      </c>
       <c r="H17" s="8"/>
       <c r="I17" s="9">
         <v>1</v>
@@ -5136,10 +5329,20 @@
       <c r="K17" s="9"/>
       <c r="L17" s="10"/>
       <c r="M17" s="10"/>
-      <c r="N17" s="51" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q17" s="26"/>
+      <c r="N17" s="38" t="s">
+        <v>272</v>
+      </c>
+      <c r="O17" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar Asignaciones, seleccionando crédito con estado contrato  distinto a vigente y estado de pago Judicial, asignando ejecutivo tipo Call</v>
+      </c>
+      <c r="P17" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú favoritos, sub-modulo Asignaciones, seleccionar crédito que posea contrato en estado  distinto de vigente y estado de pago Judicial, asignar tipo ejecutivo Call</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="18" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
@@ -5151,24 +5354,34 @@
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
-      <c r="F18" s="5">
-        <v>1</v>
-      </c>
-      <c r="G18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5">
+        <v>1</v>
+      </c>
       <c r="H18" s="8"/>
       <c r="I18" s="9"/>
       <c r="J18" s="9">
         <v>1</v>
       </c>
       <c r="K18" s="9"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21">
-        <v>1</v>
-      </c>
-      <c r="N18" s="51"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10">
+        <v>1</v>
+      </c>
+      <c r="N18" s="38" t="s">
+        <v>273</v>
+      </c>
+      <c r="O18" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar Asignaciones, seleccionando crédito con estado contrato  distinto a vigente y estado de pago Judicial, asignando ejecutivo tipo Terreno</v>
+      </c>
+      <c r="P18" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú favoritos, sub-modulo Asignaciones, seleccionar crédito que posea contrato en estado  distinto de vigente y estado de pago Judicial, asignar tipo ejecutivo Terreno. Finalizando con exportar a excel</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="19" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
@@ -5181,10 +5394,10 @@
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
-      <c r="G19" s="5">
-        <v>1</v>
-      </c>
-      <c r="H19" s="8"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="8">
+        <v>1</v>
+      </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9">
@@ -5192,10 +5405,20 @@
       </c>
       <c r="L19" s="10"/>
       <c r="M19" s="10"/>
-      <c r="N19" s="51"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
+      <c r="N19" s="38" t="s">
+        <v>274</v>
+      </c>
+      <c r="O19" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar Asignaciones, seleccionando crédito con estado contrato  distinto a vigente y estado de pago Pre Judicial, asignando ejecutivo tipo Regiones</v>
+      </c>
+      <c r="P19" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú favoritos, sub-modulo Asignaciones, seleccionar crédito que posea contrato en estado  distinto de vigente y estado de pago Pre Judicial, asignar tipo ejecutivo Regiones</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="20" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
@@ -5208,10 +5431,10 @@
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
-      <c r="G20" s="5">
-        <v>1</v>
-      </c>
-      <c r="H20" s="8"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="8">
+        <v>1</v>
+      </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
@@ -5221,67 +5444,57 @@
       <c r="M20" s="10">
         <v>1</v>
       </c>
-      <c r="N20" s="51"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
+      <c r="N20" s="38" t="s">
+        <v>275</v>
+      </c>
+      <c r="O20" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar Asignaciones, seleccionando crédito con estado contrato  distinto a vigente y estado de pago Pre Judicial, asignando ejecutivo tipo Abogado</v>
+      </c>
+      <c r="P20" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú favoritos, sub-modulo Asignaciones, seleccionar crédito que posea contrato en estado  distinto de vigente y estado de pago Pre Judicial, asignar tipo ejecutivo Abogado. Finalizando con exportar a excel</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="21" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
-        <v>1</v>
-      </c>
+      <c r="A21" s="8"/>
       <c r="B21" s="5"/>
-      <c r="C21" s="8">
-        <v>1</v>
-      </c>
+      <c r="C21" s="8"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
-      <c r="H21" s="8">
-        <v>1</v>
-      </c>
-      <c r="I21" s="9">
-        <v>1</v>
-      </c>
+      <c r="H21" s="8"/>
+      <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c r="L21" s="10"/>
       <c r="M21" s="10"/>
-      <c r="N21" s="51"/>
+      <c r="N21" s="38"/>
       <c r="O21" s="12"/>
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
     </row>
     <row r="22" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
-        <v>1</v>
-      </c>
+      <c r="A22" s="8"/>
       <c r="B22" s="5"/>
-      <c r="C22" s="8">
-        <v>1</v>
-      </c>
+      <c r="C22" s="8"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
-      <c r="H22" s="8">
-        <v>1</v>
-      </c>
+      <c r="H22" s="8"/>
       <c r="I22" s="9"/>
-      <c r="J22" s="9">
-        <v>1</v>
-      </c>
+      <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c r="L22" s="10"/>
-      <c r="M22" s="10">
-        <v>1</v>
-      </c>
-      <c r="N22" s="51" t="s">
-        <v>95</v>
-      </c>
+      <c r="M22" s="10"/>
+      <c r="N22" s="38"/>
       <c r="O22" s="12"/>
-      <c r="P22" s="30"/>
+      <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
     </row>
     <row r="23" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5298,10 +5511,18 @@
       <c r="K23" s="9"/>
       <c r="L23" s="10"/>
       <c r="M23" s="10"/>
-      <c r="N23" s="51"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
+      <c r="N23" s="38" t="s">
+        <v>276</v>
+      </c>
+      <c r="O23" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="24" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
@@ -5317,14 +5538,21 @@
       <c r="K24" s="9"/>
       <c r="L24" s="10"/>
       <c r="M24" s="10"/>
-      <c r="N24" s="51"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="7"/>
-    </row>
-    <row r="25" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N24" s="38" t="s">
+        <v>277</v>
+      </c>
+      <c r="O24" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
-      <c r="B25" s="5"/>
       <c r="C25" s="8"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -5336,14 +5564,10 @@
       <c r="K25" s="9"/>
       <c r="L25" s="10"/>
       <c r="M25" s="10"/>
-      <c r="N25" s="51"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
-    </row>
-    <row r="26" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N25" s="38"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
-      <c r="B26" s="5"/>
       <c r="C26" s="8"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
@@ -5355,10 +5579,7 @@
       <c r="K26" s="9"/>
       <c r="L26" s="10"/>
       <c r="M26" s="10"/>
-      <c r="N26" s="51"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="7"/>
+      <c r="N26" s="38"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
@@ -5373,7 +5594,7 @@
       <c r="K27" s="9"/>
       <c r="L27" s="10"/>
       <c r="M27" s="10"/>
-      <c r="N27" s="51"/>
+      <c r="N27" s="38"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
@@ -5388,7 +5609,7 @@
       <c r="K28" s="9"/>
       <c r="L28" s="10"/>
       <c r="M28" s="10"/>
-      <c r="N28" s="51"/>
+      <c r="N28" s="38"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
@@ -5403,7 +5624,7 @@
       <c r="K29" s="9"/>
       <c r="L29" s="10"/>
       <c r="M29" s="10"/>
-      <c r="N29" s="51"/>
+      <c r="N29" s="38"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
@@ -5418,7 +5639,7 @@
       <c r="K30" s="9"/>
       <c r="L30" s="10"/>
       <c r="M30" s="10"/>
-      <c r="N30" s="51"/>
+      <c r="N30" s="38"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
@@ -5433,9 +5654,9 @@
       <c r="K31" s="9"/>
       <c r="L31" s="10"/>
       <c r="M31" s="10"/>
-      <c r="N31" s="51"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N31" s="38"/>
+    </row>
+    <row r="32" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="C32" s="8"/>
       <c r="D32" s="5"/>
@@ -5448,9 +5669,12 @@
       <c r="K32" s="9"/>
       <c r="L32" s="10"/>
       <c r="M32" s="10"/>
-      <c r="N32" s="51"/>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N32" s="38"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+    </row>
+    <row r="33" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="C33" s="8"/>
       <c r="D33" s="5"/>
@@ -5463,7 +5687,10 @@
       <c r="K33" s="9"/>
       <c r="L33" s="10"/>
       <c r="M33" s="10"/>
-      <c r="N33" s="51"/>
+      <c r="N33" s="38"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7"/>
     </row>
     <row r="34" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
@@ -5478,7 +5705,7 @@
       <c r="K34" s="9"/>
       <c r="L34" s="10"/>
       <c r="M34" s="10"/>
-      <c r="N34" s="51"/>
+      <c r="N34" s="38"/>
       <c r="O34" s="12"/>
       <c r="P34" s="7"/>
       <c r="Q34" s="7"/>
@@ -5496,7 +5723,7 @@
       <c r="K35" s="9"/>
       <c r="L35" s="10"/>
       <c r="M35" s="10"/>
-      <c r="N35" s="51"/>
+      <c r="N35" s="38"/>
       <c r="O35" s="12"/>
       <c r="P35" s="7"/>
       <c r="Q35" s="7"/>
@@ -5514,7 +5741,7 @@
       <c r="K36" s="9"/>
       <c r="L36" s="10"/>
       <c r="M36" s="10"/>
-      <c r="N36" s="51"/>
+      <c r="N36" s="38"/>
       <c r="O36" s="12"/>
       <c r="P36" s="7"/>
       <c r="Q36" s="7"/>
@@ -5532,12 +5759,12 @@
       <c r="K37" s="9"/>
       <c r="L37" s="10"/>
       <c r="M37" s="10"/>
-      <c r="N37" s="51"/>
+      <c r="N37" s="38"/>
       <c r="O37" s="12"/>
       <c r="P37" s="7"/>
       <c r="Q37" s="7"/>
     </row>
-    <row r="38" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="C38" s="8"/>
       <c r="D38" s="5"/>
@@ -5550,12 +5777,9 @@
       <c r="K38" s="9"/>
       <c r="L38" s="10"/>
       <c r="M38" s="10"/>
-      <c r="N38" s="51"/>
-      <c r="O38" s="12"/>
-      <c r="P38" s="7"/>
-      <c r="Q38" s="7"/>
-    </row>
-    <row r="39" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N38" s="38"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="C39" s="8"/>
       <c r="D39" s="5"/>
@@ -5568,10 +5792,7 @@
       <c r="K39" s="9"/>
       <c r="L39" s="10"/>
       <c r="M39" s="10"/>
-      <c r="N39" s="51"/>
-      <c r="O39" s="12"/>
-      <c r="P39" s="7"/>
-      <c r="Q39" s="7"/>
+      <c r="N39" s="38"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
@@ -5586,7 +5807,7 @@
       <c r="K40" s="9"/>
       <c r="L40" s="10"/>
       <c r="M40" s="10"/>
-      <c r="N40" s="51"/>
+      <c r="N40" s="38"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
@@ -5601,7 +5822,7 @@
       <c r="K41" s="9"/>
       <c r="L41" s="10"/>
       <c r="M41" s="10"/>
-      <c r="N41" s="51"/>
+      <c r="N41" s="38"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
@@ -5616,7 +5837,7 @@
       <c r="K42" s="9"/>
       <c r="L42" s="10"/>
       <c r="M42" s="10"/>
-      <c r="N42" s="51"/>
+      <c r="N42" s="38"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
@@ -5631,7 +5852,7 @@
       <c r="K43" s="9"/>
       <c r="L43" s="10"/>
       <c r="M43" s="10"/>
-      <c r="N43" s="51"/>
+      <c r="N43" s="38"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
@@ -5646,7 +5867,7 @@
       <c r="K44" s="9"/>
       <c r="L44" s="10"/>
       <c r="M44" s="10"/>
-      <c r="N44" s="51"/>
+      <c r="N44" s="38"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
@@ -5661,7 +5882,7 @@
       <c r="K45" s="9"/>
       <c r="L45" s="10"/>
       <c r="M45" s="10"/>
-      <c r="N45" s="51"/>
+      <c r="N45" s="38"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
@@ -5676,7 +5897,7 @@
       <c r="K46" s="9"/>
       <c r="L46" s="10"/>
       <c r="M46" s="10"/>
-      <c r="N46" s="51"/>
+      <c r="N46" s="38"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
@@ -5691,9 +5912,9 @@
       <c r="K47" s="9"/>
       <c r="L47" s="10"/>
       <c r="M47" s="10"/>
-      <c r="N47" s="51"/>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N47" s="38"/>
+    </row>
+    <row r="48" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="C48" s="8"/>
       <c r="D48" s="5"/>
@@ -5706,40 +5927,10 @@
       <c r="K48" s="9"/>
       <c r="L48" s="10"/>
       <c r="M48" s="10"/>
-      <c r="N48" s="51"/>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="9"/>
-      <c r="J49" s="9"/>
-      <c r="K49" s="9"/>
-      <c r="L49" s="10"/>
-      <c r="M49" s="10"/>
-      <c r="N49" s="51"/>
-    </row>
-    <row r="50" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="8"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="9"/>
-      <c r="J50" s="9"/>
-      <c r="K50" s="9"/>
-      <c r="L50" s="10"/>
-      <c r="M50" s="10"/>
-      <c r="N50" s="51"/>
-      <c r="O50" s="12"/>
-      <c r="P50" s="7"/>
-      <c r="Q50" s="7"/>
+      <c r="N48" s="38"/>
+      <c r="O48" s="12"/>
+      <c r="P48" s="7"/>
+      <c r="Q48" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -5788,44 +5979,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="44" t="s">
+      <c r="C1" s="46"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="49" t="s">
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="46" t="s">
+      <c r="J1" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="37" t="s">
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="37" t="s">
+      <c r="O1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q1" s="37" t="s">
+      <c r="P1" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" s="40" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
+      <c r="A2" s="43"/>
       <c r="B2" s="19" t="s">
         <v>5</v>
       </c>
@@ -5845,9 +6036,9 @@
         <v>6</v>
       </c>
       <c r="H2" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="I2" s="38"/>
+        <v>50</v>
+      </c>
+      <c r="I2" s="41"/>
       <c r="J2" s="18" t="s">
         <v>15</v>
       </c>
@@ -5860,10 +6051,10 @@
       <c r="M2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
     </row>
     <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -5894,7 +6085,7 @@
         <v>16</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="O3" s="12" t="str">
         <f>CONCATENATE("Validar funcionalidad ",IF(B3=1,$B$2,IF(C3=1,$C$2,IF(D3=1,$D$2)))," del modulo Maestro, sub-moduloEmpresas Externas",IF(E3=1," considerando enlace documentos proveedor para agregar nuevo registro",IF(F3=1," considerando enlace documentos proveedor para modificar registro",IF(G3=1," considerando enlace documentos proveedor para modificar registro",""))),IF(H3=1," y hacer clic en ",""),IF(H3=1,$H$2,""),IF(I3=1,", considerando la opcion exportar a excel",""),IF(J3=1,", finalizando con la consulta mediante el filtro ",IF(K3=1,", finalizando con la consulta mediante el filtro ",IF(L3=1,", finalizando con la consulta mediante el filtro ",""))),IF(J3=1,$J$2,IF(K3=1,$K$2,IF(L3=1,$L$2,""))),IF(J3=1," con el dato ",IF(K3=1," con el dato ",IF(L3=1," con el dato ",""))),IF(J3=1,M3,IF(K3=1,M3,IF(L3=1,M3,""))))</f>
@@ -5905,7 +6096,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Maestro, sub-modulo Empresas Externas, hacer clic en boton agregar, hacer clic en enlace documentos proveedor para agregar nuevo registro y hacer clic en Enlace Descripción (Modificar y/o Eliminar registro), hacer clic en boton exportar a excel, finalizando con la consulta mediante el filtro Nombre con el dato Empresa</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5937,7 +6128,7 @@
         <v>17</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="O4" s="12" t="str">
         <f t="shared" ref="O4:O14" si="0">CONCATENATE("Validar funcionalidad ",IF(B4=1,$B$2,IF(C4=1,$C$2,IF(D4=1,$D$2)))," del modulo Maestro, sub-moduloEmpresas Externas",IF(E4=1," considerando enlace documentos proveedor para agregar nuevo registro",IF(F4=1," considerando enlace documentos proveedor para modificar registro",IF(G4=1," considerando enlace documentos proveedor para modificar registro",""))),IF(H4=1," y hacer clic en ",""),IF(H4=1,$H$2,""),IF(I4=1,", considerando la opcion exportar a excel",""),IF(J4=1,", finalizando con la consulta mediante el filtro ",IF(K4=1,", finalizando con la consulta mediante el filtro ",IF(L4=1,", finalizando con la consulta mediante el filtro ",""))),IF(J4=1,$J$2,IF(K4=1,$K$2,IF(L4=1,$L$2,""))),IF(J4=1," con el dato ",IF(K4=1," con el dato ",IF(L4=1," con el dato ",""))),IF(J4=1,M4,IF(K4=1,M4,IF(L4=1,M4,""))))</f>
@@ -5948,7 +6139,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Maestro, sub-modulo Empresas Externas, hacer clic en boton agregar, hacer clic en enlace documentos proveedor para modificar registro y hacer clic en Enlace Descripción (Modificar y/o Eliminar registro), hacer clic en boton exportar a excel, finalizando con la consulta mediante el filtro Nombre corto con el dato EPR</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5978,7 +6169,7 @@
         <v>18</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="O5" s="12" t="str">
         <f t="shared" si="0"/>
@@ -5991,7 +6182,7 @@
 (Formulario Documentos Proveedor) con el dato PRENDA : Cedula</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6013,7 +6204,7 @@
       <c r="L6" s="9"/>
       <c r="M6" s="10"/>
       <c r="N6" s="7" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="O6" s="12" t="str">
         <f t="shared" si="0"/>
@@ -6024,7 +6215,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Maestro, sub-modulo Empresas Externas, hacer clic en boton agregar</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6055,7 +6246,7 @@
         <v>16</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="O7" s="12" t="str">
         <f t="shared" si="0"/>
@@ -6066,7 +6257,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Maestro, sub-modulo Empresas Externas, hacer clic en boton modificar, hacer clic en enlace documentos proveedor para agregar nuevo registro y hacer clic en Enlace Descripción (Modificar y/o Eliminar registro), hacer clic en boton exportar a excel, finalizando con la consulta mediante el filtro Nombre con el dato Empresa</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6097,7 +6288,7 @@
         <v>17</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="O8" s="12" t="str">
         <f t="shared" si="0"/>
@@ -6108,7 +6299,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Maestro, sub-modulo Empresas Externas, hacer clic en boton modificar, hacer clic en enlace documentos proveedor para modificar registro y hacer clic en Enlace Descripción (Modificar y/o Eliminar registro), hacer clic en boton exportar a excel, finalizando con la consulta mediante el filtro Nombre corto con el dato EPR</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6137,7 +6328,7 @@
         <v>18</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="O9" s="12" t="str">
         <f t="shared" si="0"/>
@@ -6150,7 +6341,7 @@
 (Formulario Documentos Proveedor) con el dato PRENDA : Cedula</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -6170,7 +6361,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="10"/>
       <c r="N10" s="7" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="O10" s="12" t="str">
         <f t="shared" si="0"/>
@@ -6181,7 +6372,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Maestro, sub-modulo Empresas Externas, hacer clic en boton modificar</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -6212,7 +6403,7 @@
         <v>16</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="O11" s="12" t="str">
         <f t="shared" si="0"/>
@@ -6223,7 +6414,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Maestro, sub-modulo Empresas Externas, hacer clic en boton eliminar, hacer clic en enlace documentos proveedor para agregar nuevo registro y hacer clic en Enlace Descripción (Modificar y/o Eliminar registro), hacer clic en boton exportar a excel, finalizando con la consulta mediante el filtro Nombre con el dato Empresa</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -6254,7 +6445,7 @@
         <v>17</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="O12" s="12" t="str">
         <f t="shared" si="0"/>
@@ -6265,7 +6456,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Maestro, sub-modulo Empresas Externas, hacer clic en boton eliminar, hacer clic en enlace documentos proveedor para modificar registro y hacer clic en Enlace Descripción (Modificar y/o Eliminar registro), hacer clic en boton exportar a excel, finalizando con la consulta mediante el filtro Nombre corto con el dato EPR</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -6294,7 +6485,7 @@
         <v>18</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="O13" s="12" t="str">
         <f t="shared" si="0"/>
@@ -6307,7 +6498,7 @@
 (Formulario Documentos Proveedor) con el dato PRENDA : Cedula</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -6327,7 +6518,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="10"/>
       <c r="N14" s="7" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="O14" s="12" t="str">
         <f t="shared" si="0"/>
@@ -6338,7 +6529,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Maestro, sub-modulo Empresas Externas, hacer clic en boton eliminar</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -6431,16 +6622,16 @@
       <c r="L20" s="9"/>
       <c r="M20" s="10"/>
       <c r="N20" s="7" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="O20" s="12" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="P20" s="30" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6933,1105 +7124,1008 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O50"/>
+  <dimension ref="A1:Q50"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="12" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A3" sqref="A3:A17"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="14" topLeftCell="O1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M1" sqref="M1:M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.85546875" style="3" customWidth="1"/>
     <col min="2" max="2" width="5" customWidth="1"/>
-    <col min="3" max="3" width="4.85546875" style="13" customWidth="1"/>
-    <col min="4" max="4" width="5.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" style="16" customWidth="1"/>
-    <col min="6" max="6" width="4.42578125" customWidth="1"/>
-    <col min="7" max="7" width="4.42578125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="4.85546875" style="11" customWidth="1"/>
-    <col min="9" max="9" width="4.140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="5" style="2" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="51.7109375" style="6" customWidth="1"/>
-    <col min="13" max="13" width="255.42578125" style="12" customWidth="1"/>
-    <col min="14" max="14" width="255.42578125" style="7" customWidth="1"/>
-    <col min="15" max="15" width="79" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="4.85546875" style="13" customWidth="1"/>
+    <col min="6" max="6" width="5.140625" style="3" customWidth="1"/>
+    <col min="7" max="11" width="4.42578125" customWidth="1"/>
+    <col min="12" max="13" width="4.42578125" style="3" customWidth="1"/>
+    <col min="14" max="14" width="51.7109375" style="6" customWidth="1"/>
+    <col min="15" max="15" width="255.42578125" style="12" customWidth="1"/>
+    <col min="16" max="16" width="255.42578125" style="7" customWidth="1"/>
+    <col min="17" max="17" width="79" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="42"/>
-      <c r="H1" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="37" t="s">
+    <row r="1" spans="1:17" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="42" t="s">
+        <v>285</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>286</v>
+      </c>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="49" t="s">
+        <v>292</v>
+      </c>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="42" t="s">
+        <v>299</v>
+      </c>
+      <c r="N1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="37" t="s">
+      <c r="O1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="O1" s="37" t="s">
+      <c r="P1" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" s="40" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
+    <row r="2" spans="1:17" s="14" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="43"/>
       <c r="B2" s="19" t="s">
-        <v>5</v>
+        <v>287</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="F2" s="37" t="s">
+        <v>291</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="H2" s="35" t="s">
+        <v>294</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>295</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="M2" s="43"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+    </row>
+    <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="5">
+        <v>1</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="7"/>
+    </row>
+    <row r="4" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="8">
+        <v>1</v>
+      </c>
+      <c r="M4" s="8"/>
+      <c r="N4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="7"/>
+    </row>
+    <row r="5" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>1</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="7"/>
+    </row>
+    <row r="6" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="8">
+        <v>1</v>
+      </c>
+      <c r="M6" s="8"/>
+      <c r="N6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-    </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="16">
-        <v>1</v>
-      </c>
-      <c r="F3" s="5">
-        <v>1</v>
-      </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="9">
-        <v>1</v>
-      </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="21">
-        <v>12</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="M3" s="12" t="str">
-        <f>CONCATENATE("Validar funcionalidad ",IF(B3=1,$B$2,IF(C3=1,$C$2,IF(D3=1,$D$2)))," del modulo Maestro, sub-modulo Feriados",IF(E3=1,", considerando la opcion exportar a excel",""),IF(F3=1,", hacer clic en enlace Días para modificar registro",IF(G3=1,", hacer clic en enlace Días para eliminar registro","")),IF(H3=1,", finalizando con la consulta mediante el filtro ",IF(I3=1,", finalizando con la consulta mediante el filtro ",IF(J3=1,", finalizando con la consulta mediante el filtro ",""))),IF(H3=1,$H$2,IF(I3=1,$I$2,IF(J3=1,$J$2,""))),IF(H3=1," con el dato ",IF(I3=1," con el dato ",IF(J3=1," con el dato ",""))),IF(H3=1,K3,IF(I3=1,K3,IF(J3=1,K3,""))))</f>
-        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Feriados, considerando la opcion exportar a excel, hacer clic en enlace Días para modificar registro, finalizando con la consulta mediante el filtro Días con el dato 12</v>
-      </c>
-      <c r="N3" s="12" t="str">
-        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Feriados",IF(B3=1,", hacer clic en boton agregar",IF(C3=1,", hacer clic en boton eliminar",IF(D3=1,", hacer clic en boton modificar"))),IF(E3=1,", hacer clic en boton exportar a excel",""),IF(F3=1,", hacer clic en enlace Días para modificar registro",IF(G3=1,", hacer clic en enlace Días para eliminar registro","")),IF(H3=1,", finalizando con la consulta mediante el filtro ",IF(I3=1,", finalizando con la consulta mediante el filtro ",IF(J3=1,", finalizando con la consulta mediante el filtro ",""))),IF(H3=1,$H$2,IF(I3=1,$I$2,IF(J3=1,$J$2,""))),IF(H3=1," con el dato ",IF(I3=1," con el dato ",IF(J3=1," con el dato ",""))),IF(H3=1,K3,IF(I3=1,K3,IF(J3=1,K3,""))))</f>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Feriados, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace Días para modificar registro, finalizando con la consulta mediante el filtro Días con el dato 12</v>
-      </c>
-      <c r="O3" s="7" t="s">
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="7"/>
+    </row>
+    <row r="7" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>1</v>
+      </c>
+      <c r="B7" s="5">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="26"/>
+    </row>
+    <row r="8" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="5">
+        <v>1</v>
+      </c>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="7"/>
+    </row>
+    <row r="9" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="8">
+        <v>1</v>
+      </c>
+      <c r="M9" s="8"/>
+      <c r="N9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="7"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="5">
+        <v>1</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P10" s="12"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="8">
+        <v>1</v>
+      </c>
+      <c r="M11" s="8"/>
+      <c r="N11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P11" s="12"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>1</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="16">
-        <v>1</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="8">
-        <v>1</v>
-      </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9">
-        <v>1</v>
-      </c>
-      <c r="J4" s="9"/>
-      <c r="K4" s="10">
-        <v>10</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="M4" s="12" t="str">
-        <f>CONCATENATE("Validar funcionalidad ",IF(B4=1,$B$2,IF(C4=1,$C$2,IF(D4=1,$D$2)))," del modulo Maestro, sub-modulo Feriados",IF(E4=1,", considerando la opcion exportar a excel",""),IF(F4=1,", hacer clic en enlace Días para modificar registro",IF(G4=1,", hacer clic en enlace Días para eliminar registro","")),IF(H4=1,", finalizando con la consulta mediante el filtro ",IF(I4=1,", finalizando con la consulta mediante el filtro ",IF(J4=1,", finalizando con la consulta mediante el filtro ",""))),IF(H4=1,$H$2,IF(I4=1,$I$2,IF(J4=1,$J$2,""))),IF(H4=1," con el dato ",IF(I4=1," con el dato ",IF(J4=1," con el dato ",""))),IF(H4=1,K4,IF(I4=1,K4,IF(J4=1,K4,""))))</f>
-        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Feriados, considerando la opcion exportar a excel, hacer clic en enlace Días para eliminar registro, finalizando con la consulta mediante el filtro Mes con el dato 10</v>
-      </c>
-      <c r="N4" s="12" t="str">
-        <f t="shared" ref="N4:N17" si="0">CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Feriados",IF(B4=1,", hacer clic en boton agregar",IF(C4=1,", hacer clic en boton eliminar",IF(D4=1,", hacer clic en boton modificar"))),IF(E4=1,", hacer clic en boton exportar a excel",""),IF(F4=1,", hacer clic en enlace Días para modificar registro",IF(G4=1,", hacer clic en enlace Días para eliminar registro","")),IF(H4=1,", finalizando con la consulta mediante el filtro ",IF(I4=1,", finalizando con la consulta mediante el filtro ",IF(J4=1,", finalizando con la consulta mediante el filtro ",""))),IF(H4=1,$H$2,IF(I4=1,$I$2,IF(J4=1,$J$2,""))),IF(H4=1," con el dato ",IF(I4=1," con el dato ",IF(J4=1," con el dato ",""))),IF(H4=1,K4,IF(I4=1,K4,IF(J4=1,K4,""))))</f>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Feriados, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace Días para eliminar registro, finalizando con la consulta mediante el filtro Mes con el dato 10</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <v>1</v>
-      </c>
-      <c r="B5" s="5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="5">
-        <v>1</v>
-      </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9">
-        <v>1</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="M5" s="12" t="str">
-        <f t="shared" ref="M5:M17" si="1">CONCATENATE("Validar funcionalidad ",IF(B5=1,$B$2,IF(C5=1,$C$2,IF(D5=1,$D$2)))," del modulo Maestro, sub-modulo Feriados",IF(E5=1,", considerando la opcion exportar a excel",""),IF(F5=1,", hacer clic en enlace Días para modificar registro",IF(G5=1,", hacer clic en enlace Días para eliminar registro","")),IF(H5=1,", finalizando con la consulta mediante el filtro ",IF(I5=1,", finalizando con la consulta mediante el filtro ",IF(J5=1,", finalizando con la consulta mediante el filtro ",""))),IF(H5=1,$H$2,IF(I5=1,$I$2,IF(J5=1,$J$2,""))),IF(H5=1," con el dato ",IF(I5=1," con el dato ",IF(J5=1," con el dato ",""))),IF(H5=1,K5,IF(I5=1,K5,IF(J5=1,K5,""))))</f>
-        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Feriados, hacer clic en enlace Días para modificar registro, finalizando con la consulta mediante el filtro Motivo con el dato Día feriado</v>
-      </c>
-      <c r="N5" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Feriados, hacer clic en boton agregar, hacer clic en enlace Días para modificar registro, finalizando con la consulta mediante el filtro Motivo con el dato Día feriado</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>1</v>
-      </c>
-      <c r="B6" s="5">
-        <v>1</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="16">
-        <v>1</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="8">
-        <v>1</v>
-      </c>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="M6" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Feriados, considerando la opcion exportar a excel, hacer clic en enlace Días para eliminar registro</v>
-      </c>
-      <c r="N6" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Feriados, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace Días para eliminar registro</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <v>1</v>
-      </c>
-      <c r="B7" s="5">
-        <v>1</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="M7" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Feriados</v>
-      </c>
-      <c r="N7" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Feriados, hacer clic en boton agregar</v>
-      </c>
-      <c r="O7" s="26" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <v>1</v>
-      </c>
-      <c r="C8" s="5">
-        <v>1</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="16">
-        <v>1</v>
-      </c>
-      <c r="F8" s="5">
-        <v>1</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9">
-        <v>1</v>
-      </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="21">
-        <v>30</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M8" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Feriados, considerando la opcion exportar a excel, hacer clic en enlace Días para modificar registro, finalizando con la consulta mediante el filtro Días con el dato 30</v>
-      </c>
-      <c r="N8" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Feriados, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace Días para modificar registro, finalizando con la consulta mediante el filtro Días con el dato 30</v>
-      </c>
-      <c r="O8" s="7" t="s">
+      <c r="P12" s="12"/>
+      <c r="Q12" s="26"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>1</v>
+      </c>
+      <c r="F13" s="8">
+        <v>1</v>
+      </c>
+      <c r="G13" s="5">
+        <v>1</v>
+      </c>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
-        <v>1</v>
-      </c>
-      <c r="C9" s="5">
-        <v>1</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="16">
-        <v>1</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="8">
-        <v>1</v>
-      </c>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9">
-        <v>1</v>
-      </c>
-      <c r="J9" s="9"/>
-      <c r="K9" s="10">
-        <v>5</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M9" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Feriados, considerando la opcion exportar a excel, hacer clic en enlace Días para eliminar registro, finalizando con la consulta mediante el filtro Mes con el dato 5</v>
-      </c>
-      <c r="N9" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Feriados, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace Días para eliminar registro, finalizando con la consulta mediante el filtro Mes con el dato 5</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <v>1</v>
-      </c>
-      <c r="C10" s="5">
-        <v>1</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="F10" s="5">
-        <v>1</v>
-      </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9">
-        <v>1</v>
-      </c>
-      <c r="K10" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="M10" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Feriados, hacer clic en enlace Días para modificar registro, finalizando con la consulta mediante el filtro Motivo con el dato Feriado</v>
-      </c>
-      <c r="N10" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Feriados, hacer clic en boton eliminar, hacer clic en enlace Días para modificar registro, finalizando con la consulta mediante el filtro Motivo con el dato Feriado</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
-        <v>1</v>
-      </c>
-      <c r="C11" s="5">
-        <v>1</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="16">
-        <v>1</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="8">
-        <v>1</v>
-      </c>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="M11" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Feriados, considerando la opcion exportar a excel, hacer clic en enlace Días para eliminar registro</v>
-      </c>
-      <c r="N11" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Feriados, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace Días para eliminar registro</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
-        <v>1</v>
-      </c>
-      <c r="C12" s="5">
-        <v>1</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="M12" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Feriados</v>
-      </c>
-      <c r="N12" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Feriados, hacer clic en boton eliminar</v>
-      </c>
-      <c r="O12" s="26" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
-        <v>1</v>
-      </c>
-      <c r="D13" s="5">
-        <v>1</v>
-      </c>
-      <c r="E13" s="16">
-        <v>1</v>
-      </c>
-      <c r="F13" s="5">
-        <v>1</v>
-      </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="9">
-        <v>1</v>
-      </c>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="21">
-        <v>2</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="M13" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Feriados, considerando la opcion exportar a excel, hacer clic en enlace Días para modificar registro, finalizando con la consulta mediante el filtro Días con el dato 2</v>
-      </c>
-      <c r="N13" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Feriados, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace Días para modificar registro, finalizando con la consulta mediante el filtro Días con el dato 2</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P13" s="12"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>1</v>
       </c>
-      <c r="D14" s="5">
-        <v>1</v>
-      </c>
-      <c r="E14" s="16">
-        <v>1</v>
-      </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="8">
-        <v>1</v>
-      </c>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9">
-        <v>1</v>
-      </c>
-      <c r="J14" s="9"/>
-      <c r="K14" s="10">
-        <v>3</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="M14" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Feriados, considerando la opcion exportar a excel, hacer clic en enlace Días para eliminar registro, finalizando con la consulta mediante el filtro Mes con el dato 3</v>
-      </c>
-      <c r="N14" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Feriados, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace Días para eliminar registro, finalizando con la consulta mediante el filtro Mes con el dato 3</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F14" s="8">
+        <v>1</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="8">
+        <v>1</v>
+      </c>
+      <c r="M14" s="8"/>
+      <c r="N14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="P14" s="12"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>1</v>
       </c>
-      <c r="D15" s="5">
-        <v>1</v>
-      </c>
-      <c r="F15" s="5">
-        <v>1</v>
-      </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9">
-        <v>1</v>
-      </c>
-      <c r="K15" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="M15" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Feriados, hacer clic en enlace Días para modificar registro, finalizando con la consulta mediante el filtro Motivo con el dato Celebración</v>
-      </c>
-      <c r="N15" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Feriados, hacer clic en boton modificar, hacer clic en enlace Días para modificar registro, finalizando con la consulta mediante el filtro Motivo con el dato Celebración</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F15" s="8">
+        <v>1</v>
+      </c>
+      <c r="G15" s="5">
+        <v>1</v>
+      </c>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P15" s="12"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>1</v>
       </c>
-      <c r="D16" s="5">
-        <v>1</v>
-      </c>
-      <c r="E16" s="16">
-        <v>1</v>
-      </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="8">
-        <v>1</v>
-      </c>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="M16" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Feriados, considerando la opcion exportar a excel, hacer clic en enlace Días para eliminar registro</v>
-      </c>
-      <c r="N16" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Feriados, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace Días para eliminar registro</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F16" s="8">
+        <v>1</v>
+      </c>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="8">
+        <v>1</v>
+      </c>
+      <c r="M16" s="8"/>
+      <c r="N16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P16" s="12"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>1</v>
       </c>
-      <c r="D17" s="5">
-        <v>1</v>
-      </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="M17" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Feriados</v>
-      </c>
-      <c r="N17" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Feriados, hacer clic en boton modificar</v>
-      </c>
-      <c r="O17" s="26" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F17" s="8">
+        <v>1</v>
+      </c>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="26"/>
+    </row>
+    <row r="18" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="C18" s="5"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="12"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
       <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-    </row>
-    <row r="19" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O18" s="12"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+    </row>
+    <row r="19" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="12"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
       <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-    </row>
-    <row r="20" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O19" s="12"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+    </row>
+    <row r="20" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="12"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
       <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-    </row>
-    <row r="21" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O20" s="12"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+    </row>
+    <row r="21" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="12"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
       <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-    </row>
-    <row r="22" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O21" s="12"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+    </row>
+    <row r="22" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="12"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
       <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-    </row>
-    <row r="23" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O22" s="12"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+    </row>
+    <row r="23" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="12"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
       <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-    </row>
-    <row r="24" spans="1:15" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="O23" s="12"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+    </row>
+    <row r="24" spans="1:17" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="M24" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="N24" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F24" s="8"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="O24" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="P24" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="12"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
       <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-    </row>
-    <row r="26" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O25" s="12"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+    </row>
+    <row r="26" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="12"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
       <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O26" s="12"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="C27" s="5"/>
-      <c r="D27" s="8"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="7"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="7"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="C28" s="5"/>
-      <c r="D28" s="8"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="7"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="7"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="C29" s="5"/>
-      <c r="D29" s="8"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="7"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="7"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="C30" s="5"/>
-      <c r="D30" s="8"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="7"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="7"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="C31" s="5"/>
-      <c r="D31" s="8"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="7"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="7"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="C32" s="5"/>
-      <c r="D32" s="8"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="7"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="7"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="C33" s="5"/>
-      <c r="D33" s="8"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="7"/>
-    </row>
-    <row r="34" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="7"/>
+    </row>
+    <row r="34" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="C34" s="5"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="12"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
       <c r="N34" s="7"/>
-      <c r="O34" s="7"/>
-    </row>
-    <row r="35" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O34" s="12"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
+    </row>
+    <row r="35" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="C35" s="5"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="12"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
       <c r="N35" s="7"/>
-      <c r="O35" s="7"/>
-    </row>
-    <row r="36" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O35" s="12"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
+    </row>
+    <row r="36" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="C36" s="5"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="7"/>
-      <c r="M36" s="12"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
       <c r="N36" s="7"/>
-      <c r="O36" s="7"/>
-    </row>
-    <row r="37" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O36" s="12"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7"/>
+    </row>
+    <row r="37" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="C37" s="5"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="7"/>
-      <c r="M37" s="12"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
       <c r="N37" s="7"/>
-      <c r="O37" s="7"/>
-    </row>
-    <row r="38" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O37" s="12"/>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="7"/>
+    </row>
+    <row r="38" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="C38" s="5"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="7"/>
-      <c r="M38" s="12"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
       <c r="N38" s="7"/>
-      <c r="O38" s="7"/>
-    </row>
-    <row r="39" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O38" s="12"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="7"/>
+    </row>
+    <row r="39" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="C39" s="5"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="7"/>
-      <c r="M39" s="12"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
       <c r="N39" s="7"/>
-      <c r="O39" s="7"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O39" s="12"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="7"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="C40" s="5"/>
-      <c r="D40" s="8"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="7"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="7"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="C41" s="5"/>
-      <c r="D41" s="8"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="7"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="7"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="C42" s="5"/>
-      <c r="D42" s="8"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="9"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="7"/>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8"/>
+      <c r="N42" s="7"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="C43" s="5"/>
-      <c r="D43" s="8"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="9"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="7"/>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="7"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="C44" s="5"/>
-      <c r="D44" s="8"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="9"/>
-      <c r="K44" s="10"/>
-      <c r="L44" s="7"/>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="7"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="C45" s="5"/>
-      <c r="D45" s="8"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="9"/>
-      <c r="K45" s="10"/>
-      <c r="L45" s="7"/>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
+      <c r="N45" s="7"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="C46" s="5"/>
-      <c r="D46" s="8"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="9"/>
-      <c r="K46" s="10"/>
-      <c r="L46" s="7"/>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="7"/>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="C47" s="5"/>
-      <c r="D47" s="8"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
-      <c r="J47" s="9"/>
-      <c r="K47" s="10"/>
-      <c r="L47" s="7"/>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="8"/>
+      <c r="N47" s="7"/>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="C48" s="5"/>
-      <c r="D48" s="8"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9"/>
-      <c r="J48" s="9"/>
-      <c r="K48" s="10"/>
-      <c r="L48" s="7"/>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="8"/>
+      <c r="N48" s="7"/>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="C49" s="5"/>
-      <c r="D49" s="8"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
-      <c r="J49" s="9"/>
-      <c r="K49" s="10"/>
-      <c r="L49" s="7"/>
-    </row>
-    <row r="50" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8"/>
+      <c r="N49" s="7"/>
+    </row>
+    <row r="50" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="C50" s="5"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
-      <c r="J50" s="9"/>
-      <c r="K50" s="10"/>
-      <c r="L50" s="7"/>
-      <c r="M50" s="12"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="8"/>
       <c r="N50" s="7"/>
-      <c r="O50" s="7"/>
+      <c r="O50" s="12"/>
+      <c r="P50" s="7"/>
+      <c r="Q50" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="P1:P2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="N1:N2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G1:L1"/>
     <mergeCell ref="M1:M2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8055,135 +8149,135 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="37" t="s">
+      <c r="C1" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="40" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="14" customFormat="1" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -8245,7 +8339,7 @@
       <c r="B22" s="12"/>
       <c r="C22" s="30"/>
       <c r="D22" s="7" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8403,72 +8497,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="50" t="s">
-        <v>206</v>
-      </c>
-      <c r="B1" s="41" t="s">
-        <v>232</v>
-      </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="44" t="s">
+      <c r="A1" s="55" t="s">
+        <v>183</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>209</v>
+      </c>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="37" t="s">
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="37" t="s">
+      <c r="L1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="37" t="s">
+      <c r="M1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="O1" s="37" t="s">
+      <c r="N1" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="40" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="14" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
+      <c r="A2" s="43"/>
       <c r="B2" s="19" t="s">
-        <v>207</v>
+        <v>184</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>208</v>
+        <v>185</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>209</v>
+        <v>186</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>210</v>
+        <v>187</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>211</v>
+        <v>188</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>214</v>
+        <v>191</v>
       </c>
       <c r="J2" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
+        <v>192</v>
+      </c>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -8491,7 +8585,7 @@
       <c r="J3" s="8"/>
       <c r="K3" s="16"/>
       <c r="L3" s="7" t="s">
-        <v>216</v>
+        <v>193</v>
       </c>
       <c r="M3" s="12" t="str">
         <f>CONCATENATE("Validar funcionalidad ",IF(B3=1,$B$2,IF(C3=1,$C$2,IF(D3=1,$D$2,IF(E3=1,$E$2))))," del Menú Favoritos, sub-modulo Pagarés, considerando la opción ",IF(H3=1,$H$2,IF(I3=1,$I$2,IF(J3=1,$J$2,""))), " y ",IF(F3=1,$F$2,$G$2),IF(K3=1,". Finalizando con exportar a excel",""))</f>
@@ -8502,7 +8596,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Menú favoritos, sub-modulo Pagarés, ingresar a Carta guía Pagare, realizando la(s) accion(es) Exportar carta guía Agregar Pagares</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>233</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8526,7 +8620,7 @@
       <c r="J4" s="8"/>
       <c r="K4" s="16"/>
       <c r="L4" s="7" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="M4" s="12" t="str">
         <f t="shared" ref="M4:M18" si="0">CONCATENATE("Validar funcionalidad ",IF(B4=1,$B$2,IF(C4=1,$C$2,IF(D4=1,$D$2,IF(E4=1,$E$2))))," del Menú Favoritos, sub-modulo Pagarés, considerando la opción ",IF(H4=1,$H$2,IF(I4=1,$I$2,IF(J4=1,$J$2,""))), " y ",IF(F4=1,$F$2,$G$2),IF(K4=1,". Finalizando con exportar a excel",""))</f>
@@ -8537,7 +8631,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Menú favoritos, sub-modulo Pagarés, ingresar a Carta guía Pagare, realizando la(s) accion(es) Exportar carta guía Eliminar Pagare</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>234</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8561,7 +8655,7 @@
       </c>
       <c r="K5" s="16"/>
       <c r="L5" s="7" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="M5" s="12" t="str">
         <f t="shared" si="0"/>
@@ -8572,7 +8666,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Menú favoritos, sub-modulo Pagarés, ingresar a Carta guía Pagare, realizando la(s) accion(es) Exportar carta guía Aprobar carta guía</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>235</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8596,7 +8690,7 @@
         <v>1</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>219</v>
+        <v>196</v>
       </c>
       <c r="M6" s="12" t="str">
         <f t="shared" si="0"/>
@@ -8607,7 +8701,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Menú favoritos, sub-modulo Pagarés, ingresar a Carta guía Pagare, realizando la(s) accion(es) Eliminar carta guía Exportar a Excel</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>236</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8630,7 +8724,7 @@
       <c r="J7" s="8"/>
       <c r="K7" s="16"/>
       <c r="L7" s="7" t="s">
-        <v>220</v>
+        <v>197</v>
       </c>
       <c r="M7" s="12" t="str">
         <f t="shared" si="0"/>
@@ -8641,7 +8735,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Menú favoritos, sub-modulo Pagarés, ingresar a Carta Guía Traslado, realizando la(s) accion(es) Exportar carta guía Agregar Pagares</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>233</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8664,7 +8758,7 @@
       <c r="J8" s="8"/>
       <c r="K8" s="16"/>
       <c r="L8" s="7" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c r="M8" s="12" t="str">
         <f t="shared" si="0"/>
@@ -8675,7 +8769,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Menú favoritos, sub-modulo Pagarés, ingresar a Carta Guía Traslado, realizando la(s) accion(es) Exportar carta guía Eliminar Pagare</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>234</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8698,7 +8792,7 @@
       </c>
       <c r="K9" s="16"/>
       <c r="L9" s="7" t="s">
-        <v>222</v>
+        <v>199</v>
       </c>
       <c r="M9" s="12" t="str">
         <f t="shared" si="0"/>
@@ -8709,7 +8803,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Menú favoritos, sub-modulo Pagarés, ingresar a Carta Guía Traslado, realizando la(s) accion(es) Exportar carta guía Aprobar carta guía</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>235</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -8732,7 +8826,7 @@
         <v>1</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="M10" s="12" t="str">
         <f t="shared" si="0"/>
@@ -8743,7 +8837,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Menú favoritos, sub-modulo Pagarés, ingresar a Carta Guía Traslado, realizando la(s) accion(es) Eliminar carta guía Exportar a Excel</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>236</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -8764,7 +8858,7 @@
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="L11" s="7" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="M11" s="12" t="str">
         <f t="shared" si="0"/>
@@ -8775,7 +8869,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Menú favoritos, sub-modulo Pagarés, ingresar a Importar Carta Guía, realizando la(s) accion(es) Exportar carta guía Agregar Pagares</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>233</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -8796,7 +8890,7 @@
       </c>
       <c r="J12" s="8"/>
       <c r="L12" s="7" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="M12" s="12" t="str">
         <f t="shared" si="0"/>
@@ -8807,7 +8901,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Menú favoritos, sub-modulo Pagarés, ingresar a Importar Carta Guía, realizando la(s) accion(es) Exportar carta guía Eliminar Pagare</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>234</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -8828,7 +8922,7 @@
         <v>1</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="M13" s="12" t="str">
         <f t="shared" si="0"/>
@@ -8839,7 +8933,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Menú favoritos, sub-modulo Pagarés, ingresar a Importar Carta Guía, realizando la(s) accion(es) Exportar carta guía Aprobar carta guía</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>235</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -8861,7 +8955,7 @@
         <v>1</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c r="M14" s="12" t="str">
         <f t="shared" si="0"/>
@@ -8872,7 +8966,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Menú favoritos, sub-modulo Pagarés, ingresar a Importar Carta Guía, realizando la(s) accion(es) Eliminar carta guía Exportar a Excel</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>236</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -8892,7 +8986,7 @@
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="L15" s="7" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="M15" s="12" t="str">
         <f t="shared" si="0"/>
@@ -8903,7 +8997,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Menú favoritos, sub-modulo Pagarés, ingresar a Importar Recompras, realizando la(s) accion(es) Exportar carta guía Agregar Pagares</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>233</v>
+        <v>210</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -8923,7 +9017,7 @@
       </c>
       <c r="J16" s="8"/>
       <c r="L16" s="7" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="M16" s="12" t="str">
         <f t="shared" si="0"/>
@@ -8934,7 +9028,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Menú favoritos, sub-modulo Pagarés, ingresar a Importar Recompras, realizando la(s) accion(es) Exportar carta guía Eliminar Pagare</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>234</v>
+        <v>211</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -8954,7 +9048,7 @@
         <v>1</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="M17" s="12" t="str">
         <f t="shared" si="0"/>
@@ -8965,7 +9059,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Menú favoritos, sub-modulo Pagarés, ingresar a Importar Recompras, realizando la(s) accion(es) Exportar carta guía Aprobar carta guía</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>235</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8987,7 +9081,7 @@
         <v>1</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>231</v>
+        <v>208</v>
       </c>
       <c r="M18" s="12" t="str">
         <f t="shared" si="0"/>
@@ -8998,7 +9092,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Menú favoritos, sub-modulo Pagarés, ingresar a Importar Recompras, realizando la(s) accion(es) Eliminar carta guía Exportar a Excel</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>236</v>
+        <v>213</v>
       </c>
     </row>
     <row r="19" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -9455,65 +9549,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="37" t="s">
+      <c r="C1" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="40" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">

--- a/Casos Cartera/MenuFavorios.xlsx
+++ b/Casos Cartera/MenuFavorios.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="299">
   <si>
     <t>Nombre CP</t>
   </si>
@@ -98,51 +98,6 @@
     <t>Registro eliminado exitosamente</t>
   </si>
   <si>
-    <t>TC_Cartera_Feriados_AgregarConsulta</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Feriados_AgregarExportarExcel</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Feriados_Agregar</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Feriados_EliminarConsulta</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Feriados_EliminarExportarExcel</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Feriados_Eliminar</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Feriados_ModificarConsulta</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Feriados_ModificarExportarExcel</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Feriados_Modificar</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Feriados_AgregarEnlaceDias</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Feriados_AgregarEnlaceDiasModificar</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Feriados_EliminarEnlaceDias</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Feriados_EliminarDiasModificar</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Feriados_ModificarEnlaceDiasModificar</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Feriados_ModificarEnlaceDias</t>
-  </si>
-  <si>
     <t>TC_Cartera_Empresa_Agregar</t>
   </si>
   <si>
@@ -202,9 +157,6 @@
     <t>TC_Cartera_Empresa_ConsolidadoError</t>
   </si>
   <si>
-    <t>TC_Cartera_Feriados_ConsolidadoError</t>
-  </si>
-  <si>
     <t>TC_Cartera_Recaudacion_ConsolidadoError</t>
   </si>
   <si>
@@ -260,12 +212,6 @@
   </si>
   <si>
     <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Maestro - sub modulo Empresas externas, hacer clic en boton Agregar, ingresar datos de un registro existente y hacer clic en boton guardar, posterior a ello, intentar realizar registro sin llenar campos obligatorios. Finalizando con la modificación y eliminación de registro en uso.</t>
-  </si>
-  <si>
-    <t>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Feriados, ingresando datos de un registro existente, luego de ello, intentar crear registro sin llenar campo obligatorios. Finanlizando, con la modificación y eliminación de registro que está siendo usado en otro modulo.</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Maestro - sub modulo Feriados, hacer clic en boton Agregar, ingresar datos de un registro existente y hacer clic en boton guardar, posterior a ello, intentar realizar registro sin llenar campos obligatorios. Finalizando con la modificación y eliminación de registro en uso.</t>
   </si>
   <si>
     <t>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Recaudacion, ingresando datos de un registro existente, luego de ello, intentar crear registro sin llenar campo obligatorios. Finanlizando, con la modificación y eliminación de registro que está siendo usado en otro modulo.</t>
@@ -939,6 +885,58 @@
   </si>
   <si>
     <t>Exportar Excel</t>
+  </si>
+  <si>
+    <t>Volver a
+depositado</t>
+  </si>
+  <si>
+    <t>Comprobante cambio cheque</t>
+  </si>
+  <si>
+    <t>TC_Cartera_Cheques_Depositar</t>
+  </si>
+  <si>
+    <t>TC_Cartera_Cheques_CambiarUbicacion</t>
+  </si>
+  <si>
+    <t>TC_Cartera_Cheques_CambioCheque</t>
+  </si>
+  <si>
+    <t>TC_Cartera_Cheques_Prorroga</t>
+  </si>
+  <si>
+    <t>TC_Cartera_Cheques_VolverDepositado</t>
+  </si>
+  <si>
+    <t>TC_Cartera_Cheques_ProtestoCambioCheque</t>
+  </si>
+  <si>
+    <t>TC_Cartera_Cheques_ProtesttoDepositado</t>
+  </si>
+  <si>
+    <t>TC_Cartera_Cheques_Remplazado</t>
+  </si>
+  <si>
+    <t>TC_Cartera_Cheques_Cobrar</t>
+  </si>
+  <si>
+    <t>TC_Cartera_Cheques_Protesto</t>
+  </si>
+  <si>
+    <t>Cheque procesado de manera exitosa</t>
+  </si>
+  <si>
+    <t>TC_Cartera_Cheques_ConsolidadoError</t>
+  </si>
+  <si>
+    <t>Validar cambio de estado de cheque</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú de Favoritos, sub-modulo Cheques, seleccionar cheque en estado cobrado y realizar la acción cambio de ubicación, luego seleccionar cheque en estado protesto y realizar la depositar, posteriormente, seleccionar cheque en estado en cartera y realizar la acción cobrar</t>
+  </si>
+  <si>
+    <t>Sistema emite mensaje correspondiente a cada validación</t>
   </si>
 </sst>
 </file>
@@ -1077,7 +1075,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1225,6 +1223,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1557,20 +1561,20 @@
   <sheetData>
     <row r="1" spans="1:16" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="42" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="B1" s="44" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="45"/>
       <c r="D1" s="46" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="E1" s="46"/>
       <c r="F1" s="46"/>
       <c r="G1" s="45"/>
       <c r="H1" s="47" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="I1" s="46"/>
       <c r="J1" s="46"/>
@@ -1592,37 +1596,37 @@
     <row r="2" spans="1:16" s="14" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="43"/>
       <c r="B2" s="14" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="F2" s="34" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="G2" s="36" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="H2" s="34" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="L2" s="31" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="M2" s="41"/>
       <c r="N2" s="41"/>
@@ -1651,7 +1655,7 @@
       <c r="K3" s="5"/>
       <c r="L3" s="8"/>
       <c r="M3" s="7" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="N3" s="12" t="str">
         <f>CONCATENATE("Validar funcionalidad ",IF(B3=1,$B$2,$C$2)," del modulo Menú Favoritos, sub-modulo Créditos, seleccionando tipo de crédito ",IF(D3=1,$D$2,IF(E3=1,$E$2,IF(F3=1,$F$2,IF(G3=1,$G$2,"")))),", con estado pago ",IF(H3=1,$H$2,IF(I3=1,$I$2,IF(J3=1,$J$2,IF(K3=1,$K$2,IF(L3=1,$L$2,""))))))</f>
@@ -1662,7 +1666,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú Favoritos - sub modulo Créditos, filtrar por tipo crédito Inteligente y estado de pago Al día, hacer clic en boton Información de contacto para ingresar seguimiento</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1687,7 +1691,7 @@
       <c r="K4" s="5"/>
       <c r="L4" s="8"/>
       <c r="M4" s="7" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="N4" s="12" t="str">
         <f t="shared" ref="N4:N15" si="0">CONCATENATE("Validar funcionalidad ",IF(B4=1,$B$2,$C$2)," del modulo Menú Favoritos, sub-modulo Créditos, seleccionando tipo de crédito ",IF(D4=1,$D$2,IF(E4=1,$E$2,IF(F4=1,$F$2,IF(G4=1,$G$2,"")))),", con estado pago ",IF(H4=1,$H$2,IF(I4=1,$I$2,IF(J4=1,$J$2,IF(K4=1,$K$2,IF(L4=1,$L$2,""))))))</f>
@@ -1698,7 +1702,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú Favoritos - sub modulo Créditos, filtrar por tipo crédito Convencional y estado de pago Moroso, hacer clic en boton Información de contacto para ingresar seguimiento</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1723,7 +1727,7 @@
       <c r="K5" s="5"/>
       <c r="L5" s="8"/>
       <c r="M5" s="7" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="N5" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1734,7 +1738,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú Favoritos - sub modulo Créditos, filtrar por tipo crédito Leasing y estado de pago Vencido, hacer clic en boton Información de contacto para ingresar seguimiento</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1759,7 +1763,7 @@
       </c>
       <c r="L6" s="8"/>
       <c r="M6" s="7" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="N6" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1770,7 +1774,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú Favoritos - sub modulo Créditos, filtrar por tipo crédito Leasing Inteligente y estado de pago Judicial, hacer clic en boton Información de contacto para ingresar seguimiento</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1795,7 +1799,7 @@
         <v>1</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="N7" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1806,7 +1810,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú Favoritos - sub modulo Créditos, filtrar por tipo crédito Inteligente y estado de pago Pre Judicial, hacer clic en boton Información de contacto para ingresar seguimiento</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1831,7 +1835,7 @@
       <c r="K8" s="5"/>
       <c r="L8" s="8"/>
       <c r="M8" s="7" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="N8" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1842,7 +1846,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú Favoritos - sub modulo Créditos, filtrar por tipo crédito Inteligente y estado de pago Al día, hacer clic en boton editar crédito para modificar datos del crédito seleccionado</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1867,7 +1871,7 @@
       <c r="K9" s="5"/>
       <c r="L9" s="8"/>
       <c r="M9" s="7" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="N9" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1878,7 +1882,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú Favoritos - sub modulo Créditos, filtrar por tipo crédito Inteligente y estado de pago Moroso, hacer clic en boton editar crédito para modificar datos del crédito seleccionado</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="27" customFormat="1" x14ac:dyDescent="0.25">
@@ -1903,7 +1907,7 @@
       <c r="K10" s="25"/>
       <c r="L10" s="24"/>
       <c r="M10" s="7" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="N10" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1914,7 +1918,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú Favoritos - sub modulo Créditos, filtrar por tipo crédito Convencional y estado de pago Vencido, hacer clic en boton editar crédito para modificar datos del crédito seleccionado</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -1938,7 +1942,7 @@
       </c>
       <c r="L11" s="8"/>
       <c r="M11" s="7" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="N11" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1949,7 +1953,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú Favoritos - sub modulo Créditos, filtrar por tipo crédito Convencional y estado de pago Judicial, hacer clic en boton editar crédito para modificar datos del crédito seleccionado</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -1974,7 +1978,7 @@
         <v>1</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="N12" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1985,7 +1989,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú Favoritos - sub modulo Créditos, filtrar por tipo crédito Leasing y estado de pago Pre Judicial, hacer clic en boton editar crédito para modificar datos del crédito seleccionado</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -2009,7 +2013,7 @@
       <c r="K13" s="5"/>
       <c r="L13" s="8"/>
       <c r="M13" s="7" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="N13" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2020,7 +2024,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú Favoritos - sub modulo Créditos, filtrar por tipo crédito Leasing y estado de pago Al día, hacer clic en boton editar crédito para modificar datos del crédito seleccionado</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -2044,7 +2048,7 @@
       <c r="K14" s="5"/>
       <c r="L14" s="8"/>
       <c r="M14" s="7" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="N14" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2055,7 +2059,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú Favoritos - sub modulo Créditos, filtrar por tipo crédito Leasing Inteligente y estado de pago Moroso, hacer clic en boton editar crédito para modificar datos del crédito seleccionado</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -2079,7 +2083,7 @@
       <c r="K15" s="5"/>
       <c r="L15" s="8"/>
       <c r="M15" s="7" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="N15" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2090,7 +2094,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú Favoritos - sub modulo Créditos, filtrar por tipo crédito Leasing Inteligente y estado de pago Vencido, hacer clic en boton editar crédito para modificar datos del crédito seleccionado</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -2170,16 +2174,16 @@
       <c r="K20" s="5"/>
       <c r="L20" s="8"/>
       <c r="M20" s="7" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="N20" s="12" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="O20" s="30" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2452,16 +2456,16 @@
       <c r="K37" s="5"/>
       <c r="L37" s="8"/>
       <c r="M37" s="7" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="N37" s="12" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="O37" s="30" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2676,7 +2680,7 @@
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="11" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <pane xSplit="11" topLeftCell="M1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="A3" sqref="A3:A17"/>
     </sheetView>
   </sheetViews>
@@ -2699,7 +2703,7 @@
   <sheetData>
     <row r="1" spans="1:14" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="55" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="B1" s="44" t="s">
         <v>4</v>
@@ -2710,7 +2714,7 @@
         <v>8</v>
       </c>
       <c r="F1" s="49" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="G1" s="45"/>
       <c r="H1" s="50" t="s">
@@ -2750,10 +2754,10 @@
         <v>6</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="I2" s="22" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="J2" s="17" t="s">
         <v>10</v>
@@ -2787,7 +2791,7 @@
         <v>12</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="L3" s="12" t="str">
         <f>CONCATENATE("Validar funcionalidad ",IF(B3=1,$B$2,IF(C3=1,$C$2,IF(D3=1,$D$2)))," del modulo Maestro, sub-modulo Recaudacion",IF(E3=1,", considerando la opcion exportar a excel",""),IF(F3=1,", hacer clic en enlace concepto para modificar registro",IF(G3=1,", hacer clic en enlace concepto para eliminar registro","")),IF(H3=1,", finalizando con la consulta mediante el filtro ",""),IF(H3=1,$H$2,""),IF(H3=1," con el dato ",""),IF(H3=1,J3,""))</f>
@@ -2825,7 +2829,7 @@
         <v>10</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="L4" s="12" t="str">
         <f t="shared" ref="L4:L17" si="0">CONCATENATE("Validar funcionalidad ",IF(B4=1,$B$2,IF(C4=1,$C$2,IF(D4=1,$D$2)))," del modulo Maestro, sub-modulo Recaudacion",IF(E4=1,", considerando la opcion exportar a excel",""),IF(F4=1,", hacer clic en enlace concepto para modificar registro",IF(G4=1,", hacer clic en enlace concepto para eliminar registro","")),IF(H4=1,", finalizando con la consulta mediante el filtro ",""),IF(H4=1,$H$2,""),IF(H4=1," con el dato ",""),IF(H4=1,J4,""))</f>
@@ -2857,7 +2861,7 @@
       <c r="I5" s="9"/>
       <c r="J5" s="10"/>
       <c r="K5" s="7" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="L5" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2891,7 +2895,7 @@
       <c r="I6" s="9"/>
       <c r="J6" s="10"/>
       <c r="K6" s="7" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="L6" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2921,7 +2925,7 @@
       <c r="I7" s="9"/>
       <c r="J7" s="10"/>
       <c r="K7" s="7" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="L7" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2958,7 +2962,7 @@
         <v>30</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="L8" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2995,7 +2999,7 @@
         <v>5</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="L9" s="12" t="str">
         <f t="shared" si="0"/>
@@ -3025,7 +3029,7 @@
       <c r="I10" s="9"/>
       <c r="J10" s="10"/>
       <c r="K10" s="7" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="L10" s="12" t="str">
         <f t="shared" si="0"/>
@@ -3058,7 +3062,7 @@
       <c r="I11" s="9"/>
       <c r="J11" s="10"/>
       <c r="K11" s="7" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="L11" s="12" t="str">
         <f t="shared" si="0"/>
@@ -3086,7 +3090,7 @@
       <c r="I12" s="9"/>
       <c r="J12" s="10"/>
       <c r="K12" s="7" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="L12" s="12" t="str">
         <f t="shared" si="0"/>
@@ -3122,7 +3126,7 @@
         <v>2</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="L13" s="12" t="str">
         <f t="shared" si="0"/>
@@ -3133,7 +3137,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace concepto para modificar registro, finalizando con la consulta mediante el filtro Concepto con el dato 2</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -3158,7 +3162,7 @@
         <v>3</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="L14" s="12" t="str">
         <f t="shared" si="0"/>
@@ -3169,7 +3173,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace concepto para eliminar registro, finalizando con la consulta mediante el filtro Concepto con el dato 3</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -3187,7 +3191,7 @@
       <c r="I15" s="9"/>
       <c r="J15" s="20"/>
       <c r="K15" s="7" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="L15" s="12" t="str">
         <f t="shared" si="0"/>
@@ -3198,7 +3202,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton modificar, hacer clic en enlace concepto para modificar registro</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -3219,7 +3223,7 @@
       <c r="I16" s="9"/>
       <c r="J16" s="10"/>
       <c r="K16" s="7" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="L16" s="12" t="str">
         <f t="shared" si="0"/>
@@ -3230,7 +3234,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace concepto para eliminar registro</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -3246,7 +3250,7 @@
       <c r="I17" s="9"/>
       <c r="J17" s="10"/>
       <c r="K17" s="7" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="L17" s="12" t="str">
         <f t="shared" si="0"/>
@@ -3257,7 +3261,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton modificar</v>
       </c>
       <c r="N17" s="26" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3331,16 +3335,16 @@
       <c r="I22" s="9"/>
       <c r="J22" s="10"/>
       <c r="K22" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L22" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="M22" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="N22" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="L22" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="M22" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="N22" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3718,7 +3722,7 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D6" sqref="D6"/>
+      <selection pane="topRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3751,44 +3755,44 @@
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4045,142 +4049,142 @@
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -4398,72 +4402,72 @@
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4699,27 +4703,27 @@
   <sheetData>
     <row r="1" spans="1:17" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="42" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="B1" s="44" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="C1" s="45"/>
       <c r="D1" s="49" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="E1" s="49"/>
       <c r="F1" s="49"/>
       <c r="G1" s="49"/>
       <c r="H1" s="45"/>
       <c r="I1" s="50" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="J1" s="51"/>
       <c r="K1" s="51"/>
       <c r="L1" s="52"/>
       <c r="M1" s="53" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="N1" s="48" t="s">
         <v>0</v>
@@ -4737,37 +4741,37 @@
     <row r="2" spans="1:17" s="14" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="43"/>
       <c r="B2" s="19" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="K2" s="18" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="L2" s="17" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="M2" s="54"/>
       <c r="N2" s="43"/>
@@ -4798,7 +4802,7 @@
       <c r="L3" s="21"/>
       <c r="M3" s="21"/>
       <c r="N3" s="38" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="O3" s="12" t="str">
         <f>CONCATENATE("Validar Asignaciones, seleccionando crédito con estado contrato ",IF(B3=1,$B$2," distinto a vigente")," y estado de pago ",IF(D3=1,$D$2,IF(E3=1,$E$2,IF(F3=1,$F$2,IF(G3=1,$G$2,IF(H3=1,$H$2))))),", asignando ejecutivo tipo ",IF(I3=1,$I$2,IF(J3=1,$J$2,IF(K3=1,$K$2,IF(L3=1,$L$2)))))</f>
@@ -4809,7 +4813,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú favoritos, sub-modulo Asignaciones, seleccionar crédito que posea contrato en estado Vigente y estado de pago Al día, asignar tipo ejecutivo Call</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4837,7 +4841,7 @@
         <v>1</v>
       </c>
       <c r="N4" s="38" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="O4" s="12" t="str">
         <f t="shared" ref="O4:O20" si="0">CONCATENATE("Validar Asignaciones, seleccionando crédito con estado contrato ",IF(B4=1,$B$2," distinto a vigente")," y estado de pago ",IF(D4=1,$D$2,IF(E4=1,$E$2,IF(F4=1,$F$2,IF(G4=1,$G$2,IF(H4=1,$H$2))))),", asignando ejecutivo tipo ",IF(I4=1,$I$2,IF(J4=1,$J$2,IF(K4=1,$K$2,IF(L4=1,$L$2)))))</f>
@@ -4848,7 +4852,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú favoritos, sub-modulo Asignaciones, seleccionar crédito que posea contrato en estado Vigente y estado de pago Al día, asignar tipo ejecutivo Terreno. Finalizando con exportar a excel</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4874,7 +4878,7 @@
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
       <c r="N5" s="38" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="O5" s="12" t="str">
         <f t="shared" si="0"/>
@@ -4885,7 +4889,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú favoritos, sub-modulo Asignaciones, seleccionar crédito que posea contrato en estado Vigente y estado de pago Moroso, asignar tipo ejecutivo Regiones</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4913,7 +4917,7 @@
         <v>1</v>
       </c>
       <c r="N6" s="38" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="O6" s="12" t="str">
         <f t="shared" si="0"/>
@@ -4924,7 +4928,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú favoritos, sub-modulo Asignaciones, seleccionar crédito que posea contrato en estado Vigente y estado de pago Moroso, asignar tipo ejecutivo Abogado. Finalizando con exportar a excel</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4950,7 +4954,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
       <c r="N7" s="38" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="O7" s="12" t="str">
         <f t="shared" si="0"/>
@@ -4961,7 +4965,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú favoritos, sub-modulo Asignaciones, seleccionar crédito que posea contrato en estado Vigente y estado de pago Vencido, asignar tipo ejecutivo Call</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4989,7 +4993,7 @@
         <v>1</v>
       </c>
       <c r="N8" s="38" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c r="O8" s="12" t="str">
         <f t="shared" si="0"/>
@@ -5000,7 +5004,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú favoritos, sub-modulo Asignaciones, seleccionar crédito que posea contrato en estado Vigente y estado de pago Vencido, asignar tipo ejecutivo Terreno. Finalizando con exportar a excel</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5026,7 +5030,7 @@
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
       <c r="N9" s="38" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="O9" s="12" t="str">
         <f t="shared" si="0"/>
@@ -5037,7 +5041,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú favoritos, sub-modulo Asignaciones, seleccionar crédito que posea contrato en estado Vigente y estado de pago Judicial, asignar tipo ejecutivo Regiones</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -5065,7 +5069,7 @@
         <v>1</v>
       </c>
       <c r="N10" s="38" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="O10" s="12" t="str">
         <f t="shared" si="0"/>
@@ -5076,7 +5080,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú favoritos, sub-modulo Asignaciones, seleccionar crédito que posea contrato en estado Vigente y estado de pago Judicial, asignar tipo ejecutivo Abogado. Finalizando con exportar a excel</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -5102,7 +5106,7 @@
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
       <c r="N11" s="38" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="O11" s="12" t="str">
         <f t="shared" si="0"/>
@@ -5113,7 +5117,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú favoritos, sub-modulo Asignaciones, seleccionar crédito que posea contrato en estado Vigente y estado de pago Pre Judicial, asignar tipo ejecutivo Call</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -5141,7 +5145,7 @@
         <v>1</v>
       </c>
       <c r="N12" s="38" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="O12" s="12" t="str">
         <f t="shared" si="0"/>
@@ -5152,7 +5156,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú favoritos, sub-modulo Asignaciones, seleccionar crédito que posea contrato en estado Vigente y estado de pago Pre Judicial, asignar tipo ejecutivo Terreno. Finalizando con exportar a excel</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -5178,7 +5182,7 @@
       <c r="L13" s="21"/>
       <c r="M13" s="21"/>
       <c r="N13" s="38" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="O13" s="12" t="str">
         <f t="shared" si="0"/>
@@ -5189,7 +5193,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú favoritos, sub-modulo Asignaciones, seleccionar crédito que posea contrato en estado  distinto de vigente y estado de pago Al día, asignar tipo ejecutivo Regiones</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -5217,7 +5221,7 @@
         <v>1</v>
       </c>
       <c r="N14" s="38" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="O14" s="12" t="str">
         <f t="shared" si="0"/>
@@ -5228,7 +5232,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú favoritos, sub-modulo Asignaciones, seleccionar crédito que posea contrato en estado  distinto de vigente y estado de pago Al día, asignar tipo ejecutivo Abogado. Finalizando con exportar a excel</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -5254,7 +5258,7 @@
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
       <c r="N15" s="38" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="O15" s="12" t="str">
         <f t="shared" si="0"/>
@@ -5265,7 +5269,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú favoritos, sub-modulo Asignaciones, seleccionar crédito que posea contrato en estado  distinto de vigente y estado de pago Vencido, asignar tipo ejecutivo Terreno</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
     </row>
     <row r="16" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5293,7 +5297,7 @@
         <v>1</v>
       </c>
       <c r="N16" s="38" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="O16" s="12" t="str">
         <f t="shared" si="0"/>
@@ -5304,7 +5308,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú favoritos, sub-modulo Asignaciones, seleccionar crédito que posea contrato en estado  distinto de vigente y estado de pago Vencido, asignar tipo ejecutivo Abogado. Finalizando con exportar a excel</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5330,7 +5334,7 @@
       <c r="L17" s="10"/>
       <c r="M17" s="10"/>
       <c r="N17" s="38" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="O17" s="12" t="str">
         <f t="shared" si="0"/>
@@ -5341,7 +5345,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú favoritos, sub-modulo Asignaciones, seleccionar crédito que posea contrato en estado  distinto de vigente y estado de pago Judicial, asignar tipo ejecutivo Call</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
     </row>
     <row r="18" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5369,7 +5373,7 @@
         <v>1</v>
       </c>
       <c r="N18" s="38" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="O18" s="12" t="str">
         <f t="shared" si="0"/>
@@ -5380,7 +5384,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú favoritos, sub-modulo Asignaciones, seleccionar crédito que posea contrato en estado  distinto de vigente y estado de pago Judicial, asignar tipo ejecutivo Terreno. Finalizando con exportar a excel</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
     </row>
     <row r="19" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5406,7 +5410,7 @@
       <c r="L19" s="10"/>
       <c r="M19" s="10"/>
       <c r="N19" s="38" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="O19" s="12" t="str">
         <f t="shared" si="0"/>
@@ -5417,7 +5421,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú favoritos, sub-modulo Asignaciones, seleccionar crédito que posea contrato en estado  distinto de vigente y estado de pago Pre Judicial, asignar tipo ejecutivo Regiones</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
     </row>
     <row r="20" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5445,7 +5449,7 @@
         <v>1</v>
       </c>
       <c r="N20" s="38" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="O20" s="12" t="str">
         <f t="shared" si="0"/>
@@ -5456,7 +5460,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú favoritos, sub-modulo Asignaciones, seleccionar crédito que posea contrato en estado  distinto de vigente y estado de pago Pre Judicial, asignar tipo ejecutivo Abogado. Finalizando con exportar a excel</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
     </row>
     <row r="21" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5512,16 +5516,16 @@
       <c r="L23" s="10"/>
       <c r="M23" s="10"/>
       <c r="N23" s="38" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="O23" s="12" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
     </row>
     <row r="24" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5539,16 +5543,16 @@
       <c r="L24" s="10"/>
       <c r="M24" s="10"/>
       <c r="N24" s="38" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="O24" s="12" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
@@ -6036,7 +6040,7 @@
         <v>6</v>
       </c>
       <c r="H2" s="23" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="I2" s="41"/>
       <c r="J2" s="18" t="s">
@@ -6085,7 +6089,7 @@
         <v>16</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="O3" s="12" t="str">
         <f>CONCATENATE("Validar funcionalidad ",IF(B3=1,$B$2,IF(C3=1,$C$2,IF(D3=1,$D$2)))," del modulo Maestro, sub-moduloEmpresas Externas",IF(E3=1," considerando enlace documentos proveedor para agregar nuevo registro",IF(F3=1," considerando enlace documentos proveedor para modificar registro",IF(G3=1," considerando enlace documentos proveedor para modificar registro",""))),IF(H3=1," y hacer clic en ",""),IF(H3=1,$H$2,""),IF(I3=1,", considerando la opcion exportar a excel",""),IF(J3=1,", finalizando con la consulta mediante el filtro ",IF(K3=1,", finalizando con la consulta mediante el filtro ",IF(L3=1,", finalizando con la consulta mediante el filtro ",""))),IF(J3=1,$J$2,IF(K3=1,$K$2,IF(L3=1,$L$2,""))),IF(J3=1," con el dato ",IF(K3=1," con el dato ",IF(L3=1," con el dato ",""))),IF(J3=1,M3,IF(K3=1,M3,IF(L3=1,M3,""))))</f>
@@ -6128,7 +6132,7 @@
         <v>17</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="O4" s="12" t="str">
         <f t="shared" ref="O4:O14" si="0">CONCATENATE("Validar funcionalidad ",IF(B4=1,$B$2,IF(C4=1,$C$2,IF(D4=1,$D$2)))," del modulo Maestro, sub-moduloEmpresas Externas",IF(E4=1," considerando enlace documentos proveedor para agregar nuevo registro",IF(F4=1," considerando enlace documentos proveedor para modificar registro",IF(G4=1," considerando enlace documentos proveedor para modificar registro",""))),IF(H4=1," y hacer clic en ",""),IF(H4=1,$H$2,""),IF(I4=1,", considerando la opcion exportar a excel",""),IF(J4=1,", finalizando con la consulta mediante el filtro ",IF(K4=1,", finalizando con la consulta mediante el filtro ",IF(L4=1,", finalizando con la consulta mediante el filtro ",""))),IF(J4=1,$J$2,IF(K4=1,$K$2,IF(L4=1,$L$2,""))),IF(J4=1," con el dato ",IF(K4=1," con el dato ",IF(L4=1," con el dato ",""))),IF(J4=1,M4,IF(K4=1,M4,IF(L4=1,M4,""))))</f>
@@ -6169,7 +6173,7 @@
         <v>18</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="O5" s="12" t="str">
         <f t="shared" si="0"/>
@@ -6204,7 +6208,7 @@
       <c r="L6" s="9"/>
       <c r="M6" s="10"/>
       <c r="N6" s="7" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="O6" s="12" t="str">
         <f t="shared" si="0"/>
@@ -6246,7 +6250,7 @@
         <v>16</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="O7" s="12" t="str">
         <f t="shared" si="0"/>
@@ -6257,7 +6261,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Maestro, sub-modulo Empresas Externas, hacer clic en boton modificar, hacer clic en enlace documentos proveedor para agregar nuevo registro y hacer clic en Enlace Descripción (Modificar y/o Eliminar registro), hacer clic en boton exportar a excel, finalizando con la consulta mediante el filtro Nombre con el dato Empresa</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6288,7 +6292,7 @@
         <v>17</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="O8" s="12" t="str">
         <f t="shared" si="0"/>
@@ -6299,7 +6303,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Maestro, sub-modulo Empresas Externas, hacer clic en boton modificar, hacer clic en enlace documentos proveedor para modificar registro y hacer clic en Enlace Descripción (Modificar y/o Eliminar registro), hacer clic en boton exportar a excel, finalizando con la consulta mediante el filtro Nombre corto con el dato EPR</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6328,7 +6332,7 @@
         <v>18</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="O9" s="12" t="str">
         <f t="shared" si="0"/>
@@ -6341,7 +6345,7 @@
 (Formulario Documentos Proveedor) con el dato PRENDA : Cedula</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -6361,7 +6365,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="10"/>
       <c r="N10" s="7" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="O10" s="12" t="str">
         <f t="shared" si="0"/>
@@ -6372,7 +6376,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Maestro, sub-modulo Empresas Externas, hacer clic en boton modificar</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -6403,7 +6407,7 @@
         <v>16</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="O11" s="12" t="str">
         <f t="shared" si="0"/>
@@ -6445,7 +6449,7 @@
         <v>17</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="O12" s="12" t="str">
         <f t="shared" si="0"/>
@@ -6485,7 +6489,7 @@
         <v>18</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="O13" s="12" t="str">
         <f t="shared" si="0"/>
@@ -6518,7 +6522,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="10"/>
       <c r="N14" s="7" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="O14" s="12" t="str">
         <f t="shared" si="0"/>
@@ -6529,7 +6533,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Maestro, sub-modulo Empresas Externas, hacer clic en boton eliminar</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -6622,16 +6626,16 @@
       <c r="L20" s="9"/>
       <c r="M20" s="10"/>
       <c r="N20" s="7" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="O20" s="12" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="P20" s="30" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -7124,11 +7128,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q50"/>
+  <dimension ref="A1:S50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="14" topLeftCell="O1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M1" sqref="M1:M2"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="16" topLeftCell="Q1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7137,91 +7141,100 @@
     <col min="2" max="2" width="5" customWidth="1"/>
     <col min="3" max="5" width="4.85546875" style="13" customWidth="1"/>
     <col min="6" max="6" width="5.140625" style="3" customWidth="1"/>
-    <col min="7" max="11" width="4.42578125" customWidth="1"/>
-    <col min="12" max="13" width="4.42578125" style="3" customWidth="1"/>
-    <col min="14" max="14" width="51.7109375" style="6" customWidth="1"/>
-    <col min="15" max="15" width="255.42578125" style="12" customWidth="1"/>
-    <col min="16" max="16" width="255.42578125" style="7" customWidth="1"/>
-    <col min="17" max="17" width="79" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="4.42578125" customWidth="1"/>
+    <col min="13" max="13" width="4.42578125" style="13" customWidth="1"/>
+    <col min="14" max="15" width="4.42578125" style="3" customWidth="1"/>
+    <col min="16" max="16" width="51.7109375" style="6" customWidth="1"/>
+    <col min="17" max="17" width="148.28515625" style="12" customWidth="1"/>
+    <col min="18" max="18" width="224" style="7" customWidth="1"/>
+    <col min="19" max="19" width="79" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="42" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="B1" s="44" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="C1" s="46"/>
       <c r="D1" s="46"/>
       <c r="E1" s="46"/>
       <c r="F1" s="45"/>
-      <c r="G1" s="49" t="s">
-        <v>292</v>
+      <c r="G1" s="56" t="s">
+        <v>274</v>
       </c>
       <c r="H1" s="49"/>
       <c r="I1" s="49"/>
       <c r="J1" s="49"/>
       <c r="K1" s="49"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="42" t="s">
-        <v>299</v>
-      </c>
-      <c r="N1" s="40" t="s">
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="42" t="s">
+        <v>281</v>
+      </c>
+      <c r="P1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="40" t="s">
+      <c r="Q1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q1" s="40" t="s">
+      <c r="R1" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="S1" s="40" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="14" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" s="14" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="43"/>
       <c r="B2" s="19" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="F2" s="37" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>293</v>
+        <v>275</v>
       </c>
       <c r="H2" s="35" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>295</v>
+        <v>277</v>
       </c>
       <c r="J2" s="19" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>297</v>
-      </c>
-      <c r="L2" s="15" t="s">
-        <v>298</v>
-      </c>
-      <c r="M2" s="43"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
+        <v>279</v>
+      </c>
+      <c r="L2" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="M2" s="35" t="s">
+        <v>282</v>
+      </c>
+      <c r="N2" s="23" t="s">
+        <v>283</v>
+      </c>
+      <c r="O2" s="43"/>
       <c r="P2" s="41"/>
       <c r="Q2" s="41"/>
-    </row>
-    <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+    </row>
+    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -7239,16 +7252,28 @@
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="7"/>
-    </row>
-    <row r="4" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8">
+        <v>1</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q3" s="12" t="str">
+        <f>CONCATENATE("Validar funcionalidad Cheques, seleccionando cheque con estado ",IF(B3=1,$B$2,IF(C3=1,$C$2,IF(D3=1,$D$2,IF(E3=1,$E$2,IF(F3=1,$F$2))))),", realizando la acción ",IF(G3=1,$G$2,IF(H3=1,$H$2,IF(I3=1,$I$2,IF(J3=1,$J$2,IF(K3=1,$K$2,IF(L3=1,$L$2,IF(M3=1,$M$2,IF(N3=1,$N$2)))))))),IF(O3=1,", finalizando con exportar a excel.",""))</f>
+        <v>Validar funcionalidad Cheques, seleccionando cheque con estado En cartera, realizando la acción Depositar, finalizando con exportar a excel.</v>
+      </c>
+      <c r="R3" s="12" t="str">
+        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú de Favoritos, sub-modulo Cheques, seleccionar cheque en estado ",IF(B3=1,$B$2,IF(C3=1,$C$2,IF(D3=1,$D$2,IF(E3=1,$E$2,IF(F3=1,$F$2)))))," para realizar acción de ",IF(G3=1,$G$2,IF(H3=1,$H$2,IF(I3=1,$I$2,IF(J3=1,$J$2,IF(K3=1,$K$2,IF(L3=1,$L$2,IF(M3=1,$M$2,IF(N3=1,$N$2)))))))),IF(O3=1,", hacer clic en boton exportar a excel",""))</f>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú de Favoritos, sub-modulo Cheques, seleccionar cheque en estado En cartera para realizar acción de Depositar, hacer clic en boton exportar a excel</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>1</v>
       </c>
@@ -7260,22 +7285,34 @@
       <c r="E4" s="5"/>
       <c r="F4" s="8"/>
       <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
+      <c r="H4" s="5">
+        <v>1</v>
+      </c>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
-      <c r="L4" s="8">
-        <v>1</v>
-      </c>
-      <c r="M4" s="8"/>
-      <c r="N4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="7"/>
-    </row>
-    <row r="5" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q4" s="12" t="str">
+        <f t="shared" ref="Q4:Q12" si="0">CONCATENATE("Validar funcionalidad Cheques, seleccionando cheque con estado ",IF(B4=1,$B$2,IF(C4=1,$C$2,IF(D4=1,$D$2,IF(E4=1,$E$2,IF(F4=1,$F$2))))),", realizando la acción ",IF(G4=1,$G$2,IF(H4=1,$H$2,IF(I4=1,$I$2,IF(J4=1,$J$2,IF(K4=1,$K$2,IF(L4=1,$L$2,IF(M4=1,$M$2,IF(N4=1,$N$2)))))))),IF(O4=1,", finalizando con exportar a excel.",""))</f>
+        <v>Validar funcionalidad Cheques, seleccionando cheque con estado En cartera, realizando la acción Cambiar la
+ubiciación</v>
+      </c>
+      <c r="R4" s="12" t="str">
+        <f t="shared" ref="R4:R12" si="1">CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú de Favoritos, sub-modulo Cheques, seleccionar cheque en estado ",IF(B4=1,$B$2,IF(C4=1,$C$2,IF(D4=1,$D$2,IF(E4=1,$E$2,IF(F4=1,$F$2)))))," para realizar acción de ",IF(G4=1,$G$2,IF(H4=1,$H$2,IF(I4=1,$I$2,IF(J4=1,$J$2,IF(K4=1,$K$2,IF(L4=1,$L$2,IF(M4=1,$M$2,IF(N4=1,$N$2)))))))),IF(O4=1,", hacer clic en boton exportar a excel",""))</f>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú de Favoritos, sub-modulo Cheques, seleccionar cheque en estado En cartera para realizar acción de Cambiar la
+ubiciación</v>
+      </c>
+      <c r="S4" s="7" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>1</v>
       </c>
@@ -7286,23 +7323,35 @@
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="8"/>
-      <c r="G5" s="5">
-        <v>1</v>
-      </c>
+      <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
+      <c r="J5" s="5">
+        <v>1</v>
+      </c>
       <c r="K5" s="5"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="7"/>
-    </row>
-    <row r="6" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8">
+        <v>1</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q5" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Cheques, seleccionando cheque con estado En cartera, realizando la acción Cambio Cheque, finalizando con exportar a excel.</v>
+      </c>
+      <c r="R5" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú de Favoritos, sub-modulo Cheques, seleccionar cheque en estado En cartera para realizar acción de Cambio Cheque, hacer clic en boton exportar a excel</v>
+      </c>
+      <c r="S5" s="7" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>1</v>
       </c>
@@ -7318,25 +7367,35 @@
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
-      <c r="L6" s="8">
-        <v>1</v>
-      </c>
-      <c r="M6" s="8"/>
-      <c r="N6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="7"/>
-    </row>
-    <row r="7" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L6" s="5">
+        <v>1</v>
+      </c>
+      <c r="M6" s="5"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q6" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Cheques, seleccionando cheque con estado En cartera, realizando la acción Prorroga</v>
+      </c>
+      <c r="R6" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú de Favoritos, sub-modulo Cheques, seleccionar cheque en estado En cartera para realizar acción de Prorroga</v>
+      </c>
+      <c r="S6" s="7" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>1</v>
       </c>
-      <c r="B7" s="5">
-        <v>1</v>
-      </c>
-      <c r="C7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="8"/>
@@ -7345,49 +7404,75 @@
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="26"/>
-    </row>
-    <row r="8" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L7" s="5"/>
+      <c r="M7" s="5">
+        <v>1</v>
+      </c>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8">
+        <v>1</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q7" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Cheques, seleccionando cheque con estado Cobrado, realizando la acción Volver a
+depositado, finalizando con exportar a excel.</v>
+      </c>
+      <c r="R7" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú de Favoritos, sub-modulo Cheques, seleccionar cheque en estado Cobrado para realizar acción de Volver a
+depositado, hacer clic en boton exportar a excel</v>
+      </c>
+      <c r="S7" s="7" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>1</v>
       </c>
-      <c r="C8" s="5">
-        <v>1</v>
-      </c>
-      <c r="D8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5">
+        <v>1</v>
+      </c>
       <c r="E8" s="5"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="5">
-        <v>1</v>
-      </c>
+      <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
+      <c r="J8" s="5">
+        <v>1</v>
+      </c>
       <c r="K8" s="5"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="7"/>
-    </row>
-    <row r="9" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Cheques, seleccionando cheque con estado Protestado, realizando la acción Cambio Cheque</v>
+      </c>
+      <c r="R8" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú de Favoritos, sub-modulo Cheques, seleccionar cheque en estado Protestado para realizar acción de Cambio Cheque</v>
+      </c>
+      <c r="S8" s="7" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>1</v>
       </c>
-      <c r="C9" s="5">
-        <v>1</v>
-      </c>
-      <c r="D9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5">
+        <v>1</v>
+      </c>
       <c r="E9" s="5"/>
       <c r="F9" s="8"/>
       <c r="G9" s="5"/>
@@ -7395,193 +7480,218 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
-      <c r="L9" s="8">
-        <v>1</v>
-      </c>
-      <c r="M9" s="8"/>
-      <c r="N9" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="7"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L9" s="5"/>
+      <c r="M9" s="5">
+        <v>1</v>
+      </c>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8">
+        <v>1</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q9" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Cheques, seleccionando cheque con estado Protestado, realizando la acción Volver a
+depositado, finalizando con exportar a excel.</v>
+      </c>
+      <c r="R9" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú de Favoritos, sub-modulo Cheques, seleccionar cheque en estado Protestado para realizar acción de Volver a
+depositado, hacer clic en boton exportar a excel</v>
+      </c>
+      <c r="S9" s="7" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>1</v>
       </c>
-      <c r="C10" s="5">
-        <v>1</v>
-      </c>
+      <c r="C10" s="5"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="E10" s="5">
+        <v>1</v>
+      </c>
       <c r="F10" s="8"/>
-      <c r="G10" s="5">
-        <v>1</v>
-      </c>
+      <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="P10" s="12"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="8">
+        <v>1</v>
+      </c>
+      <c r="O10" s="8"/>
+      <c r="P10" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q10" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Cheques, seleccionando cheque con estado Reemplazado, realizando la acción Comprobante cambio cheque</v>
+      </c>
+      <c r="R10" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú de Favoritos, sub-modulo Cheques, seleccionar cheque en estado Reemplazado para realizar acción de Comprobante cambio cheque</v>
+      </c>
+      <c r="S10" s="7" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>1</v>
       </c>
-      <c r="C11" s="5">
-        <v>1</v>
-      </c>
+      <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
-      <c r="F11" s="8"/>
+      <c r="F11" s="8">
+        <v>1</v>
+      </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
+      <c r="I11" s="5">
+        <v>1</v>
+      </c>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
-      <c r="L11" s="8">
-        <v>1</v>
-      </c>
-      <c r="M11" s="8"/>
-      <c r="N11" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="P11" s="12"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8">
+        <v>1</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q11" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Cheques, seleccionando cheque con estado Deppositado, realizando la acción Cobrar, finalizando con exportar a excel.</v>
+      </c>
+      <c r="R11" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú de Favoritos, sub-modulo Cheques, seleccionar cheque en estado Deppositado para realizar acción de Cobrar, hacer clic en boton exportar a excel</v>
+      </c>
+      <c r="S11" s="7" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>1</v>
       </c>
-      <c r="C12" s="5">
-        <v>1</v>
-      </c>
+      <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="8"/>
+      <c r="F12" s="8">
+        <v>1</v>
+      </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="26"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
-        <v>1</v>
-      </c>
-      <c r="F13" s="8">
-        <v>1</v>
-      </c>
-      <c r="G13" s="5">
-        <v>1</v>
-      </c>
+      <c r="K12" s="5">
+        <v>1</v>
+      </c>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q12" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Validar funcionalidad Cheques, seleccionando cheque con estado Deppositado, realizando la acción Protesto</v>
+      </c>
+      <c r="R12" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú de Favoritos, sub-modulo Cheques, seleccionar cheque en estado Deppositado para realizar acción de Protesto</v>
+      </c>
+      <c r="S12" s="7" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P13" s="12"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
-        <v>1</v>
-      </c>
-      <c r="F14" s="8">
-        <v>1</v>
-      </c>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="7"/>
+      <c r="R13" s="12"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="F14" s="8"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
-      <c r="L14" s="8">
-        <v>1</v>
-      </c>
-      <c r="M14" s="8"/>
-      <c r="N14" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="P14" s="12"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
-        <v>1</v>
-      </c>
-      <c r="F15" s="8">
-        <v>1</v>
-      </c>
-      <c r="G15" s="5">
-        <v>1</v>
-      </c>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="7"/>
+      <c r="R14" s="12"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="P15" s="12"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
-        <v>1</v>
-      </c>
-      <c r="F16" s="8">
-        <v>1</v>
-      </c>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="7"/>
+      <c r="R15" s="12"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="F16" s="8"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
-      <c r="L16" s="8">
-        <v>1</v>
-      </c>
-      <c r="M16" s="8"/>
-      <c r="N16" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P16" s="12"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
-        <v>1</v>
-      </c>
-      <c r="F17" s="8">
-        <v>1</v>
-      </c>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="7"/>
+      <c r="R16" s="12"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="F17" s="8"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="26"/>
-    </row>
-    <row r="18" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="7"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="26"/>
+    </row>
+    <row r="18" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -7592,14 +7702,16 @@
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="12"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
       <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
-    </row>
-    <row r="19" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q18" s="12"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+    </row>
+    <row r="19" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="5"/>
       <c r="F19" s="8"/>
@@ -7608,14 +7720,16 @@
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="12"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
       <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
-    </row>
-    <row r="20" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q19" s="12"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+    </row>
+    <row r="20" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="5"/>
       <c r="F20" s="8"/>
@@ -7624,14 +7738,16 @@
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="12"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
       <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
-    </row>
-    <row r="21" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q20" s="12"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+    </row>
+    <row r="21" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="5"/>
       <c r="F21" s="8"/>
@@ -7640,14 +7756,16 @@
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="12"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
       <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-    </row>
-    <row r="22" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q21" s="12"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+    </row>
+    <row r="22" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="5"/>
       <c r="F22" s="8"/>
@@ -7656,14 +7774,16 @@
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="12"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
       <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
-    </row>
-    <row r="23" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q22" s="12"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+    </row>
+    <row r="23" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="5"/>
       <c r="F23" s="8"/>
@@ -7672,14 +7792,16 @@
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="12"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
       <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
-    </row>
-    <row r="24" spans="1:17" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="Q23" s="12"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+    </row>
+    <row r="24" spans="1:19" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="5"/>
       <c r="F24" s="8"/>
@@ -7688,22 +7810,24 @@
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="O24" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="P24" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q24" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="R24" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="S24" s="7" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="5"/>
       <c r="F25" s="8"/>
@@ -7712,14 +7836,16 @@
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="12"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
       <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
-    </row>
-    <row r="26" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q25" s="12"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
+    </row>
+    <row r="26" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="5"/>
       <c r="F26" s="8"/>
@@ -7728,14 +7854,16 @@
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="12"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
       <c r="P26" s="7"/>
-      <c r="Q26" s="7"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q26" s="12"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="7"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -7746,11 +7874,13 @@
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="7"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="7"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -7761,11 +7891,13 @@
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="7"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="7"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
@@ -7776,11 +7908,13 @@
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="7"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="7"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
@@ -7791,11 +7925,13 @@
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="7"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="7"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
@@ -7806,11 +7942,13 @@
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="7"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="7"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
@@ -7821,11 +7959,13 @@
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="7"/>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="7"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
@@ -7836,11 +7976,13 @@
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="7"/>
-    </row>
-    <row r="34" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="7"/>
+    </row>
+    <row r="34" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
@@ -7851,14 +7993,16 @@
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="7"/>
-      <c r="O34" s="12"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
       <c r="P34" s="7"/>
-      <c r="Q34" s="7"/>
-    </row>
-    <row r="35" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q34" s="12"/>
+      <c r="R34" s="7"/>
+      <c r="S34" s="7"/>
+    </row>
+    <row r="35" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
@@ -7869,14 +8013,16 @@
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="7"/>
-      <c r="O35" s="12"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
       <c r="P35" s="7"/>
-      <c r="Q35" s="7"/>
-    </row>
-    <row r="36" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q35" s="12"/>
+      <c r="R35" s="7"/>
+      <c r="S35" s="7"/>
+    </row>
+    <row r="36" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
@@ -7887,14 +8033,16 @@
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="7"/>
-      <c r="O36" s="12"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="8"/>
       <c r="P36" s="7"/>
-      <c r="Q36" s="7"/>
-    </row>
-    <row r="37" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q36" s="12"/>
+      <c r="R36" s="7"/>
+      <c r="S36" s="7"/>
+    </row>
+    <row r="37" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
@@ -7905,14 +8053,16 @@
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="7"/>
-      <c r="O37" s="12"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="8"/>
       <c r="P37" s="7"/>
-      <c r="Q37" s="7"/>
-    </row>
-    <row r="38" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q37" s="12"/>
+      <c r="R37" s="7"/>
+      <c r="S37" s="7"/>
+    </row>
+    <row r="38" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
@@ -7923,14 +8073,16 @@
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="7"/>
-      <c r="O38" s="12"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
       <c r="P38" s="7"/>
-      <c r="Q38" s="7"/>
-    </row>
-    <row r="39" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q38" s="12"/>
+      <c r="R38" s="7"/>
+      <c r="S38" s="7"/>
+    </row>
+    <row r="39" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
@@ -7941,14 +8093,16 @@
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
-      <c r="N39" s="7"/>
-      <c r="O39" s="12"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8"/>
       <c r="P39" s="7"/>
-      <c r="Q39" s="7"/>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q39" s="12"/>
+      <c r="R39" s="7"/>
+      <c r="S39" s="7"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
@@ -7959,11 +8113,13 @@
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
-      <c r="L40" s="8"/>
-      <c r="M40" s="8"/>
-      <c r="N40" s="7"/>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="8"/>
+      <c r="P40" s="7"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
@@ -7974,11 +8130,13 @@
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
-      <c r="L41" s="8"/>
-      <c r="M41" s="8"/>
-      <c r="N41" s="7"/>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="8"/>
+      <c r="O41" s="8"/>
+      <c r="P41" s="7"/>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
@@ -7989,11 +8147,13 @@
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
-      <c r="L42" s="8"/>
-      <c r="M42" s="8"/>
-      <c r="N42" s="7"/>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="8"/>
+      <c r="O42" s="8"/>
+      <c r="P42" s="7"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
@@ -8004,11 +8164,13 @@
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="8"/>
-      <c r="N43" s="7"/>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="8"/>
+      <c r="O43" s="8"/>
+      <c r="P43" s="7"/>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
@@ -8019,11 +8181,13 @@
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
-      <c r="L44" s="8"/>
-      <c r="M44" s="8"/>
-      <c r="N44" s="7"/>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="8"/>
+      <c r="O44" s="8"/>
+      <c r="P44" s="7"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
@@ -8034,11 +8198,13 @@
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
       <c r="K45" s="5"/>
-      <c r="L45" s="8"/>
-      <c r="M45" s="8"/>
-      <c r="N45" s="7"/>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="8"/>
+      <c r="O45" s="8"/>
+      <c r="P45" s="7"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
@@ -8049,11 +8215,13 @@
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
-      <c r="L46" s="8"/>
-      <c r="M46" s="8"/>
-      <c r="N46" s="7"/>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="8"/>
+      <c r="O46" s="8"/>
+      <c r="P46" s="7"/>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
@@ -8064,11 +8232,13 @@
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
-      <c r="L47" s="8"/>
-      <c r="M47" s="8"/>
-      <c r="N47" s="7"/>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L47" s="5"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="8"/>
+      <c r="O47" s="8"/>
+      <c r="P47" s="7"/>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
@@ -8079,11 +8249,13 @@
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
-      <c r="L48" s="8"/>
-      <c r="M48" s="8"/>
-      <c r="N48" s="7"/>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L48" s="5"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="8"/>
+      <c r="O48" s="8"/>
+      <c r="P48" s="7"/>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
@@ -8094,11 +8266,13 @@
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
-      <c r="L49" s="8"/>
-      <c r="M49" s="8"/>
-      <c r="N49" s="7"/>
-    </row>
-    <row r="50" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L49" s="5"/>
+      <c r="M49" s="5"/>
+      <c r="N49" s="8"/>
+      <c r="O49" s="8"/>
+      <c r="P49" s="7"/>
+    </row>
+    <row r="50" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
@@ -8109,23 +8283,25 @@
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
-      <c r="L50" s="8"/>
-      <c r="M50" s="8"/>
-      <c r="N50" s="7"/>
-      <c r="O50" s="12"/>
+      <c r="L50" s="5"/>
+      <c r="M50" s="5"/>
+      <c r="N50" s="8"/>
+      <c r="O50" s="8"/>
       <c r="P50" s="7"/>
-      <c r="Q50" s="7"/>
+      <c r="Q50" s="12"/>
+      <c r="R50" s="7"/>
+      <c r="S50" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
     <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="P1:P2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="N1:N2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:F1"/>
-    <mergeCell ref="G1:L1"/>
-    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="G1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8170,114 +8346,114 @@
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -8339,7 +8515,7 @@
       <c r="B22" s="12"/>
       <c r="C22" s="30"/>
       <c r="D22" s="7" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8498,10 +8674,10 @@
   <sheetData>
     <row r="1" spans="1:15" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="55" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="B1" s="44" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="C1" s="46"/>
       <c r="D1" s="46"/>
@@ -8532,31 +8708,31 @@
     <row r="2" spans="1:15" s="14" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="43"/>
       <c r="B2" s="19" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="J2" s="19" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="K2" s="41"/>
       <c r="L2" s="41"/>
@@ -8585,7 +8761,7 @@
       <c r="J3" s="8"/>
       <c r="K3" s="16"/>
       <c r="L3" s="7" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="M3" s="12" t="str">
         <f>CONCATENATE("Validar funcionalidad ",IF(B3=1,$B$2,IF(C3=1,$C$2,IF(D3=1,$D$2,IF(E3=1,$E$2))))," del Menú Favoritos, sub-modulo Pagarés, considerando la opción ",IF(H3=1,$H$2,IF(I3=1,$I$2,IF(J3=1,$J$2,""))), " y ",IF(F3=1,$F$2,$G$2),IF(K3=1,". Finalizando con exportar a excel",""))</f>
@@ -8596,7 +8772,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Menú favoritos, sub-modulo Pagarés, ingresar a Carta guía Pagare, realizando la(s) accion(es) Exportar carta guía Agregar Pagares</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8620,7 +8796,7 @@
       <c r="J4" s="8"/>
       <c r="K4" s="16"/>
       <c r="L4" s="7" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="M4" s="12" t="str">
         <f t="shared" ref="M4:M18" si="0">CONCATENATE("Validar funcionalidad ",IF(B4=1,$B$2,IF(C4=1,$C$2,IF(D4=1,$D$2,IF(E4=1,$E$2))))," del Menú Favoritos, sub-modulo Pagarés, considerando la opción ",IF(H4=1,$H$2,IF(I4=1,$I$2,IF(J4=1,$J$2,""))), " y ",IF(F4=1,$F$2,$G$2),IF(K4=1,". Finalizando con exportar a excel",""))</f>
@@ -8631,7 +8807,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Menú favoritos, sub-modulo Pagarés, ingresar a Carta guía Pagare, realizando la(s) accion(es) Exportar carta guía Eliminar Pagare</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8655,7 +8831,7 @@
       </c>
       <c r="K5" s="16"/>
       <c r="L5" s="7" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="M5" s="12" t="str">
         <f t="shared" si="0"/>
@@ -8666,7 +8842,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Menú favoritos, sub-modulo Pagarés, ingresar a Carta guía Pagare, realizando la(s) accion(es) Exportar carta guía Aprobar carta guía</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8690,7 +8866,7 @@
         <v>1</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="M6" s="12" t="str">
         <f t="shared" si="0"/>
@@ -8701,7 +8877,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Menú favoritos, sub-modulo Pagarés, ingresar a Carta guía Pagare, realizando la(s) accion(es) Eliminar carta guía Exportar a Excel</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8724,7 +8900,7 @@
       <c r="J7" s="8"/>
       <c r="K7" s="16"/>
       <c r="L7" s="7" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="M7" s="12" t="str">
         <f t="shared" si="0"/>
@@ -8735,7 +8911,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Menú favoritos, sub-modulo Pagarés, ingresar a Carta Guía Traslado, realizando la(s) accion(es) Exportar carta guía Agregar Pagares</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8758,7 +8934,7 @@
       <c r="J8" s="8"/>
       <c r="K8" s="16"/>
       <c r="L8" s="7" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="M8" s="12" t="str">
         <f t="shared" si="0"/>
@@ -8769,7 +8945,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Menú favoritos, sub-modulo Pagarés, ingresar a Carta Guía Traslado, realizando la(s) accion(es) Exportar carta guía Eliminar Pagare</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8792,7 +8968,7 @@
       </c>
       <c r="K9" s="16"/>
       <c r="L9" s="7" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="M9" s="12" t="str">
         <f t="shared" si="0"/>
@@ -8803,7 +8979,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Menú favoritos, sub-modulo Pagarés, ingresar a Carta Guía Traslado, realizando la(s) accion(es) Exportar carta guía Aprobar carta guía</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -8826,7 +9002,7 @@
         <v>1</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="M10" s="12" t="str">
         <f t="shared" si="0"/>
@@ -8837,7 +9013,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Menú favoritos, sub-modulo Pagarés, ingresar a Carta Guía Traslado, realizando la(s) accion(es) Eliminar carta guía Exportar a Excel</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -8858,7 +9034,7 @@
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="L11" s="7" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="M11" s="12" t="str">
         <f t="shared" si="0"/>
@@ -8869,7 +9045,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Menú favoritos, sub-modulo Pagarés, ingresar a Importar Carta Guía, realizando la(s) accion(es) Exportar carta guía Agregar Pagares</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -8890,7 +9066,7 @@
       </c>
       <c r="J12" s="8"/>
       <c r="L12" s="7" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="M12" s="12" t="str">
         <f t="shared" si="0"/>
@@ -8901,7 +9077,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Menú favoritos, sub-modulo Pagarés, ingresar a Importar Carta Guía, realizando la(s) accion(es) Exportar carta guía Eliminar Pagare</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -8922,7 +9098,7 @@
         <v>1</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="M13" s="12" t="str">
         <f t="shared" si="0"/>
@@ -8933,7 +9109,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Menú favoritos, sub-modulo Pagarés, ingresar a Importar Carta Guía, realizando la(s) accion(es) Exportar carta guía Aprobar carta guía</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -8955,7 +9131,7 @@
         <v>1</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="M14" s="12" t="str">
         <f t="shared" si="0"/>
@@ -8966,7 +9142,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Menú favoritos, sub-modulo Pagarés, ingresar a Importar Carta Guía, realizando la(s) accion(es) Eliminar carta guía Exportar a Excel</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -8986,7 +9162,7 @@
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="L15" s="7" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="M15" s="12" t="str">
         <f t="shared" si="0"/>
@@ -8997,7 +9173,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Menú favoritos, sub-modulo Pagarés, ingresar a Importar Recompras, realizando la(s) accion(es) Exportar carta guía Agregar Pagares</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -9017,7 +9193,7 @@
       </c>
       <c r="J16" s="8"/>
       <c r="L16" s="7" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="M16" s="12" t="str">
         <f t="shared" si="0"/>
@@ -9028,7 +9204,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Menú favoritos, sub-modulo Pagarés, ingresar a Importar Recompras, realizando la(s) accion(es) Exportar carta guía Eliminar Pagare</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -9048,7 +9224,7 @@
         <v>1</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="M17" s="12" t="str">
         <f t="shared" si="0"/>
@@ -9059,7 +9235,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Menú favoritos, sub-modulo Pagarés, ingresar a Importar Recompras, realizando la(s) accion(es) Exportar carta guía Aprobar carta guía</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -9081,7 +9257,7 @@
         <v>1</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="M18" s="12" t="str">
         <f t="shared" si="0"/>
@@ -9092,7 +9268,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Menú favoritos, sub-modulo Pagarés, ingresar a Importar Recompras, realizando la(s) accion(es) Eliminar carta guía Exportar a Excel</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
     </row>
     <row r="19" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -9570,44 +9746,44 @@
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">

--- a/Casos Cartera/MenuFavorios.xlsx
+++ b/Casos Cartera/MenuFavorios.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" tabRatio="787" firstSheet="4" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" tabRatio="787" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Créditos" sheetId="15" r:id="rId1"/>
@@ -930,13 +930,13 @@
     <t>TC_Cartera_Cheques_ConsolidadoError</t>
   </si>
   <si>
-    <t>Validar cambio de estado de cheque</t>
-  </si>
-  <si>
     <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú de Favoritos, sub-modulo Cheques, seleccionar cheque en estado cobrado y realizar la acción cambio de ubicación, luego seleccionar cheque en estado protesto y realizar la depositar, posteriormente, seleccionar cheque en estado en cartera y realizar la acción cobrar</t>
   </si>
   <si>
     <t>Sistema emite mensaje correspondiente a cada validación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validar cambio de estado de cheque, indicando </t>
   </si>
 </sst>
 </file>
@@ -1221,14 +1221,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2702,7 +2702,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="57" t="s">
         <v>38</v>
       </c>
       <c r="B1" s="44" t="s">
@@ -5956,7 +5956,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q50"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="14" topLeftCell="O1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="O20" sqref="O20"/>
     </sheetView>
@@ -7130,9 +7130,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="16" topLeftCell="Q1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q24" sqref="Q24"/>
+      <selection pane="topRight" activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7161,7 +7161,7 @@
       <c r="D1" s="46"/>
       <c r="E1" s="46"/>
       <c r="F1" s="45"/>
-      <c r="G1" s="56" t="s">
+      <c r="G1" s="55" t="s">
         <v>274</v>
       </c>
       <c r="H1" s="49"/>
@@ -7170,7 +7170,7 @@
       <c r="K1" s="49"/>
       <c r="L1" s="49"/>
       <c r="M1" s="49"/>
-      <c r="N1" s="57"/>
+      <c r="N1" s="56"/>
       <c r="O1" s="42" t="s">
         <v>281</v>
       </c>
@@ -7818,13 +7818,13 @@
         <v>295</v>
       </c>
       <c r="Q24" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="R24" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="R24" s="30" t="s">
+      <c r="S24" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="S24" s="7" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="25" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8673,7 +8673,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="57" t="s">
         <v>165</v>
       </c>
       <c r="B1" s="44" t="s">

--- a/Casos Cartera/MenuFavorios.xlsx
+++ b/Casos Cartera/MenuFavorios.xlsx
@@ -9,20 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" tabRatio="787" firstSheet="4" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" tabRatio="787" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Créditos" sheetId="15" r:id="rId1"/>
     <sheet name="Nueva Recaudación" sheetId="38" r:id="rId2"/>
     <sheet name="Recaudaciones" sheetId="16" r:id="rId3"/>
     <sheet name="  Asignaciones" sheetId="18" r:id="rId4"/>
-    <sheet name="Gestiones Diarias" sheetId="17" r:id="rId5"/>
-    <sheet name="Cheques" sheetId="19" r:id="rId6"/>
-    <sheet name="Generar Prepago" sheetId="20" r:id="rId7"/>
-    <sheet name="Pagarés" sheetId="21" r:id="rId8"/>
-    <sheet name="Activos Vehículos" sheetId="22" r:id="rId9"/>
-    <sheet name="Administración Medios de Pago " sheetId="23" r:id="rId10"/>
-    <sheet name="Usuario" sheetId="39" r:id="rId11"/>
+    <sheet name="Cheques" sheetId="19" r:id="rId5"/>
+    <sheet name="Generar Prepago" sheetId="20" r:id="rId6"/>
+    <sheet name="Pagarés" sheetId="21" r:id="rId7"/>
+    <sheet name="Activos Vehículos" sheetId="22" r:id="rId8"/>
+    <sheet name="Administración Medios de Pago " sheetId="23" r:id="rId9"/>
+    <sheet name="Usuario" sheetId="39" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Créditos!$A$2:$T$50</definedName>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="266">
   <si>
     <t>Nombre CP</t>
   </si>
@@ -49,177 +48,12 @@
     <t>Acción</t>
   </si>
   <si>
-    <t>Agregar</t>
-  </si>
-  <si>
-    <t>Eliminar</t>
-  </si>
-  <si>
-    <t>Modificar</t>
-  </si>
-  <si>
     <t>Exportar a Excel</t>
   </si>
   <si>
-    <t>Filtros</t>
-  </si>
-  <si>
-    <t>Valor</t>
-  </si>
-  <si>
-    <t>Empresas Externas</t>
-  </si>
-  <si>
-    <t>Documentos Proveedor</t>
-  </si>
-  <si>
-    <t>Descripción
-(Formulario Documentos Proveedor)</t>
-  </si>
-  <si>
-    <t>Nombre corto</t>
-  </si>
-  <si>
-    <t>Nombre</t>
-  </si>
-  <si>
-    <t>Empresa</t>
-  </si>
-  <si>
-    <t>EPR</t>
-  </si>
-  <si>
-    <t>PRENDA : Cedula</t>
-  </si>
-  <si>
-    <t>Registro creado exitosamente</t>
-  </si>
-  <si>
-    <t>Registro eliminado exitosamente</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Empresa_Agregar</t>
-  </si>
-  <si>
-    <t>Registro modificado exitosamente</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Empresa_AgregarEnlaceDocumentos</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Empresa_AgregarExportarExcel</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Empresa_AgregarConsultaDescripcion</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Empresa_Eliminar</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Empresa_EliminarEnlaceDocumentos</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Empresa_EliminarExportarExcel</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Empresa_EliminarConsultaDescripcion</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Empresa_ModificarEnlaceDocumentos</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Empresa_ModificarExportarExcel</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Empresa_ModificarConsultaDescripcion</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Empresa_Modificar</t>
-  </si>
-  <si>
-    <t>Registro eliminar exitosamente</t>
-  </si>
-  <si>
-    <t>Enlace Descripción (Modificar y/o Eliminar registro)</t>
-  </si>
-  <si>
-    <t>Concepto</t>
-  </si>
-  <si>
-    <t>Cuenta
-Contabilización</t>
-  </si>
-  <si>
-    <t>Recaudos
-Otros</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Empresa_ConsolidadoError</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Recaudacion_ConsolidadoError</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Recaudacion_AgregarConsulta</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Recaudacion_AgregarDescripcion</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Recaudacion_AgregarEnlaceModificar</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Recaudacion_AgregarExportarExcel</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Recaudacion_Agregar</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Recaudacion_EliminarConsulta</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Recaudacion_EliminarDescripcion</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Recaudacion_EliminarSinExportarExcel</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Recaudacion_EliminarExportarExcel</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Recaudacion_Eliminar</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Recaudacion_ModificarConsulta</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Recaudacion_ModificarEnlace</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Recaudacion_ModificarDescripcion</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Recaudacion_ModificarExportarExcel</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Recaudacion_Modificar</t>
-  </si>
-  <si>
     <t>Sistema debe de emitir mensaje de alerta correspondiente a cada situación</t>
   </si>
   <si>
-    <t>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Empresas Externas, ingresando datos de un registro existente, luego de ello, intentar crear registro sin llenar campo obligatorios. Finanlizando, con la modificación y eliminación de registro que está siendo usado en otro modulo.</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Maestro - sub modulo Empresas externas, hacer clic en boton Agregar, ingresar datos de un registro existente y hacer clic en boton guardar, posterior a ello, intentar realizar registro sin llenar campos obligatorios. Finalizando con la modificación y eliminación de registro en uso.</t>
-  </si>
-  <si>
-    <t>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Recaudacion, ingresando datos de un registro existente, luego de ello, intentar crear registro sin llenar campo obligatorios. Finanlizando, con la modificación y eliminación de registro que está siendo usado en otro modulo.</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Maestro - sub modulo Recaudacion, hacer clic en boton Agregar, ingresar datos de un registro existente y hacer clic en boton guardar, posterior a ello, intentar realizar registro sin llenar campos obligatorios. Finalizando con la modificación y eliminación de registro en uso.</t>
-  </si>
-  <si>
     <t>TC_Cartera_ProcesoRemesa_ConsolidadoError</t>
   </si>
   <si>
@@ -227,39 +61,6 @@
   </si>
   <si>
     <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Procesos - sub modulo Tabajar con remesas, hacer clic en boton Agregar, ingresar datos de un registro existente y hacer clic en boton guardar, posterior a ello, intentar realizar registro sin llenar campos obligatorios.</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesoXML_OfertaTD</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesoXML_RestoXML</t>
-  </si>
-  <si>
-    <t>TC_Cartera_ProcesoXML_CartaGuiaID</t>
-  </si>
-  <si>
-    <t>Validar emisión XML con la opción oferta y TD</t>
-  </si>
-  <si>
-    <t>Validar emisión XML con la opción resto XML</t>
-  </si>
-  <si>
-    <t>Validar emisión XML, sin indicar ID de carta guía</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Generación XML (afianza), ingresar ID válido de carta guía, hacer clic en boton Generar XML Oferta y TD</t>
-  </si>
-  <si>
-    <t>XML generado exitosamente</t>
-  </si>
-  <si>
-    <t>Sisteme emite mensaje indicando "Debe ingresar Carta Guia"</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Generación XML (afianza), ingresar ID válido de carta guía, hacer clic en boton Resto XML</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Generación XML (afianza), hacer clic en boton Generar XML Oferta y TD</t>
   </si>
   <si>
     <t>TC_Cartera_NuevaRecaudacion_Paso1Credito</t>
@@ -937,13 +738,109 @@
   </si>
   <si>
     <t xml:space="preserve">Validar cambio de estado de cheque, indicando </t>
+  </si>
+  <si>
+    <t>TC_Cartera_ActivosVehiculos_Normal</t>
+  </si>
+  <si>
+    <t>TC_Cartera_ActivosVehiculos_Incautacion</t>
+  </si>
+  <si>
+    <t>TC_Cartera_ActivosVehiculos_DacionPago</t>
+  </si>
+  <si>
+    <t>Validar cambio de ubicación de vehículo tipo normal</t>
+  </si>
+  <si>
+    <t>Validar cambio de ubicación de vehículo tipo incautación</t>
+  </si>
+  <si>
+    <t>Validar cambio de ubicación de vehículo tipo dación pago</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú Favoritos - sub modulo Activos Vehículos, hacer clic en boton cambiar ubicación, seleccionar nueva ubicación, hacer clic en boton confirmar.</t>
+  </si>
+  <si>
+    <t>Cambio de ubicación de manera exitosa, se debe visualizar la nueva ubicación del vehículo en la vista principal</t>
+  </si>
+  <si>
+    <t>Administración Medios de Pagos</t>
+  </si>
+  <si>
+    <t>Tipo pago</t>
+  </si>
+  <si>
+    <t>PAC</t>
+  </si>
+  <si>
+    <t>PAT</t>
+  </si>
+  <si>
+    <t>Cuponera</t>
+  </si>
+  <si>
+    <t>Funcionario</t>
+  </si>
+  <si>
+    <t>Seguro cesantía</t>
+  </si>
+  <si>
+    <t>Sin medio de pago</t>
+  </si>
+  <si>
+    <t>Bitácora</t>
+  </si>
+  <si>
+    <t>Dtco Recibidos</t>
+  </si>
+  <si>
+    <t>Cambiar Tipo de Pago</t>
+  </si>
+  <si>
+    <t>Confeccionar</t>
+  </si>
+  <si>
+    <t>TC_Cartera_AdminMediosPagos_ImprimirNomina</t>
+  </si>
+  <si>
+    <t>TC_Cartera_AdminMediosPagos_ActualizarPAC</t>
+  </si>
+  <si>
+    <t>TC_Cartera_AdminMediosPagos_ACtualizarPAT</t>
+  </si>
+  <si>
+    <t>TC_Cartera_AdminMediosPagos_DtcoRecibidosPAC</t>
+  </si>
+  <si>
+    <t>TC_Cartera_AdminMediosPagos_PACCambioPago</t>
+  </si>
+  <si>
+    <t>TC_Cartera_AdminMediosPagos_DtcoRecibidosPAT</t>
+  </si>
+  <si>
+    <t>TC_Cartera_AdminMediosPagos_PATCambioPago</t>
+  </si>
+  <si>
+    <t>TC_Cartera_AdminMediosPagos_CuponeraConfeccionar</t>
+  </si>
+  <si>
+    <t>TC_Cartera_AdminMediosPagos_CuponeraCambioPago</t>
+  </si>
+  <si>
+    <t>TC_Cartera_AdminMediosPagos_SeguroCesantia</t>
+  </si>
+  <si>
+    <t>TC_Cartera_AdminMediosPagos_Funcionario</t>
+  </si>
+  <si>
+    <t>TC_Cartera_AdminMediosPagos_SinMedioPago</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -953,13 +850,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1123,12 +1013,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1176,6 +1060,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1228,6 +1115,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1560,78 +1450,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
-        <v>196</v>
-      </c>
-      <c r="B1" s="44" t="s">
+      <c r="A1" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="46" t="s">
-        <v>198</v>
-      </c>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="47" t="s">
-        <v>200</v>
-      </c>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="40" t="s">
+      <c r="C1" s="44"/>
+      <c r="D1" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="40" t="s">
+      <c r="N1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" s="40" t="s">
+      <c r="O1" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="39" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="14" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43"/>
+      <c r="A2" s="42"/>
       <c r="B2" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="C2" s="31" t="s">
-        <v>222</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>206</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>199</v>
-      </c>
-      <c r="F2" s="34" t="s">
-        <v>207</v>
-      </c>
-      <c r="G2" s="36" t="s">
-        <v>208</v>
-      </c>
-      <c r="H2" s="34" t="s">
-        <v>201</v>
+        <v>132</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="H2" s="32" t="s">
+        <v>136</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>202</v>
+        <v>137</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>203</v>
+        <v>138</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="L2" s="31" t="s">
-        <v>205</v>
-      </c>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
+        <v>139</v>
+      </c>
+      <c r="L2" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
     </row>
     <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -1655,7 +1545,7 @@
       <c r="K3" s="5"/>
       <c r="L3" s="8"/>
       <c r="M3" s="7" t="s">
-        <v>209</v>
+        <v>144</v>
       </c>
       <c r="N3" s="12" t="str">
         <f>CONCATENATE("Validar funcionalidad ",IF(B3=1,$B$2,$C$2)," del modulo Menú Favoritos, sub-modulo Créditos, seleccionando tipo de crédito ",IF(D3=1,$D$2,IF(E3=1,$E$2,IF(F3=1,$F$2,IF(G3=1,$G$2,"")))),", con estado pago ",IF(H3=1,$H$2,IF(I3=1,$I$2,IF(J3=1,$J$2,IF(K3=1,$K$2,IF(L3=1,$L$2,""))))))</f>
@@ -1666,7 +1556,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú Favoritos - sub modulo Créditos, filtrar por tipo crédito Inteligente y estado de pago Al día, hacer clic en boton Información de contacto para ingresar seguimiento</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>223</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1691,7 +1581,7 @@
       <c r="K4" s="5"/>
       <c r="L4" s="8"/>
       <c r="M4" s="7" t="s">
-        <v>210</v>
+        <v>145</v>
       </c>
       <c r="N4" s="12" t="str">
         <f t="shared" ref="N4:N15" si="0">CONCATENATE("Validar funcionalidad ",IF(B4=1,$B$2,$C$2)," del modulo Menú Favoritos, sub-modulo Créditos, seleccionando tipo de crédito ",IF(D4=1,$D$2,IF(E4=1,$E$2,IF(F4=1,$F$2,IF(G4=1,$G$2,"")))),", con estado pago ",IF(H4=1,$H$2,IF(I4=1,$I$2,IF(J4=1,$J$2,IF(K4=1,$K$2,IF(L4=1,$L$2,""))))))</f>
@@ -1702,7 +1592,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú Favoritos - sub modulo Créditos, filtrar por tipo crédito Convencional y estado de pago Moroso, hacer clic en boton Información de contacto para ingresar seguimiento</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>223</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1727,7 +1617,7 @@
       <c r="K5" s="5"/>
       <c r="L5" s="8"/>
       <c r="M5" s="7" t="s">
-        <v>211</v>
+        <v>146</v>
       </c>
       <c r="N5" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1738,7 +1628,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú Favoritos - sub modulo Créditos, filtrar por tipo crédito Leasing y estado de pago Vencido, hacer clic en boton Información de contacto para ingresar seguimiento</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>223</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1763,7 +1653,7 @@
       </c>
       <c r="L6" s="8"/>
       <c r="M6" s="7" t="s">
-        <v>212</v>
+        <v>147</v>
       </c>
       <c r="N6" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1774,7 +1664,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú Favoritos - sub modulo Créditos, filtrar por tipo crédito Leasing Inteligente y estado de pago Judicial, hacer clic en boton Información de contacto para ingresar seguimiento</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>223</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1799,7 +1689,7 @@
         <v>1</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>213</v>
+        <v>148</v>
       </c>
       <c r="N7" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1810,7 +1700,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú Favoritos - sub modulo Créditos, filtrar por tipo crédito Inteligente y estado de pago Pre Judicial, hacer clic en boton Información de contacto para ingresar seguimiento</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>223</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1835,7 +1725,7 @@
       <c r="K8" s="5"/>
       <c r="L8" s="8"/>
       <c r="M8" s="7" t="s">
-        <v>214</v>
+        <v>149</v>
       </c>
       <c r="N8" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1846,7 +1736,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú Favoritos - sub modulo Créditos, filtrar por tipo crédito Inteligente y estado de pago Al día, hacer clic en boton editar crédito para modificar datos del crédito seleccionado</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>224</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1871,7 +1761,7 @@
       <c r="K9" s="5"/>
       <c r="L9" s="8"/>
       <c r="M9" s="7" t="s">
-        <v>215</v>
+        <v>150</v>
       </c>
       <c r="N9" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1882,32 +1772,32 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú Favoritos - sub modulo Créditos, filtrar por tipo crédito Inteligente y estado de pago Moroso, hacer clic en boton editar crédito para modificar datos del crédito seleccionado</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" s="27" customFormat="1" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>1</v>
       </c>
-      <c r="B10" s="25"/>
+      <c r="B10" s="23"/>
       <c r="C10" s="8">
         <v>1</v>
       </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25">
-        <v>1</v>
-      </c>
-      <c r="F10" s="25"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25">
-        <v>1</v>
-      </c>
-      <c r="K10" s="25"/>
-      <c r="L10" s="24"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23">
+        <v>1</v>
+      </c>
+      <c r="F10" s="23"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23">
+        <v>1</v>
+      </c>
+      <c r="K10" s="23"/>
+      <c r="L10" s="22"/>
       <c r="M10" s="7" t="s">
-        <v>216</v>
+        <v>151</v>
       </c>
       <c r="N10" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1918,7 +1808,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú Favoritos - sub modulo Créditos, filtrar por tipo crédito Convencional y estado de pago Vencido, hacer clic en boton editar crédito para modificar datos del crédito seleccionado</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>224</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -1942,7 +1832,7 @@
       </c>
       <c r="L11" s="8"/>
       <c r="M11" s="7" t="s">
-        <v>217</v>
+        <v>152</v>
       </c>
       <c r="N11" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1953,14 +1843,14 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú Favoritos - sub modulo Créditos, filtrar por tipo crédito Convencional y estado de pago Judicial, hacer clic en boton editar crédito para modificar datos del crédito seleccionado</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>224</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>1</v>
       </c>
-      <c r="B12" s="25"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="8">
         <v>1</v>
       </c>
@@ -1978,7 +1868,7 @@
         <v>1</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>218</v>
+        <v>153</v>
       </c>
       <c r="N12" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1989,7 +1879,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú Favoritos - sub modulo Créditos, filtrar por tipo crédito Leasing y estado de pago Pre Judicial, hacer clic en boton editar crédito para modificar datos del crédito seleccionado</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>224</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -2013,7 +1903,7 @@
       <c r="K13" s="5"/>
       <c r="L13" s="8"/>
       <c r="M13" s="7" t="s">
-        <v>219</v>
+        <v>154</v>
       </c>
       <c r="N13" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2024,7 +1914,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú Favoritos - sub modulo Créditos, filtrar por tipo crédito Leasing y estado de pago Al día, hacer clic en boton editar crédito para modificar datos del crédito seleccionado</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>224</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -2048,7 +1938,7 @@
       <c r="K14" s="5"/>
       <c r="L14" s="8"/>
       <c r="M14" s="7" t="s">
-        <v>220</v>
+        <v>155</v>
       </c>
       <c r="N14" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2059,7 +1949,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú Favoritos - sub modulo Créditos, filtrar por tipo crédito Leasing Inteligente y estado de pago Moroso, hacer clic en boton editar crédito para modificar datos del crédito seleccionado</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>224</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -2083,7 +1973,7 @@
       <c r="K15" s="5"/>
       <c r="L15" s="8"/>
       <c r="M15" s="7" t="s">
-        <v>221</v>
+        <v>156</v>
       </c>
       <c r="N15" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2094,7 +1984,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú Favoritos - sub modulo Créditos, filtrar por tipo crédito Leasing Inteligente y estado de pago Vencido, hacer clic en boton editar crédito para modificar datos del crédito seleccionado</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>224</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -2125,22 +2015,22 @@
       <c r="L17" s="8"/>
       <c r="M17" s="7"/>
     </row>
-    <row r="18" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="26"/>
+    <row r="18" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="24"/>
       <c r="N18" s="12"/>
       <c r="O18" s="7"/>
-      <c r="P18" s="26"/>
+      <c r="P18" s="24"/>
     </row>
     <row r="19" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
@@ -2174,16 +2064,16 @@
       <c r="K20" s="5"/>
       <c r="L20" s="8"/>
       <c r="M20" s="7" t="s">
-        <v>225</v>
+        <v>160</v>
       </c>
       <c r="N20" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="O20" s="30" t="s">
-        <v>227</v>
+        <v>161</v>
+      </c>
+      <c r="O20" s="28" t="s">
+        <v>162</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>228</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2276,20 +2166,20 @@
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
     </row>
-    <row r="26" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="24"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="26"/>
+    <row r="26" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="22"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="24"/>
       <c r="N26" s="12"/>
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
@@ -2456,16 +2346,16 @@
       <c r="K37" s="5"/>
       <c r="L37" s="8"/>
       <c r="M37" s="7" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="N37" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="O37" s="30" t="s">
-        <v>63</v>
+        <v>8</v>
+      </c>
+      <c r="O37" s="28" t="s">
+        <v>9</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2677,1047 +2567,6 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N50"/>
-  <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="11" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A3" sqref="A3:A17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="7.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="5" customWidth="1"/>
-    <col min="3" max="3" width="4.85546875" style="13" customWidth="1"/>
-    <col min="4" max="4" width="5.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" style="16" customWidth="1"/>
-    <col min="6" max="6" width="4.42578125" customWidth="1"/>
-    <col min="7" max="7" width="4.42578125" style="3" customWidth="1"/>
-    <col min="8" max="9" width="4.85546875" style="11" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="51.7109375" style="6" customWidth="1"/>
-    <col min="12" max="12" width="255.42578125" style="12" customWidth="1"/>
-    <col min="13" max="13" width="255.42578125" style="7" customWidth="1"/>
-    <col min="14" max="14" width="79" style="7" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="45"/>
-      <c r="H1" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="51"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="N1" s="40" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43"/>
-      <c r="B2" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-    </row>
-    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="16">
-        <v>1</v>
-      </c>
-      <c r="F3" s="5">
-        <v>1</v>
-      </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="9">
-        <v>1</v>
-      </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="21">
-        <v>12</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L3" s="12" t="str">
-        <f>CONCATENATE("Validar funcionalidad ",IF(B3=1,$B$2,IF(C3=1,$C$2,IF(D3=1,$D$2)))," del modulo Maestro, sub-modulo Recaudacion",IF(E3=1,", considerando la opcion exportar a excel",""),IF(F3=1,", hacer clic en enlace concepto para modificar registro",IF(G3=1,", hacer clic en enlace concepto para eliminar registro","")),IF(H3=1,", finalizando con la consulta mediante el filtro ",""),IF(H3=1,$H$2,""),IF(H3=1," con el dato ",""),IF(H3=1,J3,""))</f>
-        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Recaudacion, considerando la opcion exportar a excel, hacer clic en enlace concepto para modificar registro, finalizando con la consulta mediante el filtro Concepto con el dato 12</v>
-      </c>
-      <c r="M3" s="12" t="str">
-        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion",IF(B3=1,", hacer clic en boton agregar",IF(C3=1,", hacer clic en boton eliminar",IF(D3=1,", hacer clic en boton modificar"))),IF(E3=1,", hacer clic en boton exportar a excel",""),IF(F3=1,", hacer clic en enlace concepto para modificar registro",IF(G3=1,", hacer clic en enlace concepto para eliminar registro","")),IF(H3=1,", finalizando con la consulta mediante el filtro ",""),IF(H3=1,$H$2,""),IF(H3=1," con el dato ",""),IF(H3=1,J3,""))</f>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace concepto para modificar registro, finalizando con la consulta mediante el filtro Concepto con el dato 12</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="16">
-        <v>1</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="8">
-        <v>1</v>
-      </c>
-      <c r="H4" s="9">
-        <v>1</v>
-      </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="10">
-        <v>10</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="L4" s="12" t="str">
-        <f t="shared" ref="L4:L17" si="0">CONCATENATE("Validar funcionalidad ",IF(B4=1,$B$2,IF(C4=1,$C$2,IF(D4=1,$D$2)))," del modulo Maestro, sub-modulo Recaudacion",IF(E4=1,", considerando la opcion exportar a excel",""),IF(F4=1,", hacer clic en enlace concepto para modificar registro",IF(G4=1,", hacer clic en enlace concepto para eliminar registro","")),IF(H4=1,", finalizando con la consulta mediante el filtro ",""),IF(H4=1,$H$2,""),IF(H4=1," con el dato ",""),IF(H4=1,J4,""))</f>
-        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Recaudacion, considerando la opcion exportar a excel, hacer clic en enlace concepto para eliminar registro, finalizando con la consulta mediante el filtro Concepto con el dato 10</v>
-      </c>
-      <c r="M4" s="12" t="str">
-        <f t="shared" ref="M4:M17" si="1">CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion",IF(B4=1,", hacer clic en boton agregar",IF(C4=1,", hacer clic en boton eliminar",IF(D4=1,", hacer clic en boton modificar"))),IF(E4=1,", hacer clic en boton exportar a excel",""),IF(F4=1,", hacer clic en enlace concepto para modificar registro",IF(G4=1,", hacer clic en enlace concepto para eliminar registro","")),IF(H4=1,", finalizando con la consulta mediante el filtro ",""),IF(H4=1,$H$2,""),IF(H4=1," con el dato ",""),IF(H4=1,J4,""))</f>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace concepto para eliminar registro, finalizando con la consulta mediante el filtro Concepto con el dato 10</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <v>1</v>
-      </c>
-      <c r="B5" s="5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="5">
-        <v>1</v>
-      </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="L5" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Recaudacion, hacer clic en enlace concepto para modificar registro</v>
-      </c>
-      <c r="M5" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton agregar, hacer clic en enlace concepto para modificar registro</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>1</v>
-      </c>
-      <c r="B6" s="5">
-        <v>1</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="16">
-        <v>1</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="8">
-        <v>1</v>
-      </c>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L6" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Recaudacion, considerando la opcion exportar a excel, hacer clic en enlace concepto para eliminar registro</v>
-      </c>
-      <c r="M6" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace concepto para eliminar registro</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <v>1</v>
-      </c>
-      <c r="B7" s="5">
-        <v>1</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L7" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Recaudacion</v>
-      </c>
-      <c r="M7" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton agregar</v>
-      </c>
-      <c r="N7" s="26" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <v>1</v>
-      </c>
-      <c r="C8" s="5">
-        <v>1</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="16">
-        <v>1</v>
-      </c>
-      <c r="F8" s="5">
-        <v>1</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9">
-        <v>1</v>
-      </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="21">
-        <v>30</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L8" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Recaudacion, considerando la opcion exportar a excel, hacer clic en enlace concepto para modificar registro, finalizando con la consulta mediante el filtro Concepto con el dato 30</v>
-      </c>
-      <c r="M8" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace concepto para modificar registro, finalizando con la consulta mediante el filtro Concepto con el dato 30</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
-        <v>1</v>
-      </c>
-      <c r="C9" s="5">
-        <v>1</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="16">
-        <v>1</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="8">
-        <v>1</v>
-      </c>
-      <c r="H9" s="9">
-        <v>1</v>
-      </c>
-      <c r="I9" s="9"/>
-      <c r="J9" s="10">
-        <v>5</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="L9" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Recaudacion, considerando la opcion exportar a excel, hacer clic en enlace concepto para eliminar registro, finalizando con la consulta mediante el filtro Concepto con el dato 5</v>
-      </c>
-      <c r="M9" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace concepto para eliminar registro, finalizando con la consulta mediante el filtro Concepto con el dato 5</v>
-      </c>
-      <c r="N9" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <v>1</v>
-      </c>
-      <c r="C10" s="5">
-        <v>1</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="F10" s="5">
-        <v>1</v>
-      </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="L10" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Recaudacion, hacer clic en enlace concepto para modificar registro</v>
-      </c>
-      <c r="M10" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton eliminar, hacer clic en enlace concepto para modificar registro</v>
-      </c>
-      <c r="N10" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
-        <v>1</v>
-      </c>
-      <c r="C11" s="5">
-        <v>1</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="16">
-        <v>1</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="8">
-        <v>1</v>
-      </c>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="L11" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Recaudacion, considerando la opcion exportar a excel, hacer clic en enlace concepto para eliminar registro</v>
-      </c>
-      <c r="M11" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace concepto para eliminar registro</v>
-      </c>
-      <c r="N11" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
-        <v>1</v>
-      </c>
-      <c r="C12" s="5">
-        <v>1</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L12" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Recaudacion</v>
-      </c>
-      <c r="M12" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton eliminar</v>
-      </c>
-      <c r="N12" s="26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
-        <v>1</v>
-      </c>
-      <c r="D13" s="5">
-        <v>1</v>
-      </c>
-      <c r="E13" s="16">
-        <v>1</v>
-      </c>
-      <c r="F13" s="5">
-        <v>1</v>
-      </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="9">
-        <v>1</v>
-      </c>
-      <c r="I13" s="9"/>
-      <c r="J13" s="21">
-        <v>2</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="L13" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Recaudacion, considerando la opcion exportar a excel, hacer clic en enlace concepto para modificar registro, finalizando con la consulta mediante el filtro Concepto con el dato 2</v>
-      </c>
-      <c r="M13" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace concepto para modificar registro, finalizando con la consulta mediante el filtro Concepto con el dato 2</v>
-      </c>
-      <c r="N13" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
-        <v>1</v>
-      </c>
-      <c r="D14" s="5">
-        <v>1</v>
-      </c>
-      <c r="E14" s="16">
-        <v>1</v>
-      </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="8">
-        <v>1</v>
-      </c>
-      <c r="H14" s="9">
-        <v>1</v>
-      </c>
-      <c r="I14" s="9"/>
-      <c r="J14" s="10">
-        <v>3</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L14" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Recaudacion, considerando la opcion exportar a excel, hacer clic en enlace concepto para eliminar registro, finalizando con la consulta mediante el filtro Concepto con el dato 3</v>
-      </c>
-      <c r="M14" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace concepto para eliminar registro, finalizando con la consulta mediante el filtro Concepto con el dato 3</v>
-      </c>
-      <c r="N14" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
-        <v>1</v>
-      </c>
-      <c r="D15" s="5">
-        <v>1</v>
-      </c>
-      <c r="F15" s="5">
-        <v>1</v>
-      </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L15" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Recaudacion, hacer clic en enlace concepto para modificar registro</v>
-      </c>
-      <c r="M15" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton modificar, hacer clic en enlace concepto para modificar registro</v>
-      </c>
-      <c r="N15" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
-        <v>1</v>
-      </c>
-      <c r="D16" s="5">
-        <v>1</v>
-      </c>
-      <c r="E16" s="16">
-        <v>1</v>
-      </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="8">
-        <v>1</v>
-      </c>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="L16" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Recaudacion, considerando la opcion exportar a excel, hacer clic en enlace concepto para eliminar registro</v>
-      </c>
-      <c r="M16" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace concepto para eliminar registro</v>
-      </c>
-      <c r="N16" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
-        <v>1</v>
-      </c>
-      <c r="D17" s="5">
-        <v>1</v>
-      </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L17" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Recaudacion</v>
-      </c>
-      <c r="M17" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton modificar</v>
-      </c>
-      <c r="N17" s="26" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-    </row>
-    <row r="19" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-    </row>
-    <row r="20" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-    </row>
-    <row r="21" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-    </row>
-    <row r="22" spans="1:14" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L22" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="M22" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="N22" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-    </row>
-    <row r="24" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-    </row>
-    <row r="25" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-    </row>
-    <row r="26" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="8"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="7"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="8"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="7"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="8"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="7"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="8"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="7"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="8"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="7"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="8"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="7"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="8"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="7"/>
-    </row>
-    <row r="34" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="8"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="7"/>
-      <c r="N34" s="7"/>
-    </row>
-    <row r="35" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="7"/>
-      <c r="N35" s="7"/>
-    </row>
-    <row r="36" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="7"/>
-      <c r="N36" s="7"/>
-    </row>
-    <row r="37" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="8"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="7"/>
-      <c r="N37" s="7"/>
-    </row>
-    <row r="38" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="8"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="12"/>
-      <c r="M38" s="7"/>
-      <c r="N38" s="7"/>
-    </row>
-    <row r="39" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="8"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="12"/>
-      <c r="M39" s="7"/>
-      <c r="N39" s="7"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="8"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="8"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="7"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="8"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="8"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="7"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="8"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="8"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="7"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="8"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="8"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="7"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="8"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="8"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="7"/>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="8"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="8"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="7"/>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="8"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="8"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="7"/>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="8"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="8"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="7"/>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="8"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="8"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9"/>
-      <c r="J48" s="10"/>
-      <c r="K48" s="7"/>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="8"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="8"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
-      <c r="J49" s="10"/>
-      <c r="K49" s="7"/>
-    </row>
-    <row r="50" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="8"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
-      <c r="J50" s="10"/>
-      <c r="K50" s="7"/>
-      <c r="L50" s="12"/>
-      <c r="M50" s="7"/>
-      <c r="N50" s="7"/>
-    </row>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:K2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -3734,65 +2583,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="40" t="s">
+      <c r="C1" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="39" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="14" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>153</v>
+        <v>88</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>154</v>
+        <v>89</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>159</v>
+        <v>94</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>155</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>156</v>
+        <v>91</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>158</v>
+        <v>93</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>160</v>
+        <v>95</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>163</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>157</v>
+        <v>92</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>161</v>
+        <v>96</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>162</v>
+        <v>97</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>164</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3805,7 +2654,7 @@
       <c r="A7" s="7"/>
       <c r="B7" s="12"/>
       <c r="C7" s="7"/>
-      <c r="D7" s="26"/>
+      <c r="D7" s="24"/>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
@@ -3829,7 +2678,7 @@
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="C12" s="12"/>
-      <c r="D12" s="26"/>
+      <c r="D12" s="24"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
@@ -3850,7 +2699,7 @@
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="C17" s="12"/>
-      <c r="D17" s="26"/>
+      <c r="D17" s="24"/>
     </row>
     <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
@@ -3879,7 +2728,7 @@
     <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="12"/>
-      <c r="C22" s="30"/>
+      <c r="C22" s="28"/>
       <c r="D22" s="7"/>
     </row>
     <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4028,163 +2877,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="40" t="s">
+      <c r="C1" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="39" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="14" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D4" s="30" t="s">
-        <v>82</v>
+        <v>16</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>86</v>
+        <v>20</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>87</v>
+        <v>22</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>89</v>
+        <v>24</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>97</v>
+        <v>32</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>98</v>
+        <v>33</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>98</v>
+        <v>33</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>91</v>
+        <v>26</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>102</v>
+        <v>37</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>109</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>103</v>
+        <v>38</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>107</v>
+        <v>42</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>101</v>
+        <v>36</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>104</v>
+        <v>39</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="D12" s="26" t="s">
-        <v>108</v>
+        <v>41</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -4199,23 +3048,23 @@
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
     </row>
-    <row r="17" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="12"/>
       <c r="C17" s="7"/>
-      <c r="D17" s="26"/>
+      <c r="D17" s="24"/>
     </row>
     <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="12"/>
       <c r="C18" s="7"/>
-      <c r="D18" s="26"/>
+      <c r="D18" s="24"/>
     </row>
     <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="12"/>
       <c r="C19" s="7"/>
-      <c r="D19" s="26"/>
+      <c r="D19" s="24"/>
     </row>
     <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
@@ -4250,7 +3099,7 @@
     <row r="25" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="30"/>
+      <c r="C25" s="28"/>
       <c r="D25" s="7"/>
     </row>
     <row r="26" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4381,93 +3230,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="40" t="s">
+      <c r="C1" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="39" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="14" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>112</v>
+        <v>47</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>125</v>
+        <v>60</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>113</v>
+        <v>48</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>117</v>
+        <v>52</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>119</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>114</v>
+        <v>49</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>116</v>
+        <v>51</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>118</v>
+        <v>53</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>120</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>121</v>
+        <v>56</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>122</v>
+        <v>57</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>123</v>
+        <v>58</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>149</v>
+        <v>84</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>150</v>
+        <v>85</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>152</v>
+        <v>86</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4488,11 +3337,11 @@
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
     </row>
-    <row r="12" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="26"/>
+    <row r="12" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="24"/>
       <c r="B12" s="12"/>
       <c r="C12" s="7"/>
-      <c r="D12" s="26"/>
+      <c r="D12" s="24"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
@@ -4506,17 +3355,17 @@
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
     </row>
-    <row r="17" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="26"/>
+    <row r="17" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="24"/>
       <c r="B17" s="12"/>
       <c r="C17" s="7"/>
-      <c r="D17" s="26"/>
+      <c r="D17" s="24"/>
     </row>
     <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="12"/>
       <c r="C18" s="7"/>
-      <c r="D18" s="26"/>
+      <c r="D18" s="24"/>
     </row>
     <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
@@ -4557,7 +3406,7 @@
     <row r="25" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="30"/>
+      <c r="C25" s="28"/>
       <c r="D25" s="7"/>
     </row>
     <row r="26" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4694,7 +3543,7 @@
     <col min="10" max="10" width="5.7109375" style="11" customWidth="1"/>
     <col min="11" max="11" width="5.28515625" style="2" customWidth="1"/>
     <col min="12" max="12" width="4.85546875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="4.85546875" style="39" customWidth="1"/>
+    <col min="13" max="13" width="4.85546875" style="37" customWidth="1"/>
     <col min="14" max="14" width="56.42578125" style="3" customWidth="1"/>
     <col min="15" max="15" width="134.28515625" style="12" customWidth="1"/>
     <col min="16" max="16" width="255.42578125" style="7" customWidth="1"/>
@@ -4702,82 +3551,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
-        <v>229</v>
-      </c>
-      <c r="B1" s="44" t="s">
-        <v>230</v>
-      </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="49" t="s">
-        <v>233</v>
-      </c>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="50" t="s">
-        <v>234</v>
-      </c>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="53" t="s">
-        <v>239</v>
-      </c>
-      <c r="N1" s="48" t="s">
+      <c r="A1" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" s="43" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" s="44"/>
+      <c r="D1" s="48" t="s">
+        <v>168</v>
+      </c>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="49" t="s">
+        <v>169</v>
+      </c>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="52" t="s">
+        <v>174</v>
+      </c>
+      <c r="N1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="40" t="s">
+      <c r="O1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q1" s="40" t="s">
+      <c r="P1" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" s="39" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="14" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43"/>
+      <c r="A2" s="42"/>
       <c r="B2" s="19" t="s">
-        <v>231</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>232</v>
+        <v>166</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>167</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>201</v>
+        <v>136</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>202</v>
+        <v>137</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>203</v>
+        <v>138</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>204</v>
+        <v>139</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>205</v>
+        <v>140</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>235</v>
+        <v>170</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>236</v>
+        <v>171</v>
       </c>
       <c r="K2" s="18" t="s">
-        <v>237</v>
+        <v>172</v>
       </c>
       <c r="L2" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="M2" s="54"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41"/>
+        <v>173</v>
+      </c>
+      <c r="M2" s="53"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
     </row>
     <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -4799,10 +3648,10 @@
       </c>
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="38" t="s">
-        <v>240</v>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="36" t="s">
+        <v>175</v>
       </c>
       <c r="O3" s="12" t="str">
         <f>CONCATENATE("Validar Asignaciones, seleccionando crédito con estado contrato ",IF(B3=1,$B$2," distinto a vigente")," y estado de pago ",IF(D3=1,$D$2,IF(E3=1,$E$2,IF(F3=1,$F$2,IF(G3=1,$G$2,IF(H3=1,$H$2))))),", asignando ejecutivo tipo ",IF(I3=1,$I$2,IF(J3=1,$J$2,IF(K3=1,$K$2,IF(L3=1,$L$2)))))</f>
@@ -4813,7 +3662,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú favoritos, sub-modulo Asignaciones, seleccionar crédito que posea contrato en estado Vigente y estado de pago Al día, asignar tipo ejecutivo Call</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>260</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4840,8 +3689,8 @@
       <c r="M4" s="10">
         <v>1</v>
       </c>
-      <c r="N4" s="38" t="s">
-        <v>241</v>
+      <c r="N4" s="36" t="s">
+        <v>176</v>
       </c>
       <c r="O4" s="12" t="str">
         <f t="shared" ref="O4:O20" si="0">CONCATENATE("Validar Asignaciones, seleccionando crédito con estado contrato ",IF(B4=1,$B$2," distinto a vigente")," y estado de pago ",IF(D4=1,$D$2,IF(E4=1,$E$2,IF(F4=1,$F$2,IF(G4=1,$G$2,IF(H4=1,$H$2))))),", asignando ejecutivo tipo ",IF(I4=1,$I$2,IF(J4=1,$J$2,IF(K4=1,$K$2,IF(L4=1,$L$2)))))</f>
@@ -4852,7 +3701,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú favoritos, sub-modulo Asignaciones, seleccionar crédito que posea contrato en estado Vigente y estado de pago Al día, asignar tipo ejecutivo Terreno. Finalizando con exportar a excel</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>260</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4877,8 +3726,8 @@
       </c>
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
-      <c r="N5" s="38" t="s">
-        <v>242</v>
+      <c r="N5" s="36" t="s">
+        <v>177</v>
       </c>
       <c r="O5" s="12" t="str">
         <f t="shared" si="0"/>
@@ -4889,7 +3738,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú favoritos, sub-modulo Asignaciones, seleccionar crédito que posea contrato en estado Vigente y estado de pago Moroso, asignar tipo ejecutivo Regiones</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>260</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4916,8 +3765,8 @@
       <c r="M6" s="10">
         <v>1</v>
       </c>
-      <c r="N6" s="38" t="s">
-        <v>243</v>
+      <c r="N6" s="36" t="s">
+        <v>178</v>
       </c>
       <c r="O6" s="12" t="str">
         <f t="shared" si="0"/>
@@ -4928,7 +3777,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú favoritos, sub-modulo Asignaciones, seleccionar crédito que posea contrato en estado Vigente y estado de pago Moroso, asignar tipo ejecutivo Abogado. Finalizando con exportar a excel</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>260</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4953,8 +3802,8 @@
       <c r="K7" s="9"/>
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
-      <c r="N7" s="38" t="s">
-        <v>244</v>
+      <c r="N7" s="36" t="s">
+        <v>179</v>
       </c>
       <c r="O7" s="12" t="str">
         <f t="shared" si="0"/>
@@ -4965,7 +3814,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú favoritos, sub-modulo Asignaciones, seleccionar crédito que posea contrato en estado Vigente y estado de pago Vencido, asignar tipo ejecutivo Call</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>260</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4988,12 +3837,12 @@
         <v>1</v>
       </c>
       <c r="K8" s="9"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21">
-        <v>1</v>
-      </c>
-      <c r="N8" s="38" t="s">
-        <v>245</v>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20">
+        <v>1</v>
+      </c>
+      <c r="N8" s="36" t="s">
+        <v>180</v>
       </c>
       <c r="O8" s="12" t="str">
         <f t="shared" si="0"/>
@@ -5004,7 +3853,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú favoritos, sub-modulo Asignaciones, seleccionar crédito que posea contrato en estado Vigente y estado de pago Vencido, asignar tipo ejecutivo Terreno. Finalizando con exportar a excel</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>260</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5029,8 +3878,8 @@
       </c>
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
-      <c r="N9" s="38" t="s">
-        <v>246</v>
+      <c r="N9" s="36" t="s">
+        <v>181</v>
       </c>
       <c r="O9" s="12" t="str">
         <f t="shared" si="0"/>
@@ -5041,7 +3890,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú favoritos, sub-modulo Asignaciones, seleccionar crédito que posea contrato en estado Vigente y estado de pago Judicial, asignar tipo ejecutivo Regiones</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>260</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -5068,8 +3917,8 @@
       <c r="M10" s="10">
         <v>1</v>
       </c>
-      <c r="N10" s="38" t="s">
-        <v>247</v>
+      <c r="N10" s="36" t="s">
+        <v>182</v>
       </c>
       <c r="O10" s="12" t="str">
         <f t="shared" si="0"/>
@@ -5080,7 +3929,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú favoritos, sub-modulo Asignaciones, seleccionar crédito que posea contrato en estado Vigente y estado de pago Judicial, asignar tipo ejecutivo Abogado. Finalizando con exportar a excel</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>260</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -5105,8 +3954,8 @@
       <c r="K11" s="9"/>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
-      <c r="N11" s="38" t="s">
-        <v>248</v>
+      <c r="N11" s="36" t="s">
+        <v>183</v>
       </c>
       <c r="O11" s="12" t="str">
         <f t="shared" si="0"/>
@@ -5117,7 +3966,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú favoritos, sub-modulo Asignaciones, seleccionar crédito que posea contrato en estado Vigente y estado de pago Pre Judicial, asignar tipo ejecutivo Call</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>260</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -5144,8 +3993,8 @@
       <c r="M12" s="10">
         <v>1</v>
       </c>
-      <c r="N12" s="38" t="s">
-        <v>249</v>
+      <c r="N12" s="36" t="s">
+        <v>184</v>
       </c>
       <c r="O12" s="12" t="str">
         <f t="shared" si="0"/>
@@ -5156,7 +4005,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú favoritos, sub-modulo Asignaciones, seleccionar crédito que posea contrato en estado Vigente y estado de pago Pre Judicial, asignar tipo ejecutivo Terreno. Finalizando con exportar a excel</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>260</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -5179,10 +4028,10 @@
       <c r="K13" s="9">
         <v>1</v>
       </c>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="38" t="s">
-        <v>250</v>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="36" t="s">
+        <v>185</v>
       </c>
       <c r="O13" s="12" t="str">
         <f t="shared" si="0"/>
@@ -5193,7 +4042,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú favoritos, sub-modulo Asignaciones, seleccionar crédito que posea contrato en estado  distinto de vigente y estado de pago Al día, asignar tipo ejecutivo Regiones</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>260</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -5220,8 +4069,8 @@
       <c r="M14" s="10">
         <v>1</v>
       </c>
-      <c r="N14" s="38" t="s">
-        <v>251</v>
+      <c r="N14" s="36" t="s">
+        <v>186</v>
       </c>
       <c r="O14" s="12" t="str">
         <f t="shared" si="0"/>
@@ -5232,7 +4081,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú favoritos, sub-modulo Asignaciones, seleccionar crédito que posea contrato en estado  distinto de vigente y estado de pago Al día, asignar tipo ejecutivo Abogado. Finalizando con exportar a excel</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>260</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -5257,8 +4106,8 @@
       <c r="K15" s="9"/>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
-      <c r="N15" s="38" t="s">
-        <v>252</v>
+      <c r="N15" s="36" t="s">
+        <v>187</v>
       </c>
       <c r="O15" s="12" t="str">
         <f t="shared" si="0"/>
@@ -5269,7 +4118,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú favoritos, sub-modulo Asignaciones, seleccionar crédito que posea contrato en estado  distinto de vigente y estado de pago Vencido, asignar tipo ejecutivo Terreno</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>260</v>
+        <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5290,14 +4139,14 @@
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
-      <c r="L16" s="21">
-        <v>1</v>
-      </c>
-      <c r="M16" s="21">
-        <v>1</v>
-      </c>
-      <c r="N16" s="38" t="s">
-        <v>253</v>
+      <c r="L16" s="20">
+        <v>1</v>
+      </c>
+      <c r="M16" s="20">
+        <v>1</v>
+      </c>
+      <c r="N16" s="36" t="s">
+        <v>188</v>
       </c>
       <c r="O16" s="12" t="str">
         <f t="shared" si="0"/>
@@ -5308,7 +4157,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú favoritos, sub-modulo Asignaciones, seleccionar crédito que posea contrato en estado  distinto de vigente y estado de pago Vencido, asignar tipo ejecutivo Abogado. Finalizando con exportar a excel</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>260</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5333,8 +4182,8 @@
       <c r="K17" s="9"/>
       <c r="L17" s="10"/>
       <c r="M17" s="10"/>
-      <c r="N17" s="38" t="s">
-        <v>254</v>
+      <c r="N17" s="36" t="s">
+        <v>189</v>
       </c>
       <c r="O17" s="12" t="str">
         <f t="shared" si="0"/>
@@ -5345,7 +4194,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú favoritos, sub-modulo Asignaciones, seleccionar crédito que posea contrato en estado  distinto de vigente y estado de pago Judicial, asignar tipo ejecutivo Call</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>260</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5372,8 +4221,8 @@
       <c r="M18" s="10">
         <v>1</v>
       </c>
-      <c r="N18" s="38" t="s">
-        <v>255</v>
+      <c r="N18" s="36" t="s">
+        <v>190</v>
       </c>
       <c r="O18" s="12" t="str">
         <f t="shared" si="0"/>
@@ -5384,7 +4233,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú favoritos, sub-modulo Asignaciones, seleccionar crédito que posea contrato en estado  distinto de vigente y estado de pago Judicial, asignar tipo ejecutivo Terreno. Finalizando con exportar a excel</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>260</v>
+        <v>195</v>
       </c>
     </row>
     <row r="19" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5409,8 +4258,8 @@
       </c>
       <c r="L19" s="10"/>
       <c r="M19" s="10"/>
-      <c r="N19" s="38" t="s">
-        <v>256</v>
+      <c r="N19" s="36" t="s">
+        <v>191</v>
       </c>
       <c r="O19" s="12" t="str">
         <f t="shared" si="0"/>
@@ -5421,7 +4270,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú favoritos, sub-modulo Asignaciones, seleccionar crédito que posea contrato en estado  distinto de vigente y estado de pago Pre Judicial, asignar tipo ejecutivo Regiones</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>260</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5448,8 +4297,8 @@
       <c r="M20" s="10">
         <v>1</v>
       </c>
-      <c r="N20" s="38" t="s">
-        <v>257</v>
+      <c r="N20" s="36" t="s">
+        <v>192</v>
       </c>
       <c r="O20" s="12" t="str">
         <f t="shared" si="0"/>
@@ -5460,7 +4309,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú favoritos, sub-modulo Asignaciones, seleccionar crédito que posea contrato en estado  distinto de vigente y estado de pago Pre Judicial, asignar tipo ejecutivo Abogado. Finalizando con exportar a excel</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>260</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5477,7 +4326,7 @@
       <c r="K21" s="9"/>
       <c r="L21" s="10"/>
       <c r="M21" s="10"/>
-      <c r="N21" s="38"/>
+      <c r="N21" s="36"/>
       <c r="O21" s="12"/>
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
@@ -5496,7 +4345,7 @@
       <c r="K22" s="9"/>
       <c r="L22" s="10"/>
       <c r="M22" s="10"/>
-      <c r="N22" s="38"/>
+      <c r="N22" s="36"/>
       <c r="O22" s="12"/>
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
@@ -5515,17 +4364,17 @@
       <c r="K23" s="9"/>
       <c r="L23" s="10"/>
       <c r="M23" s="10"/>
-      <c r="N23" s="38" t="s">
-        <v>258</v>
+      <c r="N23" s="36" t="s">
+        <v>193</v>
       </c>
       <c r="O23" s="12" t="s">
-        <v>262</v>
+        <v>197</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>263</v>
+        <v>198</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>264</v>
+        <v>199</v>
       </c>
     </row>
     <row r="24" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5542,17 +4391,17 @@
       <c r="K24" s="9"/>
       <c r="L24" s="10"/>
       <c r="M24" s="10"/>
-      <c r="N24" s="38" t="s">
-        <v>259</v>
+      <c r="N24" s="36" t="s">
+        <v>194</v>
       </c>
       <c r="O24" s="12" t="s">
-        <v>261</v>
+        <v>196</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>265</v>
+        <v>200</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>266</v>
+        <v>201</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
@@ -5568,7 +4417,7 @@
       <c r="K25" s="9"/>
       <c r="L25" s="10"/>
       <c r="M25" s="10"/>
-      <c r="N25" s="38"/>
+      <c r="N25" s="36"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
@@ -5583,7 +4432,7 @@
       <c r="K26" s="9"/>
       <c r="L26" s="10"/>
       <c r="M26" s="10"/>
-      <c r="N26" s="38"/>
+      <c r="N26" s="36"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
@@ -5598,7 +4447,7 @@
       <c r="K27" s="9"/>
       <c r="L27" s="10"/>
       <c r="M27" s="10"/>
-      <c r="N27" s="38"/>
+      <c r="N27" s="36"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
@@ -5613,7 +4462,7 @@
       <c r="K28" s="9"/>
       <c r="L28" s="10"/>
       <c r="M28" s="10"/>
-      <c r="N28" s="38"/>
+      <c r="N28" s="36"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
@@ -5628,7 +4477,7 @@
       <c r="K29" s="9"/>
       <c r="L29" s="10"/>
       <c r="M29" s="10"/>
-      <c r="N29" s="38"/>
+      <c r="N29" s="36"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
@@ -5643,7 +4492,7 @@
       <c r="K30" s="9"/>
       <c r="L30" s="10"/>
       <c r="M30" s="10"/>
-      <c r="N30" s="38"/>
+      <c r="N30" s="36"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
@@ -5658,7 +4507,7 @@
       <c r="K31" s="9"/>
       <c r="L31" s="10"/>
       <c r="M31" s="10"/>
-      <c r="N31" s="38"/>
+      <c r="N31" s="36"/>
     </row>
     <row r="32" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
@@ -5673,7 +4522,7 @@
       <c r="K32" s="9"/>
       <c r="L32" s="10"/>
       <c r="M32" s="10"/>
-      <c r="N32" s="38"/>
+      <c r="N32" s="36"/>
       <c r="O32" s="12"/>
       <c r="P32" s="7"/>
       <c r="Q32" s="7"/>
@@ -5691,7 +4540,7 @@
       <c r="K33" s="9"/>
       <c r="L33" s="10"/>
       <c r="M33" s="10"/>
-      <c r="N33" s="38"/>
+      <c r="N33" s="36"/>
       <c r="O33" s="12"/>
       <c r="P33" s="7"/>
       <c r="Q33" s="7"/>
@@ -5709,7 +4558,7 @@
       <c r="K34" s="9"/>
       <c r="L34" s="10"/>
       <c r="M34" s="10"/>
-      <c r="N34" s="38"/>
+      <c r="N34" s="36"/>
       <c r="O34" s="12"/>
       <c r="P34" s="7"/>
       <c r="Q34" s="7"/>
@@ -5727,7 +4576,7 @@
       <c r="K35" s="9"/>
       <c r="L35" s="10"/>
       <c r="M35" s="10"/>
-      <c r="N35" s="38"/>
+      <c r="N35" s="36"/>
       <c r="O35" s="12"/>
       <c r="P35" s="7"/>
       <c r="Q35" s="7"/>
@@ -5745,7 +4594,7 @@
       <c r="K36" s="9"/>
       <c r="L36" s="10"/>
       <c r="M36" s="10"/>
-      <c r="N36" s="38"/>
+      <c r="N36" s="36"/>
       <c r="O36" s="12"/>
       <c r="P36" s="7"/>
       <c r="Q36" s="7"/>
@@ -5763,7 +4612,7 @@
       <c r="K37" s="9"/>
       <c r="L37" s="10"/>
       <c r="M37" s="10"/>
-      <c r="N37" s="38"/>
+      <c r="N37" s="36"/>
       <c r="O37" s="12"/>
       <c r="P37" s="7"/>
       <c r="Q37" s="7"/>
@@ -5781,7 +4630,7 @@
       <c r="K38" s="9"/>
       <c r="L38" s="10"/>
       <c r="M38" s="10"/>
-      <c r="N38" s="38"/>
+      <c r="N38" s="36"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
@@ -5796,7 +4645,7 @@
       <c r="K39" s="9"/>
       <c r="L39" s="10"/>
       <c r="M39" s="10"/>
-      <c r="N39" s="38"/>
+      <c r="N39" s="36"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
@@ -5811,7 +4660,7 @@
       <c r="K40" s="9"/>
       <c r="L40" s="10"/>
       <c r="M40" s="10"/>
-      <c r="N40" s="38"/>
+      <c r="N40" s="36"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
@@ -5826,7 +4675,7 @@
       <c r="K41" s="9"/>
       <c r="L41" s="10"/>
       <c r="M41" s="10"/>
-      <c r="N41" s="38"/>
+      <c r="N41" s="36"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
@@ -5841,7 +4690,7 @@
       <c r="K42" s="9"/>
       <c r="L42" s="10"/>
       <c r="M42" s="10"/>
-      <c r="N42" s="38"/>
+      <c r="N42" s="36"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
@@ -5856,7 +4705,7 @@
       <c r="K43" s="9"/>
       <c r="L43" s="10"/>
       <c r="M43" s="10"/>
-      <c r="N43" s="38"/>
+      <c r="N43" s="36"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
@@ -5871,7 +4720,7 @@
       <c r="K44" s="9"/>
       <c r="L44" s="10"/>
       <c r="M44" s="10"/>
-      <c r="N44" s="38"/>
+      <c r="N44" s="36"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
@@ -5886,7 +4735,7 @@
       <c r="K45" s="9"/>
       <c r="L45" s="10"/>
       <c r="M45" s="10"/>
-      <c r="N45" s="38"/>
+      <c r="N45" s="36"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
@@ -5901,7 +4750,7 @@
       <c r="K46" s="9"/>
       <c r="L46" s="10"/>
       <c r="M46" s="10"/>
-      <c r="N46" s="38"/>
+      <c r="N46" s="36"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
@@ -5916,7 +4765,7 @@
       <c r="K47" s="9"/>
       <c r="L47" s="10"/>
       <c r="M47" s="10"/>
-      <c r="N47" s="38"/>
+      <c r="N47" s="36"/>
     </row>
     <row r="48" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
@@ -5931,7 +4780,7 @@
       <c r="K48" s="9"/>
       <c r="L48" s="10"/>
       <c r="M48" s="10"/>
-      <c r="N48" s="38"/>
+      <c r="N48" s="36"/>
       <c r="O48" s="12"/>
       <c r="P48" s="7"/>
       <c r="Q48" s="7"/>
@@ -5953,1180 +4802,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q50"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="14" topLeftCell="O1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O20" sqref="O20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="7.5703125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="4.7109375" customWidth="1"/>
-    <col min="3" max="3" width="4.85546875" style="13" customWidth="1"/>
-    <col min="4" max="4" width="4.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="4.42578125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="5.28515625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="3.85546875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="5.42578125" style="16" customWidth="1"/>
-    <col min="10" max="10" width="5" style="11" customWidth="1"/>
-    <col min="11" max="11" width="3.85546875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="15.28515625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="52" style="6" customWidth="1"/>
-    <col min="15" max="15" width="255.42578125" style="12" customWidth="1"/>
-    <col min="16" max="16" width="255.42578125" style="7" customWidth="1"/>
-    <col min="17" max="17" width="79" style="7" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="O1" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="P1" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q1" s="40" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43"/>
-      <c r="B2" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41"/>
-    </row>
-    <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="16">
-        <v>1</v>
-      </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8">
-        <v>1</v>
-      </c>
-      <c r="I3" s="16">
-        <v>1</v>
-      </c>
-      <c r="J3" s="9">
-        <v>1</v>
-      </c>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="O3" s="12" t="str">
-        <f>CONCATENATE("Validar funcionalidad ",IF(B3=1,$B$2,IF(C3=1,$C$2,IF(D3=1,$D$2)))," del modulo Maestro, sub-moduloEmpresas Externas",IF(E3=1," considerando enlace documentos proveedor para agregar nuevo registro",IF(F3=1," considerando enlace documentos proveedor para modificar registro",IF(G3=1," considerando enlace documentos proveedor para modificar registro",""))),IF(H3=1," y hacer clic en ",""),IF(H3=1,$H$2,""),IF(I3=1,", considerando la opcion exportar a excel",""),IF(J3=1,", finalizando con la consulta mediante el filtro ",IF(K3=1,", finalizando con la consulta mediante el filtro ",IF(L3=1,", finalizando con la consulta mediante el filtro ",""))),IF(J3=1,$J$2,IF(K3=1,$K$2,IF(L3=1,$L$2,""))),IF(J3=1," con el dato ",IF(K3=1," con el dato ",IF(L3=1," con el dato ",""))),IF(J3=1,M3,IF(K3=1,M3,IF(L3=1,M3,""))))</f>
-        <v>Validar funcionalidad Agregar del modulo Maestro, sub-moduloEmpresas Externas considerando enlace documentos proveedor para agregar nuevo registro y hacer clic en Enlace Descripción (Modificar y/o Eliminar registro), considerando la opcion exportar a excel, finalizando con la consulta mediante el filtro Nombre con el dato Empresa</v>
-      </c>
-      <c r="P3" s="12" t="str">
-        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Maestro, sub-modulo Empresas Externas",IF(B3=1,", hacer clic en boton agregar",IF(C3=1,", hacer clic en boton modificar",IF(D3=1,", hacer clic en boton eliminar"))),IF(E3=1,", hacer clic en enlace documentos proveedor para agregar nuevo registro",IF(F3=1,", hacer clic en enlace documentos proveedor para modificar registro",IF(G3=1," , hacer clic en enlace documentos proveedor para modificar registro",""))),IF(H3=1," y hacer clic en ",""),IF(H3=1,$H$2,""),IF(I3=1,", hacer clic en boton exportar a excel",""),IF(J3=1,", finalizando con la consulta mediante el filtro ",IF(K3=1,", finalizando con la consulta mediante el filtro ",IF(L3=1,", finalizando con la consulta mediante el filtro ",""))),IF(J3=1,$J$2,IF(K3=1,$K$2,IF(L3=1,$L$2,""))),IF(J3=1," con el dato ",IF(K3=1," con el dato ",IF(L3=1," con el dato ",""))),IF(J3=1,M3,IF(K3=1,M3,IF(L3=1,M3,""))))</f>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Maestro, sub-modulo Empresas Externas, hacer clic en boton agregar, hacer clic en enlace documentos proveedor para agregar nuevo registro y hacer clic en Enlace Descripción (Modificar y/o Eliminar registro), hacer clic en boton exportar a excel, finalizando con la consulta mediante el filtro Nombre con el dato Empresa</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16">
-        <v>1</v>
-      </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8">
-        <v>1</v>
-      </c>
-      <c r="I4" s="16">
-        <v>1</v>
-      </c>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9">
-        <v>1</v>
-      </c>
-      <c r="L4" s="9"/>
-      <c r="M4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="O4" s="12" t="str">
-        <f t="shared" ref="O4:O14" si="0">CONCATENATE("Validar funcionalidad ",IF(B4=1,$B$2,IF(C4=1,$C$2,IF(D4=1,$D$2)))," del modulo Maestro, sub-moduloEmpresas Externas",IF(E4=1," considerando enlace documentos proveedor para agregar nuevo registro",IF(F4=1," considerando enlace documentos proveedor para modificar registro",IF(G4=1," considerando enlace documentos proveedor para modificar registro",""))),IF(H4=1," y hacer clic en ",""),IF(H4=1,$H$2,""),IF(I4=1,", considerando la opcion exportar a excel",""),IF(J4=1,", finalizando con la consulta mediante el filtro ",IF(K4=1,", finalizando con la consulta mediante el filtro ",IF(L4=1,", finalizando con la consulta mediante el filtro ",""))),IF(J4=1,$J$2,IF(K4=1,$K$2,IF(L4=1,$L$2,""))),IF(J4=1," con el dato ",IF(K4=1," con el dato ",IF(L4=1," con el dato ",""))),IF(J4=1,M4,IF(K4=1,M4,IF(L4=1,M4,""))))</f>
-        <v>Validar funcionalidad Agregar del modulo Maestro, sub-moduloEmpresas Externas considerando enlace documentos proveedor para modificar registro y hacer clic en Enlace Descripción (Modificar y/o Eliminar registro), considerando la opcion exportar a excel, finalizando con la consulta mediante el filtro Nombre corto con el dato EPR</v>
-      </c>
-      <c r="P4" s="12" t="str">
-        <f t="shared" ref="P4:P14" si="1">CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Maestro, sub-modulo Empresas Externas",IF(B4=1,", hacer clic en boton agregar",IF(C4=1,", hacer clic en boton modificar",IF(D4=1,", hacer clic en boton eliminar"))),IF(E4=1,", hacer clic en enlace documentos proveedor para agregar nuevo registro",IF(F4=1,", hacer clic en enlace documentos proveedor para modificar registro",IF(G4=1," , hacer clic en enlace documentos proveedor para modificar registro",""))),IF(H4=1," y hacer clic en ",""),IF(H4=1,$H$2,""),IF(I4=1,", hacer clic en boton exportar a excel",""),IF(J4=1,", finalizando con la consulta mediante el filtro ",IF(K4=1,", finalizando con la consulta mediante el filtro ",IF(L4=1,", finalizando con la consulta mediante el filtro ",""))),IF(J4=1,$J$2,IF(K4=1,$K$2,IF(L4=1,$L$2,""))),IF(J4=1," con el dato ",IF(K4=1," con el dato ",IF(L4=1," con el dato ",""))),IF(J4=1,M4,IF(K4=1,M4,IF(L4=1,M4,""))))</f>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Maestro, sub-modulo Empresas Externas, hacer clic en boton agregar, hacer clic en enlace documentos proveedor para modificar registro y hacer clic en Enlace Descripción (Modificar y/o Eliminar registro), hacer clic en boton exportar a excel, finalizando con la consulta mediante el filtro Nombre corto con el dato EPR</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <v>1</v>
-      </c>
-      <c r="B5" s="5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="8">
-        <v>1</v>
-      </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="16">
-        <v>1</v>
-      </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9">
-        <v>1</v>
-      </c>
-      <c r="M5" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="O5" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Agregar del modulo Maestro, sub-moduloEmpresas Externas considerando enlace documentos proveedor para modificar registro, considerando la opcion exportar a excel, finalizando con la consulta mediante el filtro Descripción
-(Formulario Documentos Proveedor) con el dato PRENDA : Cedula</v>
-      </c>
-      <c r="P5" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Maestro, sub-modulo Empresas Externas, hacer clic en boton agregar , hacer clic en enlace documentos proveedor para modificar registro, hacer clic en boton exportar a excel, finalizando con la consulta mediante el filtro Descripción
-(Formulario Documentos Proveedor) con el dato PRENDA : Cedula</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>1</v>
-      </c>
-      <c r="B6" s="5">
-        <v>1</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="O6" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Agregar del modulo Maestro, sub-moduloEmpresas Externas</v>
-      </c>
-      <c r="P6" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Maestro, sub-modulo Empresas Externas, hacer clic en boton agregar</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <v>1</v>
-      </c>
-      <c r="C7" s="5">
-        <v>1</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="16">
-        <v>1</v>
-      </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8">
-        <v>1</v>
-      </c>
-      <c r="I7" s="16">
-        <v>1</v>
-      </c>
-      <c r="J7" s="9">
-        <v>1</v>
-      </c>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="O7" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Modificar del modulo Maestro, sub-moduloEmpresas Externas considerando enlace documentos proveedor para agregar nuevo registro y hacer clic en Enlace Descripción (Modificar y/o Eliminar registro), considerando la opcion exportar a excel, finalizando con la consulta mediante el filtro Nombre con el dato Empresa</v>
-      </c>
-      <c r="P7" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Maestro, sub-modulo Empresas Externas, hacer clic en boton modificar, hacer clic en enlace documentos proveedor para agregar nuevo registro y hacer clic en Enlace Descripción (Modificar y/o Eliminar registro), hacer clic en boton exportar a excel, finalizando con la consulta mediante el filtro Nombre con el dato Empresa</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <v>1</v>
-      </c>
-      <c r="C8" s="5">
-        <v>1</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16">
-        <v>1</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8">
-        <v>1</v>
-      </c>
-      <c r="I8" s="16">
-        <v>1</v>
-      </c>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9">
-        <v>1</v>
-      </c>
-      <c r="L8" s="9"/>
-      <c r="M8" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="O8" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Modificar del modulo Maestro, sub-moduloEmpresas Externas considerando enlace documentos proveedor para modificar registro y hacer clic en Enlace Descripción (Modificar y/o Eliminar registro), considerando la opcion exportar a excel, finalizando con la consulta mediante el filtro Nombre corto con el dato EPR</v>
-      </c>
-      <c r="P8" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Maestro, sub-modulo Empresas Externas, hacer clic en boton modificar, hacer clic en enlace documentos proveedor para modificar registro y hacer clic en Enlace Descripción (Modificar y/o Eliminar registro), hacer clic en boton exportar a excel, finalizando con la consulta mediante el filtro Nombre corto con el dato EPR</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
-        <v>1</v>
-      </c>
-      <c r="C9" s="5">
-        <v>1</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="8">
-        <v>1</v>
-      </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="16">
-        <v>1</v>
-      </c>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9">
-        <v>1</v>
-      </c>
-      <c r="M9" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="N9" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="O9" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Modificar del modulo Maestro, sub-moduloEmpresas Externas considerando enlace documentos proveedor para modificar registro, considerando la opcion exportar a excel, finalizando con la consulta mediante el filtro Descripción
-(Formulario Documentos Proveedor) con el dato PRENDA : Cedula</v>
-      </c>
-      <c r="P9" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Maestro, sub-modulo Empresas Externas, hacer clic en boton modificar , hacer clic en enlace documentos proveedor para modificar registro, hacer clic en boton exportar a excel, finalizando con la consulta mediante el filtro Descripción
-(Formulario Documentos Proveedor) con el dato PRENDA : Cedula</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <v>1</v>
-      </c>
-      <c r="C10" s="5">
-        <v>1</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="O10" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Modificar del modulo Maestro, sub-moduloEmpresas Externas</v>
-      </c>
-      <c r="P10" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Maestro, sub-modulo Empresas Externas, hacer clic en boton modificar</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
-        <v>1</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5">
-        <v>1</v>
-      </c>
-      <c r="E11" s="16">
-        <v>1</v>
-      </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8">
-        <v>1</v>
-      </c>
-      <c r="I11" s="16">
-        <v>1</v>
-      </c>
-      <c r="J11" s="9">
-        <v>1</v>
-      </c>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="N11" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="O11" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-moduloEmpresas Externas considerando enlace documentos proveedor para agregar nuevo registro y hacer clic en Enlace Descripción (Modificar y/o Eliminar registro), considerando la opcion exportar a excel, finalizando con la consulta mediante el filtro Nombre con el dato Empresa</v>
-      </c>
-      <c r="P11" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Maestro, sub-modulo Empresas Externas, hacer clic en boton eliminar, hacer clic en enlace documentos proveedor para agregar nuevo registro y hacer clic en Enlace Descripción (Modificar y/o Eliminar registro), hacer clic en boton exportar a excel, finalizando con la consulta mediante el filtro Nombre con el dato Empresa</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
-        <v>1</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5">
-        <v>1</v>
-      </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16">
-        <v>1</v>
-      </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8">
-        <v>1</v>
-      </c>
-      <c r="I12" s="16">
-        <v>1</v>
-      </c>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9">
-        <v>1</v>
-      </c>
-      <c r="L12" s="9"/>
-      <c r="M12" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="N12" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="O12" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-moduloEmpresas Externas considerando enlace documentos proveedor para modificar registro y hacer clic en Enlace Descripción (Modificar y/o Eliminar registro), considerando la opcion exportar a excel, finalizando con la consulta mediante el filtro Nombre corto con el dato EPR</v>
-      </c>
-      <c r="P12" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Maestro, sub-modulo Empresas Externas, hacer clic en boton eliminar, hacer clic en enlace documentos proveedor para modificar registro y hacer clic en Enlace Descripción (Modificar y/o Eliminar registro), hacer clic en boton exportar a excel, finalizando con la consulta mediante el filtro Nombre corto con el dato EPR</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
-        <v>1</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5">
-        <v>1</v>
-      </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="8">
-        <v>1</v>
-      </c>
-      <c r="H13" s="8"/>
-      <c r="I13" s="16">
-        <v>1</v>
-      </c>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9">
-        <v>1</v>
-      </c>
-      <c r="M13" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="N13" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="O13" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-moduloEmpresas Externas considerando enlace documentos proveedor para modificar registro, considerando la opcion exportar a excel, finalizando con la consulta mediante el filtro Descripción
-(Formulario Documentos Proveedor) con el dato PRENDA : Cedula</v>
-      </c>
-      <c r="P13" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Maestro, sub-modulo Empresas Externas, hacer clic en boton eliminar , hacer clic en enlace documentos proveedor para modificar registro, hacer clic en boton exportar a excel, finalizando con la consulta mediante el filtro Descripción
-(Formulario Documentos Proveedor) con el dato PRENDA : Cedula</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
-        <v>1</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5">
-        <v>1</v>
-      </c>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="O14" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-moduloEmpresas Externas</v>
-      </c>
-      <c r="P14" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Maestro, sub-modulo Empresas Externas, hacer clic en boton eliminar</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="5"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="7"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="5"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="7"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="5"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="7"/>
-      <c r="Q17" s="26"/>
-    </row>
-    <row r="18" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
-    </row>
-    <row r="19" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="5"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
-    </row>
-    <row r="20" spans="1:17" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="5"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="O20" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="P20" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="5"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-    </row>
-    <row r="22" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="5"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
-    </row>
-    <row r="23" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="5"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
-    </row>
-    <row r="24" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="5"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="7"/>
-    </row>
-    <row r="25" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="5"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
-    </row>
-    <row r="26" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="5"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="7"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="7"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="7"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="7"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="7"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="7"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="7"/>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="7"/>
-    </row>
-    <row r="34" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="8"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="7"/>
-      <c r="O34" s="12"/>
-      <c r="P34" s="7"/>
-      <c r="Q34" s="7"/>
-    </row>
-    <row r="35" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="7"/>
-      <c r="O35" s="12"/>
-      <c r="P35" s="7"/>
-      <c r="Q35" s="7"/>
-    </row>
-    <row r="36" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="7"/>
-      <c r="O36" s="12"/>
-      <c r="P36" s="7"/>
-      <c r="Q36" s="7"/>
-    </row>
-    <row r="37" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="8"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="7"/>
-      <c r="O37" s="12"/>
-      <c r="P37" s="7"/>
-      <c r="Q37" s="7"/>
-    </row>
-    <row r="38" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="8"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="10"/>
-      <c r="N38" s="7"/>
-      <c r="O38" s="12"/>
-      <c r="P38" s="7"/>
-      <c r="Q38" s="7"/>
-    </row>
-    <row r="39" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="8"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="7"/>
-      <c r="O39" s="12"/>
-      <c r="P39" s="7"/>
-      <c r="Q39" s="7"/>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="8"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="9"/>
-      <c r="L40" s="9"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="7"/>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" s="8"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="9"/>
-      <c r="L41" s="9"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="7"/>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A42" s="8"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="J42" s="9"/>
-      <c r="K42" s="9"/>
-      <c r="L42" s="9"/>
-      <c r="M42" s="10"/>
-      <c r="N42" s="7"/>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="8"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="J43" s="9"/>
-      <c r="K43" s="9"/>
-      <c r="L43" s="9"/>
-      <c r="M43" s="10"/>
-      <c r="N43" s="7"/>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="8"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="J44" s="9"/>
-      <c r="K44" s="9"/>
-      <c r="L44" s="9"/>
-      <c r="M44" s="10"/>
-      <c r="N44" s="7"/>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A45" s="8"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="J45" s="9"/>
-      <c r="K45" s="9"/>
-      <c r="L45" s="9"/>
-      <c r="M45" s="10"/>
-      <c r="N45" s="7"/>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A46" s="8"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="J46" s="9"/>
-      <c r="K46" s="9"/>
-      <c r="L46" s="9"/>
-      <c r="M46" s="10"/>
-      <c r="N46" s="7"/>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="8"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="J47" s="9"/>
-      <c r="K47" s="9"/>
-      <c r="L47" s="9"/>
-      <c r="M47" s="10"/>
-      <c r="N47" s="7"/>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" s="8"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="J48" s="9"/>
-      <c r="K48" s="9"/>
-      <c r="L48" s="9"/>
-      <c r="M48" s="10"/>
-      <c r="N48" s="7"/>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A49" s="8"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="J49" s="9"/>
-      <c r="K49" s="9"/>
-      <c r="L49" s="9"/>
-      <c r="M49" s="10"/>
-      <c r="N49" s="7"/>
-    </row>
-    <row r="50" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="8"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="16"/>
-      <c r="J50" s="9"/>
-      <c r="K50" s="9"/>
-      <c r="L50" s="9"/>
-      <c r="M50" s="10"/>
-      <c r="N50" s="7"/>
-      <c r="O50" s="12"/>
-      <c r="P50" s="7"/>
-      <c r="Q50" s="7"/>
-    </row>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="E1:H1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S50"/>
   <sheetViews>
@@ -7151,88 +4826,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
-        <v>267</v>
-      </c>
-      <c r="B1" s="44" t="s">
-        <v>268</v>
-      </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="55" t="s">
-        <v>274</v>
-      </c>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="42" t="s">
-        <v>281</v>
-      </c>
-      <c r="P1" s="40" t="s">
+      <c r="A1" s="41" t="s">
+        <v>202</v>
+      </c>
+      <c r="B1" s="43" t="s">
+        <v>203</v>
+      </c>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="54" t="s">
+        <v>209</v>
+      </c>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="41" t="s">
+        <v>216</v>
+      </c>
+      <c r="P1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="40" t="s">
+      <c r="Q1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="R1" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="S1" s="40" t="s">
+      <c r="R1" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="S1" s="39" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:19" s="14" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43"/>
+      <c r="A2" s="42"/>
       <c r="B2" s="19" t="s">
-        <v>269</v>
+        <v>204</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>270</v>
+        <v>205</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>271</v>
+        <v>206</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>272</v>
-      </c>
-      <c r="F2" s="37" t="s">
-        <v>273</v>
+        <v>207</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>208</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>275</v>
-      </c>
-      <c r="H2" s="35" t="s">
-        <v>276</v>
+        <v>210</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>211</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>277</v>
+        <v>212</v>
       </c>
       <c r="J2" s="19" t="s">
-        <v>278</v>
+        <v>213</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>279</v>
+        <v>214</v>
       </c>
       <c r="L2" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="M2" s="35" t="s">
-        <v>282</v>
-      </c>
-      <c r="N2" s="23" t="s">
-        <v>283</v>
-      </c>
-      <c r="O2" s="43"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
+        <v>215</v>
+      </c>
+      <c r="M2" s="33" t="s">
+        <v>217</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="O2" s="42"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
     </row>
     <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -7259,7 +4934,7 @@
         <v>1</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>284</v>
+        <v>219</v>
       </c>
       <c r="Q3" s="12" t="str">
         <f>CONCATENATE("Validar funcionalidad Cheques, seleccionando cheque con estado ",IF(B3=1,$B$2,IF(C3=1,$C$2,IF(D3=1,$D$2,IF(E3=1,$E$2,IF(F3=1,$F$2))))),", realizando la acción ",IF(G3=1,$G$2,IF(H3=1,$H$2,IF(I3=1,$I$2,IF(J3=1,$J$2,IF(K3=1,$K$2,IF(L3=1,$L$2,IF(M3=1,$M$2,IF(N3=1,$N$2)))))))),IF(O3=1,", finalizando con exportar a excel.",""))</f>
@@ -7270,7 +4945,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú de Favoritos, sub-modulo Cheques, seleccionar cheque en estado En cartera para realizar acción de Depositar, hacer clic en boton exportar a excel</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>294</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -7296,7 +4971,7 @@
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
       <c r="P4" s="7" t="s">
-        <v>285</v>
+        <v>220</v>
       </c>
       <c r="Q4" s="12" t="str">
         <f t="shared" ref="Q4:Q12" si="0">CONCATENATE("Validar funcionalidad Cheques, seleccionando cheque con estado ",IF(B4=1,$B$2,IF(C4=1,$C$2,IF(D4=1,$D$2,IF(E4=1,$E$2,IF(F4=1,$F$2))))),", realizando la acción ",IF(G4=1,$G$2,IF(H4=1,$H$2,IF(I4=1,$I$2,IF(J4=1,$J$2,IF(K4=1,$K$2,IF(L4=1,$L$2,IF(M4=1,$M$2,IF(N4=1,$N$2)))))))),IF(O4=1,", finalizando con exportar a excel.",""))</f>
@@ -7309,7 +4984,7 @@
 ubiciación</v>
       </c>
       <c r="S4" s="7" t="s">
-        <v>294</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -7337,7 +5012,7 @@
         <v>1</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>286</v>
+        <v>221</v>
       </c>
       <c r="Q5" s="12" t="str">
         <f t="shared" si="0"/>
@@ -7348,7 +5023,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú de Favoritos, sub-modulo Cheques, seleccionar cheque en estado En cartera para realizar acción de Cambio Cheque, hacer clic en boton exportar a excel</v>
       </c>
       <c r="S5" s="7" t="s">
-        <v>294</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -7374,7 +5049,7 @@
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
       <c r="P6" s="7" t="s">
-        <v>287</v>
+        <v>222</v>
       </c>
       <c r="Q6" s="12" t="str">
         <f t="shared" si="0"/>
@@ -7385,7 +5060,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú de Favoritos, sub-modulo Cheques, seleccionar cheque en estado En cartera para realizar acción de Prorroga</v>
       </c>
       <c r="S6" s="7" t="s">
-        <v>294</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -7413,7 +5088,7 @@
         <v>1</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>288</v>
+        <v>223</v>
       </c>
       <c r="Q7" s="12" t="str">
         <f t="shared" si="0"/>
@@ -7426,7 +5101,7 @@
 depositado, hacer clic en boton exportar a excel</v>
       </c>
       <c r="S7" s="7" t="s">
-        <v>294</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -7451,7 +5126,7 @@
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
       <c r="P8" s="7" t="s">
-        <v>289</v>
+        <v>224</v>
       </c>
       <c r="Q8" s="12" t="str">
         <f t="shared" si="0"/>
@@ -7462,7 +5137,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú de Favoritos, sub-modulo Cheques, seleccionar cheque en estado Protestado para realizar acción de Cambio Cheque</v>
       </c>
       <c r="S8" s="7" t="s">
-        <v>294</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -7489,7 +5164,7 @@
         <v>1</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>290</v>
+        <v>225</v>
       </c>
       <c r="Q9" s="12" t="str">
         <f t="shared" si="0"/>
@@ -7502,7 +5177,7 @@
 depositado, hacer clic en boton exportar a excel</v>
       </c>
       <c r="S9" s="7" t="s">
-        <v>294</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -7527,7 +5202,7 @@
       </c>
       <c r="O10" s="8"/>
       <c r="P10" s="7" t="s">
-        <v>291</v>
+        <v>226</v>
       </c>
       <c r="Q10" s="12" t="str">
         <f t="shared" si="0"/>
@@ -7538,7 +5213,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú de Favoritos, sub-modulo Cheques, seleccionar cheque en estado Reemplazado para realizar acción de Comprobante cambio cheque</v>
       </c>
       <c r="S10" s="7" t="s">
-        <v>294</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -7565,7 +5240,7 @@
         <v>1</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>292</v>
+        <v>227</v>
       </c>
       <c r="Q11" s="12" t="str">
         <f t="shared" si="0"/>
@@ -7576,7 +5251,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú de Favoritos, sub-modulo Cheques, seleccionar cheque en estado Deppositado para realizar acción de Cobrar, hacer clic en boton exportar a excel</v>
       </c>
       <c r="S11" s="7" t="s">
-        <v>294</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -7601,7 +5276,7 @@
       <c r="N12" s="8"/>
       <c r="O12" s="8"/>
       <c r="P12" s="7" t="s">
-        <v>293</v>
+        <v>228</v>
       </c>
       <c r="Q12" s="12" t="str">
         <f t="shared" si="0"/>
@@ -7612,7 +5287,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú de Favoritos, sub-modulo Cheques, seleccionar cheque en estado Deppositado para realizar acción de Protesto</v>
       </c>
       <c r="S12" s="7" t="s">
-        <v>294</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -7689,7 +5364,7 @@
       <c r="O17" s="8"/>
       <c r="P17" s="7"/>
       <c r="R17" s="12"/>
-      <c r="S17" s="26"/>
+      <c r="S17" s="24"/>
     </row>
     <row r="18" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
@@ -7815,16 +5490,16 @@
       <c r="N24" s="8"/>
       <c r="O24" s="8"/>
       <c r="P24" s="7" t="s">
-        <v>295</v>
+        <v>230</v>
       </c>
       <c r="Q24" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="R24" s="30" t="s">
-        <v>296</v>
+        <v>233</v>
+      </c>
+      <c r="R24" s="28" t="s">
+        <v>231</v>
       </c>
       <c r="S24" s="7" t="s">
-        <v>297</v>
+        <v>232</v>
       </c>
     </row>
     <row r="25" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8307,7 +5982,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D50"/>
   <sheetViews>
@@ -8325,135 +6000,135 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="40" t="s">
+      <c r="C1" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="39" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="14" customFormat="1" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>132</v>
+        <v>67</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>133</v>
+        <v>68</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>134</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>127</v>
+        <v>62</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>135</v>
+        <v>70</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>137</v>
+        <v>72</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>134</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>128</v>
+        <v>63</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>136</v>
+        <v>71</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>138</v>
+        <v>73</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>134</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>129</v>
+        <v>64</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>139</v>
+        <v>74</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>140</v>
+        <v>75</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>134</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>141</v>
+        <v>76</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>142</v>
+        <v>68</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>143</v>
+        <v>78</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>133</v>
+        <v>68</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>134</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>131</v>
+        <v>66</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>145</v>
+        <v>80</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>133</v>
+        <v>68</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>142</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>147</v>
+        <v>82</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>133</v>
+        <v>68</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>148</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -8463,7 +6138,7 @@
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="C12" s="12"/>
-      <c r="D12" s="26"/>
+      <c r="D12" s="24"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
@@ -8484,7 +6159,7 @@
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="C17" s="12"/>
-      <c r="D17" s="26"/>
+      <c r="D17" s="24"/>
     </row>
     <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
@@ -8513,9 +6188,9 @@
     <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="12"/>
-      <c r="C22" s="30"/>
+      <c r="C22" s="28"/>
       <c r="D22" s="7" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8646,7 +6321,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O50"/>
   <sheetViews>
@@ -8673,72 +6348,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="57" t="s">
-        <v>165</v>
-      </c>
-      <c r="B1" s="44" t="s">
-        <v>191</v>
-      </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="47" t="s">
+      <c r="A1" s="56" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="40" t="s">
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="40" t="s">
+      <c r="M1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="O1" s="40" t="s">
+      <c r="N1" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="39" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="14" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43"/>
+      <c r="A2" s="42"/>
       <c r="B2" s="19" t="s">
-        <v>166</v>
+        <v>101</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>167</v>
+        <v>102</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="E2" s="32" t="s">
-        <v>169</v>
+        <v>103</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>104</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>170</v>
+        <v>105</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>171</v>
+        <v>106</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>172</v>
+        <v>107</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>173</v>
+        <v>108</v>
       </c>
       <c r="J2" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
+        <v>109</v>
+      </c>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -8761,7 +6436,7 @@
       <c r="J3" s="8"/>
       <c r="K3" s="16"/>
       <c r="L3" s="7" t="s">
-        <v>175</v>
+        <v>110</v>
       </c>
       <c r="M3" s="12" t="str">
         <f>CONCATENATE("Validar funcionalidad ",IF(B3=1,$B$2,IF(C3=1,$C$2,IF(D3=1,$D$2,IF(E3=1,$E$2))))," del Menú Favoritos, sub-modulo Pagarés, considerando la opción ",IF(H3=1,$H$2,IF(I3=1,$I$2,IF(J3=1,$J$2,""))), " y ",IF(F3=1,$F$2,$G$2),IF(K3=1,". Finalizando con exportar a excel",""))</f>
@@ -8772,7 +6447,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Menú favoritos, sub-modulo Pagarés, ingresar a Carta guía Pagare, realizando la(s) accion(es) Exportar carta guía Agregar Pagares</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>192</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8796,7 +6471,7 @@
       <c r="J4" s="8"/>
       <c r="K4" s="16"/>
       <c r="L4" s="7" t="s">
-        <v>176</v>
+        <v>111</v>
       </c>
       <c r="M4" s="12" t="str">
         <f t="shared" ref="M4:M18" si="0">CONCATENATE("Validar funcionalidad ",IF(B4=1,$B$2,IF(C4=1,$C$2,IF(D4=1,$D$2,IF(E4=1,$E$2))))," del Menú Favoritos, sub-modulo Pagarés, considerando la opción ",IF(H4=1,$H$2,IF(I4=1,$I$2,IF(J4=1,$J$2,""))), " y ",IF(F4=1,$F$2,$G$2),IF(K4=1,". Finalizando con exportar a excel",""))</f>
@@ -8807,7 +6482,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Menú favoritos, sub-modulo Pagarés, ingresar a Carta guía Pagare, realizando la(s) accion(es) Exportar carta guía Eliminar Pagare</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>193</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8831,7 +6506,7 @@
       </c>
       <c r="K5" s="16"/>
       <c r="L5" s="7" t="s">
-        <v>177</v>
+        <v>112</v>
       </c>
       <c r="M5" s="12" t="str">
         <f t="shared" si="0"/>
@@ -8842,7 +6517,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Menú favoritos, sub-modulo Pagarés, ingresar a Carta guía Pagare, realizando la(s) accion(es) Exportar carta guía Aprobar carta guía</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>194</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8866,7 +6541,7 @@
         <v>1</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>178</v>
+        <v>113</v>
       </c>
       <c r="M6" s="12" t="str">
         <f t="shared" si="0"/>
@@ -8877,7 +6552,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Menú favoritos, sub-modulo Pagarés, ingresar a Carta guía Pagare, realizando la(s) accion(es) Eliminar carta guía Exportar a Excel</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>195</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8900,7 +6575,7 @@
       <c r="J7" s="8"/>
       <c r="K7" s="16"/>
       <c r="L7" s="7" t="s">
-        <v>179</v>
+        <v>114</v>
       </c>
       <c r="M7" s="12" t="str">
         <f t="shared" si="0"/>
@@ -8911,7 +6586,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Menú favoritos, sub-modulo Pagarés, ingresar a Carta Guía Traslado, realizando la(s) accion(es) Exportar carta guía Agregar Pagares</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>192</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8934,7 +6609,7 @@
       <c r="J8" s="8"/>
       <c r="K8" s="16"/>
       <c r="L8" s="7" t="s">
-        <v>180</v>
+        <v>115</v>
       </c>
       <c r="M8" s="12" t="str">
         <f t="shared" si="0"/>
@@ -8945,7 +6620,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Menú favoritos, sub-modulo Pagarés, ingresar a Carta Guía Traslado, realizando la(s) accion(es) Exportar carta guía Eliminar Pagare</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>193</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8968,7 +6643,7 @@
       </c>
       <c r="K9" s="16"/>
       <c r="L9" s="7" t="s">
-        <v>181</v>
+        <v>116</v>
       </c>
       <c r="M9" s="12" t="str">
         <f t="shared" si="0"/>
@@ -8979,7 +6654,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Menú favoritos, sub-modulo Pagarés, ingresar a Carta Guía Traslado, realizando la(s) accion(es) Exportar carta guía Aprobar carta guía</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>194</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -9002,7 +6677,7 @@
         <v>1</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>182</v>
+        <v>117</v>
       </c>
       <c r="M10" s="12" t="str">
         <f t="shared" si="0"/>
@@ -9013,7 +6688,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Menú favoritos, sub-modulo Pagarés, ingresar a Carta Guía Traslado, realizando la(s) accion(es) Eliminar carta guía Exportar a Excel</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>195</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -9034,7 +6709,7 @@
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="L11" s="7" t="s">
-        <v>183</v>
+        <v>118</v>
       </c>
       <c r="M11" s="12" t="str">
         <f t="shared" si="0"/>
@@ -9045,7 +6720,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Menú favoritos, sub-modulo Pagarés, ingresar a Importar Carta Guía, realizando la(s) accion(es) Exportar carta guía Agregar Pagares</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>192</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -9066,7 +6741,7 @@
       </c>
       <c r="J12" s="8"/>
       <c r="L12" s="7" t="s">
-        <v>184</v>
+        <v>119</v>
       </c>
       <c r="M12" s="12" t="str">
         <f t="shared" si="0"/>
@@ -9077,7 +6752,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Menú favoritos, sub-modulo Pagarés, ingresar a Importar Carta Guía, realizando la(s) accion(es) Exportar carta guía Eliminar Pagare</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>193</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -9098,7 +6773,7 @@
         <v>1</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>185</v>
+        <v>120</v>
       </c>
       <c r="M13" s="12" t="str">
         <f t="shared" si="0"/>
@@ -9109,7 +6784,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Menú favoritos, sub-modulo Pagarés, ingresar a Importar Carta Guía, realizando la(s) accion(es) Exportar carta guía Aprobar carta guía</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>194</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -9131,7 +6806,7 @@
         <v>1</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>186</v>
+        <v>121</v>
       </c>
       <c r="M14" s="12" t="str">
         <f t="shared" si="0"/>
@@ -9142,7 +6817,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Menú favoritos, sub-modulo Pagarés, ingresar a Importar Carta Guía, realizando la(s) accion(es) Eliminar carta guía Exportar a Excel</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>195</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -9162,7 +6837,7 @@
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="L15" s="7" t="s">
-        <v>187</v>
+        <v>122</v>
       </c>
       <c r="M15" s="12" t="str">
         <f t="shared" si="0"/>
@@ -9173,7 +6848,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Menú favoritos, sub-modulo Pagarés, ingresar a Importar Recompras, realizando la(s) accion(es) Exportar carta guía Agregar Pagares</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>192</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -9193,7 +6868,7 @@
       </c>
       <c r="J16" s="8"/>
       <c r="L16" s="7" t="s">
-        <v>188</v>
+        <v>123</v>
       </c>
       <c r="M16" s="12" t="str">
         <f t="shared" si="0"/>
@@ -9204,7 +6879,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Menú favoritos, sub-modulo Pagarés, ingresar a Importar Recompras, realizando la(s) accion(es) Exportar carta guía Eliminar Pagare</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>193</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -9224,7 +6899,7 @@
         <v>1</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>189</v>
+        <v>124</v>
       </c>
       <c r="M17" s="12" t="str">
         <f t="shared" si="0"/>
@@ -9235,7 +6910,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Menú favoritos, sub-modulo Pagarés, ingresar a Importar Recompras, realizando la(s) accion(es) Exportar carta guía Aprobar carta guía</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>194</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -9257,7 +6932,7 @@
         <v>1</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>190</v>
+        <v>125</v>
       </c>
       <c r="M18" s="12" t="str">
         <f t="shared" si="0"/>
@@ -9268,7 +6943,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar al modulo Menú favoritos, sub-modulo Pagarés, ingresar a Importar Recompras, realizando la(s) accion(es) Eliminar carta guía Exportar a Excel</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>195</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -9300,7 +6975,7 @@
       <c r="K20" s="16"/>
       <c r="L20" s="7"/>
       <c r="M20" s="12"/>
-      <c r="N20" s="30"/>
+      <c r="N20" s="28"/>
       <c r="O20" s="7"/>
     </row>
     <row r="21" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -9707,83 +7382,83 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C6" sqref="C6"/>
+      <selection pane="topRight" activeCell="D3" sqref="D3:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="51.7109375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="50.42578125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="58.5703125" style="12" customWidth="1"/>
     <col min="3" max="3" width="255.42578125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="79" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="114" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="40" t="s">
+      <c r="C1" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="39" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>64</v>
+        <v>234</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>67</v>
+        <v>237</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>70</v>
+        <v>240</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>71</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>65</v>
+        <v>235</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>68</v>
+        <v>238</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>73</v>
+        <v>240</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>71</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>66</v>
+        <v>236</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>69</v>
+        <v>239</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>74</v>
+        <v>240</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>72</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -9796,7 +7471,7 @@
       <c r="A7" s="7"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
-      <c r="D7" s="26"/>
+      <c r="D7" s="24"/>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
@@ -9821,7 +7496,7 @@
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="C12" s="12"/>
-      <c r="D12" s="26"/>
+      <c r="D12" s="24"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
@@ -9842,7 +7517,7 @@
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="C17" s="12"/>
-      <c r="D17" s="26"/>
+      <c r="D17" s="24"/>
     </row>
     <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
@@ -9877,7 +7552,7 @@
     <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="12"/>
-      <c r="C23" s="30"/>
+      <c r="C23" s="28"/>
       <c r="D23" s="7"/>
     </row>
     <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -10000,4 +7675,870 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="12" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L12" sqref="L12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="5" customWidth="1"/>
+    <col min="3" max="6" width="4.85546875" style="13" customWidth="1"/>
+    <col min="7" max="7" width="5.140625" style="3" customWidth="1"/>
+    <col min="8" max="10" width="4.42578125" customWidth="1"/>
+    <col min="11" max="11" width="4.42578125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="56.140625" style="6" customWidth="1"/>
+    <col min="13" max="13" width="255.42578125" style="12" customWidth="1"/>
+    <col min="14" max="14" width="255.42578125" style="7" customWidth="1"/>
+    <col min="15" max="15" width="79" style="7" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>243</v>
+      </c>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="39" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="14" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="57"/>
+      <c r="B2" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="G2" s="38" t="s">
+        <v>249</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="K2" s="27" t="s">
+        <v>253</v>
+      </c>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+    </row>
+    <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="5">
+        <v>1</v>
+      </c>
+      <c r="I3" s="5">
+        <v>1</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="7"/>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5">
+        <v>1</v>
+      </c>
+      <c r="K4" s="8"/>
+      <c r="L4" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="7"/>
+    </row>
+    <row r="5" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>1</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="5">
+        <v>1</v>
+      </c>
+      <c r="I5" s="5">
+        <v>1</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="7"/>
+    </row>
+    <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5">
+        <v>1</v>
+      </c>
+      <c r="K6" s="8"/>
+      <c r="L6" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>1</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="5">
+        <v>1</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="8">
+        <v>1</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="24"/>
+    </row>
+    <row r="8" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5">
+        <v>1</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5">
+        <v>1</v>
+      </c>
+      <c r="K8" s="8"/>
+      <c r="L8" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="7"/>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="5">
+        <v>1</v>
+      </c>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5">
+        <v>1</v>
+      </c>
+      <c r="K9" s="8"/>
+      <c r="L9" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="7"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5">
+        <v>1</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="5">
+        <v>1</v>
+      </c>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5">
+        <v>1</v>
+      </c>
+      <c r="K10" s="8"/>
+      <c r="L10" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="N10" s="12"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="8">
+        <v>1</v>
+      </c>
+      <c r="H11" s="5">
+        <v>1</v>
+      </c>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5">
+        <v>1</v>
+      </c>
+      <c r="K11" s="8"/>
+      <c r="L11" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="N11" s="12"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>1</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="N12" s="12"/>
+      <c r="O12" s="24"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>1</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="N13" s="12"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>1</v>
+      </c>
+      <c r="G14" s="8"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="N14" s="12"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="7"/>
+      <c r="N15" s="12"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="7"/>
+      <c r="N16" s="12"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="7"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="24"/>
+    </row>
+    <row r="18" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+    </row>
+    <row r="19" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="5"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+    </row>
+    <row r="20" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="5"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+    </row>
+    <row r="21" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="5"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+    </row>
+    <row r="22" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="5"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="7"/>
+    </row>
+    <row r="23" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="5"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+    </row>
+    <row r="24" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="5"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+    </row>
+    <row r="25" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="5"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+    </row>
+    <row r="26" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="5"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="7"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="8"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="7"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="8"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="7"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="7"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="8"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="7"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="8"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="7"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="8"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="7"/>
+    </row>
+    <row r="34" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="8"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+    </row>
+    <row r="35" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="8"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+    </row>
+    <row r="36" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="8"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+    </row>
+    <row r="37" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="8"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+    </row>
+    <row r="38" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="8"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+    </row>
+    <row r="39" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="8"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="8"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="7"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="8"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="7"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="8"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="7"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" s="8"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="7"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" s="8"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="7"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" s="8"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="7"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" s="8"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="7"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47" s="8"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="7"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48" s="8"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="7"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A49" s="8"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="7"/>
+    </row>
+    <row r="50" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="8"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="12"/>
+      <c r="N50" s="7"/>
+      <c r="O50" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="L1:L2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Casos Cartera/MenuFavorios.xlsx
+++ b/Casos Cartera/MenuFavorios.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="296">
   <si>
     <t>Nombre CP</t>
   </si>
@@ -791,9 +791,6 @@
     <t>Bitácora</t>
   </si>
   <si>
-    <t>Dtco Recibidos</t>
-  </si>
-  <si>
     <t>Cambiar Tipo de Pago</t>
   </si>
   <si>
@@ -834,6 +831,99 @@
   </si>
   <si>
     <t>TC_Cartera_AdminMediosPagos_SinMedioPago</t>
+  </si>
+  <si>
+    <t>Validar ingreso de acuso de recibo, a crédito que tiene tipo de pago PAC</t>
+  </si>
+  <si>
+    <t>Validar ingreso de acuso de recibo, a crédito que tiene tipo de pago PAT</t>
+  </si>
+  <si>
+    <t>Validar cambio de pago, a crédito que tiene tipo de pago PAC</t>
+  </si>
+  <si>
+    <t>Validar cambio de pago, a crédito que tiene tipo de pago PAT</t>
+  </si>
+  <si>
+    <t>Validar confección de cuponera a crédito que tiene tipo de pago cuponera</t>
+  </si>
+  <si>
+    <t>Validar cambio de pago a crédito que tiene tipo de pago cuponera</t>
+  </si>
+  <si>
+    <t>Validar cambio de pago a crédito que tiene tipo de pago Funcionario</t>
+  </si>
+  <si>
+    <t>Validar cambio de pago a crédito que tiene tipo de pago Seguro Cesantía</t>
+  </si>
+  <si>
+    <t>Validar cambio de pago a crédito que tiene no tiene medio de pago</t>
+  </si>
+  <si>
+    <t>Validar impresión de nóminas, considerando todas las opciones de nóminas</t>
+  </si>
+  <si>
+    <t>Validar carga de archivo excel, el cual contiene los créditos con tipo de pago PAC</t>
+  </si>
+  <si>
+    <t>Validar carga de archivo excel, el cual contiene los créditos con tipo de pago PAT</t>
+  </si>
+  <si>
+    <t>Dcto Recibidos</t>
+  </si>
+  <si>
+    <t>Se debe generar archivo PDF de acuso recibo y visualizar paso realizado en bitácora</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú Favoritos - sub modulo Administración Medios de Pago, filtrar registros por tipo de pago PAC, hacer clic en boton Dcto Recibidos, ingresar comentario, hacer clic en boton confirmar, hacer clic en boton ver bitácora</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú Favoritos - sub modulo Administración Medios de Pago, filtrar registros por tipo de pago PAC, hacer clic en boton cambiar tipo de pago, seleccionar tipo de pago seguro cesantía, ingresar comentario, hacer clic en boton confirmar, hacer clic en boton confirmar medio de pago, ingresar comentario, hacer clic en boton confirmar.</t>
+  </si>
+  <si>
+    <t>Cambio de tipo de pago, se debe visualizar en la consulta</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú Favoritos - sub modulo Administración Medios de Pago, filtrar registros por tipo de pago PAT, hacer clic en boton Dcto Recibidos, ingresar comentario, hacer clic en boton confirmar, hacer clic en boton ver bitácora</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú Favoritos - sub modulo Administración Medios de Pago, filtrar registros por tipo de pago PAT, hacer clic en boton cambiar tipo de pago, seleccionar tipo de pago funcionario, ingresar comentario, hacer clic en boton confirmar, hacer clic en boton confirmar medio de pago, ingresar comentario, hacer clic en boton confirmar.</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú Favoritos - sub modulo Administración Medios de Pago, filtrar registros por tipo de pago cuponera, hacer clic en boton cambiar confeccionar cuponera, ingresar comentario, hacer clic en boton confirmar, hacer clic en boton confirmar cuponera, ingresar comentario, ingresar descripción, cargar archivo de cuponera, hacer clic en boton confirmar, hacer clic en boton bitácora.</t>
+  </si>
+  <si>
+    <t>Cuponera confirmada, se debe visualizar los pasos realizados en bitácora</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú Favoritos - sub modulo Administración Medios de Pago, filtrar registros por tipo de pago cuponera, hacer clic en boton cambiar tipo de pago, seleccionar tipo de pago PAC, ingresar comentario, hacer clic en boton confirmar, hacer clic en boton confirmar medio de pago, ingresar comentario, hacer clic en boton confirmar.</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú Favoritos - sub modulo Administración Medios de Pago, filtrar registros por tipo de pago funcionario, hacer clic en boton cambiar tipo de pago, seleccionar tipo de pago PAT, ingresar comentario, hacer clic en boton confirmar, hacer clic en boton confirmar medio de pago, ingresar comentario, hacer clic en boton confirmar.</t>
+  </si>
+  <si>
+    <t>Cambio de tipo de pago, se debe visualizar en la consulta y bitácora</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú Favoritos - sub modulo Administración Medios de Pago, filtrar registros por tipo de pago seguro cesantía, hacer clic en boton cambiar tipo de pago, seleccionar tipo de pago sin medio de pago, ingresar comentario, hacer clic en boton confirmar, hacer clic en boton confirmar medio de pago, ingresar comentario, hacer clic en boton confirmar.</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú Favoritos - sub modulo Administración Medios de Pago, filtrar registros por tipo de pago sin medio pago, hacer clic en boton cambiar tipo de pago, seleccionar tipo de pago PAC, ingresar comentario, hacer clic en boton confirmar, hacer clic en boton confirmar medio de pago, ingresar comentario, hacer clic en boton confirmar.</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú Favoritos - sub modulo Administración Medios de Pago, hacer clic en boton imprimir nómina, seleccionar tipo de nómina, hacer clic en boton confirmar.</t>
+  </si>
+  <si>
+    <t>Emisión de archivo PDF ficha de control de despacho de PAC.</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú Favoritos - sub modulo Administración Medios de Pago, hacer clic en boton actualizar PAC, seleccionar archivo excel con créditos con tipo de pago PAC</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú Favoritos - sub modulo Administración Medios de Pago, hacer clic en boton actualizar PAC, seleccionar archivo excel con créditos con tipo de pago PAT</t>
+  </si>
+  <si>
+    <t>Carga de archivo de manera exitosa, se debe visualizar los nuevos registros</t>
   </si>
 </sst>
 </file>
@@ -7388,7 +7478,7 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D3" sqref="D3:D5"/>
+      <selection pane="topRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7682,8 +7772,8 @@
   <dimension ref="A1:O50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="12" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L12" sqref="L12"/>
+      <pane xSplit="12" topLeftCell="O1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="O13" sqref="O13:O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7695,9 +7785,9 @@
     <col min="8" max="10" width="4.42578125" customWidth="1"/>
     <col min="11" max="11" width="4.42578125" style="3" customWidth="1"/>
     <col min="12" max="12" width="56.140625" style="6" customWidth="1"/>
-    <col min="13" max="13" width="255.42578125" style="12" customWidth="1"/>
+    <col min="13" max="13" width="80.28515625" style="12" customWidth="1"/>
     <col min="14" max="14" width="255.42578125" style="7" customWidth="1"/>
-    <col min="15" max="15" width="79" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="83.85546875" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7755,13 +7845,13 @@
         <v>250</v>
       </c>
       <c r="I2" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="J2" s="19" t="s">
         <v>251</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="K2" s="27" t="s">
         <v>252</v>
-      </c>
-      <c r="K2" s="27" t="s">
-        <v>253</v>
       </c>
       <c r="L2" s="40"/>
       <c r="M2" s="40"/>
@@ -7789,11 +7879,17 @@
       <c r="J3" s="5"/>
       <c r="K3" s="8"/>
       <c r="L3" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="7"/>
+        <v>256</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
@@ -7814,11 +7910,17 @@
       </c>
       <c r="K4" s="8"/>
       <c r="L4" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="7"/>
+        <v>257</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="5" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
@@ -7841,11 +7943,17 @@
       <c r="J5" s="5"/>
       <c r="K5" s="8"/>
       <c r="L5" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="7"/>
+        <v>258</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
@@ -7866,11 +7974,17 @@
       </c>
       <c r="K6" s="8"/>
       <c r="L6" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="7"/>
+        <v>259</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="7" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
@@ -7893,11 +8007,17 @@
         <v>1</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="24"/>
+        <v>260</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="O7" s="24" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="8" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
@@ -7917,11 +8037,17 @@
       </c>
       <c r="K8" s="8"/>
       <c r="L8" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="7"/>
+        <v>261</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="9" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
@@ -7943,11 +8069,17 @@
       </c>
       <c r="K9" s="8"/>
       <c r="L9" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="7"/>
+        <v>263</v>
+      </c>
+      <c r="M9" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
@@ -7969,9 +8101,17 @@
       </c>
       <c r="K10" s="8"/>
       <c r="L10" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="N10" s="12"/>
+        <v>262</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
@@ -7993,9 +8133,17 @@
       </c>
       <c r="K11" s="8"/>
       <c r="L11" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="N11" s="12"/>
+        <v>264</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
@@ -8011,10 +8159,17 @@
       <c r="J12" s="5"/>
       <c r="K12" s="8"/>
       <c r="L12" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="N12" s="12"/>
-      <c r="O12" s="24"/>
+        <v>253</v>
+      </c>
+      <c r="M12" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="O12" s="24" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
@@ -8026,9 +8181,17 @@
       <c r="J13" s="5"/>
       <c r="K13" s="8"/>
       <c r="L13" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="N13" s="12"/>
+        <v>254</v>
+      </c>
+      <c r="M13" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
@@ -8040,9 +8203,17 @@
       <c r="J14" s="5"/>
       <c r="K14" s="8"/>
       <c r="L14" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="N14" s="12"/>
+        <v>255</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
@@ -8530,13 +8701,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="L1:L2"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:N2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="L1:L2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Casos Cartera/MenuFavorios.xlsx
+++ b/Casos Cartera/MenuFavorios.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ManuelV\Documents\GitHub\Global-Testing\Casos Cartera\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Global-Testing\Casos Cartera\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{261BAB7A-05B4-438F-A182-3B880E122D30}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" tabRatio="787" firstSheet="4" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" tabRatio="787" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Créditos" sheetId="15" r:id="rId1"/>
@@ -26,12 +27,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Créditos!$A$2:$T$50</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="299">
   <si>
     <t>Nombre CP</t>
   </si>
@@ -924,12 +925,21 @@
   </si>
   <si>
     <t>Carga de archivo de manera exitosa, se debe visualizar los nuevos registros</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú favoritos, sub-modulo Generar Prepago, seleccionar opcion Prepago del combo tipo de prepago, seleccionar opcion 5% del combo costas judiciales, indicar fecha igual o mayor a la actual, ingresar numero de operacion que no tenga deuda por pagar</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú favoritos, sub-modulo Generar Prepago, seleccionar opcion Prepago del combo tipo de prepago, seleccionar opcion 5% del combo costas judiciales, indicar fecha igual o mayor a la actual, ingresar numero de operacion que ha sido procesado anteriormente</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Menú favoritos, sub-modulo Generar Prepago, seleccionar opcion Prepago del combo tipo de prepago, seleccionar opcion 5% del combo costas judiciales, indicar fecha menor a la actual, ingresar numero de operacion que tenga deuda por pagar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1303,6 +1313,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1338,6 +1365,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1513,7 +1557,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P50"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -2656,7 +2700,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -2950,7 +2994,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -3303,7 +3347,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -3611,7 +3655,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q48"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -4892,7 +4936,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:S50"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -6073,12 +6117,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6173,7 +6217,7 @@
         <v>76</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>68</v>
+        <v>296</v>
       </c>
       <c r="D7" s="24" t="s">
         <v>77</v>
@@ -6201,7 +6245,7 @@
         <v>80</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>68</v>
+        <v>297</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>77</v>
@@ -6215,7 +6259,7 @@
         <v>82</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>68</v>
+        <v>298</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>83</v>
@@ -6412,7 +6456,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:O50"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -7473,7 +7517,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -7768,12 +7812,12 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="12" topLeftCell="O1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O13" sqref="O13:O14"/>
+      <selection pane="topRight" activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
